--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -614,22 +614,22 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Ethanol GWP [kg*CO2*eq / (ethanol*gal)]</t>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / (crude-glycerol*gal)]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>Ethanol GWP derivative [kg*CO2*eq / (ethanol*gal)]</t>
+          <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel GWP derivative [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP derivative [kg*CO2*eq / (crude-glycerol*gal)]</t>
+          <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2094929492949295</v>
+        <v>-0.2114611461146114</v>
       </c>
       <c r="D4" t="n">
         <v>0.005592559255925592</v>
@@ -722,32 +722,32 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-0.08050634078909524</v>
+        <v>-0.06885023747049217</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08309630963096309</v>
+        <v>0.0872127212721272</v>
       </c>
       <c r="I4" t="n">
         <v>0.06405040504050405</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.02519051905190519</v>
+        <v>0.01467746774677468</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01902190219021902</v>
+        <v>-0.008496849684968496</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01902190219021902</v>
+        <v>-0.008496849684968496</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.01902190219021902</v>
+        <v>-0.008496849684968496</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01902190219021902</v>
+        <v>-0.008496849684968496</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.03719171917191719</v>
+        <v>-0.04067206720672066</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.252985298529853</v>
@@ -757,22 +757,22 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>0.105090995368394</v>
+        <v>0.1065435066985186</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1722772277227723</v>
+        <v>0.1759135913591359</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07338733873387339</v>
+        <v>0.07433543354335433</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07338733873387339</v>
+        <v>0.07433543354335433</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07338733873387339</v>
+        <v>0.07433543354335433</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07338733873387339</v>
+        <v>0.07433543354335433</v>
       </c>
       <c r="Z4" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.003348334833483348</v>
+        <v>-0.00294029402940294</v>
       </c>
       <c r="D5" t="n">
         <v>0.1995559555955596</v>
@@ -794,32 +794,32 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-0.01904470434084837</v>
+        <v>-0.02718356947989356</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1071587158715871</v>
+        <v>-0.1067746774677468</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1119111911191119</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03107110711071107</v>
+        <v>-0.04357635763576357</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08454845484548452</v>
+        <v>-0.0911131113111311</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.08454845484548452</v>
+        <v>-0.0911131113111311</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.08454845484548452</v>
+        <v>-0.0911131113111311</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08454845484548452</v>
+        <v>-0.0911131113111311</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.2048604860486048</v>
+        <v>0.2064206420642064</v>
       </c>
       <c r="Q5" t="n">
         <v>0.8256585658565856</v>
@@ -829,22 +829,22 @@
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>-0.006212186887103077</v>
+        <v>-0.005059781203698448</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1024302430243024</v>
+        <v>-0.1047104710471047</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0408040804080408</v>
+        <v>-0.0405040504050405</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0408040804080408</v>
+        <v>-0.0405040504050405</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.0408040804080408</v>
+        <v>-0.0405040504050405</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0408040804080408</v>
+        <v>-0.0405040504050405</v>
       </c>
       <c r="Z5" t="inlineStr"/>
     </row>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2376837683768377</v>
+        <v>0.2375997599759976</v>
       </c>
       <c r="D6" t="n">
         <v>-0.04313231323132313</v>
@@ -866,32 +866,32 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.006752377051198997</v>
+        <v>0.01441107315549226</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8942694269426942</v>
+        <v>0.8944134413441344</v>
       </c>
       <c r="I6" t="n">
         <v>0.9561716171617161</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1282448244824482</v>
+        <v>-0.107026702670267</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01332133213321332</v>
+        <v>0.0202100210021002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01332133213321332</v>
+        <v>0.0202100210021002</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01332133213321332</v>
+        <v>0.0202100210021002</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01332133213321332</v>
+        <v>0.0202100210021002</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.09509750975097507</v>
+        <v>-0.09704170417041702</v>
       </c>
       <c r="Q6" t="n">
         <v>-0.173969396939694</v>
@@ -901,22 +901,22 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.2153017930698304</v>
+        <v>0.2169103593362494</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1295649564956496</v>
+        <v>0.1320852085208521</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1057065706570657</v>
+        <v>0.1062706270627063</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1057065706570657</v>
+        <v>0.1062706270627063</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1057065706570657</v>
+        <v>0.1062706270627063</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1057065706570657</v>
+        <v>0.1062706270627063</v>
       </c>
       <c r="Z6" t="inlineStr"/>
     </row>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6318751875187518</v>
+        <v>0.6320312031203118</v>
       </c>
       <c r="D7" t="n">
         <v>0.02951095109510951</v>
@@ -942,32 +942,32 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.05726015739416749</v>
+        <v>-0.05866465182081688</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.009756975697569756</v>
+        <v>-0.01238523852385238</v>
       </c>
       <c r="I7" t="n">
         <v>0.004668466846684667</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.05779777977797779</v>
+        <v>-0.07267926792679266</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.07621962196219621</v>
+        <v>-0.07680768076807679</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.07621962196219621</v>
+        <v>-0.07680768076807679</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.07621962196219621</v>
+        <v>-0.07680768076807679</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07621962196219621</v>
+        <v>-0.07680768076807679</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.285076507650765</v>
+        <v>-0.284080408040804</v>
       </c>
       <c r="Q7" t="n">
         <v>0.07563156315631561</v>
@@ -977,22 +977,22 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>-0.02650533071830646</v>
+        <v>-0.02852204066426457</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1423702370237024</v>
+        <v>-0.1441464146414641</v>
       </c>
       <c r="V7" t="n">
-        <v>0.006048604860486049</v>
+        <v>0.005916591659165916</v>
       </c>
       <c r="W7" t="n">
-        <v>0.006048604860486049</v>
+        <v>0.005916591659165916</v>
       </c>
       <c r="X7" t="n">
-        <v>0.006048604860486049</v>
+        <v>0.005916591659165916</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.006048604860486049</v>
+        <v>0.005916591659165916</v>
       </c>
       <c r="Z7" t="inlineStr"/>
     </row>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.482064206420642</v>
+        <v>0.4827602760276026</v>
       </c>
       <c r="D8" t="n">
         <v>0.06777077707770776</v>
@@ -1018,32 +1018,32 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.1782027330223095</v>
+        <v>-0.1830644444991728</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0431083108310831</v>
+        <v>-0.04511251125112511</v>
       </c>
       <c r="I8" t="n">
         <v>0.001404140414041404</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00198019801980198</v>
+        <v>-0.01270927092709271</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.06061806180618062</v>
+        <v>-0.063018301830183</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06061806180618062</v>
+        <v>-0.063018301830183</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.06061806180618062</v>
+        <v>-0.063018301830183</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06061806180618062</v>
+        <v>-0.063018301830183</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.7987038703870385</v>
+        <v>0.7981878187818781</v>
       </c>
       <c r="Q8" t="n">
         <v>-0.06699069906990698</v>
@@ -1053,22 +1053,22 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0.03540046208708594</v>
+        <v>0.03600067338052585</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.03984398439843984</v>
+        <v>-0.04193219321932192</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0758115811581158</v>
+        <v>0.07525952595259526</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0758115811581158</v>
+        <v>0.07525952595259526</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0758115811581158</v>
+        <v>0.07525952595259526</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0758115811581158</v>
+        <v>0.07525952595259526</v>
       </c>
       <c r="Z8" t="inlineStr"/>
     </row>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1482148214821482</v>
+        <v>0.1478547854785479</v>
       </c>
       <c r="D9" t="n">
         <v>-0.0104050405040504</v>
@@ -1094,32 +1094,32 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.0007622683426686867</v>
+        <v>-0.004303514973964161</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.007284728472847284</v>
+        <v>-0.008388838883888389</v>
       </c>
       <c r="I9" t="n">
         <v>0.04094809480948094</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01994599459945995</v>
+        <v>-0.03181518151815181</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0673987398739874</v>
+        <v>0.06294629462946294</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0673987398739874</v>
+        <v>0.06294629462946294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0673987398739874</v>
+        <v>0.06294629462946294</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0673987398739874</v>
+        <v>0.06294629462946294</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.1424062406240624</v>
+        <v>0.1408340834083408</v>
       </c>
       <c r="Q9" t="n">
         <v>-0.1082748274827483</v>
@@ -1129,22 +1129,22 @@
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0.0666534641365021</v>
+        <v>0.06608926552066857</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06676267626762676</v>
+        <v>0.06522652265226522</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0781158115811581</v>
+        <v>0.0774077407740774</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0781158115811581</v>
+        <v>0.0774077407740774</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0781158115811581</v>
+        <v>0.0774077407740774</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0781158115811581</v>
+        <v>0.0774077407740774</v>
       </c>
       <c r="Z9" t="inlineStr"/>
     </row>
@@ -1156,11 +1156,11 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWh]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.0812961296129613</v>
+        <v>-0.08216021602160216</v>
       </c>
       <c r="D10" t="n">
         <v>-0.08933693369336933</v>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.1740252624199677</v>
+        <v>0.1723566750242048</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04576057605760576</v>
+        <v>-0.04484848484848484</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0417041704170417</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04081608160816081</v>
+        <v>0.0363036303630363</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1385658565856586</v>
+        <v>0.1369576957695769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1385658565856586</v>
+        <v>0.1369576957695769</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1385658565856586</v>
+        <v>0.1369576957695769</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1385658565856586</v>
+        <v>0.1369576957695769</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.05604560456045604</v>
+        <v>0.05621362136213621</v>
       </c>
       <c r="Q10" t="n">
         <v>0.09150915091509149</v>
@@ -1205,22 +1205,22 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>-0.01858254164489964</v>
+        <v>-0.01807836415841011</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.1139153915391539</v>
+        <v>-0.1149474947494749</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.07726372637263725</v>
+        <v>-0.07783978397839783</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.07726372637263725</v>
+        <v>-0.07783978397839783</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.07726372637263725</v>
+        <v>-0.07783978397839783</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.07726372637263725</v>
+        <v>-0.07783978397839783</v>
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2002880288028802</v>
+        <v>0.2000960096009601</v>
       </c>
       <c r="D11" t="n">
         <v>0.1237803780378038</v>
@@ -1242,32 +1242,32 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.104970953109706</v>
+        <v>-0.1112251547873499</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.04219621962196219</v>
+        <v>-0.04286828682868286</v>
       </c>
       <c r="I11" t="n">
         <v>0.2451005100510051</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01474947494749475</v>
+        <v>-0.03584758475847585</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.06947494749474946</v>
+        <v>-0.07755175517551754</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.06947494749474946</v>
+        <v>-0.07755175517551754</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.06947494749474946</v>
+        <v>-0.07755175517551754</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06947494749474946</v>
+        <v>-0.07755175517551754</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.08122412241224122</v>
+        <v>-0.08067206720672067</v>
       </c>
       <c r="Q11" t="n">
         <v>-0.07044704470447044</v>
@@ -1277,22 +1277,22 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0.1109610618182363</v>
+        <v>0.1108770322371547</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06029402940294029</v>
+        <v>0.05928592859285928</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1420822082208221</v>
+        <v>0.1419381938193819</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1420822082208221</v>
+        <v>0.1419381938193819</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1420822082208221</v>
+        <v>0.1419381938193819</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1420822082208221</v>
+        <v>0.1419381938193819</v>
       </c>
       <c r="Z11" t="inlineStr"/>
     </row>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2946294629462946</v>
+        <v>-0.2923732373237323</v>
       </c>
       <c r="D12" t="n">
         <v>0.1364776477647765</v>
@@ -1314,32 +1314,32 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-0.1482581915925924</v>
+        <v>-0.155064587660201</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09429342934293429</v>
+        <v>-0.09634563456345634</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1068946894689469</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1265526552655266</v>
+        <v>0.09584158415841583</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1182718271827183</v>
+        <v>-0.1246684668466846</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1182718271827183</v>
+        <v>-0.1246684668466846</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1182718271827183</v>
+        <v>-0.1246684668466846</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1182718271827183</v>
+        <v>-0.1246684668466846</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.1436663666366637</v>
+        <v>-0.142970297029703</v>
       </c>
       <c r="Q12" t="n">
         <v>-0.003852385238523852</v>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>0.1321725289284028</v>
+        <v>0.1309360936639165</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08718871887188719</v>
+        <v>0.08384038403840383</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1342814281428143</v>
+        <v>0.1333453345334533</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1342814281428143</v>
+        <v>0.1333453345334533</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1342814281428143</v>
+        <v>0.1333453345334533</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1342814281428143</v>
+        <v>0.1333453345334533</v>
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.0165016501650165</v>
+        <v>-0.01683768376837684</v>
       </c>
       <c r="D13" t="n">
         <v>0.06657065706570657</v>
@@ -1390,32 +1390,32 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-0.01832445078872048</v>
+        <v>-0.013474743537726</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04776477647764776</v>
+        <v>0.04861686168616861</v>
       </c>
       <c r="I13" t="n">
         <v>-0.01854185418541854</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2448004800480048</v>
+        <v>0.2539333933393339</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.005112511251125112</v>
+        <v>-0.003000300030003</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.005112511251125112</v>
+        <v>-0.003000300030003</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.005112511251125112</v>
+        <v>-0.003000300030003</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.005112511251125112</v>
+        <v>-0.003000300030003</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.007632763276327632</v>
+        <v>0.005496549654965496</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.018001800180018</v>
@@ -1425,22 +1425,22 @@
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>0.0363547980436554</v>
+        <v>0.03573057829847789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02665466546654665</v>
+        <v>0.02683468346834683</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08234023402340233</v>
+        <v>0.08223222322232222</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08234023402340233</v>
+        <v>0.08223222322232222</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08234023402340233</v>
+        <v>0.08223222322232222</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.08234023402340233</v>
+        <v>0.08223222322232222</v>
       </c>
       <c r="Z13" t="inlineStr"/>
     </row>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01636963696369637</v>
+        <v>0.01812181218121812</v>
       </c>
       <c r="D14" t="n">
         <v>0.02808280828082808</v>
@@ -1466,32 +1466,32 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>-0.0639285048642849</v>
+        <v>-0.07275161087785159</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004200420042004199</v>
+        <v>0.002232223222322232</v>
       </c>
       <c r="I14" t="n">
         <v>0.01683768376837684</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1379297929792979</v>
+        <v>-0.1602760276027602</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03593159315931593</v>
+        <v>0.03063906390639063</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03593159315931593</v>
+        <v>0.03063906390639063</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03593159315931593</v>
+        <v>0.03063906390639063</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03593159315931593</v>
+        <v>0.03063906390639063</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.01716171617161716</v>
+        <v>0.02077407740774077</v>
       </c>
       <c r="Q14" t="n">
         <v>0.000528052805280528</v>
@@ -1501,22 +1501,22 @@
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>0.06157567659400045</v>
+        <v>0.0625480188893731</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001176117611761176</v>
+        <v>-0.00048004800480048</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05509750975097509</v>
+        <v>0.05456945694569457</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05509750975097509</v>
+        <v>0.05456945694569457</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05509750975097509</v>
+        <v>0.05456945694569457</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05509750975097509</v>
+        <v>0.05456945694569457</v>
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1386378637863786</v>
+        <v>-0.136969696969697</v>
       </c>
       <c r="D15" t="n">
         <v>0.03815181518151815</v>
@@ -1542,32 +1542,32 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>-0.02877412940750932</v>
+        <v>-0.03620474522029542</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.07683168316831683</v>
+        <v>-0.07900390039003898</v>
       </c>
       <c r="I15" t="n">
         <v>-0.04474047404740474</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.05948994899489948</v>
+        <v>-0.08446444644464446</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1474227422742274</v>
+        <v>-0.151971197119712</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1474227422742274</v>
+        <v>-0.151971197119712</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1474227422742274</v>
+        <v>-0.151971197119712</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1474227422742274</v>
+        <v>-0.151971197119712</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.06564656465646564</v>
+        <v>-0.06419441944194419</v>
       </c>
       <c r="Q15" t="n">
         <v>0.003060306030603061</v>
@@ -1577,22 +1577,22 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>0.1543263277692699</v>
+        <v>0.1540502305742875</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08768076807680766</v>
+        <v>0.08380438043804379</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1117071707170717</v>
+        <v>0.1112031203120312</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1117071707170717</v>
+        <v>0.1112031203120312</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1117071707170717</v>
+        <v>0.1112031203120312</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1117071707170717</v>
+        <v>0.1112031203120312</v>
       </c>
       <c r="Z15" t="inlineStr"/>
     </row>
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1001860186018602</v>
+        <v>-0.1001140114011401</v>
       </c>
       <c r="D16" t="n">
         <v>0.05216921692169217</v>
@@ -1618,32 +1618,32 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>-0.05804043207563937</v>
+        <v>-0.05315471214703851</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07824782478247826</v>
+        <v>0.07792379237923792</v>
       </c>
       <c r="I16" t="n">
         <v>0.03991599159915991</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1732613261326132</v>
+        <v>0.1794539453945394</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.002964296429642964</v>
+        <v>0.003012301230123012</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.002964296429642964</v>
+        <v>0.003012301230123012</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.002964296429642964</v>
+        <v>0.003012301230123012</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.002964296429642964</v>
+        <v>0.003012301230123012</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.04301230123012301</v>
+        <v>-0.04238823882388239</v>
       </c>
       <c r="Q16" t="n">
         <v>0.04955295529552955</v>
@@ -1653,22 +1653,22 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>0.003049073370674747</v>
+        <v>0.001320464845567804</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.02585058505850584</v>
+        <v>-0.02485448544854485</v>
       </c>
       <c r="V16" t="n">
-        <v>0.003324332433243324</v>
+        <v>0.002628262826282628</v>
       </c>
       <c r="W16" t="n">
-        <v>0.003324332433243324</v>
+        <v>0.002628262826282628</v>
       </c>
       <c r="X16" t="n">
-        <v>0.003324332433243324</v>
+        <v>0.002628262826282628</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.003324332433243324</v>
+        <v>0.002628262826282628</v>
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01874587458745874</v>
+        <v>-0.01904590459045905</v>
       </c>
       <c r="D17" t="n">
         <v>-0.01519351935193519</v>
@@ -1690,32 +1690,32 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.03047272736794427</v>
+        <v>0.0295844146536532</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04344434443444344</v>
+        <v>-0.04277227722772277</v>
       </c>
       <c r="I17" t="n">
         <v>-0.0794119411941194</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1528352835283528</v>
+        <v>-0.153027302730273</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002196219621962196</v>
+        <v>-0.0004320432043204319</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002196219621962196</v>
+        <v>-0.0004320432043204319</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002196219621962196</v>
+        <v>-0.0004320432043204319</v>
       </c>
       <c r="N17" t="n">
-        <v>0.002196219621962196</v>
+        <v>-0.0004320432043204319</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.003168316831683168</v>
+        <v>0.002556255625562556</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.02317431743174317</v>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>0.02497479192003469</v>
+        <v>0.02681143847796082</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007536753675367536</v>
+        <v>0.007044704470447045</v>
       </c>
       <c r="V17" t="n">
-        <v>0.015997599759976</v>
+        <v>0.01660966096609661</v>
       </c>
       <c r="W17" t="n">
-        <v>0.015997599759976</v>
+        <v>0.01660966096609661</v>
       </c>
       <c r="X17" t="n">
-        <v>0.015997599759976</v>
+        <v>0.01660966096609661</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.015997599759976</v>
+        <v>0.01660966096609661</v>
       </c>
       <c r="Z17" t="inlineStr"/>
     </row>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0836003600360036</v>
+        <v>-0.08324032403240322</v>
       </c>
       <c r="D18" t="n">
         <v>0.02821482148214821</v>
@@ -1766,32 +1766,32 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-0.04789085910357048</v>
+        <v>-0.04717060555144259</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2141374137413741</v>
+        <v>0.214017401740174</v>
       </c>
       <c r="I18" t="n">
         <v>-0.04709270927092709</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.04315631563156315</v>
+        <v>-0.0515091509150915</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.05312931293129312</v>
+        <v>-0.05275727572757275</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.05312931293129312</v>
+        <v>-0.05275727572757275</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.05312931293129312</v>
+        <v>-0.05275727572757275</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.05312931293129312</v>
+        <v>-0.05275727572757275</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.03318331833183318</v>
+        <v>-0.03324332433243324</v>
       </c>
       <c r="Q18" t="n">
         <v>0.03222322232223222</v>
@@ -1801,22 +1801,22 @@
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>-0.08366345219258918</v>
+        <v>-0.08437170151884826</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1013621362136213</v>
+        <v>0.09971797179717971</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.02347434743474347</v>
+        <v>-0.02331833183318332</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.02347434743474347</v>
+        <v>-0.02331833183318332</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.02347434743474347</v>
+        <v>-0.02331833183318332</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.02347434743474347</v>
+        <v>-0.02331833183318332</v>
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1148274827482748</v>
+        <v>-0.1147434743474347</v>
       </c>
       <c r="D19" t="n">
         <v>-0.05066906690669067</v>
@@ -1842,32 +1842,32 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.1731189433668734</v>
+        <v>0.1743193659537533</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.04034803480348035</v>
+        <v>-0.03955595559555954</v>
       </c>
       <c r="I19" t="n">
         <v>0.001716171617161716</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.02738673867386738</v>
+        <v>-0.02106210621062106</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07564356435643564</v>
+        <v>0.07888388838883888</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07564356435643564</v>
+        <v>0.07888388838883888</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07564356435643564</v>
+        <v>0.07888388838883888</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07564356435643564</v>
+        <v>0.07888388838883888</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.007824782478247824</v>
+        <v>0.007632763276327632</v>
       </c>
       <c r="Q19" t="n">
         <v>-0.04787278727872786</v>
@@ -1877,22 +1877,22 @@
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>0.05837054828703133</v>
+        <v>0.05913881874263442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08855685568556854</v>
+        <v>0.08945694569456945</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02935493549354935</v>
+        <v>0.02911491149114911</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02935493549354935</v>
+        <v>0.02911491149114911</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02935493549354935</v>
+        <v>0.02911491149114911</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02935493549354935</v>
+        <v>0.02911491149114911</v>
       </c>
       <c r="Z19" t="inlineStr"/>
     </row>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01782178217821782</v>
+        <v>-0.0183978397839784</v>
       </c>
       <c r="D20" t="n">
         <v>0.05813381338133813</v>
@@ -1914,32 +1914,32 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>-0.02610919126463612</v>
+        <v>-0.02656535184765045</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03248724872487248</v>
+        <v>0.03324332433243324</v>
       </c>
       <c r="I20" t="n">
         <v>0.02013801380138014</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1131953195319532</v>
+        <v>-0.1255685568556855</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1214161416141614</v>
+        <v>-0.1202280228022802</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.1214161416141614</v>
+        <v>-0.1202280228022802</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1214161416141614</v>
+        <v>-0.1202280228022802</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1214161416141614</v>
+        <v>-0.1202280228022802</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>-0.06274227422742273</v>
+        <v>-0.0633063306330633</v>
       </c>
       <c r="Q20" t="n">
         <v>0.01604560456045604</v>
@@ -1949,22 +1949,22 @@
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>0.07312974399271874</v>
+        <v>0.07048881430158313</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05735373537353734</v>
+        <v>0.0552055205520552</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02797479747974797</v>
+        <v>0.02759075907590759</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02797479747974797</v>
+        <v>0.02759075907590759</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02797479747974797</v>
+        <v>0.02759075907590759</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02797479747974797</v>
+        <v>0.02759075907590759</v>
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1181518151815182</v>
+        <v>0.1170717071707171</v>
       </c>
       <c r="D21" t="n">
         <v>0.1386138613861386</v>
@@ -1986,32 +1986,32 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.03056275906196026</v>
+        <v>0.02923028999052366</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03318331833183318</v>
+        <v>0.03281128112811281</v>
       </c>
       <c r="I21" t="n">
         <v>0.1197239723972397</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.09705370537053704</v>
+        <v>-0.1007740774077408</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1039183918391839</v>
+        <v>-0.104038403840384</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1039183918391839</v>
+        <v>-0.104038403840384</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1039183918391839</v>
+        <v>-0.104038403840384</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.1039183918391839</v>
+        <v>-0.104038403840384</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.1839303930393039</v>
+        <v>-0.1839543954395439</v>
       </c>
       <c r="Q21" t="n">
         <v>0.04943294329432943</v>
@@ -2021,22 +2021,22 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>0.2565903279455619</v>
+        <v>0.2567103702042499</v>
       </c>
       <c r="U21" t="n">
-        <v>0.143966396639664</v>
+        <v>0.1432823282328233</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2468286828682868</v>
+        <v>0.2472367236723672</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2468286828682868</v>
+        <v>0.2472367236723672</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2468286828682868</v>
+        <v>0.2472367236723672</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2468286828682868</v>
+        <v>0.2472367236723672</v>
       </c>
       <c r="Z21" t="inlineStr"/>
     </row>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02535853585358536</v>
+        <v>0.02505850585058506</v>
       </c>
       <c r="D22" t="n">
         <v>0.01782178217821782</v>
@@ -2058,32 +2058,32 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>-0.0464323456605115</v>
+        <v>-0.04674445553310026</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1839543954395439</v>
+        <v>-0.1825862586258626</v>
       </c>
       <c r="I22" t="n">
         <v>-0.1012901290129013</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04234023402340234</v>
+        <v>0.05036903690369036</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.04188418841884187</v>
+        <v>-0.04236423642364236</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.04188418841884187</v>
+        <v>-0.04236423642364236</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.04188418841884187</v>
+        <v>-0.04236423642364236</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.04188418841884187</v>
+        <v>-0.04236423642364236</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.06202220222022202</v>
+        <v>0.06269426942694269</v>
       </c>
       <c r="Q22" t="n">
         <v>0.06628262826282628</v>
@@ -2093,22 +2093,22 @@
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
-        <v>-0.07553058916647838</v>
+        <v>-0.07371795106028985</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.005100510051005099</v>
+        <v>-0.003384338433843384</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.09894989498949894</v>
+        <v>-0.09885388538853884</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.09894989498949894</v>
+        <v>-0.09885388538853884</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.09894989498949894</v>
+        <v>-0.09885388538853884</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.09894989498949894</v>
+        <v>-0.09885388538853884</v>
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.1652925292529253</v>
+        <v>-0.1656765676567656</v>
       </c>
       <c r="D23" t="n">
         <v>-0.2146774677467747</v>
@@ -2134,32 +2134,32 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.259915498511219</v>
+        <v>0.2608878408065916</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.03209120912091209</v>
+        <v>-0.03315931593159316</v>
       </c>
       <c r="I23" t="n">
         <v>-0.08976897689768974</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.03061506150615061</v>
+        <v>-0.03965196519651965</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1599159915991599</v>
+        <v>0.1596039603960396</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1599159915991599</v>
+        <v>0.1596039603960396</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1599159915991599</v>
+        <v>0.1596039603960396</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1599159915991599</v>
+        <v>0.1596039603960396</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.1566876687668767</v>
+        <v>-0.1559675967596759</v>
       </c>
       <c r="Q23" t="n">
         <v>-0.1113591359135913</v>
@@ -2169,22 +2169,22 @@
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>-0.02313214324917416</v>
+        <v>-0.02564102645575299</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03569156915691568</v>
+        <v>0.03278727872787279</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.05857785778577856</v>
+        <v>-0.05870987098709871</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.05857785778577856</v>
+        <v>-0.05870987098709871</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.05857785778577856</v>
+        <v>-0.05870987098709871</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.05857785778577856</v>
+        <v>-0.05870987098709871</v>
       </c>
       <c r="Z23" t="inlineStr"/>
     </row>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04592859285928592</v>
+        <v>0.04565256525652565</v>
       </c>
       <c r="D24" t="n">
         <v>0.04026402640264026</v>
@@ -2206,32 +2206,32 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.181984064170981</v>
+        <v>0.1803274810010868</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.05003300330033002</v>
+        <v>-0.04865286528652865</v>
       </c>
       <c r="I24" t="n">
         <v>-0.07839183918391837</v>
       </c>
       <c r="J24" t="n">
-        <v>0.113027302730273</v>
+        <v>0.1134953495349535</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06507050705070506</v>
+        <v>0.06015001500150014</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06507050705070506</v>
+        <v>0.06015001500150014</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06507050705070506</v>
+        <v>0.06015001500150014</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06507050705070506</v>
+        <v>0.06015001500150014</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.009108910891089108</v>
+        <v>0.01135313531353135</v>
       </c>
       <c r="Q24" t="n">
         <v>0.08793279327932792</v>
@@ -2241,22 +2241,22 @@
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>0.04356333567786873</v>
+        <v>0.04392346245393267</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.07481548154815482</v>
+        <v>-0.07525952595259526</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04054005400540054</v>
+        <v>0.04032403240324033</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04054005400540054</v>
+        <v>0.04032403240324033</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04054005400540054</v>
+        <v>0.04032403240324033</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04054005400540054</v>
+        <v>0.04032403240324033</v>
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2502850285028502</v>
+        <v>0.2489528952895289</v>
       </c>
       <c r="D25" t="n">
         <v>0.05214521452145214</v>
@@ -2282,32 +2282,32 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>-0.1988199909519705</v>
+        <v>-0.1944864654133343</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0945094509450945</v>
+        <v>-0.09352535253525351</v>
       </c>
       <c r="I25" t="n">
         <v>0.2316951695169517</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.3987398739873987</v>
+        <v>-0.3906870687068706</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.184014401440144</v>
+        <v>-0.1763096309630963</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.184014401440144</v>
+        <v>-0.1763096309630963</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.184014401440144</v>
+        <v>-0.1763096309630963</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.184014401440144</v>
+        <v>-0.1763096309630963</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.09880588058805879</v>
+        <v>-0.09986198619861984</v>
       </c>
       <c r="Q25" t="n">
         <v>-0.1073867386738674</v>
@@ -2317,22 +2317,22 @@
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>0.3644422952637795</v>
+        <v>0.3660268530784608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4092649264926492</v>
+        <v>0.4105850585058506</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3277167716771677</v>
+        <v>0.3274527452745274</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3277167716771677</v>
+        <v>0.3274527452745274</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3277167716771677</v>
+        <v>0.3274527452745274</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3277167716771677</v>
+        <v>0.3274527452745274</v>
       </c>
       <c r="Z25" t="inlineStr"/>
     </row>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.0763996399639964</v>
+        <v>-0.07539153915391539</v>
       </c>
       <c r="D26" t="n">
         <v>0.03839183918391838</v>
@@ -2354,32 +2354,32 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.02709953989881198</v>
+        <v>0.01921276350301155</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1667806780678067</v>
+        <v>-0.1677767776777677</v>
       </c>
       <c r="I26" t="n">
         <v>-0.06897089708970895</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1408100810081008</v>
+        <v>-0.1628322832283228</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03308730873087309</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03308730873087309</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03308730873087309</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03308730873087309</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.05201320132013201</v>
+        <v>-0.0497089708970897</v>
       </c>
       <c r="Q26" t="n">
         <v>0.2326432643264326</v>
@@ -2389,22 +2389,22 @@
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>-0.0235823017192541</v>
+        <v>-0.02244190026171826</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01771377137713771</v>
+        <v>0.015001500150015</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.02431443144314431</v>
+        <v>-0.02441044104410441</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.02431443144314431</v>
+        <v>-0.02441044104410441</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02431443144314431</v>
+        <v>-0.02441044104410441</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.02431443144314431</v>
+        <v>-0.02441044104410441</v>
       </c>
       <c r="Z26" t="inlineStr"/>
     </row>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.01203720372037204</v>
+        <v>-0.01382538253825382</v>
       </c>
       <c r="D27" t="n">
         <v>-0.04632463246324632</v>
@@ -2430,32 +2430,32 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>-0.09129213773221044</v>
+        <v>-0.08776289532678376</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06967896789678968</v>
+        <v>0.07111911191119111</v>
       </c>
       <c r="I27" t="n">
         <v>0.1291689168916892</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.155991599159916</v>
+        <v>-0.1515631563156316</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02787878787878788</v>
+        <v>-0.02219021902190219</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.02787878787878788</v>
+        <v>-0.02219021902190219</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.02787878787878788</v>
+        <v>-0.02219021902190219</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.02787878787878788</v>
+        <v>-0.02219021902190219</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.008916891689168918</v>
+        <v>0.008208820882088208</v>
       </c>
       <c r="Q27" t="n">
         <v>-0.4221902190219021</v>
@@ -2465,22 +2465,22 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>0.05760827994436264</v>
+        <v>0.05800441939803298</v>
       </c>
       <c r="U27" t="n">
-        <v>0.10997899789979</v>
+        <v>0.1114791479147915</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05738973897389738</v>
+        <v>0.05718571857185718</v>
       </c>
       <c r="W27" t="n">
-        <v>0.05738973897389738</v>
+        <v>0.05718571857185718</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05738973897389738</v>
+        <v>0.05718571857185718</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05738973897389738</v>
+        <v>0.05718571857185718</v>
       </c>
       <c r="Z27" t="inlineStr"/>
     </row>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1477227722772277</v>
+        <v>-0.1481668166816681</v>
       </c>
       <c r="D28" t="n">
         <v>0.07543954395439544</v>
@@ -2506,32 +2506,32 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-0.05054379302057489</v>
+        <v>-0.04893522675415593</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05143714371437143</v>
+        <v>-0.05200120012001199</v>
       </c>
       <c r="I28" t="n">
         <v>-0.05515751575157515</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1033183318331833</v>
+        <v>0.09705370537053704</v>
       </c>
       <c r="K28" t="n">
-        <v>0.009132913291329132</v>
+        <v>0.01018901890189019</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009132913291329132</v>
+        <v>0.01018901890189019</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009132913291329132</v>
+        <v>0.01018901890189019</v>
       </c>
       <c r="N28" t="n">
-        <v>0.009132913291329132</v>
+        <v>0.01018901890189019</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.05143714371437143</v>
+        <v>-0.05098109810981098</v>
       </c>
       <c r="Q28" t="n">
         <v>-0.05332133213321331</v>
@@ -2541,22 +2541,22 @@
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>0.07236747565005004</v>
+        <v>0.07115504883730142</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06691869186918691</v>
+        <v>0.06515451545154514</v>
       </c>
       <c r="V28" t="n">
-        <v>0.09929792979297927</v>
+        <v>0.09915391539153916</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09929792979297927</v>
+        <v>0.09915391539153916</v>
       </c>
       <c r="X28" t="n">
-        <v>0.09929792979297927</v>
+        <v>0.09915391539153916</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.09929792979297927</v>
+        <v>0.09915391539153916</v>
       </c>
       <c r="Z28" t="inlineStr"/>
     </row>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1199399939993999</v>
+        <v>-0.1187758775877588</v>
       </c>
       <c r="D29" t="n">
         <v>-0.001404140414041404</v>
@@ -2582,32 +2582,32 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>0.03685297341721053</v>
+        <v>0.03415202259673093</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1292769276927693</v>
+        <v>-0.1303690369036904</v>
       </c>
       <c r="I29" t="n">
         <v>-0.1674407440744074</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.04403240324032403</v>
+        <v>-0.06079807980798079</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.05364536453645364</v>
+        <v>-0.05538553855385538</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.05364536453645364</v>
+        <v>-0.05538553855385538</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.05364536453645364</v>
+        <v>-0.05538553855385538</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.05364536453645364</v>
+        <v>-0.05538553855385538</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>-0.1069666966696669</v>
+        <v>-0.1058625862586258</v>
       </c>
       <c r="Q29" t="n">
         <v>0.1242244224422442</v>
@@ -2617,22 +2617,22 @@
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
-        <v>-0.07173725379193814</v>
+        <v>-0.07230145240777165</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05808580858085808</v>
+        <v>0.05642964296429643</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.06684668466846684</v>
+        <v>-0.06736273627362736</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.06684668466846684</v>
+        <v>-0.06736273627362736</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.06684668466846684</v>
+        <v>-0.06736273627362736</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.06684668466846684</v>
+        <v>-0.06736273627362736</v>
       </c>
       <c r="Z29" t="inlineStr"/>
     </row>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1729252925292529</v>
+        <v>0.1735733573357336</v>
       </c>
       <c r="D30" t="n">
         <v>-0.05011701170117012</v>
@@ -2658,32 +2658,32 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>-0.0275917131594327</v>
+        <v>-0.02682344270382962</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04511251125112511</v>
+        <v>0.04248424842484248</v>
       </c>
       <c r="I30" t="n">
         <v>0.03482748274827482</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.165004500450045</v>
+        <v>-0.1794779477947795</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04390039003900389</v>
+        <v>0.04583258325832583</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04390039003900389</v>
+        <v>0.04583258325832583</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04390039003900389</v>
+        <v>0.04583258325832583</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04390039003900389</v>
+        <v>0.04583258325832583</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.01248124812481248</v>
+        <v>-0.01352535253525352</v>
       </c>
       <c r="Q30" t="n">
         <v>-0.165064506450645</v>
@@ -2693,22 +2693,22 @@
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>0.09462331041080194</v>
+        <v>0.09246254975441827</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03539153915391539</v>
+        <v>0.03378337833783378</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06159015901590158</v>
+        <v>0.06126612661266126</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06159015901590158</v>
+        <v>0.06126612661266126</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06159015901590158</v>
+        <v>0.06126612661266126</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.06159015901590158</v>
+        <v>0.06126612661266126</v>
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4301590159015901</v>
+        <v>0.4308910891089108</v>
       </c>
       <c r="D31" t="n">
         <v>0.9906030603060305</v>
@@ -2734,32 +2734,32 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>-0.911258792039276</v>
+        <v>-0.914872064025784</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1748334833483348</v>
+        <v>-0.175013501350135</v>
       </c>
       <c r="I31" t="n">
         <v>0.015997599759976</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2517491749174917</v>
+        <v>0.2399279927992799</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.86016201620162</v>
+        <v>-0.8616981698169817</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.86016201620162</v>
+        <v>-0.8616981698169817</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.86016201620162</v>
+        <v>-0.8616981698169817</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.86016201620162</v>
+        <v>-0.8616981698169817</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.04781278127812781</v>
+        <v>-0.04802880288028803</v>
       </c>
       <c r="Q31" t="n">
         <v>0.06585058505850584</v>
@@ -2769,22 +2769,22 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>0.6009975702343171</v>
+        <v>0.6011656293964803</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3591599159915991</v>
+        <v>0.3581998199819981</v>
       </c>
       <c r="V31" t="n">
-        <v>0.795139513951395</v>
+        <v>0.7953195319531953</v>
       </c>
       <c r="W31" t="n">
-        <v>0.795139513951395</v>
+        <v>0.7953195319531953</v>
       </c>
       <c r="X31" t="n">
-        <v>0.795139513951395</v>
+        <v>0.7953195319531953</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.795139513951395</v>
+        <v>0.7953195319531953</v>
       </c>
       <c r="Z31" t="inlineStr"/>
     </row>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.07890789078907891</v>
+        <v>-0.079015901590159</v>
       </c>
       <c r="D32" t="n">
         <v>-0.128976897689769</v>
@@ -2810,32 +2810,32 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0.05766830107370662</v>
+        <v>0.06158167870693484</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1410861086108611</v>
+        <v>-0.1398619861986199</v>
       </c>
       <c r="I32" t="n">
         <v>-0.1639483948394839</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.09126912691269126</v>
+        <v>-0.06971497149714971</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09478547854785478</v>
+        <v>0.09458145814581458</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09478547854785478</v>
+        <v>0.09458145814581458</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09478547854785478</v>
+        <v>0.09458145814581458</v>
       </c>
       <c r="N32" t="n">
-        <v>0.09478547854785478</v>
+        <v>0.09458145814581458</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.06414641464146414</v>
+        <v>0.06313831383138313</v>
       </c>
       <c r="Q32" t="n">
         <v>-0.01935793579357935</v>
@@ -2845,22 +2845,22 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>-0.1180615614196305</v>
+        <v>-0.1154926570837076</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.07452745274527452</v>
+        <v>-0.07249924992499249</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.08678067806780676</v>
+        <v>-0.0859165916591659</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.08678067806780676</v>
+        <v>-0.0859165916591659</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.08678067806780676</v>
+        <v>-0.0859165916591659</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.08678067806780676</v>
+        <v>-0.0859165916591659</v>
       </c>
       <c r="Z32" t="inlineStr"/>
     </row>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.029006900690069</v>
+        <v>-0.03005100510051004</v>
       </c>
       <c r="D33" t="n">
         <v>-0.132013201320132</v>
@@ -2886,32 +2886,32 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>0.08383151135475234</v>
+        <v>0.08605229314048002</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02045004500450045</v>
+        <v>-0.02006600660066006</v>
       </c>
       <c r="I33" t="n">
         <v>-0.03914791479147915</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1603840384038403</v>
+        <v>-0.1562676267626762</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06586258625862586</v>
+        <v>0.06923492349234923</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06586258625862586</v>
+        <v>0.06923492349234923</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06586258625862586</v>
+        <v>0.06923492349234923</v>
       </c>
       <c r="N33" t="n">
-        <v>0.06586258625862586</v>
+        <v>0.06923492349234923</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.02629462946294629</v>
+        <v>0.02514251425142514</v>
       </c>
       <c r="Q33" t="n">
         <v>0.01767776777677768</v>
@@ -2921,22 +2921,22 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
-        <v>-0.1202283241889485</v>
+        <v>-0.1200482608009166</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.0922052205220522</v>
+        <v>-0.09086108610861086</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.1222082208220822</v>
+        <v>-0.1222442244224422</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.1222082208220822</v>
+        <v>-0.1222442244224422</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.1222082208220822</v>
+        <v>-0.1222442244224422</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.1222082208220822</v>
+        <v>-0.1222442244224422</v>
       </c>
       <c r="Z33" t="inlineStr"/>
     </row>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1061386138613861</v>
+        <v>-0.1076267626762676</v>
       </c>
       <c r="D34" t="n">
         <v>0.000492049204920492</v>
@@ -2962,32 +2962,32 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>-0.07496639055064486</v>
+        <v>-0.06902429874558974</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.07247524752475247</v>
+        <v>-0.06972697269726971</v>
       </c>
       <c r="I34" t="n">
         <v>-0.0833123312331233</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07539153915391539</v>
+        <v>0.1006420642064206</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1816741674167417</v>
+        <v>0.1867266726672667</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1816741674167417</v>
+        <v>0.1867266726672667</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1816741674167417</v>
+        <v>0.1867266726672667</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1816741674167417</v>
+        <v>0.1867266726672667</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.1222682268226822</v>
+        <v>0.1216081608160816</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.08387638763876386</v>
@@ -2997,22 +2997,22 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>-0.1125276132941145</v>
+        <v>-0.1117113259350362</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.03266726672667267</v>
+        <v>-0.02846684668466846</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.1215601560156016</v>
+        <v>-0.1215361536153615</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.1215601560156016</v>
+        <v>-0.1215361536153615</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.1215601560156016</v>
+        <v>-0.1215361536153615</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.1215601560156016</v>
+        <v>-0.1215361536153615</v>
       </c>
       <c r="Z34" t="inlineStr"/>
     </row>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.002028202820282028</v>
+        <v>0.001788178817881788</v>
       </c>
       <c r="D35" t="n">
         <v>-0.1304890489048905</v>
@@ -3038,32 +3038,32 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0.1246338750827975</v>
+        <v>0.122761215847265</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03083108310831083</v>
+        <v>0.03092709270927092</v>
       </c>
       <c r="I35" t="n">
         <v>0.01956195619561956</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1368496849684968</v>
+        <v>-0.1411341134113411</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1491989198919892</v>
+        <v>0.1456705670567057</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1491989198919892</v>
+        <v>0.1456705670567057</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1491989198919892</v>
+        <v>0.1456705670567057</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1491989198919892</v>
+        <v>0.1456705670567057</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.04738073807380738</v>
+        <v>0.04672067206720671</v>
       </c>
       <c r="Q35" t="n">
         <v>-0.1151515151515151</v>
@@ -3073,22 +3073,22 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>-0.02376236510728607</v>
+        <v>-0.02269398900496303</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07344734473447344</v>
+        <v>0.07399939993999401</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.04414041404140414</v>
+        <v>-0.04362436243624362</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.04414041404140414</v>
+        <v>-0.04362436243624362</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.04414041404140414</v>
+        <v>-0.04362436243624362</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.04414041404140414</v>
+        <v>-0.04362436243624362</v>
       </c>
       <c r="Z35" t="inlineStr"/>
     </row>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03619561956195619</v>
+        <v>-0.03696369636963696</v>
       </c>
       <c r="D36" t="n">
         <v>0.07699969996999699</v>
@@ -3114,32 +3114,32 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>-0.01745414441323261</v>
+        <v>-0.01744214018736381</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.07374737473747374</v>
+        <v>-0.0741074107410741</v>
       </c>
       <c r="I36" t="n">
         <v>-0.07501950195019501</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1672487248724872</v>
+        <v>0.1601440144014401</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02826282628262826</v>
+        <v>0.02694269426942694</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02826282628262826</v>
+        <v>0.02694269426942694</v>
       </c>
       <c r="M36" t="n">
-        <v>0.02826282628262826</v>
+        <v>0.02694269426942694</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02826282628262826</v>
+        <v>0.02694269426942694</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.0664146414641464</v>
+        <v>-0.0655985598559856</v>
       </c>
       <c r="Q36" t="n">
         <v>-0.03175517551755175</v>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>0.06538701830734389</v>
+        <v>0.06363440133049934</v>
       </c>
       <c r="U36" t="n">
-        <v>0.009408940894089408</v>
+        <v>0.007332733273327332</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1370777077707771</v>
+        <v>0.1371257125712571</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1370777077707771</v>
+        <v>0.1371257125712571</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1370777077707771</v>
+        <v>0.1371257125712571</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1370777077707771</v>
+        <v>0.1371257125712571</v>
       </c>
       <c r="Z36" t="inlineStr"/>
     </row>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.06781878187818781</v>
+        <v>0.06744674467446744</v>
       </c>
       <c r="D37" t="n">
         <v>0.05462946294629463</v>
@@ -3190,32 +3190,32 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>-0.0383474995378759</v>
+        <v>-0.0390317404123974</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.08919291929192917</v>
+        <v>-0.08979297929792979</v>
       </c>
       <c r="I37" t="n">
         <v>0.03245124512451245</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.09578157815781577</v>
+        <v>-0.101038103810381</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2795079507950795</v>
+        <v>0.2778997899789978</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2795079507950795</v>
+        <v>0.2778997899789978</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2795079507950795</v>
+        <v>0.2778997899789978</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2795079507950795</v>
+        <v>0.2778997899789978</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.08397239723972395</v>
+        <v>0.0846084608460846</v>
       </c>
       <c r="Q37" t="n">
         <v>0.06724272427242724</v>
@@ -3225,22 +3225,22 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
-        <v>0.200812692446191</v>
+        <v>0.200932734704879</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1191959195919592</v>
+        <v>0.1168316831683168</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1856225622562256</v>
+        <v>0.1847824782478248</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1856225622562256</v>
+        <v>0.1847824782478248</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1856225622562256</v>
+        <v>0.1847824782478248</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1856225622562256</v>
+        <v>0.1847824782478248</v>
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
@@ -712,67 +712,67 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2114611461146114</v>
+        <v>-0.275187969924812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005592559255925592</v>
+        <v>-0.4060150375939849</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04361236123612361</v>
+        <v>0.437593984962406</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-0.06885023747049217</v>
+        <v>0.3413533834586466</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0872127212721272</v>
+        <v>0.2661654135338345</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06405040504050405</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01467746774677468</v>
+        <v>-0.1218045112781955</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.008496849684968496</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008496849684968496</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008496849684968496</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.008496849684968496</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.04067206720672066</v>
+        <v>-0.3368421052631578</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.252985298529853</v>
+        <v>-0.6150375939849623</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06679867986798679</v>
+        <v>0.6360902255639098</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>0.1065435066985186</v>
+        <v>-0.3142857142857143</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1759135913591359</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07433543354335433</v>
+        <v>-0.2466165413533834</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07433543354335433</v>
+        <v>-0.2466165413533834</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07433543354335433</v>
+        <v>-0.2466165413533834</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07433543354335433</v>
+        <v>-0.2466165413533834</v>
       </c>
       <c r="Z4" t="inlineStr"/>
     </row>
@@ -784,67 +784,67 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.00294029402940294</v>
+        <v>0.1112781954887218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1995559555955596</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1168916891689169</v>
+        <v>-0.2827067669172932</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-0.02718356947989356</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1067746774677468</v>
+        <v>0.2090225563909774</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1119111911191119</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04357635763576357</v>
+        <v>0.3022556390977443</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0911131113111311</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0911131113111311</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0911131113111311</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0911131113111311</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.2064206420642064</v>
+        <v>0.4090225563909774</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8256585658565856</v>
+        <v>0.9533834586466164</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.06793879387938793</v>
+        <v>-0.3443609022556391</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>-0.005059781203698448</v>
+        <v>0.3578947368421052</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1047104710471047</v>
+        <v>0.1037593984962406</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0405040504050405</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0405040504050405</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.0405040504050405</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0405040504050405</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="Z5" t="inlineStr"/>
     </row>
@@ -856,67 +856,67 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2375997599759976</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04313231323132313</v>
+        <v>-0.1398496240601504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0296069606960696</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.01441107315549226</v>
+        <v>0.3969924812030075</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8944134413441344</v>
+        <v>0.9744360902255638</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9561716171617161</v>
+        <v>0.9368421052631578</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.107026702670267</v>
+        <v>0.300751879699248</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0202100210021002</v>
+        <v>0.4646616541353384</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0202100210021002</v>
+        <v>0.4646616541353384</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0202100210021002</v>
+        <v>0.4646616541353384</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0202100210021002</v>
+        <v>0.4646616541353384</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.09704170417041702</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.173969396939694</v>
+        <v>0.2240601503759398</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1384578457845785</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.2169103593362494</v>
+        <v>-0.3458646616541353</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1320852085208521</v>
+        <v>-0.38796992481203</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1062706270627063</v>
+        <v>-0.3203007518796992</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1062706270627063</v>
+        <v>-0.3203007518796992</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1062706270627063</v>
+        <v>-0.3203007518796992</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1062706270627063</v>
+        <v>-0.3203007518796992</v>
       </c>
       <c r="Z6" t="inlineStr"/>
     </row>
@@ -932,67 +932,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6320312031203118</v>
+        <v>0.5969924812030075</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02951095109510951</v>
+        <v>-0.02857142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07067506750675066</v>
+        <v>-0.01203007518796992</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.05866465182081688</v>
+        <v>-0.1308270676691729</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01238523852385238</v>
+        <v>-0.3548872180451128</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004668466846684667</v>
+        <v>-0.2947368421052631</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.07267926792679266</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.07680768076807679</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.07680768076807679</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.07680768076807679</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07680768076807679</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.284080408040804</v>
+        <v>-0.2721804511278195</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07563156315631561</v>
+        <v>-0.193984962406015</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01348934893489349</v>
+        <v>-0.06015037593984961</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>-0.02852204066426457</v>
+        <v>-0.06165413533834586</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1441464146414641</v>
+        <v>0.04962406015037594</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005916591659165916</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="W7" t="n">
-        <v>0.005916591659165916</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="X7" t="n">
-        <v>0.005916591659165916</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005916591659165916</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="Z7" t="inlineStr"/>
     </row>
@@ -1008,67 +1008,67 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4827602760276026</v>
+        <v>0.6030075187969924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06777077707770776</v>
+        <v>0.3729323308270677</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1577197719771977</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.1830644444991728</v>
+        <v>-0.2421052631578947</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.04511251125112511</v>
+        <v>-0.3548872180451128</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001404140414041404</v>
+        <v>-0.3849624060150376</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01270927092709271</v>
+        <v>0.08421052631578946</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.063018301830183</v>
+        <v>-0.3473684210526315</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.063018301830183</v>
+        <v>-0.3473684210526315</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.063018301830183</v>
+        <v>-0.3473684210526315</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.063018301830183</v>
+        <v>-0.3473684210526315</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.7981878187818781</v>
+        <v>0.7218045112781954</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.06699069906990698</v>
+        <v>0.2300751879699248</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.007704770477047704</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0.03600067338052585</v>
+        <v>0.1639097744360902</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.04193219321932192</v>
+        <v>-0.1834586466165413</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07525952595259526</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07525952595259526</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="X8" t="n">
-        <v>0.07525952595259526</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07525952595259526</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="Z8" t="inlineStr"/>
     </row>
@@ -1084,67 +1084,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1478547854785479</v>
+        <v>-0.156390977443609</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0104050405040504</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02563456345634563</v>
+        <v>-0.162406015037594</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.004303514973964161</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.008388838883888389</v>
+        <v>-0.2180451127819548</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04094809480948094</v>
+        <v>-0.3969924812030075</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.03181518151815181</v>
+        <v>-0.01804511278195488</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06294629462946294</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06294629462946294</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06294629462946294</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06294629462946294</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.1408340834083408</v>
+        <v>-0.07368421052631578</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1082748274827483</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1048424842484248</v>
+        <v>-0.2992481203007519</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0.06608926552066857</v>
+        <v>0.3654135338345864</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06522652265226522</v>
+        <v>0.2240601503759398</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0774077407740774</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0774077407740774</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0774077407740774</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0774077407740774</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="Z9" t="inlineStr"/>
     </row>
@@ -1160,67 +1160,67 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.08216021602160216</v>
+        <v>0.1834586466165413</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08933693369336933</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1698289828982898</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.1723566750242048</v>
+        <v>-0.03007518796992481</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04484848484848484</v>
+        <v>0.2661654135338345</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0417041704170417</v>
+        <v>0.1759398496240602</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0363036303630363</v>
+        <v>0.2962406015037594</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1369576957695769</v>
+        <v>0.1308270676691729</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1369576957695769</v>
+        <v>0.1308270676691729</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1369576957695769</v>
+        <v>0.1308270676691729</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1369576957695769</v>
+        <v>0.1308270676691729</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.05621362136213621</v>
+        <v>0.1969924812030075</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09150915091509149</v>
+        <v>-0.1729323308270676</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1664446444644464</v>
+        <v>-0.09473684210526315</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>-0.01807836415841011</v>
+        <v>-0.2766917293233083</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.1149474947494749</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.07783978397839783</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.07783978397839783</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.07783978397839783</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.07783978397839783</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
@@ -1232,67 +1232,67 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2000960096009601</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1237803780378038</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1082628262826282</v>
+        <v>-0.2526315789473684</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.1112251547873499</v>
+        <v>-0.3864661654135338</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.04286828682868286</v>
+        <v>-0.3142857142857143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2451005100510051</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.03584758475847585</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.07755175517551754</v>
+        <v>-0.4225563909774436</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.07755175517551754</v>
+        <v>-0.4225563909774436</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.07755175517551754</v>
+        <v>-0.4225563909774436</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.07755175517551754</v>
+        <v>-0.4225563909774436</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.08067206720672067</v>
+        <v>-0.3759398496240601</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.07044704470447044</v>
+        <v>-0.3323308270676691</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08834083408340833</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0.1108770322371547</v>
+        <v>0.2300751879699248</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05928592859285928</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1419381938193819</v>
+        <v>0.4270676691729323</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1419381938193819</v>
+        <v>0.4270676691729323</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1419381938193819</v>
+        <v>0.4270676691729323</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1419381938193819</v>
+        <v>0.4270676691729323</v>
       </c>
       <c r="Z11" t="inlineStr"/>
     </row>
@@ -1304,67 +1304,67 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2923732373237323</v>
+        <v>-0.3398496240601503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1364776477647765</v>
+        <v>-0.2766917293233083</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1622802280228023</v>
+        <v>0.1218045112781955</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-0.155064587660201</v>
+        <v>0.1323308270676692</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09634563456345634</v>
+        <v>-0.4646616541353384</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1068946894689469</v>
+        <v>-0.3714285714285714</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09584158415841583</v>
+        <v>-0.3894736842105262</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1246684668466846</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1246684668466846</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1246684668466846</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1246684668466846</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.142970297029703</v>
+        <v>-0.3518796992481203</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.003852385238523852</v>
+        <v>-0.1443609022556391</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02612661266126613</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>0.1309360936639165</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08384038403840383</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1333453345334533</v>
+        <v>0.06466165413533834</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1333453345334533</v>
+        <v>0.06466165413533834</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1333453345334533</v>
+        <v>0.06466165413533834</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1333453345334533</v>
+        <v>0.06466165413533834</v>
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
@@ -1380,67 +1380,67 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.01683768376837684</v>
+        <v>-0.09624060150375939</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06657065706570657</v>
+        <v>0.2135338345864662</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05873387338733873</v>
+        <v>-0.2240601503759398</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-0.013474743537726</v>
+        <v>-0.09172932330827067</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04861686168616861</v>
+        <v>0.2270676691729323</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01854185418541854</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2539333933393339</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.003000300030003</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.003000300030003</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.003000300030003</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.003000300030003</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.005496549654965496</v>
+        <v>0.2150375939849624</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.018001800180018</v>
+        <v>0.5593984962406015</v>
       </c>
       <c r="R13" t="n">
-        <v>0.008748874887488748</v>
+        <v>-0.2706766917293233</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>0.03573057829847789</v>
+        <v>0.3172932330827067</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02683468346834683</v>
+        <v>0.275187969924812</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08223222322232222</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08223222322232222</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08223222322232222</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.08223222322232222</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="Z13" t="inlineStr"/>
     </row>
@@ -1456,67 +1456,67 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01812181218121812</v>
+        <v>0.1744360902255639</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02808280828082808</v>
+        <v>0.2345864661654135</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05765376537653764</v>
+        <v>-0.1293233082706767</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>-0.07275161087785159</v>
+        <v>-0.09473684210526315</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002232223222322232</v>
+        <v>0.2300751879699248</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01683768376837684</v>
+        <v>0.1729323308270676</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1602760276027602</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03063906390639063</v>
+        <v>-0.1233082706766917</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03063906390639063</v>
+        <v>-0.1233082706766917</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03063906390639063</v>
+        <v>-0.1233082706766917</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03063906390639063</v>
+        <v>-0.1233082706766917</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.02077407740774077</v>
+        <v>0.1323308270676692</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000528052805280528</v>
+        <v>0.2270676691729323</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.04958895889588959</v>
+        <v>-0.3233082706766917</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>0.0625480188893731</v>
+        <v>-0.08721804511278194</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.00048004800480048</v>
+        <v>-0.112781954887218</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05456945694569457</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05456945694569457</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05456945694569457</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05456945694569457</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
@@ -1532,67 +1532,67 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.136969696969697</v>
+        <v>-0.1924812030075188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03815181518151815</v>
+        <v>-0.3323308270676691</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.008328832883288327</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>-0.03620474522029542</v>
+        <v>0.05563909774436089</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.07900390039003898</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04474047404740474</v>
+        <v>-0.01052631578947368</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.08446444644464446</v>
+        <v>-0.3097744360902255</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.151971197119712</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.151971197119712</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.151971197119712</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.151971197119712</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.06419441944194419</v>
+        <v>-0.3518796992481203</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003060306030603061</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07301530153015301</v>
+        <v>-0.118796992481203</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>0.1540502305742875</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08380438043804379</v>
+        <v>0.4390977443609023</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1112031203120312</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1112031203120312</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1112031203120312</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1112031203120312</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="Z15" t="inlineStr"/>
     </row>
@@ -1608,67 +1608,67 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1001140114011401</v>
+        <v>0.237593984962406</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05216921692169217</v>
+        <v>0.1218045112781955</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.08778877887788777</v>
+        <v>-0.0781954887218045</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>-0.05315471214703851</v>
+        <v>-0.03909774436090225</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07792379237923792</v>
+        <v>-0.1654135338345864</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03991599159915991</v>
+        <v>-0.263157894736842</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1794539453945394</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003012301230123012</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003012301230123012</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003012301230123012</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="N16" t="n">
-        <v>0.003012301230123012</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.04238823882388239</v>
+        <v>0.4827067669172932</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04955295529552955</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.02029402940294029</v>
+        <v>-0.4015037593984962</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>0.001320464845567804</v>
+        <v>0.1218045112781955</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.02485448544854485</v>
+        <v>-0.1774436090225564</v>
       </c>
       <c r="V16" t="n">
-        <v>0.002628262826282628</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="W16" t="n">
-        <v>0.002628262826282628</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="X16" t="n">
-        <v>0.002628262826282628</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.002628262826282628</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
@@ -1680,67 +1680,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01904590459045905</v>
+        <v>-0.08120300751879699</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01519351935193519</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02567056705670567</v>
+        <v>0.02706766917293233</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.0295844146536532</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04277227722772277</v>
+        <v>0.3112781954887218</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0794119411941194</v>
+        <v>0.3248120300751879</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.153027302730273</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0004320432043204319</v>
+        <v>-0.2315789473684211</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0004320432043204319</v>
+        <v>-0.2315789473684211</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0004320432043204319</v>
+        <v>-0.2315789473684211</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0004320432043204319</v>
+        <v>-0.2315789473684211</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.002556255625562556</v>
+        <v>-0.1609022556390977</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.02317431743174317</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.02539453945394539</v>
+        <v>0.1593984962406015</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>0.02681143847796082</v>
+        <v>0.1112781954887218</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007044704470447045</v>
+        <v>-0.2135338345864662</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01660966096609661</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01660966096609661</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01660966096609661</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01660966096609661</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="Z17" t="inlineStr"/>
     </row>
@@ -1756,67 +1756,67 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.08324032403240322</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02821482148214821</v>
+        <v>0.2165413533834586</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0647104710471047</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-0.04717060555144259</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="H18" t="n">
-        <v>0.214017401740174</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04709270927092709</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0515091509150915</v>
+        <v>-0.03909774436090225</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.05275727572757275</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.05275727572757275</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.05275727572757275</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.05275727572757275</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.03324332433243324</v>
+        <v>-0.2045112781954887</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03222322232223222</v>
+        <v>0.01804511278195488</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.160972097209721</v>
+        <v>-0.3909774436090225</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>-0.08437170151884826</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09971797179717971</v>
+        <v>0.2436090225563909</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.02331833183318332</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.02331833183318332</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.02331833183318332</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.02331833183318332</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
@@ -1832,67 +1832,67 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1147434743474347</v>
+        <v>0.01654135338345865</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05066906690669067</v>
+        <v>-0.3473684210526315</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2453405340534053</v>
+        <v>0.5969924812030075</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.1743193659537533</v>
+        <v>0.5819548872180451</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03955595559555954</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001716171617161716</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.02106210621062106</v>
+        <v>-0.1548872180451128</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07888388838883888</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07888388838883888</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07888388838883888</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07888388838883888</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.007632763276327632</v>
+        <v>-0.03759398496240601</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.04787278727872786</v>
+        <v>-0.38796992481203</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4876567656765676</v>
+        <v>0.6646616541353383</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>0.05913881874263442</v>
+        <v>-0.2706766917293233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08945694569456945</v>
+        <v>-0.1969924812030075</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02911491149114911</v>
+        <v>-0.4060150375939849</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02911491149114911</v>
+        <v>-0.4060150375939849</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02911491149114911</v>
+        <v>-0.4060150375939849</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02911491149114911</v>
+        <v>-0.4060150375939849</v>
       </c>
       <c r="Z19" t="inlineStr"/>
     </row>
@@ -1904,67 +1904,67 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0183978397839784</v>
+        <v>-0.2887218045112782</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05813381338133813</v>
+        <v>-0.03308270676691729</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02502250225022502</v>
+        <v>0.05864661654135337</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>-0.02656535184765045</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03324332433243324</v>
+        <v>0.2766917293233083</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02013801380138014</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.1255685568556855</v>
+        <v>-0.150375939849624</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1202280228022802</v>
+        <v>0.1293233082706767</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.1202280228022802</v>
+        <v>0.1293233082706767</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.1202280228022802</v>
+        <v>0.1293233082706767</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1202280228022802</v>
+        <v>0.1293233082706767</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>-0.0633063306330633</v>
+        <v>0.162406015037594</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01604560456045604</v>
+        <v>0.1172932330827067</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.1106030603060306</v>
+        <v>-0.1007518796992481</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>0.07048881430158313</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0552055205520552</v>
+        <v>-0.3323308270676691</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02759075907590759</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02759075907590759</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02759075907590759</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02759075907590759</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
@@ -1976,67 +1976,67 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1170717071707171</v>
+        <v>0.0481203007518797</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1386138613861386</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07546354635463545</v>
+        <v>0.4270676691729323</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.02923028999052366</v>
+        <v>0.4075187969924812</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03281128112811281</v>
+        <v>0.275187969924812</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1197239723972397</v>
+        <v>0.3398496240601503</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1007740774077408</v>
+        <v>-0.009022556390977442</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.104038403840384</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.104038403840384</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.104038403840384</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.104038403840384</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.1839543954395439</v>
+        <v>-0.2992481203007519</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04943294329432943</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2943534353435343</v>
+        <v>0.5218045112781955</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>0.2567103702042499</v>
+        <v>-0.01804511278195488</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1432823282328233</v>
+        <v>-0.1308270676691729</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2472367236723672</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2472367236723672</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2472367236723672</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2472367236723672</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="Z21" t="inlineStr"/>
     </row>
@@ -2048,67 +2048,67 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02505850585058506</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01782178217821782</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01986198619861986</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>-0.04674445553310026</v>
+        <v>0.04360902255639097</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1825862586258626</v>
+        <v>-0.1518796992481203</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1012901290129013</v>
+        <v>-0.1849624060150376</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05036903690369036</v>
+        <v>0.01203007518796992</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.04236423642364236</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.04236423642364236</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.04236423642364236</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.04236423642364236</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.06269426942694269</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06628262826282628</v>
+        <v>-0.1578947368421053</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03131113111311131</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
-        <v>-0.07371795106028985</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.003384338433843384</v>
+        <v>0.006015037593984962</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.09885388538853884</v>
+        <v>0.3443609022556391</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.09885388538853884</v>
+        <v>0.3443609022556391</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.09885388538853884</v>
+        <v>0.3443609022556391</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.09885388538853884</v>
+        <v>0.3443609022556391</v>
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
@@ -2124,67 +2124,67 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.1656765676567656</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2146774677467747</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3112991299129912</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.2608878408065916</v>
+        <v>-0.1007518796992481</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.03315931593159316</v>
+        <v>0.2270676691729323</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08976897689768974</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.03965196519651965</v>
+        <v>0.0481203007518797</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1596039603960396</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1596039603960396</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1596039603960396</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1596039603960396</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.1559675967596759</v>
+        <v>0.350375939849624</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.1113591359135913</v>
+        <v>-0.03609022556390977</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.298049804980498</v>
+        <v>-0.3969924812030075</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>-0.02564102645575299</v>
+        <v>-0.2992481203007519</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03278727872787279</v>
+        <v>-0.2270676691729323</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.05870987098709871</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.05870987098709871</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.05870987098709871</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.05870987098709871</v>
+        <v>-0.02406015037593985</v>
       </c>
       <c r="Z23" t="inlineStr"/>
     </row>
@@ -2196,67 +2196,67 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04565256525652565</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04026402640264026</v>
+        <v>-0.300751879699248</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2138973897389739</v>
+        <v>0.4827067669172932</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.1803274810010868</v>
+        <v>0.5007518796992482</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.04865286528652865</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07839183918391837</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1134953495349535</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06015001500150014</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06015001500150014</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06015001500150014</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06015001500150014</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.01135313531353135</v>
+        <v>0.1413533834586466</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08793279327932792</v>
+        <v>-0.3744360902255639</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5687008700870086</v>
+        <v>0.6225563909774435</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>0.04392346245393267</v>
+        <v>-0.2496240601503759</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.07525952595259526</v>
+        <v>-0.2165413533834586</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04032403240324033</v>
+        <v>-0.2917293233082707</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04032403240324033</v>
+        <v>-0.2917293233082707</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04032403240324033</v>
+        <v>-0.2917293233082707</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.04032403240324033</v>
+        <v>-0.2917293233082707</v>
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
@@ -2272,67 +2272,67 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2489528952895289</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05214521452145214</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.04522052205220522</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>-0.1944864654133343</v>
+        <v>-0.1849624060150376</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.09352535253525351</v>
+        <v>-0.6812030075187969</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2316951695169517</v>
+        <v>-0.6285714285714286</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.3906870687068706</v>
+        <v>-0.6962406015037594</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1763096309630963</v>
+        <v>-0.1458646616541353</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1763096309630963</v>
+        <v>-0.1458646616541353</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1763096309630963</v>
+        <v>-0.1458646616541353</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1763096309630963</v>
+        <v>-0.1458646616541353</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.09986198619861984</v>
+        <v>-0.2586466165413533</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.1073867386738674</v>
+        <v>-0.1804511278195489</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.07247524752475247</v>
+        <v>-0.2556390977443609</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>0.3660268530784608</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4105850585058506</v>
+        <v>0.4781954887218045</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3274527452745274</v>
+        <v>0.2511278195488721</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3274527452745274</v>
+        <v>0.2511278195488721</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3274527452745274</v>
+        <v>0.2511278195488721</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3274527452745274</v>
+        <v>0.2511278195488721</v>
       </c>
       <c r="Z25" t="inlineStr"/>
     </row>
@@ -2344,67 +2344,67 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.07539153915391539</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03839183918391838</v>
+        <v>-0.3037593984962406</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04795679567956795</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.01921276350301155</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1677767776777677</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.06897089708970895</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.1628322832283228</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02666666666666666</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.0497089708970897</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2326432643264326</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="R26" t="n">
-        <v>0.166996699669967</v>
+        <v>0.06015037593984961</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>-0.02244190026171826</v>
+        <v>-0.1082706766917293</v>
       </c>
       <c r="U26" t="n">
-        <v>0.015001500150015</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.02441044104410441</v>
+        <v>-0.3413533834586466</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.02441044104410441</v>
+        <v>-0.3413533834586466</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02441044104410441</v>
+        <v>-0.3413533834586466</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.02441044104410441</v>
+        <v>-0.3413533834586466</v>
       </c>
       <c r="Z26" t="inlineStr"/>
     </row>
@@ -2420,67 +2420,67 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.01382538253825382</v>
+        <v>0.2045112781954887</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04632463246324632</v>
+        <v>-0.1353383458646616</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.02792679267926793</v>
+        <v>0.150375939849624</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>-0.08776289532678376</v>
+        <v>0.07969924812030074</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07111911191119111</v>
+        <v>-0.3293233082706767</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1291689168916892</v>
+        <v>-0.4406015037593984</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1515631563156316</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.02219021902190219</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.02219021902190219</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.02219021902190219</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.02219021902190219</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.008208820882088208</v>
+        <v>-0.0150375939849624</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.4221902190219021</v>
+        <v>-0.5759398496240601</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02509450945094509</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>0.05800441939803298</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1114791479147915</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05718571857185718</v>
+        <v>-0.1654135338345864</v>
       </c>
       <c r="W27" t="n">
-        <v>0.05718571857185718</v>
+        <v>-0.1654135338345864</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05718571857185718</v>
+        <v>-0.1654135338345864</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05718571857185718</v>
+        <v>-0.1654135338345864</v>
       </c>
       <c r="Z27" t="inlineStr"/>
     </row>
@@ -2496,67 +2496,67 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1481668166816681</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07543954395439544</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.06784278427842784</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-0.04893522675415593</v>
+        <v>-0.07368421052631578</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.05200120012001199</v>
+        <v>-0.03007518796992481</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05515751575157515</v>
+        <v>0.1398496240601504</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09705370537053704</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01018901890189019</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01018901890189019</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01018901890189019</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01018901890189019</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.05098109810981098</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.05332133213321331</v>
+        <v>-0.2872180451127819</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.11006300630063</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>0.07115504883730142</v>
+        <v>-0.1157894736842105</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06515451545154514</v>
+        <v>-0.09172932330827067</v>
       </c>
       <c r="V28" t="n">
-        <v>0.09915391539153916</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09915391539153916</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="X28" t="n">
-        <v>0.09915391539153916</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.09915391539153916</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="Z28" t="inlineStr"/>
     </row>
@@ -2572,67 +2572,67 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1187758775877588</v>
+        <v>0.07218045112781954</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001404140414041404</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03312331233123312</v>
+        <v>-0.1699248120300751</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>0.03415202259673093</v>
+        <v>-0.2360902255639098</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1303690369036904</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1674407440744074</v>
+        <v>0.2135338345864662</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.06079807980798079</v>
+        <v>0.3804511278195489</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.05538553855385538</v>
+        <v>-0.2496240601503759</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.05538553855385538</v>
+        <v>-0.2496240601503759</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.05538553855385538</v>
+        <v>-0.2496240601503759</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.05538553855385538</v>
+        <v>-0.2496240601503759</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>-0.1058625862586258</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1242244224422442</v>
+        <v>-0.09172932330827067</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.09364536453645364</v>
+        <v>-0.1082706766917293</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
-        <v>-0.07230145240777165</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05642964296429643</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.06736273627362736</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.06736273627362736</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.06736273627362736</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.06736273627362736</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="Z29" t="inlineStr"/>
     </row>
@@ -2648,67 +2648,67 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1735733573357336</v>
+        <v>-0.356390977443609</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.05011701170117012</v>
+        <v>0.06315789473684209</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008292829282928292</v>
+        <v>-0.1774436090225564</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>-0.02682344270382962</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04248424842484248</v>
+        <v>-0.3819548872180452</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03482748274827482</v>
+        <v>-0.5263157894736841</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1794779477947795</v>
+        <v>-0.2872180451127819</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04583258325832583</v>
+        <v>-0.09022556390977443</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04583258325832583</v>
+        <v>-0.09022556390977443</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04583258325832583</v>
+        <v>-0.09022556390977443</v>
       </c>
       <c r="N30" t="n">
-        <v>0.04583258325832583</v>
+        <v>-0.09022556390977443</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.01352535253525352</v>
+        <v>0.156390977443609</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.165064506450645</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03411941194119412</v>
+        <v>-0.3383458646616541</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>0.09246254975441827</v>
+        <v>0.150375939849624</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03378337833783378</v>
+        <v>-0.01052631578947368</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06126612661266126</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06126612661266126</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06126612661266126</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.06126612661266126</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
@@ -2724,67 +2724,67 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4308910891089108</v>
+        <v>0.6676691729323309</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9906030603060305</v>
+        <v>0.993984962406015</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9096789678967896</v>
+        <v>-0.9022556390977443</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>-0.914872064025784</v>
+        <v>-0.863157894736842</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.175013501350135</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="I31" t="n">
-        <v>0.015997599759976</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2399279927992799</v>
+        <v>0.6872180451127818</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8616981698169817</v>
+        <v>-0.8360902255639097</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8616981698169817</v>
+        <v>-0.8360902255639097</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8616981698169817</v>
+        <v>-0.8360902255639097</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8616981698169817</v>
+        <v>-0.8360902255639097</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.04802880288028803</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06585058505850584</v>
+        <v>0.2451127819548872</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1602160216021602</v>
+        <v>-0.6030075187969924</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>0.6011656293964803</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3581998199819981</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7953195319531953</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7953195319531953</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="X31" t="n">
-        <v>0.7953195319531953</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7953195319531953</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="Z31" t="inlineStr"/>
     </row>
@@ -2800,67 +2800,67 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.079015901590159</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.128976897689769</v>
+        <v>0.5759398496240601</v>
       </c>
       <c r="E32" t="n">
-        <v>0.082016201620162</v>
+        <v>-0.5969924812030075</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0.06158167870693484</v>
+        <v>-0.5954887218045113</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1398619861986199</v>
+        <v>-0.4060150375939849</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1639483948394839</v>
+        <v>-0.3894736842105262</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.06971497149714971</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09458145814581458</v>
+        <v>-0.675187969924812</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09458145814581458</v>
+        <v>-0.675187969924812</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09458145814581458</v>
+        <v>-0.675187969924812</v>
       </c>
       <c r="N32" t="n">
-        <v>0.09458145814581458</v>
+        <v>-0.675187969924812</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.06313831383138313</v>
+        <v>0.2345864661654135</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.01935793579357935</v>
+        <v>0.300751879699248</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.02027002700270027</v>
+        <v>-0.6631578947368421</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>-0.1154926570837076</v>
+        <v>0.4330827067669173</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.07249924992499249</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.0859165916591659</v>
+        <v>0.4766917293233082</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.0859165916591659</v>
+        <v>0.4766917293233082</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.0859165916591659</v>
+        <v>0.4766917293233082</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.0859165916591659</v>
+        <v>0.4766917293233082</v>
       </c>
       <c r="Z32" t="inlineStr"/>
     </row>
@@ -2876,67 +2876,67 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03005100510051004</v>
+        <v>0.4842105263157894</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.132013201320132</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1050945094509451</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>0.08605229314048002</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02006600660066006</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03914791479147915</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1562676267626762</v>
+        <v>0.2977443609022556</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06923492349234923</v>
+        <v>-0.2150375939849624</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06923492349234923</v>
+        <v>-0.2150375939849624</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06923492349234923</v>
+        <v>-0.2150375939849624</v>
       </c>
       <c r="N33" t="n">
-        <v>0.06923492349234923</v>
+        <v>-0.2150375939849624</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.02514251425142514</v>
+        <v>-0.07368421052631578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01767776777677768</v>
+        <v>-0.18796992481203</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.1414701470147015</v>
+        <v>0.1533834586466165</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
-        <v>-0.1200482608009166</v>
+        <v>-0.04210526315789473</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.09086108610861086</v>
+        <v>-0.08721804511278194</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.1222442244224422</v>
+        <v>0.06015037593984961</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.1222442244224422</v>
+        <v>0.06015037593984961</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.1222442244224422</v>
+        <v>0.06015037593984961</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.1222442244224422</v>
+        <v>0.06015037593984961</v>
       </c>
       <c r="Z33" t="inlineStr"/>
     </row>
@@ -2952,67 +2952,67 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1076267626762676</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000492049204920492</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.09284128412841283</v>
+        <v>0.2827067669172932</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>-0.06902429874558974</v>
+        <v>0.3323308270676691</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.06972697269726971</v>
+        <v>0.5383458646616541</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0833123312331233</v>
+        <v>0.4406015037593984</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1006420642064206</v>
+        <v>0.2872180451127819</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1867266726672667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1867266726672667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1867266726672667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1867266726672667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.1216081608160816</v>
+        <v>0.3353383458646617</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.08387638763876386</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1286168616861686</v>
+        <v>0.2390977443609023</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>-0.1117113259350362</v>
+        <v>-0.6812030075187969</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.02846684668466846</v>
+        <v>-0.5894736842105263</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.1215361536153615</v>
+        <v>-0.625563909774436</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.1215361536153615</v>
+        <v>-0.625563909774436</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.1215361536153615</v>
+        <v>-0.625563909774436</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.1215361536153615</v>
+        <v>-0.625563909774436</v>
       </c>
       <c r="Z34" t="inlineStr"/>
     </row>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.001788178817881788</v>
+        <v>-0.04962406015037594</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1304890489048905</v>
+        <v>-0.006015037593984962</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1326732673267327</v>
+        <v>0.08721804511278194</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0.122761215847265</v>
+        <v>0.1969924812030075</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03092709270927092</v>
+        <v>0.2451127819548872</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01956195619561956</v>
+        <v>0.1984962406015038</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1411341134113411</v>
+        <v>0.2481203007518797</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1456705670567057</v>
+        <v>0.2451127819548872</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1456705670567057</v>
+        <v>0.2451127819548872</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1456705670567057</v>
+        <v>0.2451127819548872</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1456705670567057</v>
+        <v>0.2451127819548872</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.04672067206720671</v>
+        <v>0.1338345864661654</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1151515151515151</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1023222322232223</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>-0.02269398900496303</v>
+        <v>-0.09624060150375939</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07399939993999401</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.04362436243624362</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.04362436243624362</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.04362436243624362</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.04362436243624362</v>
+        <v>-0.06616541353383458</v>
       </c>
       <c r="Z35" t="inlineStr"/>
     </row>
@@ -3104,67 +3104,67 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03696369636963696</v>
+        <v>-0.2766917293233083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07699969996999699</v>
+        <v>-0.2526315789473684</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03968796879687968</v>
+        <v>0.3338345864661654</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>-0.01744214018736381</v>
+        <v>0.3218045112781954</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0741074107410741</v>
+        <v>0.2541353383458646</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07501950195019501</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1601440144014401</v>
+        <v>-0.1894736842105263</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02694269426942694</v>
+        <v>0.4661654135338345</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02694269426942694</v>
+        <v>0.4661654135338345</v>
       </c>
       <c r="M36" t="n">
-        <v>0.02694269426942694</v>
+        <v>0.4661654135338345</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02694269426942694</v>
+        <v>0.4661654135338345</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.0655985598559856</v>
+        <v>-0.281203007518797</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.03175517551755175</v>
+        <v>-0.3488721804511278</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001104110411041104</v>
+        <v>0.3323308270676691</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>0.06363440133049934</v>
+        <v>-0.03609022556390977</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007332733273327332</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1371257125712571</v>
+        <v>0.01203007518796992</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1371257125712571</v>
+        <v>0.01203007518796992</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1371257125712571</v>
+        <v>0.01203007518796992</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1371257125712571</v>
+        <v>0.01203007518796992</v>
       </c>
       <c r="Z36" t="inlineStr"/>
     </row>
@@ -3180,67 +3180,67 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.06744674467446744</v>
+        <v>-0.1458646616541353</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05462946294629463</v>
+        <v>0.009022556390977442</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005040504050405041</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>-0.0390317404123974</v>
+        <v>0.006015037593984962</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.08979297929792979</v>
+        <v>0.1022556390977443</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03245124512451245</v>
+        <v>0.08120300751879699</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.101038103810381</v>
+        <v>-0.124812030075188</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2778997899789978</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2778997899789978</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2778997899789978</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2778997899789978</v>
+        <v>0.3488721804511278</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.0846084608460846</v>
+        <v>-0.1458646616541353</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.06724272427242724</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1153555355535553</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
-        <v>0.200932734704879</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1168316831683168</v>
+        <v>0.4150375939849624</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1847824782478248</v>
+        <v>0.1413533834586466</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1847824782478248</v>
+        <v>0.1413533834586466</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1847824782478248</v>
+        <v>0.1413533834586466</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1847824782478248</v>
+        <v>0.1413533834586466</v>
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -712,67 +712,67 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.275187969924812</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4060150375939849</v>
+        <v>-0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>0.437593984962406</v>
+        <v>0.7</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.3413533834586466</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2661654135338345</v>
+        <v>-0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4135338345864661</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1218045112781955</v>
+        <v>-0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.3368421052631578</v>
+        <v>-0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6150375939849623</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6360902255639098</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>-0.3142857142857143</v>
+        <v>-0.7</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1593984962406015</v>
+        <v>-0.2</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.2466165413533834</v>
+        <v>-0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.2466165413533834</v>
+        <v>-0.6</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.2466165413533834</v>
+        <v>-0.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.2466165413533834</v>
+        <v>-0.6</v>
       </c>
       <c r="Z4" t="inlineStr"/>
     </row>
@@ -784,67 +784,67 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1112781954887218</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2827067669172932</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-0.06917293233082707</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2090225563909774</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2255639097744361</v>
+        <v>-0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3022556390977443</v>
+        <v>-0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.06917293233082707</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06917293233082707</v>
+        <v>0.3</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.06917293233082707</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.06917293233082707</v>
+        <v>0.3</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.4090225563909774</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9533834586466164</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.3443609022556391</v>
+        <v>0.7</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>0.3578947368421052</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1037593984962406</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07368421052631578</v>
+        <v>-0.3</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07368421052631578</v>
+        <v>-0.3</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07368421052631578</v>
+        <v>-0.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07368421052631578</v>
+        <v>-0.3</v>
       </c>
       <c r="Z5" t="inlineStr"/>
     </row>
@@ -856,67 +856,67 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2616541353383459</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1398496240601504</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2691729323308271</v>
+        <v>-0.3</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.3969924812030075</v>
+        <v>-0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9744360902255638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9368421052631578</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.300751879699248</v>
+        <v>-0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4646616541353384</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4646616541353384</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4646616541353384</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4646616541353384</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.1533834586466165</v>
+        <v>-0.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2240601503759398</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2601503759398496</v>
+        <v>-0.4</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>-0.3458646616541353</v>
+        <v>0.7</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.38796992481203</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3203007518796992</v>
+        <v>0.6</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3203007518796992</v>
+        <v>0.6</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.3203007518796992</v>
+        <v>0.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3203007518796992</v>
+        <v>0.6</v>
       </c>
       <c r="Z6" t="inlineStr"/>
     </row>
@@ -932,67 +932,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5969924812030075</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01203007518796992</v>
+        <v>-0.3</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.1308270676691729</v>
+        <v>-0.3</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3548872180451128</v>
+        <v>-0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2947368421052631</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1548872180451128</v>
+        <v>-0.3</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1548872180451128</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.1548872180451128</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1548872180451128</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1548872180451128</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.2721804511278195</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.193984962406015</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.06015037593984961</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>-0.06165413533834586</v>
+        <v>0.3</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04962406015037594</v>
+        <v>0.3</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.4</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.4</v>
       </c>
       <c r="Z7" t="inlineStr"/>
     </row>
@@ -1008,67 +1008,67 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6030075187969924</v>
+        <v>0.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3729323308270677</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2781954887218045</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.2421052631578947</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3548872180451128</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3849624060150376</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08421052631578946</v>
+        <v>-0.6</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.3473684210526315</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3473684210526315</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3473684210526315</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.3473684210526315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.7218045112781954</v>
+        <v>0.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2300751879699248</v>
+        <v>0.3</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2781954887218045</v>
+        <v>0.2</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0.1639097744360902</v>
+        <v>0.4</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1834586466165413</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3082706766917293</v>
+        <v>0.3</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3082706766917293</v>
+        <v>0.3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3082706766917293</v>
+        <v>0.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3082706766917293</v>
+        <v>0.3</v>
       </c>
       <c r="Z8" t="inlineStr"/>
     </row>
@@ -1084,67 +1084,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.156390977443609</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1533834586466165</v>
+        <v>-0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.162406015037594</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.1022556390977443</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2180451127819548</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3969924812030075</v>
+        <v>-0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01804511278195488</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.2</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.07368421052631578</v>
+        <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.2992481203007519</v>
+        <v>0.7</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0.3654135338345864</v>
+        <v>-0.6</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2240601503759398</v>
+        <v>-0.6</v>
       </c>
       <c r="V9" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Z9" t="inlineStr"/>
     </row>
@@ -1160,67 +1160,67 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1834586466165413</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.263157894736842</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08571428571428572</v>
+        <v>-0.3</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.03007518796992481</v>
+        <v>-0.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2661654135338345</v>
+        <v>-0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1759398496240602</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2962406015037594</v>
+        <v>0.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1308270676691729</v>
+        <v>-0.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1308270676691729</v>
+        <v>-0.6</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1308270676691729</v>
+        <v>-0.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1308270676691729</v>
+        <v>-0.6</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.1969924812030075</v>
+        <v>0.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1729323308270676</v>
+        <v>0.6</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09473684210526315</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>-0.2766917293233083</v>
+        <v>-0.2</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.7</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
@@ -1232,67 +1232,67 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2255639097744361</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1804511278195489</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2526315789473684</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.3864661654135338</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3142857142857143</v>
+        <v>-0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004511278195488721</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.7</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.4225563909774436</v>
+        <v>0.4</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.4225563909774436</v>
+        <v>0.4</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.4225563909774436</v>
+        <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.4225563909774436</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.3759398496240601</v>
+        <v>0.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.3323308270676691</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0.2300751879699248</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.3</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4270676691729323</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4270676691729323</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4270676691729323</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.4270676691729323</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z11" t="inlineStr"/>
     </row>
@@ -1304,67 +1304,67 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3398496240601503</v>
+        <v>-0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2766917293233083</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1218045112781955</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0.1323308270676692</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4646616541353384</v>
+        <v>0.3</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3714285714285714</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.3894736842105262</v>
+        <v>-0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.3518796992481203</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1443609022556391</v>
+        <v>-0.6</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.6</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>0.2526315789473684</v>
+        <v>-0.3</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3488721804511278</v>
+        <v>0.3</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06466165413533834</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06466165413533834</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06466165413533834</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06466165413533834</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
@@ -1380,67 +1380,67 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.09624060150375939</v>
+        <v>-0.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2135338345864662</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2240601503759398</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-0.09172932330827067</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2270676691729323</v>
+        <v>-0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2225563909774436</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.4</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1278195488721804</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1278195488721804</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1278195488721804</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1278195488721804</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.2150375939849624</v>
+        <v>0.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5593984962406015</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.2706766917293233</v>
+        <v>0.2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>0.3172932330827067</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>0.275187969924812</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.2</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.2</v>
       </c>
       <c r="Z13" t="inlineStr"/>
     </row>
@@ -1456,67 +1456,67 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1744360902255639</v>
+        <v>-0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2345864661654135</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1293233082706767</v>
+        <v>-0.6</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>-0.09473684210526315</v>
+        <v>-0.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2300751879699248</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1729323308270676</v>
+        <v>-0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1233082706766917</v>
+        <v>-0.7</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1233082706766917</v>
+        <v>-0.7</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1233082706766917</v>
+        <v>-0.7</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1233082706766917</v>
+        <v>-0.7</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.1323308270676692</v>
+        <v>-0.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2270676691729323</v>
+        <v>0.2</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.3233082706766917</v>
+        <v>-0.7</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>-0.08721804511278194</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.112781954887218</v>
+        <v>-0.4</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
@@ -1532,67 +1532,67 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1924812030075188</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3323308270676691</v>
+        <v>-0.4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09924812030075188</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.05563909774436089</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01052631578947368</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3097744360902255</v>
+        <v>-0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1774436090225564</v>
+        <v>0.3</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1774436090225564</v>
+        <v>0.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1774436090225564</v>
+        <v>0.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1774436090225564</v>
+        <v>0.3</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.3518796992481203</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.09624060150375939</v>
+        <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.118796992481203</v>
+        <v>0.7</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>0.1533834586466165</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4390977443609023</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V15" t="n">
-        <v>0.118796992481203</v>
+        <v>-0.3</v>
       </c>
       <c r="W15" t="n">
-        <v>0.118796992481203</v>
+        <v>-0.3</v>
       </c>
       <c r="X15" t="n">
-        <v>0.118796992481203</v>
+        <v>-0.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.118796992481203</v>
+        <v>-0.3</v>
       </c>
       <c r="Z15" t="inlineStr"/>
     </row>
@@ -1608,67 +1608,67 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.237593984962406</v>
+        <v>-0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1218045112781955</v>
+        <v>0.4</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0781954887218045</v>
+        <v>-0.4</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>-0.03909774436090225</v>
+        <v>-0.4</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1654135338345864</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.263157894736842</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.06917293233082707</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.07669172932330826</v>
+        <v>-0.3</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.07669172932330826</v>
+        <v>-0.3</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.07669172932330826</v>
+        <v>-0.3</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.07669172932330826</v>
+        <v>-0.3</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.4827067669172932</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3458646616541353</v>
+        <v>-0.3</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.4015037593984962</v>
+        <v>-0.7</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>0.1218045112781955</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.1774436090225564</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.3</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.3</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.3</v>
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
@@ -1680,67 +1680,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.08120300751879699</v>
+        <v>-0.4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02706766917293233</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.03308270676691729</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3112781954887218</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3248120300751879</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1278195488721804</v>
+        <v>0.7</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2315789473684211</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.2315789473684211</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.2315789473684211</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.2315789473684211</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.1609022556390977</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1533834586466165</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1593984962406015</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>0.1112781954887218</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.2135338345864662</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="Z17" t="inlineStr"/>
     </row>
@@ -1756,67 +1756,67 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2165413533834586</v>
+        <v>0.2</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.2</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-0.2781954887218045</v>
+        <v>-0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007518796992481202</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1819548872180451</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.03909774436090225</v>
+        <v>-0.7</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.2045112781954887</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01804511278195488</v>
+        <v>0.4</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.3909774436090225</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.7</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2436090225563909</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05112781954887217</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05112781954887217</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05112781954887217</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.05112781954887217</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
@@ -1832,67 +1832,67 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01654135338345865</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3473684210526315</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5969924812030075</v>
+        <v>-0.3</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.5819548872180451</v>
+        <v>-0.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08872180451127819</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.004511278195488721</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1548872180451128</v>
+        <v>0.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4962406015037594</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4962406015037594</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4962406015037594</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4962406015037594</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.03759398496240601</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.38796992481203</v>
+        <v>-0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6646616541353383</v>
+        <v>-0.6</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>-0.2706766917293233</v>
+        <v>0.3</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.1969924812030075</v>
+        <v>0.3</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.4060150375939849</v>
+        <v>0.4</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.4060150375939849</v>
+        <v>0.4</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.4060150375939849</v>
+        <v>0.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.4060150375939849</v>
+        <v>0.4</v>
       </c>
       <c r="Z19" t="inlineStr"/>
     </row>
@@ -1904,67 +1904,67 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2887218045112782</v>
+        <v>0.2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03308270676691729</v>
+        <v>0.4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05864661654135337</v>
+        <v>-0.4</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.1052631578947368</v>
+        <v>-0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2766917293233083</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03759398496240601</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.150375939849624</v>
+        <v>-0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1293233082706767</v>
+        <v>-0.3</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1293233082706767</v>
+        <v>-0.3</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1293233082706767</v>
+        <v>-0.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1293233082706767</v>
+        <v>-0.3</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.162406015037594</v>
+        <v>-0.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1172932330827067</v>
+        <v>0.3</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.1007518796992481</v>
+        <v>-0.3</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>-0.06616541353383458</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.3323308270676691</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.02105263157894736</v>
+        <v>0.7</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.02105263157894736</v>
+        <v>0.7</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.02105263157894736</v>
+        <v>0.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.02105263157894736</v>
+        <v>0.7</v>
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
@@ -1976,67 +1976,67 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0481203007518797</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2571428571428572</v>
+        <v>-0.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4270676691729323</v>
+        <v>0.7</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.4075187969924812</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.275187969924812</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3398496240601503</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.009022556390977442</v>
+        <v>-0.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.2992481203007519</v>
+        <v>-0.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.06917293233082707</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5218045112781955</v>
+        <v>0.6</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>-0.01804511278195488</v>
+        <v>-0.3</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1308270676691729</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.6</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.6</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.6</v>
       </c>
       <c r="Z21" t="inlineStr"/>
     </row>
@@ -2048,67 +2048,67 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03458646616541353</v>
+        <v>0.6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04661654135338346</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>0.04360902255639097</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1518796992481203</v>
+        <v>0.7</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1849624060150376</v>
+        <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01203007518796992</v>
+        <v>0.2</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.1338345864661654</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1338345864661654</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.1338345864661654</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.1338345864661654</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1278195488721804</v>
+        <v>-0.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1578947368421053</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03157894736842105</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
-        <v>0.1849624060150376</v>
+        <v>0.7</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006015037593984962</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3443609022556391</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3443609022556391</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3443609022556391</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3443609022556391</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
@@ -2124,67 +2124,67 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1954887218045113</v>
+        <v>-0.3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2210526315789474</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>-0.1007518796992481</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2270676691729323</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08872180451127819</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0481203007518797</v>
+        <v>-0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.02706766917293233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.02706766917293233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02706766917293233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.02706766917293233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.350375939849624</v>
+        <v>-0.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.03609022556390977</v>
+        <v>-0.7</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.3969924812030075</v>
+        <v>0.7</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>-0.2992481203007519</v>
+        <v>-0.6</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.2270676691729323</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.7</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.7</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.02406015037593985</v>
+        <v>-0.7</v>
       </c>
       <c r="Z23" t="inlineStr"/>
     </row>
@@ -2196,67 +2196,67 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.2781954887218045</v>
+        <v>0.3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.300751879699248</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4827067669172932</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.5007518796992482</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1473684210526316</v>
+        <v>-0.6</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.02105263157894736</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2691729323308271</v>
+        <v>-0.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2691729323308271</v>
+        <v>-0.3</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2691729323308271</v>
+        <v>-0.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.2691729323308271</v>
+        <v>-0.3</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.1413533834586466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.3744360902255639</v>
+        <v>0.7</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6225563909774435</v>
+        <v>0.3</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>-0.2496240601503759</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.2165413533834586</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.2917293233082707</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.2917293233082707</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.2917293233082707</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.2917293233082707</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
@@ -2272,67 +2272,67 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.007518796992481202</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.07669172932330826</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.09924812030075188</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>-0.1849624060150376</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6812030075187969</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.6962406015037594</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1458646616541353</v>
+        <v>0.6</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1458646616541353</v>
+        <v>0.6</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1458646616541353</v>
+        <v>0.6</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1458646616541353</v>
+        <v>0.6</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.2586466165413533</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.1804511278195489</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2556390977443609</v>
+        <v>0.6</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4781954887218045</v>
+        <v>0.7</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2511278195488721</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2511278195488721</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2511278195488721</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2511278195488721</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z25" t="inlineStr"/>
     </row>
@@ -2344,67 +2344,67 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3037593984962406</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2571428571428572</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.6</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0706766917293233</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.4390977443609023</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.09924812030075188</v>
+        <v>0.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09924812030075188</v>
+        <v>0.3</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09924812030075188</v>
+        <v>0.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09924812030075188</v>
+        <v>0.3</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.1142857142857143</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.7</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06015037593984961</v>
+        <v>-0.3</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>-0.1082706766917293</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2571428571428572</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.3413533834586466</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.3413533834586466</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.3413533834586466</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.3413533834586466</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="inlineStr"/>
     </row>
@@ -2420,67 +2420,67 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2045112781954887</v>
+        <v>0.3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1353383458646616</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.150375939849624</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>0.07969924812030074</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.3293233082706767</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4406015037593984</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.09924812030075188</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1383458646616541</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1383458646616541</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1383458646616541</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1383458646616541</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.0150375939849624</v>
+        <v>-0.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.5759398496240601</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2556390977443609</v>
+        <v>0.3</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>-0.3684210526315789</v>
+        <v>-0.4</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.1052631578947368</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.1654135338345864</v>
+        <v>-0.3</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.1654135338345864</v>
+        <v>-0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.1654135338345864</v>
+        <v>-0.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.1654135338345864</v>
+        <v>-0.3</v>
       </c>
       <c r="Z27" t="inlineStr"/>
     </row>
@@ -2496,67 +2496,67 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1157894736842105</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.003007518796992481</v>
+        <v>-0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04511278195488722</v>
+        <v>0.7</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-0.07368421052631578</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.03007518796992481</v>
+        <v>-0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1398496240601504</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.263157894736842</v>
+        <v>-0.3</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.2872180451127819</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.4</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>-0.1157894736842105</v>
+        <v>-0.7</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.09172932330827067</v>
+        <v>-0.2</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.6</v>
       </c>
       <c r="Z28" t="inlineStr"/>
     </row>
@@ -2572,67 +2572,67 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.07218045112781954</v>
+        <v>-0.4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2556390977443609</v>
+        <v>0.2</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1699248120300751</v>
+        <v>-0.2</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>-0.2360902255639098</v>
+        <v>-0.2</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1067669172932331</v>
+        <v>-0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2135338345864662</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3804511278195489</v>
+        <v>0.3</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.2496240601503759</v>
+        <v>-0.6</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2496240601503759</v>
+        <v>-0.6</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.2496240601503759</v>
+        <v>-0.6</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.2496240601503759</v>
+        <v>-0.6</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.09172932330827067</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1082706766917293</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
-        <v>-0.1338345864661654</v>
+        <v>0.2</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.1338345864661654</v>
+        <v>-0.2</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.02556390977443609</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.02556390977443609</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.02556390977443609</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.02556390977443609</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="inlineStr"/>
     </row>
@@ -2648,67 +2648,67 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.356390977443609</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06315789473684209</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.1774436090225564</v>
+        <v>-0.6</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>-0.1744360902255639</v>
+        <v>-0.6</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3819548872180452</v>
+        <v>-0.4</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5263157894736841</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.2872180451127819</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.09022556390977443</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.09022556390977443</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.09022556390977443</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.09022556390977443</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.156390977443609</v>
+        <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.07669172932330826</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.3383458646616541</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>0.150375939849624</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.01052631578947368</v>
+        <v>-0.6</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1849624060150376</v>
+        <v>0.2</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1849624060150376</v>
+        <v>0.2</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1849624060150376</v>
+        <v>0.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1849624060150376</v>
+        <v>0.2</v>
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
@@ -2724,67 +2724,67 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6676691729323309</v>
+        <v>0.6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.993984962406015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9022556390977443</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>-0.863157894736842</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1789473684210526</v>
+        <v>0.3</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.09924812030075188</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6872180451127818</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8360902255639097</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8360902255639097</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8360902255639097</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8360902255639097</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.3533834586466165</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2451127819548872</v>
+        <v>0.4</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6030075187969924</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>0.3082706766917293</v>
+        <v>0.7</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05112781954887217</v>
+        <v>0.2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5639097744360902</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5639097744360902</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5639097744360902</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5639097744360902</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Z31" t="inlineStr"/>
     </row>
@@ -2800,67 +2800,67 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2947368421052631</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5759398496240601</v>
+        <v>-0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5969924812030075</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>-0.5954887218045113</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.4060150375939849</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3894736842105262</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1804511278195489</v>
+        <v>-0.4</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.675187969924812</v>
+        <v>0.3</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.675187969924812</v>
+        <v>0.3</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.675187969924812</v>
+        <v>0.3</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.675187969924812</v>
+        <v>0.3</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.2345864661654135</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.300751879699248</v>
+        <v>0.3</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.6631578947368421</v>
+        <v>0.7</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>0.4330827067669173</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4766917293233082</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4766917293233082</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4766917293233082</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.4766917293233082</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Z32" t="inlineStr"/>
     </row>
@@ -2876,67 +2876,67 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4842105263157894</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1097744360902256</v>
+        <v>-0.4</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>-0.1789473684210526</v>
+        <v>-0.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06766917293233082</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09172932330827067</v>
+        <v>-0.3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2977443609022556</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.2150375939849624</v>
+        <v>-0.3</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.2150375939849624</v>
+        <v>-0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.2150375939849624</v>
+        <v>-0.3</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.2150375939849624</v>
+        <v>-0.3</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.07368421052631578</v>
+        <v>0.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.18796992481203</v>
+        <v>0.2</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1533834586466165</v>
+        <v>-0.2</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
-        <v>-0.04210526315789473</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.08721804511278194</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06015037593984961</v>
+        <v>0.3</v>
       </c>
       <c r="W33" t="n">
-        <v>0.06015037593984961</v>
+        <v>0.3</v>
       </c>
       <c r="X33" t="n">
-        <v>0.06015037593984961</v>
+        <v>0.3</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.06015037593984961</v>
+        <v>0.3</v>
       </c>
       <c r="Z33" t="inlineStr"/>
     </row>
@@ -2952,67 +2952,67 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.1142857142857143</v>
+        <v>-0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1338345864661654</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2827067669172932</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>0.3323308270676691</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5383458646616541</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4406015037593984</v>
+        <v>0.7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2872180451127819</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.3353383458646617</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.2</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2390977443609023</v>
+        <v>-0.3</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>-0.6812030075187969</v>
+        <v>0.4</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.5894736842105263</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.625563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.625563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.625563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.625563909774436</v>
+        <v>0.3</v>
       </c>
       <c r="Z34" t="inlineStr"/>
     </row>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.04962406015037594</v>
+        <v>-0.7</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.006015037593984962</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08721804511278194</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0.1969924812030075</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2451127819548872</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1984962406015038</v>
+        <v>-0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2481203007518797</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2451127819548872</v>
+        <v>-0.3</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2451127819548872</v>
+        <v>-0.3</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2451127819548872</v>
+        <v>-0.3</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2451127819548872</v>
+        <v>-0.3</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.1338345864661654</v>
+        <v>0.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1774436090225564</v>
+        <v>0.3</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>-0.09624060150375939</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.1744360902255639</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.06616541353383458</v>
+        <v>-0.2</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.06616541353383458</v>
+        <v>-0.2</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.06616541353383458</v>
+        <v>-0.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.06616541353383458</v>
+        <v>-0.2</v>
       </c>
       <c r="Z35" t="inlineStr"/>
     </row>
@@ -3104,67 +3104,67 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.2766917293233083</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2526315789473684</v>
+        <v>-0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3338345864661654</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>0.3218045112781954</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2541353383458646</v>
+        <v>-0.2</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1263157894736842</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.1894736842105263</v>
+        <v>-0.3</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4661654135338345</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4661654135338345</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4661654135338345</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4661654135338345</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.281203007518797</v>
+        <v>-0.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.3488721804511278</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3323308270676691</v>
+        <v>0.4</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>-0.03609022556390977</v>
+        <v>-0.7</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1067669172932331</v>
+        <v>-0.2</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01203007518796992</v>
+        <v>-0.6</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01203007518796992</v>
+        <v>-0.6</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01203007518796992</v>
+        <v>-0.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01203007518796992</v>
+        <v>-0.6</v>
       </c>
       <c r="Z36" t="inlineStr"/>
     </row>
@@ -3180,67 +3180,67 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1458646616541353</v>
+        <v>0.7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.009022556390977442</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.1203007518796992</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>0.006015037593984962</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1022556390977443</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08120300751879699</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.124812030075188</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3488721804511278</v>
+        <v>0.3</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3488721804511278</v>
+        <v>0.3</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3488721804511278</v>
+        <v>0.3</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3488721804511278</v>
+        <v>0.3</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.1458646616541353</v>
+        <v>-0.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1849624060150376</v>
+        <v>-0.7</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1744360902255639</v>
+        <v>-0.3</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
-        <v>0.1353383458646616</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4150375939849624</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1413533834586466</v>
+        <v>0.2</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1413533834586466</v>
+        <v>0.2</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1413533834586466</v>
+        <v>0.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1413533834586466</v>
+        <v>0.2</v>
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -712,67 +712,67 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.06701790796071631</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7</v>
+        <v>-0.06401098960043958</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>-0.0007754428150177125</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>-0.04167744059419828</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2</v>
+        <v>0.009686123715444948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3</v>
+        <v>0.02586185417585303</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.02654249971769998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.02654249971769998</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.02654249971769998</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.02654249971769998</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.4</v>
+        <v>-0.06828172833126912</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.4197110753164429</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4</v>
+        <v>0.005469867674794706</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>-0.7</v>
+        <v>-0.05945111276433154</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.2</v>
+        <v>0.05226737335469493</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.6</v>
+        <v>0.002466641570665663</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.6</v>
+        <v>0.002466641570665663</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6</v>
+        <v>0.002466641570665663</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.6</v>
+        <v>0.002466641570665663</v>
       </c>
       <c r="Z4" t="inlineStr"/>
     </row>
@@ -784,67 +784,67 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.08135388671015546</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4</v>
+        <v>0.1098341904733676</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4</v>
+        <v>0.005518033180721326</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.08860896334892748</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01284084320163372</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2</v>
+        <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6</v>
+        <v>-0.01724465856537932</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3</v>
+        <v>-0.002875180435007217</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3</v>
+        <v>-0.002875180435007217</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>-0.002875180435007217</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3</v>
+        <v>-0.002875180435007217</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.1215403867816155</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3</v>
+        <v>0.8193785213191407</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7</v>
+        <v>0.009132848813313953</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1206007682530501</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.06927835678713426</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.3</v>
+        <v>-0.01198038604721544</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.3</v>
+        <v>-0.01198038604721544</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.3</v>
+        <v>-0.01198038604721544</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.3</v>
+        <v>-0.01198038604721544</v>
       </c>
       <c r="Z5" t="inlineStr"/>
     </row>
@@ -856,67 +856,67 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1876896602115864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>-0.02088691734747669</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3</v>
+        <v>0.01898544680741787</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-0.3</v>
+        <v>0.0479797358154735</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9129961902158474</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3</v>
+        <v>-0.01654279480785612</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.05539782480791298</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.05539782480791298</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.05539782480791298</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.05539782480791298</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.6</v>
+        <v>-0.02962966284918651</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.002422170720886828</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.4</v>
+        <v>0.1250010147920406</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.7</v>
+        <v>0.03351902675655886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.03526255408250215</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6</v>
+        <v>-0.01003858168154327</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6</v>
+        <v>-0.01003858168154327</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6</v>
+        <v>-0.01003858168154327</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6</v>
+        <v>-0.01003858168154327</v>
       </c>
       <c r="Z6" t="inlineStr"/>
     </row>
@@ -932,67 +932,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.6554113960404557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.02591681345267254</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3</v>
+        <v>-0.02469453881178155</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.3</v>
+        <v>-0.02654160090464057</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2</v>
+        <v>-0.008200424584016982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3</v>
+        <v>-0.005210398299170194</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02437831057513242</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02437831057513242</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02437831057513242</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02437831057513242</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.6</v>
+        <v>-0.3459301062852042</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01524789584191583</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.04249964809998592</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.3</v>
+        <v>-0.002268113550979345</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3</v>
+        <v>-0.004817400288696011</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4</v>
+        <v>0.01429552847582114</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4</v>
+        <v>0.01429552847582114</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4</v>
+        <v>0.01429552847582114</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4</v>
+        <v>0.01429552847582114</v>
       </c>
       <c r="Z7" t="inlineStr"/>
     </row>
@@ -1008,67 +1008,67 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>0.3946018228240729</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01273224828528993</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01882128603285144</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01294267479244484</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.008643320121732802</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.6</v>
+        <v>0.0242730932770234</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.01735301311012052</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.01735301311012052</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.01735301311012052</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-0.01735301311012052</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.7</v>
+        <v>0.8166511226180448</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3</v>
+        <v>0.0005596595743863829</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2</v>
+        <v>-0.006656071850242874</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0.4</v>
+        <v>-0.007335283711671112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.0193827577033103</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3</v>
+        <v>-0.0033247925169917</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3</v>
+        <v>-0.0033247925169917</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3</v>
+        <v>-0.0033247925169917</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3</v>
+        <v>-0.0033247925169917</v>
       </c>
       <c r="Z8" t="inlineStr"/>
     </row>
@@ -1084,67 +1084,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.01618250186330007</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6</v>
+        <v>-0.01097283336691333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>-0.004055731746229269</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>-0.00518317516993134</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6</v>
+        <v>0.01713117140524685</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7</v>
+        <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006649578855707884</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>-0.002406269280250771</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>-0.002406269280250771</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>-0.002406269280250771</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2</v>
+        <v>-0.002406269280250771</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.3</v>
+        <v>0.004457923858316954</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3</v>
+        <v>0.01474494970979799</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7</v>
+        <v>-0.01524021488160859</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>-0.6</v>
+        <v>0.004314272003338615</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.6</v>
+        <v>0.005350484950019396</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.004277198667087946</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.004277198667087946</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.004277198667087946</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.004277198667087946</v>
       </c>
       <c r="Z9" t="inlineStr"/>
     </row>
@@ -1160,67 +1160,67 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01235990036639601</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>0.008272253994890158</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3</v>
+        <v>-0.00209985051599402</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.3</v>
+        <v>-9.042829101265944e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7</v>
+        <v>0.003958745630349825</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7</v>
+        <v>0.008494290357303829</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6</v>
+        <v>-0.005950279822011192</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.6</v>
+        <v>-0.005950279822011192</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.6</v>
+        <v>-0.005950279822011192</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.6</v>
+        <v>-0.005950279822011192</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.6</v>
+        <v>-0.01351698236467929</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6</v>
+        <v>-0.006179864311194571</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003631551697262068</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>-0.2</v>
+        <v>-0.008948609581737921</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.7</v>
+        <v>-0.01104380386575215</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003725659541026381</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003725659541026381</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003725659541026381</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003725659541026381</v>
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
@@ -1232,67 +1232,67 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.1433513816380552</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3</v>
+        <v>-0.002091161555646462</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>-0.00153841599753664</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>-0.002062204361807522</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3</v>
+        <v>-0.0006921050196842007</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.7</v>
+        <v>0.005635087869034336</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4</v>
+        <v>-0.005463630746545229</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4</v>
+        <v>-0.005463630746545229</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4</v>
+        <v>-0.005463630746545229</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4</v>
+        <v>-0.005463630746545229</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.6</v>
+        <v>0.003723256948930278</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0.01474083130963325</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01217103351084134</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.005270964419433058</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3</v>
+        <v>0.003621515376860615</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003763028118521124</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003763028118521124</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003763028118521124</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003763028118521124</v>
       </c>
       <c r="Z11" t="inlineStr"/>
     </row>
@@ -1304,67 +1304,67 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.4</v>
+        <v>-0.2595023772600951</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.003748429397937175</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.005694263747770549</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.00372978052657768</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.01100979356039174</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.7</v>
+        <v>-0.004863255660567985</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01769111984364479</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01769111984364479</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01769111984364479</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01769111984364479</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02102879095315164</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.6</v>
+        <v>0.01058158515926341</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6</v>
+        <v>-0.0189042051721682</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>-0.3</v>
+        <v>0.001404292143055442</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3</v>
+        <v>0.02419557303182292</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00056832050273282</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00056832050273282</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00056832050273282</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00056832050273282</v>
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
@@ -1380,67 +1380,67 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3</v>
+        <v>0.03352305436492217</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.001110010220400409</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0003408092296323691</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.002883050146371939</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6</v>
+        <v>0.005362045654481826</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4</v>
+        <v>-0.02090161268720543</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.0009015481320619252</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.0009015481320619252</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.0009015481320619252</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.0009015481320619252</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.7</v>
+        <v>0.03636812027072481</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01379978963999159</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2</v>
+        <v>0.01069009338760374</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02627614653659216</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.0281107925484317</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.2</v>
+        <v>0.01356448988657959</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.2</v>
+        <v>0.01356448988657959</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.2</v>
+        <v>0.01356448988657959</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.2</v>
+        <v>0.01356448988657959</v>
       </c>
       <c r="Z13" t="inlineStr"/>
     </row>
@@ -1456,67 +1456,67 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.2</v>
+        <v>-0.02366619579464783</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6</v>
+        <v>0.00844226875369075</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6</v>
+        <v>-0.01115919404636776</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>-0.6</v>
+        <v>-0.01560981564606234</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.005259051858362073</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3</v>
+        <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01243544821908469</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.7</v>
+        <v>-0.01365820566632822</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.7</v>
+        <v>-0.01365820566632822</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7</v>
+        <v>-0.01365820566632822</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.7</v>
+        <v>-0.01365820566632822</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>-0.3</v>
+        <v>-0.04438661975946478</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2</v>
+        <v>-0.007462126954485076</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.7</v>
+        <v>-0.02298169138326765</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.003413838938304976</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.4</v>
+        <v>0.01684242873769715</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3</v>
+        <v>0.004169624422784976</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3</v>
+        <v>0.004169624422784976</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3</v>
+        <v>0.004169624422784976</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3</v>
+        <v>0.004169624422784976</v>
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
@@ -1532,67 +1532,67 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2</v>
+        <v>0.002872333554893342</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4</v>
+        <v>0.01647315771492631</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>-0.009478666747146668</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>-0.01448398999067505</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.007482186635287464</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2</v>
+        <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.6</v>
+        <v>-0.001631548148629441</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3</v>
+        <v>-0.01832869638114785</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3</v>
+        <v>-0.01832869638114785</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3</v>
+        <v>-0.01832869638114785</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3</v>
+        <v>-0.01832869638114785</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.01991846354873854</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3</v>
+        <v>0.0006316949052677961</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7</v>
+        <v>-0.004723919804956791</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006961655382886779</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01008316398732656</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.3</v>
+        <v>0.009779093383163734</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3</v>
+        <v>0.009779093383163734</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.3</v>
+        <v>0.009779093383163734</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.3</v>
+        <v>0.009779093383163734</v>
       </c>
       <c r="Z15" t="inlineStr"/>
     </row>
@@ -1608,67 +1608,67 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.2</v>
+        <v>-0.06249584947583398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.003360538886421555</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4</v>
+        <v>-0.007024993336999732</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>-0.4</v>
+        <v>-0.01476491164901871</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.004004997664199906</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.003433639584432615</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3</v>
+        <v>-0.01225295089011803</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3</v>
+        <v>-0.01225295089011803</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.3</v>
+        <v>-0.01225295089011803</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.3</v>
+        <v>-0.01225295089011803</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.07123637891345515</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.3</v>
+        <v>-0.03481175601647023</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.7</v>
+        <v>-0.0002522742820909712</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0006299506406045835</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006607401576296063</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3</v>
+        <v>0.007150884670035385</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3</v>
+        <v>0.007150884670035385</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3</v>
+        <v>0.007150884670035385</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3</v>
+        <v>0.007150884670035385</v>
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
@@ -1680,67 +1680,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4</v>
+        <v>0.009992838447713537</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2</v>
+        <v>0.01569693211587728</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>-0.01564356321774253</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>-0.01883920444170994</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.0008219832328793293</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7</v>
+        <v>-0.01452667736305016</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0144096899523876</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0144096899523876</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.0144096899523876</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.0144096899523876</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.00916846481473859</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.009593293727731749</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0073319400052776</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.03370173793345586</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.02704653036186121</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.6</v>
+        <v>0.03127384781095391</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.6</v>
+        <v>0.03127384781095391</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.6</v>
+        <v>0.03127384781095391</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.6</v>
+        <v>0.03127384781095391</v>
       </c>
       <c r="Z17" t="inlineStr"/>
     </row>
@@ -1756,67 +1756,67 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>-0.08060463365618534</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>-0.007783422743336909</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2</v>
+        <v>0.010203875160155</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-0.2</v>
+        <v>0.003622162091789866</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.1961479438779177</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.7</v>
+        <v>0.002248496062580738</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004904981188199247</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004904981188199247</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004904981188199247</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004904981188199247</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02875878047835121</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4</v>
+        <v>-0.01679527689581108</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01800631972825279</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>0.7</v>
+        <v>0.0404747276177512</v>
       </c>
       <c r="U18" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.1553746068229843</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.02071770764470831</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.02071770764470831</v>
       </c>
       <c r="X18" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.02071770764470831</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.02071770764470831</v>
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
@@ -1832,67 +1832,67 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.004774538302981531</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3</v>
+        <v>-0.01258584616743384</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3</v>
+        <v>0.1735042356761694</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>-0.3</v>
+        <v>0.1505174656971946</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01666468386658735</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6</v>
+        <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2</v>
+        <v>-0.005833229765368976</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.06896054397442176</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.06896054397442176</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.06896054397442176</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.06896054397442176</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01430924553236982</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.4</v>
+        <v>-0.003255973858238954</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.6</v>
+        <v>0.3074676197867047</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>0.3</v>
+        <v>0.01288663990742005</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3</v>
+        <v>-0.02110840385233615</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4</v>
+        <v>-0.00602619652904786</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4</v>
+        <v>-0.00602619652904786</v>
       </c>
       <c r="X19" t="n">
-        <v>0.4</v>
+        <v>-0.00602619652904786</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4</v>
+        <v>-0.00602619652904786</v>
       </c>
       <c r="Z19" t="inlineStr"/>
     </row>
@@ -1904,67 +1904,67 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>0.0188458876658355</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.009944958733798347</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4</v>
+        <v>-0.002848708049948321</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>-0.4</v>
+        <v>-0.004520261838900614</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.009464078490563138</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4</v>
+        <v>-0.0002404312421134997</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.3</v>
+        <v>-0.00886275078651003</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3</v>
+        <v>-0.00886275078651003</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.3</v>
+        <v>-0.00886275078651003</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.3</v>
+        <v>-0.00886275078651003</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>-0.2</v>
+        <v>0.02406888653075546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3</v>
+        <v>0.01850615910824636</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.3</v>
+        <v>-0.000868098178723927</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01424297815007947</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.006903072564122901</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7</v>
+        <v>-0.003858236218329448</v>
       </c>
       <c r="W20" t="n">
-        <v>0.7</v>
+        <v>-0.003858236218329448</v>
       </c>
       <c r="X20" t="n">
-        <v>0.7</v>
+        <v>-0.003858236218329448</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7</v>
+        <v>-0.003858236218329448</v>
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
@@ -1976,67 +1976,67 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.02743714074548562</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7</v>
+        <v>0.01220894026435761</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7</v>
+        <v>0.1870754804110192</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>0.1714969725689509</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.007560172142406884</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.3</v>
+        <v>-0.006228435525992912</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.05822023711280949</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.05822023711280949</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.05822023711280949</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.05822023711280949</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.4</v>
+        <v>-0.005057877130315085</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01404883880195355</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6</v>
+        <v>0.3573966277358651</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>-0.3</v>
+        <v>0.02918882078577571</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>-0.03121662969666518</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.6</v>
+        <v>0.008580065719202626</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.6</v>
+        <v>0.008580065719202626</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.6</v>
+        <v>0.008580065719202626</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.6</v>
+        <v>0.008580065719202626</v>
       </c>
       <c r="Z21" t="inlineStr"/>
     </row>
@@ -2048,67 +2048,67 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6</v>
+        <v>-0.001929052397162096</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.02639820182392807</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.01061935165677406</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.0123589203509124</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7</v>
+        <v>-0.007015395928615836</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>-0.01041339106202888</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01636292446251697</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01636292446251697</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01636292446251697</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01636292446251697</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>-0.4</v>
+        <v>0.01437687955107518</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.005583479455339178</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.00184332775373311</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
-        <v>0.7</v>
+        <v>-0.03055873092870639</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01356957865478315</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03192440057297602</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03192440057297602</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03192440057297602</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03192440057297602</v>
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
@@ -2124,67 +2124,67 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.3</v>
+        <v>0.01370260355610414</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01581295071251803</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.139621400176856</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.1132543268564909</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009187881967515276</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2</v>
+        <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.6</v>
+        <v>0.02354381460634702</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.04164998336199933</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.04164998336199933</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.04164998336199933</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.04164998336199933</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.3</v>
+        <v>-0.02698451723938069</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.7</v>
+        <v>-0.01700677335227093</v>
       </c>
       <c r="R23" t="n">
-        <v>0.7</v>
+        <v>-0.3786653959466158</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>-0.6</v>
+        <v>-0.1223787233877456</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-0.07244517121780683</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.7</v>
+        <v>-0.02802828592113143</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.7</v>
+        <v>-0.02802828592113143</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.7</v>
+        <v>-0.02802828592113143</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.7</v>
+        <v>-0.02802828592113143</v>
       </c>
       <c r="Z23" t="inlineStr"/>
     </row>
@@ -2196,67 +2196,67 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3</v>
+        <v>0.05481443220857728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.001156692526267701</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.2886744097229763</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.2449366689323525</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6</v>
+        <v>0.07902277151291084</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.07170088602402605</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3</v>
+        <v>0.08151197433247896</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3</v>
+        <v>0.08151197433247896</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.3</v>
+        <v>0.08151197433247896</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.3</v>
+        <v>0.08151197433247896</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.04816325069453001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7</v>
+        <v>-0.003794806327792252</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3</v>
+        <v>0.52764050187362</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.03088807856358712</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02889209923568397</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.0141249775569991</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.0141249775569991</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>0.0141249775569991</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.0141249775569991</v>
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
@@ -2272,67 +2272,67 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1202577220903089</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.009842453097698121</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01666440393057616</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.1389151284839751</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>-0.2847192996127719</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.5194897664278175</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6</v>
+        <v>-0.1759145792925831</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6</v>
+        <v>-0.1759145792925831</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6</v>
+        <v>-0.1759145792925831</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6</v>
+        <v>-0.1759145792925831</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.1580740984189639</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.008214161800566472</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6</v>
+        <v>0.003271263106850524</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>0.2</v>
+        <v>0.3025844891446873</v>
       </c>
       <c r="U25" t="n">
-        <v>0.7</v>
+        <v>0.3213846131433845</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.196259301482372</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.196259301482372</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.196259301482372</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.196259301482372</v>
       </c>
       <c r="Z25" t="inlineStr"/>
     </row>
@@ -2344,67 +2344,67 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.3</v>
+        <v>0.01911172924446917</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.00035824350232974</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.005530337597213503</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.001272836681360631</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6</v>
+        <v>-0.08169766377990655</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008774439777088035</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3</v>
+        <v>0.0005866925034677</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3</v>
+        <v>0.0005866925034677</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3</v>
+        <v>0.0005866925034677</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3</v>
+        <v>0.0005866925034677</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.01620799312831972</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.7</v>
+        <v>0.008450525234021008</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.3</v>
+        <v>0.01094999093399964</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01637325471144745</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.08632836671713466</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>0.01175706306228252</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.01175706306228252</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>0.01175706306228252</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>0.01175706306228252</v>
       </c>
       <c r="Z26" t="inlineStr"/>
     </row>
@@ -2420,67 +2420,67 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3</v>
+        <v>-0.01571924875676995</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.04603566164942646</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.001732933125317325</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.03949756390444508</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02065676434627057</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3</v>
+        <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01326485455797284</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.00733333402133336</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.00733333402133336</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.00733333402133336</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.00733333402133336</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.2</v>
+        <v>-0.0741020827080833</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.3415878630075144</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3</v>
+        <v>0.05785634967425398</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>-0.4</v>
+        <v>-0.0391691593204495</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.03018542568741702</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.3</v>
+        <v>0.006644931721797268</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.3</v>
+        <v>0.006644931721797268</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.3</v>
+        <v>0.006644931721797268</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.3</v>
+        <v>0.006644931721797268</v>
       </c>
       <c r="Z27" t="inlineStr"/>
     </row>
@@ -2496,67 +2496,67 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.006607749192309967</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7</v>
+        <v>-0.002227335353093414</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7</v>
+        <v>0.003121628668865146</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>-0.002016047498784466</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.2</v>
+        <v>-0.01041549488061979</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.3</v>
+        <v>-0.005646267309504587</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.007758589078343561</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.007758589078343561</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.007758589078343561</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.007758589078343561</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>-0.4</v>
+        <v>0.0003568514062740562</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.00810447229217889</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4</v>
+        <v>0.003356962406278496</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>-0.7</v>
+        <v>-0.01603902009401181</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.2</v>
+        <v>-0.01704101818564072</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.6</v>
+        <v>-0.008099017955960719</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.6</v>
+        <v>-0.008099017955960719</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.6</v>
+        <v>-0.008099017955960719</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.6</v>
+        <v>-0.008099017955960719</v>
       </c>
       <c r="Z28" t="inlineStr"/>
     </row>
@@ -2572,67 +2572,67 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.4</v>
+        <v>0.008404704912188195</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2</v>
+        <v>0.02618091032723641</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2</v>
+        <v>-0.02257980167119206</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>-0.2</v>
+        <v>-0.0282842628200763</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.2</v>
+        <v>0.01093545864541834</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3</v>
+        <v>-0.02819250545788955</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.6</v>
+        <v>-0.01575480533419221</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.6</v>
+        <v>-0.01575480533419221</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.6</v>
+        <v>-0.01575480533419221</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.6</v>
+        <v>-0.01575480533419221</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.003741394325655772</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.02784134463365378</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.03242261054490442</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
-        <v>0.2</v>
+        <v>0.007196843914835611</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.2</v>
+        <v>0.01098594783143791</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.02253441920537676</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.02253441920537676</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.02253441920537676</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.02253441920537676</v>
       </c>
       <c r="Z29" t="inlineStr"/>
     </row>
@@ -2648,67 +2648,67 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.004331986349279453</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>-0.005935506669420266</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6</v>
+        <v>-0.0002950274038010961</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>-0.6</v>
+        <v>-0.002905094738048207</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.4</v>
+        <v>-0.0171366526214661</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7</v>
+        <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.006076398975597645</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.001022418664896746</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.001022418664896746</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.001022418664896746</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.001022418664896746</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.3</v>
+        <v>-0.005754660326186412</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.02177043831081753</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.006284515739380629</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.00674563454595409</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.6</v>
+        <v>0.02296700952668038</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2</v>
+        <v>0.00743800004152</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2</v>
+        <v>0.00743800004152</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2</v>
+        <v>0.00743800004152</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2</v>
+        <v>0.00743800004152</v>
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
@@ -2724,67 +2724,67 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6</v>
+        <v>0.4482851654194066</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9883508156940325</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.9093601134624044</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.8890970019396486</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3</v>
+        <v>-0.1168001105920044</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.297008892733382</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8294768800910751</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8294768800910751</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8294768800910751</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8294768800910751</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.09554054148562165</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4</v>
+        <v>-0.008545817717832709</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.292844475649779</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>0.7</v>
+        <v>0.490244710663331</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2</v>
+        <v>0.3223184375327375</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.760731628317265</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.760731628317265</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.760731628317265</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.760731628317265</v>
       </c>
       <c r="Z31" t="inlineStr"/>
     </row>
@@ -2800,67 +2800,67 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.004977268327090733</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.6</v>
+        <v>0.02865893634635745</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>-0.04257191613487664</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>-0.03816648815514724</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01235988663839546</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.4</v>
+        <v>0.01595202278300589</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3</v>
+        <v>-0.01907930197917208</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3</v>
+        <v>-0.01907930197917208</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3</v>
+        <v>-0.01907930197917208</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3</v>
+        <v>-0.01907930197917208</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-0.02143359167334366</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3</v>
+        <v>0.01015195778207831</v>
       </c>
       <c r="R32" t="n">
-        <v>0.7</v>
+        <v>-0.02186779844271193</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009542290776915919</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002631379209255168</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01637690849507634</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01637690849507634</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01637690849507634</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01637690849507634</v>
       </c>
       <c r="Z32" t="inlineStr"/>
     </row>
@@ -2876,67 +2876,67 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.03352172351686893</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>0.02047618833904753</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4</v>
+        <v>-0.02321595827263833</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>-0.4</v>
+        <v>-0.02496603840559469</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.00109350676374027</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3</v>
+        <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02679657165517099</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.3</v>
+        <v>-0.0131788424151537</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3</v>
+        <v>-0.0131788424151537</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.3</v>
+        <v>-0.0131788424151537</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.3</v>
+        <v>-0.0131788424151537</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.7</v>
+        <v>-0.01423092076123683</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2</v>
+        <v>-0.02152985682919427</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.2</v>
+        <v>-0.008960178886407155</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.004186655275106232</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01484562529782501</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3</v>
+        <v>0.01562445163297806</v>
       </c>
       <c r="W33" t="n">
-        <v>0.3</v>
+        <v>0.01562445163297806</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3</v>
+        <v>0.01562445163297806</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.3</v>
+        <v>0.01562445163297806</v>
       </c>
       <c r="Z33" t="inlineStr"/>
     </row>
@@ -2952,67 +2952,67 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.3</v>
+        <v>-0.00609699777987991</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006675190059007602</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.001301718100068724</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.003503719208937724</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.004545459637818385</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7</v>
+        <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0007241890864622897</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.2284352671854107</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.2284352671854107</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.2284352671854107</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.2284352671854107</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.002230885241235409</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.2</v>
+        <v>-0.009128222093128881</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.3</v>
+        <v>0.002342649405705976</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>0.4</v>
+        <v>0.0006453111826361628</v>
       </c>
       <c r="U34" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.002375800223032009</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3</v>
+        <v>-0.07294156995766278</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3</v>
+        <v>-0.07294156995766278</v>
       </c>
       <c r="X34" t="n">
-        <v>0.3</v>
+        <v>-0.07294156995766278</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3</v>
+        <v>-0.07294156995766278</v>
       </c>
       <c r="Z34" t="inlineStr"/>
     </row>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.7</v>
+        <v>0.01883938481757539</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01408887166755486</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.009056509226260367</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002424855730467646</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.02006572573062903</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3</v>
+        <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02377081237589545</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3</v>
+        <v>-0.01037942623917705</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.3</v>
+        <v>-0.01037942623917705</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.3</v>
+        <v>-0.01037942623917705</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.3</v>
+        <v>-0.01037942623917705</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.2</v>
+        <v>0.0006531798981271958</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7</v>
+        <v>0.0185349601653984</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3</v>
+        <v>0.01410818696432748</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.001447694743288333</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01016955467878219</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.2</v>
+        <v>0.005958272398330895</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.2</v>
+        <v>0.005958272398330895</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.2</v>
+        <v>0.005958272398330895</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.2</v>
+        <v>0.005958272398330895</v>
       </c>
       <c r="Z35" t="inlineStr"/>
     </row>
@@ -3104,67 +3104,67 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.04554483455779338</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7</v>
+        <v>0.03086295425851817</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7</v>
+        <v>-0.02437993787119751</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>-0.01894441807305445</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.2</v>
+        <v>-0.004545620821824832</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.3</v>
+        <v>0.0106998169140771</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01927810205112408</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01927810205112408</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01927810205112408</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01927810205112408</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.4</v>
+        <v>0.01055084183003367</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-8.115139524605581e-05</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4</v>
+        <v>-0.0131187899967516</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>-0.7</v>
+        <v>0.03442298285438333</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.2</v>
+        <v>0.01521422729656909</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.6</v>
+        <v>0.08513933802957351</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.6</v>
+        <v>0.08513933802957351</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.6</v>
+        <v>0.08513933802957351</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.6</v>
+        <v>0.08513933802957351</v>
       </c>
       <c r="Z36" t="inlineStr"/>
     </row>
@@ -3180,67 +3180,67 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7</v>
+        <v>0.01527684685107387</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01804086907363476</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02751709127668365</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.021048455068575</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-0.01354588220583529</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02800513778600811</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3</v>
+        <v>0.3715236088129443</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3</v>
+        <v>0.3715236088129443</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3</v>
+        <v>0.3715236088129443</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3</v>
+        <v>0.3715236088129443</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.2</v>
+        <v>-0.02605471899418876</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.7</v>
+        <v>-0.0103878925755157</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.3</v>
+        <v>-0.0093014125320565</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.005671154769694768</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.006510877796435111</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2</v>
+        <v>0.03559914727996588</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2</v>
+        <v>0.03559914727996588</v>
       </c>
       <c r="X37" t="n">
-        <v>0.2</v>
+        <v>0.03559914727996588</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2</v>
+        <v>0.03559914727996588</v>
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -712,67 +712,67 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.06701790796071631</v>
+        <v>-0.0679616976304679</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06401098960043958</v>
+        <v>-0.06401087123243483</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0007754428150177125</v>
+        <v>-0.0007508367660334705</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-0.04167744059419828</v>
+        <v>-0.03830700428159457</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009686123715444948</v>
+        <v>0.0123826776153071</v>
       </c>
       <c r="I4" t="n">
         <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02586185417585303</v>
+        <v>0.05788556438618017</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02654249971769998</v>
+        <v>0.03588342133933685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02654249971769998</v>
+        <v>0.03588342133933685</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02654249971769998</v>
+        <v>0.03588342133933685</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02654249971769998</v>
+        <v>0.03588342133933685</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.06828172833126912</v>
+        <v>-0.06767296936291876</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.4197110753164429</v>
+        <v>-0.4197163540686541</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005469867674794706</v>
+        <v>0.00408462899538516</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>-0.05945111276433154</v>
+        <v>-0.03735118943482786</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05226737335469493</v>
+        <v>0.05971391211655647</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002466641570665663</v>
+        <v>0.01270064393202576</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002466641570665663</v>
+        <v>0.01270064393202576</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002466641570665663</v>
+        <v>0.01270064393202576</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002466641570665663</v>
+        <v>0.01270064393202576</v>
       </c>
       <c r="Z4" t="inlineStr"/>
     </row>
@@ -784,67 +784,67 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08135388671015546</v>
+        <v>0.08166648192265927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1098341904733676</v>
+        <v>0.1098341020573641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005518033180721326</v>
+        <v>0.005505713788228551</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.08860896334892748</v>
+        <v>0.09301381892117597</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01284084320163372</v>
+        <v>-0.01713167559726702</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01724465856537932</v>
+        <v>-0.01482795725163778</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.002875180435007217</v>
+        <v>-0.007035695993427839</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.002875180435007217</v>
+        <v>-0.007035695993427839</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.002875180435007217</v>
+        <v>-0.007035695993427839</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.002875180435007217</v>
+        <v>-0.007035695993427839</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.1215403867816155</v>
+        <v>0.1155009926520397</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8193785213191407</v>
+        <v>0.8193776193991047</v>
       </c>
       <c r="R5" t="n">
-        <v>0.009132848813313953</v>
+        <v>0.009523316636932663</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>0.1206007682530501</v>
+        <v>0.09084487695177301</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.06927835678713426</v>
+        <v>-0.07886366437054657</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01198038604721544</v>
+        <v>-0.02816497667859906</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.01198038604721544</v>
+        <v>-0.02816497667859906</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.01198038604721544</v>
+        <v>-0.02816497667859906</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01198038604721544</v>
+        <v>-0.02816497667859906</v>
       </c>
       <c r="Z5" t="inlineStr"/>
     </row>
@@ -856,67 +856,67 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1876896602115864</v>
+        <v>0.208757276734291</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02088691734747669</v>
+        <v>-0.02088724557148982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01898544680741787</v>
+        <v>0.01899855435994217</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.0479797358154735</v>
+        <v>0.01071640128125007</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9129961902158474</v>
+        <v>0.9144626928025075</v>
       </c>
       <c r="I6" t="n">
         <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01654279480785612</v>
+        <v>-0.01662659129577036</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05539782480791298</v>
+        <v>0.01145822849032914</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05539782480791298</v>
+        <v>0.01145822849032914</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05539782480791298</v>
+        <v>0.01145822849032914</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05539782480791298</v>
+        <v>0.01145822849032914</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.02962966284918651</v>
+        <v>-0.02137690933507637</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.002422170720886828</v>
+        <v>-0.00241626576065063</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1250010147920406</v>
+        <v>0.1243834663513386</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.03351902675655886</v>
+        <v>0.03726316534379427</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.03526255408250215</v>
+        <v>0.009821564840862593</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01003858168154327</v>
+        <v>0.004504537812181512</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01003858168154327</v>
+        <v>0.004504537812181512</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.01003858168154327</v>
+        <v>0.004504537812181512</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.01003858168154327</v>
+        <v>0.004504537812181512</v>
       </c>
       <c r="Z6" t="inlineStr"/>
     </row>
@@ -932,67 +932,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6554113960404557</v>
+        <v>0.6578376628895064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02591681345267254</v>
+        <v>0.02591695687667827</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02469453881178155</v>
+        <v>-0.02469765794790631</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.02654160090464057</v>
+        <v>-0.02448444826266802</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.008200424584016982</v>
+        <v>-0.007406317640252705</v>
       </c>
       <c r="I7" t="n">
         <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.005210398299170194</v>
+        <v>0.007652628563920462</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02437831057513242</v>
+        <v>-0.02378825576753022</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02437831057513242</v>
+        <v>-0.02378825576753022</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02437831057513242</v>
+        <v>-0.02378825576753022</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02437831057513242</v>
+        <v>-0.02378825576753022</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.3459301062852042</v>
+        <v>-0.3340895717955828</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01524789584191583</v>
+        <v>0.01525058605002344</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.04249964809998592</v>
+        <v>-0.04127448645097945</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>-0.002268113550979345</v>
+        <v>0.002426258234729167</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.004817400288696011</v>
+        <v>-0.005947521357900854</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01429552847582114</v>
+        <v>0.01541567946462718</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01429552847582114</v>
+        <v>0.01541567946462718</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01429552847582114</v>
+        <v>0.01541567946462718</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01429552847582114</v>
+        <v>0.01541567946462718</v>
       </c>
       <c r="Z7" t="inlineStr"/>
     </row>
@@ -1008,67 +1008,67 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3946018228240729</v>
+        <v>0.3958368058494722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01273224828528993</v>
+        <v>0.01273234956529398</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01882128603285144</v>
+        <v>-0.0188687425787497</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.01294267479244484</v>
+        <v>-0.01562842402831264</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008643320121732802</v>
+        <v>-0.008654750938190037</v>
       </c>
       <c r="I8" t="n">
         <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0242730932770234</v>
+        <v>0.01712338762079875</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01735301311012052</v>
+        <v>-0.0185781201351248</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01735301311012052</v>
+        <v>-0.0185781201351248</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.01735301311012052</v>
+        <v>-0.0185781201351248</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.01735301311012052</v>
+        <v>-0.0185781201351248</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.8166511226180448</v>
+        <v>0.787501627116065</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0005596595743863829</v>
+        <v>0.0005533079261323169</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.006656071850242874</v>
+        <v>-0.005508416476336658</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>-0.007335283711671112</v>
+        <v>-0.001431557182541285</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0193827577033103</v>
+        <v>0.0003324707652988306</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.0033247925169917</v>
+        <v>0.002464961090598443</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0033247925169917</v>
+        <v>0.002464961090598443</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0033247925169917</v>
+        <v>0.002464961090598443</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.0033247925169917</v>
+        <v>0.002464961090598443</v>
       </c>
       <c r="Z8" t="inlineStr"/>
     </row>
@@ -1084,67 +1084,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01618250186330007</v>
+        <v>0.01713910945356438</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01097283336691333</v>
+        <v>-0.01097306827892273</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.004055731746229269</v>
+        <v>-0.004087903651516145</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.00518317516993134</v>
+        <v>-0.007635447312065129</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01713117140524685</v>
+        <v>0.01710520983620839</v>
       </c>
       <c r="I9" t="n">
         <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.006649578855707884</v>
+        <v>-0.02740952818419051</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002406269280250771</v>
+        <v>-0.004607297752291909</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.002406269280250771</v>
+        <v>-0.004607297752291909</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.002406269280250771</v>
+        <v>-0.004607297752291909</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.002406269280250771</v>
+        <v>-0.004607297752291909</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.004457923858316954</v>
+        <v>0.004542432181697286</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01474494970979799</v>
+        <v>0.01474916324596653</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01524021488160859</v>
+        <v>-0.01349819372392775</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0.004314272003338615</v>
+        <v>0.00122520677306549</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005350484950019396</v>
+        <v>0.005373824566952982</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.004277198667087946</v>
+        <v>-0.00100202173608087</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.004277198667087946</v>
+        <v>-0.00100202173608087</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.004277198667087946</v>
+        <v>-0.00100202173608087</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.004277198667087946</v>
+        <v>-0.00100202173608087</v>
       </c>
       <c r="Z9" t="inlineStr"/>
     </row>
@@ -1160,67 +1160,67 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01235990036639601</v>
+        <v>-0.01249496680379867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008272253994890158</v>
+        <v>0.008272137546885501</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00209985051599402</v>
+        <v>-0.002119032852761314</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-9.042829101265944e-05</v>
+        <v>0.001298526652489389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003958745630349825</v>
+        <v>0.003869315002772599</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008494290357303829</v>
+        <v>0.006767056078435949</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.005950279822011192</v>
+        <v>-0.006038086225523448</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.005950279822011192</v>
+        <v>-0.006038086225523448</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.005950279822011192</v>
+        <v>-0.006038086225523448</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.005950279822011192</v>
+        <v>-0.006038086225523448</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.01351698236467929</v>
+        <v>-0.008463371954534877</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.006179864311194571</v>
+        <v>-0.006182766871310673</v>
       </c>
       <c r="R10" t="n">
-        <v>0.003631551697262068</v>
+        <v>0.004446210321848412</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>-0.008948609581737921</v>
+        <v>-0.01726277988177809</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01104380386575215</v>
+        <v>-0.02548218380328735</v>
       </c>
       <c r="V10" t="n">
-        <v>0.003725659541026381</v>
+        <v>-0.01114047769361911</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003725659541026381</v>
+        <v>-0.01114047769361911</v>
       </c>
       <c r="X10" t="n">
-        <v>0.003725659541026381</v>
+        <v>-0.01114047769361911</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.003725659541026381</v>
+        <v>-0.01114047769361911</v>
       </c>
       <c r="Z10" t="inlineStr"/>
     </row>
@@ -1232,67 +1232,67 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1433513816380552</v>
+        <v>0.1427497824459913</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002091161555646462</v>
+        <v>-0.002091221171648846</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00153841599753664</v>
+        <v>-0.001520042076801683</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.002062204361807522</v>
+        <v>-0.002031552338474708</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0006921050196842007</v>
+        <v>-5.132083405283336e-05</v>
       </c>
       <c r="I11" t="n">
         <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005635087869034336</v>
+        <v>-0.006722704892558652</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005463630746545229</v>
+        <v>-0.0035744050069762</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.005463630746545229</v>
+        <v>-0.0035744050069762</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.005463630746545229</v>
+        <v>-0.0035744050069762</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.005463630746545229</v>
+        <v>-0.0035744050069762</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.003723256948930278</v>
+        <v>0.01299363987974559</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01474083130963325</v>
+        <v>-0.01474639460585578</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01217103351084134</v>
+        <v>0.01068583473143339</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0.005270964419433058</v>
+        <v>0.001353951472628701</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003621515376860615</v>
+        <v>0.003027648889105955</v>
       </c>
       <c r="V11" t="n">
-        <v>0.003763028118521124</v>
+        <v>0.0003195925567837022</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003763028118521124</v>
+        <v>0.0003195925567837022</v>
       </c>
       <c r="X11" t="n">
-        <v>0.003763028118521124</v>
+        <v>0.0003195925567837022</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003763028118521124</v>
+        <v>0.0003195925567837022</v>
       </c>
       <c r="Z11" t="inlineStr"/>
     </row>
@@ -1304,67 +1304,67 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2595023772600951</v>
+        <v>-0.2584596778263871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003748429397937175</v>
+        <v>0.003748763381950535</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.005694263747770549</v>
+        <v>-0.0056923875236955</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-0.00372978052657768</v>
+        <v>-0.003961303715525872</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01100979356039174</v>
+        <v>0.01123342326533693</v>
       </c>
       <c r="I12" t="n">
         <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.004863255660567985</v>
+        <v>0.01213326108957668</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01769111984364479</v>
+        <v>-0.01977562053502482</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01769111984364479</v>
+        <v>-0.01977562053502482</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.01769111984364479</v>
+        <v>-0.01977562053502482</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.01769111984364479</v>
+        <v>-0.01977562053502482</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.02102879095315164</v>
+        <v>0.01179386975175479</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01058158515926341</v>
+        <v>0.01057126851885074</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0189042051721682</v>
+        <v>-0.01831246566049862</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>0.001404292143055442</v>
+        <v>0.008910222340360464</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02419557303182292</v>
+        <v>0.02171557392462296</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.00056832050273282</v>
+        <v>0.006981918999276759</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.00056832050273282</v>
+        <v>0.006981918999276759</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.00056832050273282</v>
+        <v>0.006981918999276759</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.00056832050273282</v>
+        <v>0.006981918999276759</v>
       </c>
       <c r="Z12" t="inlineStr"/>
     </row>
@@ -1380,67 +1380,67 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03352305436492217</v>
+        <v>0.03373883798955351</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001110010220400409</v>
+        <v>0.001109724428388977</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003408092296323691</v>
+        <v>0.0002842495793699832</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-0.002883050146371939</v>
+        <v>-0.002551401275795204</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005362045654481826</v>
+        <v>0.00540219228008769</v>
       </c>
       <c r="I13" t="n">
         <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02090161268720543</v>
+        <v>-0.009694278554339424</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0009015481320619252</v>
+        <v>-0.0004954082118163284</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0009015481320619252</v>
+        <v>-0.0004954082118163284</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0009015481320619252</v>
+        <v>-0.0004954082118163284</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0009015481320619252</v>
+        <v>-0.0004954082118163284</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.03636812027072481</v>
+        <v>0.03536753123870125</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01379978963999159</v>
+        <v>0.01380901380036055</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01069009338760374</v>
+        <v>0.01336245298249812</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>0.02627614653659216</v>
+        <v>0.01926634997113694</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0281107925484317</v>
+        <v>0.02065723945028957</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01356448988657959</v>
+        <v>0.006427811201112446</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01356448988657959</v>
+        <v>0.006427811201112446</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01356448988657959</v>
+        <v>0.006427811201112446</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01356448988657959</v>
+        <v>0.006427811201112446</v>
       </c>
       <c r="Z13" t="inlineStr"/>
     </row>
@@ -1456,67 +1456,67 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02366619579464783</v>
+        <v>-0.024347800141912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00844226875369075</v>
+        <v>0.008442191185687646</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01115919404636776</v>
+        <v>-0.01115203119808125</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>-0.01560981564606234</v>
+        <v>-0.0156095705989776</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.005259051858362073</v>
+        <v>-0.005130233965209358</v>
       </c>
       <c r="I14" t="n">
         <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01243544821908469</v>
+        <v>-0.01578047428395591</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01365820566632822</v>
+        <v>-0.01257983215119328</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01365820566632822</v>
+        <v>-0.01257983215119328</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01365820566632822</v>
+        <v>-0.01257983215119328</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01365820566632822</v>
+        <v>-0.01257983215119328</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>-0.04438661975946478</v>
+        <v>-0.04317771407910856</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.007462126954485076</v>
+        <v>-0.007465302154612085</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.02298169138326765</v>
+        <v>-0.0237486676699467</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>-0.003413838938304976</v>
+        <v>-0.001433077675485701</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01684242873769715</v>
+        <v>0.01355890393435615</v>
       </c>
       <c r="V14" t="n">
-        <v>0.004169624422784976</v>
+        <v>0.005666251138650045</v>
       </c>
       <c r="W14" t="n">
-        <v>0.004169624422784976</v>
+        <v>0.005666251138650045</v>
       </c>
       <c r="X14" t="n">
-        <v>0.004169624422784976</v>
+        <v>0.005666251138650045</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.004169624422784976</v>
+        <v>0.005666251138650045</v>
       </c>
       <c r="Z14" t="inlineStr"/>
     </row>
@@ -1532,67 +1532,67 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002872333554893342</v>
+        <v>0.002448394849935794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01647315771492631</v>
+        <v>0.01647294200291768</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.009478666747146668</v>
+        <v>-0.009497927227917088</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>-0.01448398999067505</v>
+        <v>-0.01386183859563681</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.007482186635287464</v>
+        <v>-0.00637172175886887</v>
       </c>
       <c r="I15" t="n">
         <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.001631548148629441</v>
+        <v>0.005627889454217304</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01832869638114785</v>
+        <v>-0.01615671367026854</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01832869638114785</v>
+        <v>-0.01615671367026854</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01832869638114785</v>
+        <v>-0.01615671367026854</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01832869638114785</v>
+        <v>-0.01615671367026854</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.01991846354873854</v>
+        <v>-0.01990341689213667</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0006316949052677961</v>
+        <v>0.0006336008893440354</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.004723919804956791</v>
+        <v>-0.004632462137298485</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>0.006961655382886779</v>
+        <v>0.02081689055773716</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01008316398732656</v>
+        <v>0.01421317852052714</v>
       </c>
       <c r="V15" t="n">
-        <v>0.009779093383163734</v>
+        <v>0.02012377347695094</v>
       </c>
       <c r="W15" t="n">
-        <v>0.009779093383163734</v>
+        <v>0.02012377347695094</v>
       </c>
       <c r="X15" t="n">
-        <v>0.009779093383163734</v>
+        <v>0.02012377347695094</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.009779093383163734</v>
+        <v>0.02012377347695094</v>
       </c>
       <c r="Z15" t="inlineStr"/>
     </row>
@@ -1608,67 +1608,67 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.06249584947583398</v>
+        <v>-0.06296510786260431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003360538886421555</v>
+        <v>0.003360649094425963</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007024993336999732</v>
+        <v>-0.007026701945068077</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>-0.01476491164901871</v>
+        <v>-0.01572789352505771</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004004997664199906</v>
+        <v>0.003882335195293407</v>
       </c>
       <c r="I16" t="n">
         <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>0.003433639584432615</v>
+        <v>-0.002968429469647683</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.01225295089011803</v>
+        <v>-0.01407573397102936</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01225295089011803</v>
+        <v>-0.01407573397102936</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01225295089011803</v>
+        <v>-0.01407573397102936</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01225295089011803</v>
+        <v>-0.01407573397102936</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.07123637891345515</v>
+        <v>-0.06688285102731403</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.03481175601647023</v>
+        <v>-0.03481518580860743</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.0002522742820909712</v>
+        <v>4.27853777114151e-05</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>-0.0006299506406045835</v>
+        <v>0.003584325125305199</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006607401576296063</v>
+        <v>0.003882090875283634</v>
       </c>
       <c r="V16" t="n">
-        <v>0.007150884670035385</v>
+        <v>0.006530979333239172</v>
       </c>
       <c r="W16" t="n">
-        <v>0.007150884670035385</v>
+        <v>0.006530979333239172</v>
       </c>
       <c r="X16" t="n">
-        <v>0.007150884670035385</v>
+        <v>0.006530979333239172</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.007150884670035385</v>
+        <v>0.006530979333239172</v>
       </c>
       <c r="Z16" t="inlineStr"/>
     </row>
@@ -1680,67 +1680,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.009992838447713537</v>
+        <v>0.009433180601327223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01569693211587728</v>
+        <v>0.0156973425158937</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01564356321774253</v>
+        <v>-0.01569252782770111</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>-0.01883920444170994</v>
+        <v>-0.01522961521491182</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0008219832328793293</v>
+        <v>0.0003463171338526853</v>
       </c>
       <c r="I17" t="n">
         <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01452667736305016</v>
+        <v>0.01707877790691051</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0144096899523876</v>
+        <v>-0.01261405893656236</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0144096899523876</v>
+        <v>-0.01261405893656236</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0144096899523876</v>
+        <v>-0.01261405893656236</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0144096899523876</v>
+        <v>-0.01261405893656236</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.00916846481473859</v>
+        <v>-0.004602287992091519</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009593293727731749</v>
+        <v>-0.009603520320140812</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0073319400052776</v>
+        <v>0.008516045524641819</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>0.03370173793345586</v>
+        <v>0.01913817804025639</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02704653036186121</v>
+        <v>0.01921224307248972</v>
       </c>
       <c r="V17" t="n">
-        <v>0.03127384781095391</v>
+        <v>0.0191497550379902</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03127384781095391</v>
+        <v>0.0191497550379902</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03127384781095391</v>
+        <v>0.0191497550379902</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03127384781095391</v>
+        <v>0.0191497550379902</v>
       </c>
       <c r="Z17" t="inlineStr"/>
     </row>
@@ -1756,67 +1756,67 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.08060463365618534</v>
+        <v>-0.0800907326756293</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007783422743336909</v>
+        <v>-0.007783371959334878</v>
       </c>
       <c r="E18" t="n">
-        <v>0.010203875160155</v>
+        <v>0.01022669858506794</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.003622162091789866</v>
+        <v>-0.001552113901239198</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1961479438779177</v>
+        <v>0.199709424404377</v>
       </c>
       <c r="I18" t="n">
         <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002248496062580738</v>
+        <v>-0.02645486900778169</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004904981188199247</v>
+        <v>0.002030022417200896</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004904981188199247</v>
+        <v>0.002030022417200896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004904981188199247</v>
+        <v>0.002030022417200896</v>
       </c>
       <c r="N18" t="n">
-        <v>0.004904981188199247</v>
+        <v>0.002030022417200896</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.02875878047835121</v>
+        <v>-0.02933499016539961</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01679527689581108</v>
+        <v>-0.01679376316775053</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01800631972825279</v>
+        <v>0.01621388887255555</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>0.0404747276177512</v>
+        <v>0.0320782590217288</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1553746068229843</v>
+        <v>0.1367721906228876</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02071770764470831</v>
+        <v>0.01959921428796857</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02071770764470831</v>
+        <v>0.01959921428796857</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02071770764470831</v>
+        <v>0.01959921428796857</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02071770764470831</v>
+        <v>0.01959921428796857</v>
       </c>
       <c r="Z18" t="inlineStr"/>
     </row>
@@ -1832,67 +1832,67 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.004774538302981531</v>
+        <v>-0.004737804477512178</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01258584616743384</v>
+        <v>-0.01258590722343629</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1735042356761694</v>
+        <v>0.1735170873886835</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.1505174656971946</v>
+        <v>0.1589759930020516</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01666468386658735</v>
+        <v>0.01212939955717598</v>
       </c>
       <c r="I19" t="n">
         <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.005833229765368976</v>
+        <v>0.0158055092610156</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06896054397442176</v>
+        <v>0.06920711489628457</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06896054397442176</v>
+        <v>0.06920711489628457</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06896054397442176</v>
+        <v>0.06920711489628457</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06896054397442176</v>
+        <v>0.06920711489628457</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01430924553236982</v>
+        <v>-0.01521469673658787</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.003255973858238954</v>
+        <v>-0.003251822914072916</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3074676197867047</v>
+        <v>0.3061287430611497</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>0.01288663990742005</v>
+        <v>-0.01974888213256739</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02110840385233615</v>
+        <v>-0.04255940704637628</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.00602619652904786</v>
+        <v>-0.03178094469523778</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.00602619652904786</v>
+        <v>-0.03178094469523778</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.00602619652904786</v>
+        <v>-0.03178094469523778</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.00602619652904786</v>
+        <v>-0.03178094469523778</v>
       </c>
       <c r="Z19" t="inlineStr"/>
     </row>
@@ -1904,67 +1904,67 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0188458876658355</v>
+        <v>0.01824056376962255</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009944958733798347</v>
+        <v>0.009944899213795967</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.002848708049948321</v>
+        <v>-0.00289320875572835</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>-0.004520261838900614</v>
+        <v>-0.001473432124108707</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.009464078490563138</v>
+        <v>-0.009198303823932153</v>
       </c>
       <c r="I20" t="n">
         <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0002404312421134997</v>
+        <v>0.03057485884617263</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00886275078651003</v>
+        <v>-0.006326913565076542</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.00886275078651003</v>
+        <v>-0.006326913565076542</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.00886275078651003</v>
+        <v>-0.006326913565076542</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.00886275078651003</v>
+        <v>-0.006326913565076542</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.02406888653075546</v>
+        <v>0.01865358391414336</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01850615910824636</v>
+        <v>0.01850862525234501</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.000868098178723927</v>
+        <v>-0.0002034017361360694</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>-0.01424297815007947</v>
+        <v>-0.006852753732502622</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.006903072564122901</v>
+        <v>-0.007470198730807948</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.003858236218329448</v>
+        <v>-0.003144321917772876</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.003858236218329448</v>
+        <v>-0.003144321917772876</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.003858236218329448</v>
+        <v>-0.003144321917772876</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.003858236218329448</v>
+        <v>-0.003144321917772876</v>
       </c>
       <c r="Z20" t="inlineStr"/>
     </row>
@@ -1976,67 +1976,67 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02743714074548562</v>
+        <v>0.02753465946938638</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01220894026435761</v>
+        <v>0.01220883015235321</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1870754804110192</v>
+        <v>0.1870680547147222</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.1714969725689509</v>
+        <v>0.1802879735933096</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007560172142406884</v>
+        <v>0.00242976700919068</v>
       </c>
       <c r="I21" t="n">
         <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.006228435525992912</v>
+        <v>0.003105348851443207</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05822023711280949</v>
+        <v>0.05480223953608956</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05822023711280949</v>
+        <v>0.05480223953608956</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05822023711280949</v>
+        <v>0.05480223953608956</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05822023711280949</v>
+        <v>0.05480223953608956</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.005057877130315085</v>
+        <v>-0.01219983053599322</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01404883880195355</v>
+        <v>0.01404523016180921</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3573966277358651</v>
+        <v>0.3557811808552472</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>0.02918882078577571</v>
+        <v>0.01395179203771915</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.03121662969666518</v>
+        <v>-0.05616998663079946</v>
       </c>
       <c r="V21" t="n">
-        <v>0.008580065719202626</v>
+        <v>-0.007222847232913889</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008580065719202626</v>
+        <v>-0.007222847232913889</v>
       </c>
       <c r="X21" t="n">
-        <v>0.008580065719202626</v>
+        <v>-0.007222847232913889</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.008580065719202626</v>
+        <v>-0.007222847232913889</v>
       </c>
       <c r="Z21" t="inlineStr"/>
     </row>
@@ -2048,67 +2048,67 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.001929052397162096</v>
+        <v>-0.001787286791491471</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02639820182392807</v>
+        <v>-0.02639834150393365</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01061935165677406</v>
+        <v>0.01070067892402716</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>0.0123589203509124</v>
+        <v>0.01009933124270764</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.007015395928615836</v>
+        <v>-0.007802996184119846</v>
       </c>
       <c r="I22" t="n">
         <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01041339106202888</v>
+        <v>-0.01254956966719819</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01636292446251697</v>
+        <v>0.01412247982889919</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01636292446251697</v>
+        <v>0.01412247982889919</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01636292446251697</v>
+        <v>0.01412247982889919</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01636292446251697</v>
+        <v>0.01412247982889919</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.01437687955107518</v>
+        <v>0.004096409059856362</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005583479455339178</v>
+        <v>0.005586086431443457</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.00184332775373311</v>
+        <v>-0.005828717321148692</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
-        <v>-0.03055873092870639</v>
+        <v>-0.01753053854507599</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01356957865478315</v>
+        <v>-0.01475616395024656</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.03192440057297602</v>
+        <v>-0.01847365561894622</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.03192440057297602</v>
+        <v>-0.01847365561894622</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.03192440057297602</v>
+        <v>-0.01847365561894622</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.03192440057297602</v>
+        <v>-0.01847365561894622</v>
       </c>
       <c r="Z22" t="inlineStr"/>
     </row>
@@ -2124,67 +2124,67 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01370260355610414</v>
+        <v>0.01424703973788159</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01581295071251803</v>
+        <v>-0.01581290808851632</v>
       </c>
       <c r="E23" t="n">
-        <v>0.139621400176856</v>
+        <v>0.139618675312747</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.1132543268564909</v>
+        <v>0.1197195213026519</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009187881967515276</v>
+        <v>0.006686691147467645</v>
       </c>
       <c r="I23" t="n">
         <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02354381460634702</v>
+        <v>0.01990286743444857</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04164998336199933</v>
+        <v>0.04091634250065369</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04164998336199933</v>
+        <v>0.04091634250065369</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04164998336199933</v>
+        <v>0.04091634250065369</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04164998336199933</v>
+        <v>0.04091634250065369</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.02698451723938069</v>
+        <v>-0.02055525615021024</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01700677335227093</v>
+        <v>-0.01701436647257466</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.3786653959466158</v>
+        <v>-0.3758023102640924</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>-0.1223787233877456</v>
+        <v>-0.1208038438725536</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.07244517121780683</v>
+        <v>-0.08873740521349618</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.02802828592113143</v>
+        <v>-0.04299866389594655</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.02802828592113143</v>
+        <v>-0.04299866389594655</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.02802828592113143</v>
+        <v>-0.04299866389594655</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.02802828592113143</v>
+        <v>-0.04299866389594655</v>
       </c>
       <c r="Z23" t="inlineStr"/>
     </row>
@@ -2196,67 +2196,67 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05481443220857728</v>
+        <v>0.05634982602999303</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001156692526267701</v>
+        <v>-0.001156938190277527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2886744097229763</v>
+        <v>0.2886968917718756</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.2449366689323525</v>
+        <v>0.2541855824634509</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07902277151291084</v>
+        <v>0.07397905150316206</v>
       </c>
       <c r="I24" t="n">
         <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07170088602402605</v>
+        <v>0.06908116415606752</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08151197433247896</v>
+        <v>0.0784467599698704</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08151197433247896</v>
+        <v>0.0784467599698704</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08151197433247896</v>
+        <v>0.0784467599698704</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08151197433247896</v>
+        <v>0.0784467599698704</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.04816325069453001</v>
+        <v>0.04016355184654206</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.003794806327792252</v>
+        <v>-0.003791436151657445</v>
       </c>
       <c r="R24" t="n">
-        <v>0.52764050187362</v>
+        <v>0.5241406010296239</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>0.03088807856358712</v>
+        <v>-0.007406509571462272</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.02889209923568397</v>
+        <v>-0.07253455643738226</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0141249775569991</v>
+        <v>-0.02095692851827714</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0141249775569991</v>
+        <v>-0.02095692851827714</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0141249775569991</v>
+        <v>-0.02095692851827714</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0141249775569991</v>
+        <v>-0.02095692851827714</v>
       </c>
       <c r="Z24" t="inlineStr"/>
     </row>
@@ -2272,67 +2272,67 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1202577220903089</v>
+        <v>0.119313199748528</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.009842453097698121</v>
+        <v>-0.009842276457691056</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01666440393057616</v>
+        <v>0.01664512895380516</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>-0.1389151284839751</v>
+        <v>-0.142161202602441</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.2847192996127719</v>
+        <v>-0.2878537374661495</v>
       </c>
       <c r="I25" t="n">
         <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5194897664278175</v>
+        <v>-0.5327441703259953</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1759145792925831</v>
+        <v>-0.1856544031061761</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1759145792925831</v>
+        <v>-0.1856544031061761</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1759145792925831</v>
+        <v>-0.1856544031061761</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1759145792925831</v>
+        <v>-0.1856544031061761</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.1580740984189639</v>
+        <v>-0.1449164081646563</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.008214161800566472</v>
+        <v>0.008206955656278226</v>
       </c>
       <c r="R25" t="n">
-        <v>0.003271263106850524</v>
+        <v>0.004093041475721659</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>0.3025844891446873</v>
+        <v>0.2674319274389219</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3213846131433845</v>
+        <v>0.3038123847924953</v>
       </c>
       <c r="V25" t="n">
-        <v>0.196259301482372</v>
+        <v>0.1976966716198668</v>
       </c>
       <c r="W25" t="n">
-        <v>0.196259301482372</v>
+        <v>0.1976966716198668</v>
       </c>
       <c r="X25" t="n">
-        <v>0.196259301482372</v>
+        <v>0.1976966716198668</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.196259301482372</v>
+        <v>0.1976966716198668</v>
       </c>
       <c r="Z25" t="inlineStr"/>
     </row>
@@ -2344,67 +2344,67 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01911172924446917</v>
+        <v>0.01907441721097669</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00035824350232974</v>
+        <v>0.0003580472783218911</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005530337597213503</v>
+        <v>0.00551059903642396</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>-0.001272836681360631</v>
+        <v>-0.0009518318120966494</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.08169766377990655</v>
+        <v>-0.08282780616111222</v>
       </c>
       <c r="I26" t="n">
         <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.008774439777088035</v>
+        <v>-0.01251378014568329</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005866925034677</v>
+        <v>0.0008324562572982503</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005866925034677</v>
+        <v>0.0008324562572982503</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0005866925034677</v>
+        <v>0.0008324562572982503</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0005866925034677</v>
+        <v>0.0008324562572982503</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.01620799312831972</v>
+        <v>-0.01935405619816224</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008450525234021008</v>
+        <v>0.008449294897971795</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01094999093399964</v>
+        <v>0.01173588344543534</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>0.01637325471144745</v>
+        <v>0.02092174025159865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08632836671713466</v>
+        <v>0.07272838543713542</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01175706306228252</v>
+        <v>0.01461770468070818</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01175706306228252</v>
+        <v>0.01461770468070818</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01175706306228252</v>
+        <v>0.01461770468070818</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01175706306228252</v>
+        <v>0.01461770468070818</v>
       </c>
       <c r="Z26" t="inlineStr"/>
     </row>
@@ -2420,67 +2420,67 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.01571924875676995</v>
+        <v>-0.01514653778986151</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04603566164942646</v>
+        <v>-0.04603571195342848</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001732933125317325</v>
+        <v>0.001681639363265574</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>-0.03949756390444508</v>
+        <v>-0.04189596805478551</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02065676434627057</v>
+        <v>0.02198624622344985</v>
       </c>
       <c r="I27" t="n">
         <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01326485455797284</v>
+        <v>0.008950257546846502</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00733333402133336</v>
+        <v>0.008570328246813128</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00733333402133336</v>
+        <v>0.008570328246813128</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00733333402133336</v>
+        <v>0.008570328246813128</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00733333402133336</v>
+        <v>0.008570328246813128</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.0741020827080833</v>
+        <v>-0.06853475458139018</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.3415878630075144</v>
+        <v>-0.3415873476794939</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05785634967425398</v>
+        <v>0.05826894703475787</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>-0.0391691593204495</v>
+        <v>-0.03349498425948467</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03018542568741702</v>
+        <v>0.02674754046190161</v>
       </c>
       <c r="V27" t="n">
-        <v>0.006644931721797268</v>
+        <v>0.006718409932736397</v>
       </c>
       <c r="W27" t="n">
-        <v>0.006644931721797268</v>
+        <v>0.006718409932736397</v>
       </c>
       <c r="X27" t="n">
-        <v>0.006644931721797268</v>
+        <v>0.006718409932736397</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.006644931721797268</v>
+        <v>0.006718409932736397</v>
       </c>
       <c r="Z27" t="inlineStr"/>
     </row>
@@ -2496,67 +2496,67 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006607749192309967</v>
+        <v>-0.006934473109378924</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002227335353093414</v>
+        <v>-0.002227275545091021</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003121628668865146</v>
+        <v>0.003108554044342161</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-0.002016047498784466</v>
+        <v>0.001617979136452076</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.01041549488061979</v>
+        <v>-0.009474395226975808</v>
       </c>
       <c r="I28" t="n">
         <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.005646267309504587</v>
+        <v>-0.01012733399666979</v>
       </c>
       <c r="K28" t="n">
-        <v>0.007758589078343561</v>
+        <v>0.01152375905295036</v>
       </c>
       <c r="L28" t="n">
-        <v>0.007758589078343561</v>
+        <v>0.01152375905295036</v>
       </c>
       <c r="M28" t="n">
-        <v>0.007758589078343561</v>
+        <v>0.01152375905295036</v>
       </c>
       <c r="N28" t="n">
-        <v>0.007758589078343561</v>
+        <v>0.01152375905295036</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.0003568514062740562</v>
+        <v>0.000955171430206857</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.00810447229217889</v>
+        <v>-0.008103079140123164</v>
       </c>
       <c r="R28" t="n">
-        <v>0.003356962406278496</v>
+        <v>0.004996091911843675</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>-0.01603902009401181</v>
+        <v>-0.01095158636574049</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01704101818564072</v>
+        <v>-0.01462751856910074</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.008099017955960719</v>
+        <v>-0.009092220459688816</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.008099017955960719</v>
+        <v>-0.009092220459688816</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.008099017955960719</v>
+        <v>-0.009092220459688816</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.008099017955960719</v>
+        <v>-0.009092220459688816</v>
       </c>
       <c r="Z28" t="inlineStr"/>
     </row>
@@ -2572,67 +2572,67 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.008404704912188195</v>
+        <v>0.007949520989980838</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02618091032723641</v>
+        <v>0.0261809399912376</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02257980167119206</v>
+        <v>-0.02262561296902452</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>-0.0282842628200763</v>
+        <v>-0.02879237105644033</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01093545864541834</v>
+        <v>0.01180623224824929</v>
       </c>
       <c r="I29" t="n">
         <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02819250545788955</v>
+        <v>-0.02344703820846623</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01575480533419221</v>
+        <v>-0.01429059839562393</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01575480533419221</v>
+        <v>-0.01429059839562393</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.01575480533419221</v>
+        <v>-0.01429059839562393</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.01575480533419221</v>
+        <v>-0.01429059839562393</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>-0.003741394325655772</v>
+        <v>-0.009310939188437565</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02784134463365378</v>
+        <v>0.02783361634534465</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.03242261054490442</v>
+        <v>-0.03120611817624473</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
-        <v>0.007196843914835611</v>
+        <v>0.0108068369276402</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01098594783143791</v>
+        <v>0.01365153078606123</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02253441920537676</v>
+        <v>0.02124725163389006</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02253441920537676</v>
+        <v>0.02124725163389006</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02253441920537676</v>
+        <v>0.02124725163389006</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02253441920537676</v>
+        <v>0.02124725163389006</v>
       </c>
       <c r="Z29" t="inlineStr"/>
     </row>
@@ -2648,67 +2648,67 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004331986349279453</v>
+        <v>-0.004803153216126128</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.005935506669420266</v>
+        <v>-0.005935235853409434</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0002950274038010961</v>
+        <v>-0.0003405131656205266</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>-0.002905094738048207</v>
+        <v>-0.002780242857727964</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0171366526214661</v>
+        <v>-0.01752029119681165</v>
       </c>
       <c r="I30" t="n">
         <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.006076398975597645</v>
+        <v>0.01545203863805389</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.001022418664896746</v>
+        <v>-0.001041942665677706</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.001022418664896746</v>
+        <v>-0.001041942665677706</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.001022418664896746</v>
+        <v>-0.001041942665677706</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.001022418664896746</v>
+        <v>-0.001041942665677706</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.005754660326186412</v>
+        <v>-0.004737920925516836</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02177043831081753</v>
+        <v>-0.02177998483919939</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.006284515739380629</v>
+        <v>-0.003435858857434354</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>0.00674563454595409</v>
+        <v>0.01782724882655816</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02296700952668038</v>
+        <v>0.02233406969336279</v>
       </c>
       <c r="V30" t="n">
-        <v>0.00743800004152</v>
+        <v>0.01436770387070815</v>
       </c>
       <c r="W30" t="n">
-        <v>0.00743800004152</v>
+        <v>0.01436770387070815</v>
       </c>
       <c r="X30" t="n">
-        <v>0.00743800004152</v>
+        <v>0.01436770387070815</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.00743800004152</v>
+        <v>0.01436770387070815</v>
       </c>
       <c r="Z30" t="inlineStr"/>
     </row>
@@ -2724,67 +2724,67 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4482851654194066</v>
+        <v>0.4336281797451272</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9883508156940325</v>
+        <v>0.9883508323980331</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9093601134624044</v>
+        <v>-0.9093524342300973</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>-0.8890970019396486</v>
+        <v>-0.8735736969843972</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.1168001105920044</v>
+        <v>-0.07980771285630851</v>
       </c>
       <c r="I31" t="n">
         <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>0.297008892733382</v>
+        <v>0.3195818620232611</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8294768800910751</v>
+        <v>-0.7866820988912839</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8294768800910751</v>
+        <v>-0.7866820988912839</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8294768800910751</v>
+        <v>-0.7866820988912839</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8294768800910751</v>
+        <v>-0.7866820988912839</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.09554054148562165</v>
+        <v>-0.1055502606700104</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.008545817717832709</v>
+        <v>-0.008539471157578844</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.292844475649779</v>
+        <v>-0.2941708055588322</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>0.490244710663331</v>
+        <v>0.5690950769634513</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3223184375327375</v>
+        <v>0.4415846645753865</v>
       </c>
       <c r="V31" t="n">
-        <v>0.760731628317265</v>
+        <v>0.7473151729326069</v>
       </c>
       <c r="W31" t="n">
-        <v>0.760731628317265</v>
+        <v>0.7473151729326069</v>
       </c>
       <c r="X31" t="n">
-        <v>0.760731628317265</v>
+        <v>0.7473151729326069</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.760731628317265</v>
+        <v>0.7473151729326069</v>
       </c>
       <c r="Z31" t="inlineStr"/>
     </row>
@@ -2800,67 +2800,67 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.004977268327090733</v>
+        <v>0.004739936349597454</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02865893634635745</v>
+        <v>0.02865866274634651</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.04257191613487664</v>
+        <v>-0.04256914864676595</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>-0.03816648815514724</v>
+        <v>-0.04062960772136636</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.01235988663839546</v>
+        <v>-0.01184947631397905</v>
       </c>
       <c r="I32" t="n">
         <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01595202278300589</v>
+        <v>-0.003007915135319031</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.01907930197917208</v>
+        <v>-0.01835496380619855</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.01907930197917208</v>
+        <v>-0.01835496380619855</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.01907930197917208</v>
+        <v>-0.01835496380619855</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.01907930197917208</v>
+        <v>-0.01835496380619855</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.02143359167334366</v>
+        <v>-0.02208343768333751</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01015195778207831</v>
+        <v>0.01016021714240868</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.02186779844271193</v>
+        <v>-0.02214057438962297</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>0.009542290776915919</v>
+        <v>0.02098244950169313</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.002631379209255168</v>
+        <v>0.01999598211183928</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01637690849507634</v>
+        <v>0.02811740906069636</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01637690849507634</v>
+        <v>0.02811740906069636</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01637690849507634</v>
+        <v>0.02811740906069636</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01637690849507634</v>
+        <v>0.02811740906069636</v>
       </c>
       <c r="Z32" t="inlineStr"/>
     </row>
@@ -2876,67 +2876,67 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03352172351686893</v>
+        <v>-0.03384501188180047</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02047618833904753</v>
+        <v>0.02047602379504095</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02321595827263833</v>
+        <v>-0.02317299212691968</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>-0.02496603840559469</v>
+        <v>-0.02446502253107938</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00109350676374027</v>
+        <v>0.002336119389444775</v>
       </c>
       <c r="I33" t="n">
         <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02679657165517099</v>
+        <v>-0.02632427055425373</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0131788424151537</v>
+        <v>-0.01063570832942833</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0131788424151537</v>
+        <v>-0.01063570832942833</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0131788424151537</v>
+        <v>-0.01063570832942833</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0131788424151537</v>
+        <v>-0.01063570832942833</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.01423092076123683</v>
+        <v>-0.01477397166295887</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02152985682919427</v>
+        <v>-0.02153143046125721</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.008960178886407155</v>
+        <v>-0.01132399264495971</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
-        <v>-0.004186655275106232</v>
+        <v>0.01048561142547153</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.01484562529782501</v>
+        <v>0.0019265800130632</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01562445163297806</v>
+        <v>0.02172360125294405</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01562445163297806</v>
+        <v>0.02172360125294405</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01562445163297806</v>
+        <v>0.02172360125294405</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01562445163297806</v>
+        <v>0.02172360125294405</v>
       </c>
       <c r="Z33" t="inlineStr"/>
     </row>
@@ -2952,67 +2952,67 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00609699777987991</v>
+        <v>-0.005964860878594435</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006675190059007602</v>
+        <v>-0.006675586443023457</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.001301718100068724</v>
+        <v>-0.001341179861647194</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>-0.003503719208937724</v>
+        <v>-0.004279587366477727</v>
       </c>
       <c r="H34" t="n">
-        <v>0.004545459637818385</v>
+        <v>0.004355424078216963</v>
       </c>
       <c r="I34" t="n">
         <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0007241890864622897</v>
+        <v>-0.01675028893300623</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2284352671854107</v>
+        <v>0.2565052971722119</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2284352671854107</v>
+        <v>0.2565052971722119</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2284352671854107</v>
+        <v>0.2565052971722119</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2284352671854107</v>
+        <v>0.2565052971722119</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.002230885241235409</v>
+        <v>6.288710651548425e-05</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.009128222093128881</v>
+        <v>-0.009118516588740662</v>
       </c>
       <c r="R34" t="n">
-        <v>0.002342649405705976</v>
+        <v>0.003479067211162688</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>0.0006453111826361628</v>
+        <v>0.01570185812118741</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.002375800223032009</v>
+        <v>0.01173782859751314</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.07294156995766278</v>
+        <v>-0.05998714732748589</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.07294156995766278</v>
+        <v>-0.05998714732748589</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.07294156995766278</v>
+        <v>-0.05998714732748589</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.07294156995766278</v>
+        <v>-0.05998714732748589</v>
       </c>
       <c r="Z34" t="inlineStr"/>
     </row>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01883938481757539</v>
+        <v>0.01877335275093411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01408887166755486</v>
+        <v>0.01408857454754298</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.009056509226260367</v>
+        <v>-0.009088222443528898</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>-0.002424855730467646</v>
+        <v>-0.003422227008874642</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02006572573062903</v>
+        <v>0.02006052675442107</v>
       </c>
       <c r="I35" t="n">
         <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02377081237589545</v>
+        <v>0.0177617203518181</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01037942623917705</v>
+        <v>-0.01109052831562113</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01037942623917705</v>
+        <v>-0.01109052831562113</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.01037942623917705</v>
+        <v>-0.01109052831562113</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.01037942623917705</v>
+        <v>-0.01109052831562113</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.0006531798981271958</v>
+        <v>0.003066155642646225</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0185349601653984</v>
+        <v>0.01854570150982806</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01410818696432748</v>
+        <v>0.01498878655155146</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>0.001447694743288333</v>
+        <v>0.0005572330231721505</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01016955467878219</v>
+        <v>-0.006898374707934987</v>
       </c>
       <c r="V35" t="n">
-        <v>0.005958272398330895</v>
+        <v>0.003115364284614571</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005958272398330895</v>
+        <v>0.003115364284614571</v>
       </c>
       <c r="X35" t="n">
-        <v>0.005958272398330895</v>
+        <v>0.003115364284614571</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.005958272398330895</v>
+        <v>0.003115364284614571</v>
       </c>
       <c r="Z35" t="inlineStr"/>
     </row>
@@ -3104,67 +3104,67 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04554483455779338</v>
+        <v>0.04489542121981684</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03086295425851817</v>
+        <v>0.03086303345852134</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.02437993787119751</v>
+        <v>-0.02443015892920635</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>-0.01894441807305445</v>
+        <v>-0.0160419556957576</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.004545620821824832</v>
+        <v>-0.002929978965199158</v>
       </c>
       <c r="I36" t="n">
         <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0106998169140771</v>
+        <v>0.0193764481961663</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01927810205112408</v>
+        <v>0.02901881799275272</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01927810205112408</v>
+        <v>0.02901881799275272</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01927810205112408</v>
+        <v>0.02901881799275272</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01927810205112408</v>
+        <v>0.02901881799275272</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0.01055084183003367</v>
+        <v>0.01799296027171841</v>
       </c>
       <c r="Q36" t="n">
-        <v>-8.115139524605581e-05</v>
+        <v>-7.898985915959435e-05</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0131187899967516</v>
+        <v>-0.009645589441823576</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>0.03442298285438333</v>
+        <v>0.01106738846399581</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01521422729656909</v>
+        <v>0.00308587375543495</v>
       </c>
       <c r="V36" t="n">
-        <v>0.08513933802957351</v>
+        <v>0.05925445629017824</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08513933802957351</v>
+        <v>0.05925445629017824</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08513933802957351</v>
+        <v>0.05925445629017824</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.08513933802957351</v>
+        <v>0.05925445629017824</v>
       </c>
       <c r="Z36" t="inlineStr"/>
     </row>
@@ -3180,67 +3180,67 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01527684685107387</v>
+        <v>0.01528205485128219</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01804086907363476</v>
+        <v>0.01804079457763178</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02751709127668365</v>
+        <v>-0.02747164420286577</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>-0.021048455068575</v>
+        <v>-0.02501217006957052</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01354588220583529</v>
+        <v>-0.01352423622096945</v>
       </c>
       <c r="I37" t="n">
         <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02800513778600811</v>
+        <v>0.01153449836023225</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3715236088129443</v>
+        <v>0.4173342010453679</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3715236088129443</v>
+        <v>0.4173342010453679</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3715236088129443</v>
+        <v>0.4173342010453679</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3715236088129443</v>
+        <v>0.4173342010453679</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.02605471899418876</v>
+        <v>-0.03144797319391892</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.0103878925755157</v>
+        <v>-0.0103798149431926</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.0093014125320565</v>
+        <v>-0.01005548949021958</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
-        <v>-0.005671154769694768</v>
+        <v>0.003467741965735907</v>
       </c>
       <c r="U37" t="n">
-        <v>0.006510877796435111</v>
+        <v>0.003104741308189652</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03559914727996588</v>
+        <v>0.03986963074678523</v>
       </c>
       <c r="W37" t="n">
-        <v>0.03559914727996588</v>
+        <v>0.03986963074678523</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03559914727996588</v>
+        <v>0.03986963074678523</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03559914727996588</v>
+        <v>0.03986963074678523</v>
       </c>
       <c r="Z37" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,57 +505,54 @@
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ethanol</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Biodiesel</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Crude glycerol</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Biorefinery</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
+          <t>Displacement allocation</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Energy allocation</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Biorefinery</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Ethanol</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Biodiesel</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Electricity</t>
         </is>
@@ -574,34 +571,34 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Feedstock consumption [ton/yr]</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Biodiesel production [Gal/ton]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production [Gal/ton]</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Electricity production [kWhr/ton]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption [cf/ton]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>TCI [10^6*USD]</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Feedstock consumption [ton/yr]</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Heat exchanger network error [%]</t>
@@ -634,55 +631,80 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>Ethanol GWP [kg*CO2*eq / ga;]</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Biofuel GWP [kg*CO2*eq / GGE]</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
           <t>MFPP derivative [USD/ton]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Electricity production derivative [kWhr/ton]</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption derivative [cf/ton]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>TCI derivative [10^6*USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>GWP derivative [kg*CO2*eq / USD]</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
@@ -712,69 +734,84 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.0679616976304679</v>
+        <v>-0.2075367536753675</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06401087123243483</v>
+        <v>0.06405040504050405</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0007508367660334705</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>-0.03830700428159457</v>
-      </c>
+        <v>0.005592559255925592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.04484848484848484</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.0123826776153071</v>
+        <v>-0.0536093609360936</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.006983176887327074</v>
+        <v>0.06979897989798979</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05788556438618017</v>
+        <v>-0.03482748274827482</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03588342133933685</v>
+        <v>0.1103750375037504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03588342133933685</v>
+        <v>0.1103750375037504</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03588342133933685</v>
+        <v>0.1103750375037504</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03588342133933685</v>
+        <v>0.1103750375037504</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.06767296936291876</v>
+        <v>0.06715871587158716</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.4197163540686541</v>
+        <v>0.04524452445244524</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00408462899538516</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>0.04524452445244524</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.04524452445244524</v>
+      </c>
       <c r="T4" t="n">
-        <v>-0.03735118943482786</v>
+        <v>0.04524452445244524</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05971391211655647</v>
+        <v>0.007164716471647164</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01270064393202576</v>
+        <v>-0.252985298529853</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01270064393202576</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.01270064393202576</v>
-      </c>
+        <v>-0.09592559255925591</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>0.01270064393202576</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+        <v>-0.07516351635163515</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.08682868286828681</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02628262826282628</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.02628262826282628</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.02628262826282628</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.02628262826282628</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -784,69 +821,84 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08166648192265927</v>
+        <v>-0.007404740474047404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1098341020573641</v>
+        <v>-0.1119111911191119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005505713788228551</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>0.09301381892117597</v>
-      </c>
+        <v>0.1995559555955596</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1161476147614761</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-0.01713167559726702</v>
+        <v>-0.0656105610561056</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0005059528522381141</v>
+        <v>-0.1237923792379238</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01482795725163778</v>
+        <v>0.08285628562856284</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.007035695993427839</v>
+        <v>-0.08884488448844884</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.007035695993427839</v>
+        <v>-0.08884488448844884</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.007035695993427839</v>
+        <v>-0.08884488448844884</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.007035695993427839</v>
+        <v>-0.08884488448844884</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.1155009926520397</v>
+        <v>-0.1569156915691569</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8193776193991047</v>
+        <v>-0.1851905190519052</v>
       </c>
       <c r="R5" t="n">
-        <v>0.009523316636932663</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>-0.1851905190519052</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1851905190519052</v>
+      </c>
       <c r="T5" t="n">
-        <v>0.09084487695177301</v>
+        <v>-0.1851905190519052</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.07886366437054657</v>
+        <v>0.05332133213321331</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.02816497667859906</v>
+        <v>0.8256585658565856</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.02816497667859906</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-0.02816497667859906</v>
-      </c>
+        <v>-0.06406240624062405</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>-0.02816497667859906</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>0.3977077707770777</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1717371737173717</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.2714431443144314</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.2714431443144314</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.2714431443144314</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.2714431443144314</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -856,69 +908,84 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.208757276734291</v>
+        <v>0.2646384638463846</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02088724557148982</v>
+        <v>0.9561716171617161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01899855435994217</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>0.01071640128125007</v>
-      </c>
+        <v>-0.04313231323132313</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02913891389138914</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.9144626928025075</v>
+        <v>-0.0475007500750075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9579628848145153</v>
+        <v>0.8705550555055505</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01662659129577036</v>
+        <v>-0.1793339333933393</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01145822849032914</v>
+        <v>-0.1215601560156016</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01145822849032914</v>
+        <v>-0.1215601560156016</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01145822849032914</v>
+        <v>-0.1215601560156016</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01145822849032914</v>
+        <v>-0.1215601560156016</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>-0.02137690933507637</v>
+        <v>-0.06135013501350134</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.00241626576065063</v>
+        <v>-0.02923492349234923</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1243834663513386</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>-0.02923492349234923</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.02923492349234923</v>
+      </c>
       <c r="T6" t="n">
-        <v>0.03726316534379427</v>
+        <v>-0.02923492349234923</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009821564840862593</v>
+        <v>-0.135061506150615</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004504537812181512</v>
+        <v>-0.173969396939694</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004504537812181512</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.004504537812181512</v>
-      </c>
+        <v>0.1266366636663666</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>0.004504537812181512</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
+        <v>0.2801320132013201</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.08055205520552056</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0414041404140414</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0414041404140414</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0414041404140414</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0414041404140414</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -932,69 +999,84 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6578376628895064</v>
+        <v>0.686960696069607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02591695687667827</v>
+        <v>0.004668466846684667</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02469765794790631</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>-0.02448444826266802</v>
-      </c>
+        <v>0.02951095109510951</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.06787878787878787</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-0.007406317640252705</v>
+        <v>-0.06299429942994299</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001493300027732001</v>
+        <v>-0.005400540054005401</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007652628563920462</v>
+        <v>-0.07515151515151515</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02378825576753022</v>
+        <v>-0.07655565556555656</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02378825576753022</v>
+        <v>-0.07655565556555656</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02378825576753022</v>
+        <v>-0.07655565556555656</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02378825576753022</v>
+        <v>-0.07655565556555656</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.3340895717955828</v>
+        <v>-0.0723072307230723</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01525058605002344</v>
+        <v>-0.06568256825682568</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.04127448645097945</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>-0.06568256825682568</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.06568256825682568</v>
+      </c>
       <c r="T7" t="n">
-        <v>0.002426258234729167</v>
+        <v>-0.06568256825682568</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.005947521357900854</v>
+        <v>-0.3455505550555056</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01541567946462718</v>
+        <v>0.07563156315631561</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01541567946462718</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.01541567946462718</v>
-      </c>
+        <v>0.006912691269126911</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>0.01541567946462718</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
+        <v>-0.02057005700570057</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.159039903990399</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.004836483648364837</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.004836483648364837</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.004836483648364837</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.004836483648364837</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1008,69 +1090,84 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3958368058494722</v>
+        <v>0.4506810681068106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01273234956529398</v>
+        <v>0.001404140414041404</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0188687425787497</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>-0.01562842402831264</v>
-      </c>
+        <v>0.06777077707770776</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1578037803780378</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-0.008654750938190037</v>
+        <v>-0.1832103210321032</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.009443602841744113</v>
+        <v>-0.05474947494749474</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01712338762079875</v>
+        <v>-0.03235523552355235</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0185781201351248</v>
+        <v>0.07927992799279927</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0185781201351248</v>
+        <v>0.07927992799279927</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0185781201351248</v>
+        <v>0.07927992799279927</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0185781201351248</v>
+        <v>0.07927992799279927</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.787501627116065</v>
+        <v>0.02462646264626463</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0005533079261323169</v>
+        <v>-0.0144014401440144</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.005508416476336658</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>-0.0144014401440144</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.0144014401440144</v>
+      </c>
       <c r="T8" t="n">
-        <v>-0.001431557182541285</v>
+        <v>-0.0144014401440144</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0003324707652988306</v>
+        <v>0.7792499249924991</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002464961090598443</v>
+        <v>-0.06699069906990698</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002464961090598443</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.002464961090598443</v>
-      </c>
+        <v>-0.001956195619561956</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>0.002464961090598443</v>
-      </c>
-      <c r="Z8" t="inlineStr"/>
+        <v>0.05878187818781878</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.03828382838283827</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.05663366336633663</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.05663366336633663</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.05663366336633663</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.05663366336633663</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1084,69 +1181,84 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01713910945356438</v>
+        <v>0.1362256225622562</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01097306827892273</v>
+        <v>0.04094809480948094</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.004087903651516145</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>-0.007635447312065129</v>
-      </c>
+        <v>-0.0104050405040504</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02557455745574557</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.01710520983620839</v>
+        <v>0.03228322832283228</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02935640968625638</v>
+        <v>0.001416141614161416</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02740952818419051</v>
+        <v>0.09032103210321031</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.004607297752291909</v>
+        <v>-0.01272127212721272</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.004607297752291909</v>
+        <v>-0.01272127212721272</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.004607297752291909</v>
+        <v>-0.01272127212721272</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.004607297752291909</v>
+        <v>-0.01272127212721272</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.004542432181697286</v>
+        <v>-0.004728472847284729</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01474916324596653</v>
+        <v>-0.001248124812481248</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01349819372392775</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>-0.001248124812481248</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.001248124812481248</v>
+      </c>
       <c r="T9" t="n">
-        <v>0.00122520677306549</v>
+        <v>-0.001248124812481248</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005373824566952982</v>
+        <v>0.1596399639963996</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.00100202173608087</v>
+        <v>-0.1082748274827483</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00100202173608087</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-0.00100202173608087</v>
-      </c>
+        <v>0.1074947494749475</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>-0.00100202173608087</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
+        <v>-0.004896489648964896</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.06858685868586857</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1767296729672967</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1767296729672967</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1767296729672967</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1767296729672967</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1160,69 +1272,84 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01249496680379867</v>
+        <v>-0.07381938193819382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008272137546885501</v>
+        <v>-0.0417041704170417</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.002119032852761314</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>0.001298526652489389</v>
-      </c>
+        <v>-0.08933693369336933</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1698289828982898</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.003869315002772599</v>
+        <v>0.1788298829882988</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0009429528377181134</v>
+        <v>-0.04897689768976898</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006767056078435949</v>
+        <v>0.06550255025502549</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.006038086225523448</v>
+        <v>-0.1105430543054305</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.006038086225523448</v>
+        <v>-0.1105430543054305</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.006038086225523448</v>
+        <v>-0.1105430543054305</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.006038086225523448</v>
+        <v>-0.1105430543054305</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.008463371954534877</v>
+        <v>-0.004788478847884788</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.006182766871310673</v>
+        <v>0.03359135913591359</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004446210321848412</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>0.03359135913591359</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.03359135913591359</v>
+      </c>
       <c r="T10" t="n">
-        <v>-0.01726277988177809</v>
+        <v>0.03359135913591359</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.02548218380328735</v>
+        <v>0.0144974497449745</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01114047769361911</v>
+        <v>0.09150915091509149</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01114047769361911</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-0.01114047769361911</v>
-      </c>
+        <v>0.1695409540954095</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>-0.01114047769361911</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+        <v>0.1565316531653165</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1235643564356435</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0692109210921092</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0692109210921092</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0692109210921092</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0692109210921092</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1232,69 +1359,84 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1427497824459913</v>
+        <v>0.1834143414341434</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002091221171648846</v>
+        <v>0.2451005100510051</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001520042076801683</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>-0.002031552338474708</v>
-      </c>
+        <v>0.1237803780378038</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1085028502850285</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-5.132083405283336e-05</v>
+        <v>-0.07989198919891989</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2739322870212915</v>
+        <v>-0.03765976597659765</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.006722704892558652</v>
+        <v>0.1378817881788179</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0035744050069762</v>
+        <v>-0.01852985298529853</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0035744050069762</v>
+        <v>-0.01852985298529853</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0035744050069762</v>
+        <v>-0.01852985298529853</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0035744050069762</v>
+        <v>-0.01852985298529853</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.01299363987974559</v>
+        <v>-0.06078607860786078</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01474639460585578</v>
+        <v>-0.09383738373837383</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01068583473143339</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>-0.09383738373837383</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.09383738373837383</v>
+      </c>
       <c r="T11" t="n">
-        <v>0.001353951472628701</v>
+        <v>-0.09383738373837383</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003027648889105955</v>
+        <v>-0.08901290129012901</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0003195925567837022</v>
+        <v>-0.07044704470447044</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0003195925567837022</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.0003195925567837022</v>
-      </c>
+        <v>0.1163156315631563</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>0.0003195925567837022</v>
-      </c>
-      <c r="Z11" t="inlineStr"/>
+        <v>0.1156075607560756</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.02996699669966996</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.02155415541554155</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.02155415541554155</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.02155415541554155</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.02155415541554155</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1304,69 +1446,84 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2584596778263871</v>
+        <v>-0.2948334833483348</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003748763381950535</v>
+        <v>-0.1068946894689469</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0056923875236955</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>-0.003961303715525872</v>
-      </c>
+        <v>0.1364776477647765</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.1621722172217221</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.01123342326533693</v>
+        <v>-0.1111431143114311</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00596510827060433</v>
+        <v>-0.095001500150015</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01213326108957668</v>
+        <v>0.1292409240924092</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01977562053502482</v>
+        <v>-0.000324032403240324</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.01977562053502482</v>
+        <v>-0.000324032403240324</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.01977562053502482</v>
+        <v>-0.000324032403240324</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.01977562053502482</v>
+        <v>-0.000324032403240324</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.01179386975175479</v>
+        <v>-0.09556555655565556</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01057126851885074</v>
+        <v>-0.1107230723072307</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.01831246566049862</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
+        <v>-0.1107230723072307</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.1107230723072307</v>
+      </c>
       <c r="T12" t="n">
-        <v>0.008910222340360464</v>
+        <v>-0.1107230723072307</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02171557392462296</v>
+        <v>-0.09279327932793277</v>
       </c>
       <c r="V12" t="n">
-        <v>0.006981918999276759</v>
+        <v>-0.003852385238523852</v>
       </c>
       <c r="W12" t="n">
-        <v>0.006981918999276759</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.006981918999276759</v>
-      </c>
+        <v>0.009024902490249025</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>0.006981918999276759</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
+        <v>-0.06418241824182418</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.01542154215421542</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.04358835883588359</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.04358835883588359</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.04358835883588359</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.04358835883588359</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1380,69 +1537,84 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03373883798955351</v>
+        <v>0.0008040804080408039</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001109724428388977</v>
+        <v>-0.01854185418541854</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002842495793699832</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>-0.002551401275795204</v>
-      </c>
+        <v>0.06657065706570657</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.0581098109810981</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.00540219228008769</v>
+        <v>-0.04525652565256525</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008566614198664566</v>
+        <v>0.05018901890189019</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009694278554339424</v>
+        <v>-0.01935793579357935</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0004954082118163284</v>
+        <v>-0.000948094809480948</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0004954082118163284</v>
+        <v>-0.000948094809480948</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0004954082118163284</v>
+        <v>-0.000948094809480948</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0004954082118163284</v>
+        <v>-0.000948094809480948</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.03536753123870125</v>
+        <v>-0.01918991899189919</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01380901380036055</v>
+        <v>-0.04685268526852685</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01336245298249812</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>-0.04685268526852685</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.04685268526852685</v>
+      </c>
       <c r="T13" t="n">
-        <v>0.01926634997113694</v>
+        <v>-0.04685268526852685</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02065723945028957</v>
+        <v>0.03362736273627362</v>
       </c>
       <c r="V13" t="n">
-        <v>0.006427811201112446</v>
+        <v>-0.018001800180018</v>
       </c>
       <c r="W13" t="n">
-        <v>0.006427811201112446</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.006427811201112446</v>
-      </c>
+        <v>0.00162016201620162</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>0.006427811201112446</v>
-      </c>
-      <c r="Z13" t="inlineStr"/>
+        <v>-0.04471647164716471</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.07326732673267326</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.1651485148514851</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1651485148514851</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.1651485148514851</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.1651485148514851</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1456,69 +1628,84 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.024347800141912</v>
+        <v>0.02229822982298229</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008442191185687646</v>
+        <v>0.01683768376837684</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01115203119808125</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>-0.0156095705989776</v>
-      </c>
+        <v>0.02808280828082808</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.05726972697269726</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-0.005130233965209358</v>
+        <v>-0.1101590159015901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.007119685916787436</v>
+        <v>-0.02514251425142514</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01578047428395591</v>
+        <v>-0.08138013801380135</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01257983215119328</v>
+        <v>0.07786378637863785</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01257983215119328</v>
+        <v>0.07786378637863785</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01257983215119328</v>
+        <v>0.07786378637863785</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01257983215119328</v>
+        <v>0.07786378637863785</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>-0.04317771407910856</v>
+        <v>0.01611761176117612</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.007465302154612085</v>
+        <v>0.004164416441644164</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0237486676699467</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
+        <v>0.004164416441644164</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.004164416441644164</v>
+      </c>
       <c r="T14" t="n">
-        <v>-0.001433077675485701</v>
+        <v>0.004164416441644164</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01355890393435615</v>
+        <v>-0.06671467146714671</v>
       </c>
       <c r="V14" t="n">
-        <v>0.005666251138650045</v>
+        <v>0.000528052805280528</v>
       </c>
       <c r="W14" t="n">
-        <v>0.005666251138650045</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.005666251138650045</v>
-      </c>
+        <v>-0.03957995799579957</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>0.005666251138650045</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
+        <v>0.1381218121812181</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.2825682568256825</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.05086108610861085</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.05086108610861085</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.05086108610861085</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05086108610861085</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1532,69 +1719,84 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002448394849935794</v>
+        <v>-0.1388538853885389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01647294200291768</v>
+        <v>-0.04474047404740474</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.009497927227917088</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>-0.01386183859563681</v>
-      </c>
+        <v>0.03815181518151815</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.009060906090609061</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-0.00637172175886887</v>
+        <v>-0.03965196519651965</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01063130442525218</v>
+        <v>-0.08673267326732673</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005627889454217304</v>
+        <v>-0.005196519651965196</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01615671367026854</v>
+        <v>-0.2306630663066306</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01615671367026854</v>
+        <v>-0.2306630663066306</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01615671367026854</v>
+        <v>-0.2306630663066306</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01615671367026854</v>
+        <v>-0.2306630663066306</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.01990341689213667</v>
+        <v>-0.201956195619562</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0006336008893440354</v>
+        <v>-0.1776177617761776</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.004632462137298485</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
+        <v>-0.1776177617761776</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.1776177617761776</v>
+      </c>
       <c r="T15" t="n">
-        <v>0.02081689055773716</v>
+        <v>-0.1776177617761776</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01421317852052714</v>
+        <v>-0.08118811881188119</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02012377347695094</v>
+        <v>0.003060306030603061</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02012377347695094</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.02012377347695094</v>
-      </c>
+        <v>0.05821782178217821</v>
+      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0.02012377347695094</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
+        <v>0.06741074107410741</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.01570957095709571</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.1383978397839784</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1383978397839784</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1383978397839784</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.1383978397839784</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1608,69 +1810,84 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.06296510786260431</v>
+        <v>-0.09998199819981995</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003360649094425963</v>
+        <v>0.03991599159915991</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007026701945068077</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>-0.01572789352505771</v>
-      </c>
+        <v>0.05216921692169217</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.08754875487548754</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.003882335195293407</v>
+        <v>-0.07680768076807679</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01187364479494579</v>
+        <v>0.0873207320732073</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.002968429469647683</v>
+        <v>-0.001968196819681968</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.01407573397102936</v>
+        <v>0.1953315331533153</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01407573397102936</v>
+        <v>0.1953315331533153</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01407573397102936</v>
+        <v>0.1953315331533153</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01407573397102936</v>
+        <v>0.1953315331533153</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.06688285102731403</v>
+        <v>0.1214401440144014</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.03481518580860743</v>
+        <v>0.08440444044404438</v>
       </c>
       <c r="R16" t="n">
-        <v>4.27853777114151e-05</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
+        <v>0.08440444044404438</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.08440444044404438</v>
+      </c>
       <c r="T16" t="n">
-        <v>0.003584325125305199</v>
+        <v>0.08440444044404438</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003882090875283634</v>
+        <v>0.005772577257725771</v>
       </c>
       <c r="V16" t="n">
-        <v>0.006530979333239172</v>
+        <v>0.04955295529552955</v>
       </c>
       <c r="W16" t="n">
-        <v>0.006530979333239172</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.006530979333239172</v>
-      </c>
+        <v>-0.003444344434443444</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>0.006530979333239172</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
+        <v>-0.03417941794179417</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.05429342934293429</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.1626522652265226</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.1626522652265226</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.1626522652265226</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.1626522652265226</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1680,69 +1897,84 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.009433180601327223</v>
+        <v>-0.01736573657365736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0156973425158937</v>
+        <v>-0.0794119411941194</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01569252782770111</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>-0.01522961521491182</v>
-      </c>
+        <v>-0.01519351935193519</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02289828982898289</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.0003463171338526853</v>
+        <v>0.03777977797779777</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.006570467302818691</v>
+        <v>-0.04997299729972996</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01707877790691051</v>
+        <v>-0.04798079807980797</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01261405893656236</v>
+        <v>-0.1766216621662166</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01261405893656236</v>
+        <v>-0.1766216621662166</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01261405893656236</v>
+        <v>-0.1766216621662166</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01261405893656236</v>
+        <v>-0.1766216621662166</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.004602287992091519</v>
+        <v>-0.1266486648664866</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009603520320140812</v>
+        <v>-0.0741194119411941</v>
       </c>
       <c r="R17" t="n">
-        <v>0.008516045524641819</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
+        <v>-0.0741194119411941</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.0741194119411941</v>
+      </c>
       <c r="T17" t="n">
-        <v>0.01913817804025639</v>
+        <v>-0.0741194119411941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01921224307248972</v>
+        <v>0.04735673567356735</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0191497550379902</v>
+        <v>-0.02317431743174317</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0191497550379902</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.0191497550379902</v>
-      </c>
+        <v>-0.02376237623762376</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>0.0191497550379902</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
+        <v>0.03219921992199219</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.1138553855385538</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.07672367236723672</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.07672367236723672</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.07672367236723672</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.07672367236723672</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1756,69 +1988,84 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0800907326756293</v>
+        <v>-0.08999699969996999</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007783371959334878</v>
+        <v>-0.04709270927092709</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01022669858506794</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-0.001552113901239198</v>
-      </c>
+        <v>0.02821482148214821</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.06361836183618361</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.199709424404377</v>
+        <v>-0.04656465646564656</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.004741255389650215</v>
+        <v>0.2156495649564956</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.02645486900778169</v>
+        <v>0.1285328532853285</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002030022417200896</v>
+        <v>0.04765676567656765</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002030022417200896</v>
+        <v>0.04765676567656765</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002030022417200896</v>
+        <v>0.04765676567656765</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002030022417200896</v>
+        <v>0.04765676567656765</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.02933499016539961</v>
+        <v>-0.007788778877887788</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01679376316775053</v>
+        <v>-0.02031803180318031</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01621388887255555</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
+        <v>-0.02031803180318031</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.02031803180318031</v>
+      </c>
       <c r="T18" t="n">
-        <v>0.0320782590217288</v>
+        <v>-0.02031803180318031</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1367721906228876</v>
+        <v>-0.05519351935193519</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01959921428796857</v>
+        <v>0.03222322232223222</v>
       </c>
       <c r="W18" t="n">
-        <v>0.01959921428796857</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.01959921428796857</v>
-      </c>
+        <v>-0.1386978697869787</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>0.01959921428796857</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
+        <v>0.07810381038103809</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.09719771977197719</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.09496549654965496</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.09496549654965496</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.09496549654965496</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.09496549654965496</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1832,69 +2079,84 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.004737804477512178</v>
+        <v>-0.1163036303630363</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01258590722343629</v>
+        <v>0.001716171617161716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1735170873886835</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>0.1589759930020516</v>
-      </c>
+        <v>-0.05066906690669067</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2437563756375637</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.01212939955717598</v>
+        <v>0.1838223822382238</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005024797256991891</v>
+        <v>-0.01938193819381938</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0158055092610156</v>
+        <v>0.004008400840084008</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06920711489628457</v>
+        <v>-0.1446144614461446</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06920711489628457</v>
+        <v>-0.1446144614461446</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06920711489628457</v>
+        <v>-0.1446144614461446</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06920711489628457</v>
+        <v>-0.1446144614461446</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01521469673658787</v>
+        <v>-0.09290129012901288</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.003251822914072916</v>
+        <v>-0.0305070507050705</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3061287430611497</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
+        <v>-0.0305070507050705</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.0305070507050705</v>
+      </c>
       <c r="T19" t="n">
-        <v>-0.01974888213256739</v>
+        <v>-0.0305070507050705</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.04255940704637628</v>
+        <v>0.1127032703270327</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.03178094469523778</v>
+        <v>-0.04787278727872786</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.03178094469523778</v>
-      </c>
-      <c r="X19" t="n">
-        <v>-0.03178094469523778</v>
-      </c>
+        <v>0.5055385538553855</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>-0.03178094469523778</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
+        <v>-0.009888988898889886</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.1317851785178518</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.07833183318331832</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.07833183318331832</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.07833183318331832</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.07833183318331832</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1904,69 +2166,84 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01824056376962255</v>
+        <v>-0.024002400240024</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009944899213795967</v>
+        <v>0.02013801380138014</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.00289320875572835</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-0.001473432124108707</v>
-      </c>
+        <v>0.05813381338133813</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.02493849384938494</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-0.009198303823932153</v>
+        <v>-0.01198919891989199</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.006169556118782244</v>
+        <v>0.03072307230723072</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03057485884617263</v>
+        <v>0.04628862886288628</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.006326913565076542</v>
+        <v>-0.2014641464146414</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.006326913565076542</v>
+        <v>-0.2014641464146414</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.006326913565076542</v>
+        <v>-0.2014641464146414</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.006326913565076542</v>
+        <v>-0.2014641464146414</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.01865358391414336</v>
+        <v>-0.1965796579657966</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01850862525234501</v>
+        <v>-0.1696969696969697</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0002034017361360694</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
+        <v>-0.1696969696969697</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.1696969696969697</v>
+      </c>
       <c r="T20" t="n">
-        <v>-0.006852753732502622</v>
+        <v>-0.1696969696969697</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.007470198730807948</v>
+        <v>-0.0553135313531353</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.003144321917772876</v>
+        <v>0.01604560456045604</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.003144321917772876</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-0.003144321917772876</v>
-      </c>
+        <v>-0.135973597359736</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>-0.003144321917772876</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
+        <v>-0.05357335733573356</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.004608460846084608</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.1401380138013801</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1401380138013801</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1401380138013801</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1401380138013801</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1976,69 +2253,84 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02753465946938638</v>
+        <v>0.1210801080108011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01220883015235321</v>
+        <v>0.1197239723972397</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1870680547147222</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>0.1802879735933096</v>
-      </c>
+        <v>0.1386138613861386</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.07335133513351336</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.00242976700919068</v>
+        <v>0.06594659465946594</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01017601365504055</v>
+        <v>0.04816081608160815</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003105348851443207</v>
+        <v>0.2002520252025203</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05480223953608956</v>
+        <v>-0.2873687368736874</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05480223953608956</v>
+        <v>-0.2873687368736874</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05480223953608956</v>
+        <v>-0.2873687368736874</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05480223953608956</v>
+        <v>-0.2873687368736874</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.01219983053599322</v>
+        <v>-0.2607140714071407</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01404523016180921</v>
+        <v>-0.2359435943594359</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3557811808552472</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
+        <v>-0.2359435943594359</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.2359435943594359</v>
+      </c>
       <c r="T21" t="n">
-        <v>0.01395179203771915</v>
+        <v>-0.2359435943594359</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.05616998663079946</v>
+        <v>-0.02215421542154215</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.007222847232913889</v>
+        <v>0.04943294329432943</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.007222847232913889</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-0.007222847232913889</v>
-      </c>
+        <v>0.3122952295229522</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>-0.007222847232913889</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
+        <v>0.1223042304230423</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.07263126312631263</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.1440984098409841</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.1440984098409841</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.1440984098409841</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.1440984098409841</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -2048,69 +2340,84 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.001787286791491471</v>
+        <v>0.02377437743774377</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02639834150393365</v>
+        <v>-0.1012901290129013</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01070067892402716</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>0.01009933124270764</v>
-      </c>
+        <v>0.01782178217821782</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.01862586258625862</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-0.007802996184119846</v>
+        <v>-0.0655985598559856</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01713025143721005</v>
+        <v>-0.1813141314131413</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01254956966719819</v>
+        <v>-0.04465646564656465</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01412247982889919</v>
+        <v>-0.06473447344734473</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01412247982889919</v>
+        <v>-0.06473447344734473</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01412247982889919</v>
+        <v>-0.06473447344734473</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01412247982889919</v>
+        <v>-0.06473447344734473</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.004096409059856362</v>
+        <v>-0.07665166516651664</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005586086431443457</v>
+        <v>-0.04292829282928293</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.005828717321148692</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
+        <v>-0.04292829282928293</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.04292829282928293</v>
+      </c>
       <c r="T22" t="n">
-        <v>-0.01753053854507599</v>
+        <v>-0.04292829282928293</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01475616395024656</v>
+        <v>0.01713771377137714</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.01847365561894622</v>
+        <v>0.06628262826282628</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.01847365561894622</v>
-      </c>
-      <c r="X22" t="n">
-        <v>-0.01847365561894622</v>
-      </c>
+        <v>-0.02331833183318332</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>-0.01847365561894622</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
+        <v>0.03137113711371137</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.02631863186318631</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.07014701470147015</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.07014701470147015</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.07014701470147015</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.07014701470147015</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2124,69 +2431,84 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01424703973788159</v>
+        <v>-0.1447344734473447</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01581290808851632</v>
+        <v>-0.08976897689768974</v>
       </c>
       <c r="E23" t="n">
-        <v>0.139618675312747</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>0.1197195213026519</v>
-      </c>
+        <v>-0.2146774677467747</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3126552655265527</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.006686691147467645</v>
+        <v>0.2676627662766276</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01255258629410345</v>
+        <v>-0.03038703870387038</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01990286743444857</v>
+        <v>-0.1245964596459646</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04091634250065369</v>
+        <v>-0.1220762076207621</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04091634250065369</v>
+        <v>-0.1220762076207621</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04091634250065369</v>
+        <v>-0.1220762076207621</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04091634250065369</v>
+        <v>-0.1220762076207621</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>-0.02055525615021024</v>
+        <v>0.01826582658265826</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01701436647257466</v>
+        <v>0.08103210321032102</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.3758023102640924</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
+        <v>0.08103210321032102</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.08103210321032102</v>
+      </c>
       <c r="T23" t="n">
-        <v>-0.1208038438725536</v>
+        <v>0.08103210321032102</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.08873740521349618</v>
+        <v>-0.07275127512751274</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.04299866389594655</v>
+        <v>-0.1113591359135913</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.04299866389594655</v>
-      </c>
-      <c r="X23" t="n">
-        <v>-0.04299866389594655</v>
-      </c>
+        <v>-0.3113111311131113</v>
+      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>-0.04299866389594655</v>
-      </c>
-      <c r="Z23" t="inlineStr"/>
+        <v>-0.1455265526552655</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.01338133813381338</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.2638583858385838</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.2638583858385838</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.2638583858385838</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.2638583858385838</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -2196,69 +2518,84 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05634982602999303</v>
+        <v>0.04235223522352235</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001156938190277527</v>
+        <v>-0.07839183918391837</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2886968917718756</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>0.2541855824634509</v>
-      </c>
+        <v>0.04026402640264026</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2133453345334533</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.07397905150316206</v>
+        <v>0.2236543654365436</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02253726483749059</v>
+        <v>-0.01891389138913891</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06908116415606752</v>
+        <v>0.239039903990399</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0784467599698704</v>
+        <v>-0.167020702070207</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0784467599698704</v>
+        <v>-0.167020702070207</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0784467599698704</v>
+        <v>-0.167020702070207</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0784467599698704</v>
+        <v>-0.167020702070207</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.04016355184654206</v>
+        <v>-0.1412421242124212</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.003791436151657445</v>
+        <v>-0.1036183618361836</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5241406010296239</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
+        <v>-0.1036183618361836</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.1036183618361836</v>
+      </c>
       <c r="T24" t="n">
-        <v>-0.007406509571462272</v>
+        <v>-0.1036183618361836</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.07253455643738226</v>
+        <v>0.00162016201620162</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.02095692851827714</v>
+        <v>0.08793279327932792</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.02095692851827714</v>
-      </c>
-      <c r="X24" t="n">
-        <v>-0.02095692851827714</v>
-      </c>
+        <v>0.5573837383738373</v>
+      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>-0.02095692851827714</v>
-      </c>
-      <c r="Z24" t="inlineStr"/>
+        <v>0.1722532253225322</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.02378637863786378</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.06725472547254724</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.06725472547254724</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.06725472547254724</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.06725472547254724</v>
+      </c>
+      <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2272,69 +2609,84 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.119313199748528</v>
+        <v>0.2529132913291329</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.009842276457691056</v>
+        <v>0.2316951695169517</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01664512895380516</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>-0.142161202602441</v>
-      </c>
+        <v>0.05214521452145214</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.04348034803480347</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-0.2878537374661495</v>
+        <v>-0.2466966696669667</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0109187299727492</v>
+        <v>-0.1355295529552955</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5327441703259953</v>
+        <v>-0.4277707770777077</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.1856544031061761</v>
+        <v>-0.2726312631263126</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1856544031061761</v>
+        <v>-0.2726312631263126</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1856544031061761</v>
+        <v>-0.2726312631263126</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1856544031061761</v>
+        <v>-0.2726312631263126</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.1449164081646563</v>
+        <v>-0.2542094209420942</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.008206955656278226</v>
+        <v>-0.2171497149714971</v>
       </c>
       <c r="R25" t="n">
-        <v>0.004093041475721659</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
+        <v>-0.2171497149714971</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.2171497149714971</v>
+      </c>
       <c r="T25" t="n">
-        <v>0.2674319274389219</v>
+        <v>-0.2171497149714971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3038123847924953</v>
+        <v>-0.0696069606960696</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1976966716198668</v>
+        <v>-0.1073867386738674</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1976966716198668</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.1976966716198668</v>
-      </c>
+        <v>-0.09591359135913591</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>0.1976966716198668</v>
-      </c>
-      <c r="Z25" t="inlineStr"/>
+        <v>0.3579357935793578</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.4017521752175217</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.4791359135913591</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.4791359135913591</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.4791359135913591</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.4791359135913591</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -2344,69 +2696,84 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01907441721097669</v>
+        <v>-0.06942694269426943</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003580472783218911</v>
+        <v>-0.06897089708970895</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00551059903642396</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>-0.0009518318120966494</v>
-      </c>
+        <v>0.03839183918391838</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.04748874887488749</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-0.08282780616111222</v>
+        <v>0.04447644764476447</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01001658673666347</v>
+        <v>-0.1746294629462946</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01251378014568329</v>
+        <v>0.1576957695769577</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0008324562572982503</v>
+        <v>0.04808880888088808</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0008324562572982503</v>
+        <v>0.04808880888088808</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008324562572982503</v>
+        <v>0.04808880888088808</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0008324562572982503</v>
+        <v>0.04808880888088808</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.01935405619816224</v>
+        <v>0.01531353135313531</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008449294897971795</v>
+        <v>0.01872187218721872</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01173588344543534</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
+        <v>0.01872187218721872</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.01872187218721872</v>
+      </c>
       <c r="T26" t="n">
-        <v>0.02092174025159865</v>
+        <v>0.01872187218721872</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07272838543713542</v>
+        <v>-0.01906990699069907</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01461770468070818</v>
+        <v>0.2326432643264326</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01461770468070818</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.01461770468070818</v>
-      </c>
+        <v>0.1499549954995499</v>
+      </c>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>0.01461770468070818</v>
-      </c>
-      <c r="Z26" t="inlineStr"/>
+        <v>-0.01124512451245124</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.06071407140714071</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.09057305730573056</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.09057305730573056</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.09057305730573056</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-0.09057305730573056</v>
+      </c>
+      <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2420,69 +2787,84 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.01514653778986151</v>
+        <v>-0.0315031503150315</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04603571195342848</v>
+        <v>0.1291689168916892</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001681639363265574</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>-0.04189596805478551</v>
-      </c>
+        <v>-0.04632463246324632</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.02822682268226822</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0.02198624622344985</v>
+        <v>-0.1017581758175817</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01890344744413789</v>
+        <v>0.04591659165916592</v>
       </c>
       <c r="J27" t="n">
-        <v>0.008950257546846502</v>
+        <v>-0.01185718571857186</v>
       </c>
       <c r="K27" t="n">
-        <v>0.008570328246813128</v>
+        <v>0.1323852385238524</v>
       </c>
       <c r="L27" t="n">
-        <v>0.008570328246813128</v>
+        <v>0.1323852385238524</v>
       </c>
       <c r="M27" t="n">
-        <v>0.008570328246813128</v>
+        <v>0.1323852385238524</v>
       </c>
       <c r="N27" t="n">
-        <v>0.008570328246813128</v>
+        <v>0.1323852385238524</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.06853475458139018</v>
+        <v>0.1195679567956796</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.3415873476794939</v>
+        <v>0.1054065406540654</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05826894703475787</v>
-      </c>
-      <c r="S27" t="inlineStr"/>
+        <v>0.1054065406540654</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.1054065406540654</v>
+      </c>
       <c r="T27" t="n">
-        <v>-0.03349498425948467</v>
+        <v>0.1054065406540654</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02674754046190161</v>
+        <v>-0.05166516651665166</v>
       </c>
       <c r="V27" t="n">
-        <v>0.006718409932736397</v>
+        <v>-0.4221902190219021</v>
       </c>
       <c r="W27" t="n">
-        <v>0.006718409932736397</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.006718409932736397</v>
-      </c>
+        <v>0.03803180318031802</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>0.006718409932736397</v>
-      </c>
-      <c r="Z27" t="inlineStr"/>
+        <v>0.0937053705370537</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.1214041404140414</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.07679567956795678</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.07679567956795678</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.07679567956795678</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.07679567956795678</v>
+      </c>
+      <c r="AE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2496,69 +2878,84 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006934473109378924</v>
+        <v>-0.1707770777077708</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002227275545091021</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003108554044342161</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>0.001617979136452076</v>
-      </c>
+        <v>0.07543954395439544</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.06869486948694868</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-0.009474395226975808</v>
+        <v>-0.03012301230123012</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.008152086854083472</v>
+        <v>-0.03954395439543953</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.01012733399666979</v>
+        <v>0.2247824782478248</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01152375905295036</v>
+        <v>0.2714311431143114</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01152375905295036</v>
+        <v>0.2714311431143114</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01152375905295036</v>
+        <v>0.2714311431143114</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01152375905295036</v>
+        <v>0.2714311431143114</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.000955171430206857</v>
+        <v>0.1687608760876087</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.008103079140123164</v>
+        <v>0.1079507950795079</v>
       </c>
       <c r="R28" t="n">
-        <v>0.004996091911843675</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
+        <v>0.1079507950795079</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.1079507950795079</v>
+      </c>
       <c r="T28" t="n">
-        <v>-0.01095158636574049</v>
+        <v>0.1079507950795079</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01462751856910074</v>
+        <v>-0.05519351935193519</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.009092220459688816</v>
+        <v>-0.05332133213321331</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.009092220459688816</v>
-      </c>
-      <c r="X28" t="n">
-        <v>-0.009092220459688816</v>
-      </c>
+        <v>-0.0999099909990999</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>-0.009092220459688816</v>
-      </c>
-      <c r="Z28" t="inlineStr"/>
+        <v>-0.01544554455445544</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.05406540654065406</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.12007200720072</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>-0.12007200720072</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.12007200720072</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.12007200720072</v>
+      </c>
+      <c r="AE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2572,69 +2969,84 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007949520989980838</v>
+        <v>-0.1030663066306631</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0261809399912376</v>
+        <v>-0.1674407440744074</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02262561296902452</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>-0.02879237105644033</v>
-      </c>
+        <v>-0.001404140414041404</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03281128112811281</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0.01180623224824929</v>
+        <v>0.01635763576357635</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01661224492048979</v>
+        <v>-0.1228442844284428</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02344703820846623</v>
+        <v>-0.1571437143714371</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01429059839562393</v>
+        <v>-0.01780978097809781</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01429059839562393</v>
+        <v>-0.01780978097809781</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.01429059839562393</v>
+        <v>-0.01780978097809781</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.01429059839562393</v>
+        <v>-0.01780978097809781</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>-0.009310939188437565</v>
+        <v>-0.02636663666366636</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02783361634534465</v>
+        <v>-0.01765376537653765</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.03120611817624473</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>-0.01765376537653765</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.01765376537653765</v>
+      </c>
       <c r="T29" t="n">
-        <v>0.0108068369276402</v>
+        <v>-0.01765376537653765</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01365153078606123</v>
+        <v>-0.009072907290729071</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02124725163389006</v>
+        <v>0.1242244224422442</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02124725163389006</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.02124725163389006</v>
-      </c>
+        <v>-0.07959195919591958</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>0.02124725163389006</v>
-      </c>
-      <c r="Z29" t="inlineStr"/>
+        <v>-0.1387938793879388</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.09676567656765676</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.002124212421242124</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-0.002124212421242124</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.002124212421242124</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.002124212421242124</v>
+      </c>
+      <c r="AE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2648,69 +3060,84 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004803153216126128</v>
+        <v>0.1738133813381338</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.005935235853409434</v>
+        <v>0.03482748274827482</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0003405131656205266</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
-        <v>-0.002780242857727964</v>
-      </c>
+        <v>-0.05011701170117012</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01060906090609061</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-0.01752029119681165</v>
+        <v>-0.01212121212121212</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01542497485699899</v>
+        <v>0.04303630363036304</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01545203863805389</v>
+        <v>-0.05281728172817281</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.001041942665677706</v>
+        <v>-0.06154215421542153</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.001041942665677706</v>
+        <v>-0.06154215421542153</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.001041942665677706</v>
+        <v>-0.06154215421542153</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.001041942665677706</v>
+        <v>-0.06154215421542153</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>-0.004737920925516836</v>
+        <v>-0.01432943294329433</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02177998483919939</v>
+        <v>0.02139813981398139</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.003435858857434354</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
+        <v>0.02139813981398139</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.02139813981398139</v>
+      </c>
       <c r="T30" t="n">
-        <v>0.01782724882655816</v>
+        <v>0.02139813981398139</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02233406969336279</v>
+        <v>0.003060306030603061</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01436770387070815</v>
+        <v>-0.165064506450645</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01436770387070815</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.01436770387070815</v>
-      </c>
+        <v>0.03043504350435043</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>0.01436770387070815</v>
-      </c>
-      <c r="Z30" t="inlineStr"/>
+        <v>-0.03893189318931892</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.03036303630363036</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.02913891389138914</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.02913891389138914</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.02913891389138914</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.02913891389138914</v>
+      </c>
+      <c r="AE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2724,69 +3151,84 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4336281797451272</v>
+        <v>0.3596999699969997</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9883508323980331</v>
+        <v>0.015997599759976</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9093524342300973</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>-0.8735736969843972</v>
-      </c>
+        <v>0.9906030603060305</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.9105190519051904</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-0.07980771285630851</v>
+        <v>-0.8826282628262826</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02025557121022284</v>
+        <v>-0.2017161716171617</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3195818620232611</v>
+        <v>0.338049804980498</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.7866820988912839</v>
+        <v>-0.1834743474347435</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.7866820988912839</v>
+        <v>-0.1834743474347435</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.7866820988912839</v>
+        <v>-0.1834743474347435</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.7866820988912839</v>
+        <v>-0.1834743474347435</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.1055502606700104</v>
+        <v>-0.6579657965796579</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.008539471157578844</v>
+        <v>-0.8181338133813381</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.2941708055588322</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
+        <v>-0.8181338133813381</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.8181338133813381</v>
+      </c>
       <c r="T31" t="n">
-        <v>0.5690950769634513</v>
+        <v>-0.8181338133813381</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4415846645753865</v>
+        <v>-0.01194119411941194</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7473151729326069</v>
+        <v>0.06585058505850584</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7473151729326069</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.7473151729326069</v>
-      </c>
+        <v>-0.1650885088508851</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>0.7473151729326069</v>
-      </c>
-      <c r="Z31" t="inlineStr"/>
+        <v>0.3060786078607861</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.09994599459945992</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.2922532253225322</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.2922532253225322</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.2922532253225322</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.2922532253225322</v>
+      </c>
+      <c r="AE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2800,69 +3242,84 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.004739936349597454</v>
+        <v>-0.07498349834983498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02865866274634651</v>
+        <v>-0.1639483948394839</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.04256914864676595</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>-0.04062960772136636</v>
-      </c>
+        <v>-0.128976897689769</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.08252025202520252</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-0.01184947631397905</v>
+        <v>0.1016981698169817</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01117334454293378</v>
+        <v>-0.1394899489948995</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.003007915135319031</v>
+        <v>-0.05249324932493248</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.01835496380619855</v>
+        <v>0.06801080108010801</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.01835496380619855</v>
+        <v>0.06801080108010801</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.01835496380619855</v>
+        <v>0.06801080108010801</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.01835496380619855</v>
+        <v>0.06801080108010801</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.02208343768333751</v>
+        <v>0.1208640864086408</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01016021714240868</v>
+        <v>0.1281488148814881</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.02214057438962297</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
+        <v>0.1281488148814881</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.1281488148814881</v>
+      </c>
       <c r="T32" t="n">
-        <v>0.02098244950169313</v>
+        <v>0.1281488148814881</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01999598211183928</v>
+        <v>0.1281608160816081</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02811740906069636</v>
+        <v>-0.01935793579357935</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02811740906069636</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.02811740906069636</v>
-      </c>
+        <v>-0.04264026402640263</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>0.02811740906069636</v>
-      </c>
-      <c r="Z32" t="inlineStr"/>
+        <v>-0.1588958895889589</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.1972157215721572</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.02365436543654365</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.02365436543654365</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.02365436543654365</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.02365436543654365</v>
+      </c>
+      <c r="AE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2876,69 +3333,84 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03384501188180047</v>
+        <v>-0.00916891689168917</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02047602379504095</v>
+        <v>-0.03914791479147915</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02317299212691968</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>-0.02446502253107938</v>
-      </c>
+        <v>-0.132013201320132</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.103978397839784</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0.002336119389444775</v>
+        <v>0.05185718571857185</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.001813062024522481</v>
+        <v>-0.01682568256825683</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02632427055425373</v>
+        <v>-0.2487008700870087</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01063570832942833</v>
+        <v>-0.1186678667866786</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01063570832942833</v>
+        <v>-0.1186678667866786</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.01063570832942833</v>
+        <v>-0.1186678667866786</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01063570832942833</v>
+        <v>-0.1186678667866786</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.01477397166295887</v>
+        <v>-0.02376237623762376</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02153143046125721</v>
+        <v>0.02628262826282628</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01132399264495971</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
+        <v>0.02628262826282628</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.02628262826282628</v>
+      </c>
       <c r="T33" t="n">
-        <v>0.01048561142547153</v>
+        <v>0.02628262826282628</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0019265800130632</v>
+        <v>-0.06102610261026101</v>
       </c>
       <c r="V33" t="n">
-        <v>0.02172360125294405</v>
+        <v>0.01767776777677768</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02172360125294405</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.02172360125294405</v>
-      </c>
+        <v>-0.1228202820282028</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>0.02172360125294405</v>
-      </c>
-      <c r="Z33" t="inlineStr"/>
+        <v>0.007488748874887488</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.04301230123012301</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.04717671767176718</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.04717671767176718</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.04717671767176718</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.04717671767176718</v>
+      </c>
+      <c r="AE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2952,69 +3424,84 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.005964860878594435</v>
+        <v>-0.1221122112211221</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006675586443023457</v>
+        <v>-0.0833123312331233</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.001341179861647194</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
-        <v>-0.004279587366477727</v>
-      </c>
+        <v>0.000492049204920492</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.09334533453345333</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>0.004355424078216963</v>
+        <v>-0.08662466246624663</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01138237082329483</v>
+        <v>-0.07455145514551455</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01675028893300623</v>
+        <v>-0.03378337833783378</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2565052971722119</v>
+        <v>0.9213441344134412</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2565052971722119</v>
+        <v>0.9213441344134412</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2565052971722119</v>
+        <v>0.9213441344134412</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2565052971722119</v>
+        <v>0.9213441344134412</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>6.288710651548425e-05</v>
+        <v>0.6900570057005699</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.009118516588740662</v>
+        <v>0.5175277527752775</v>
       </c>
       <c r="R34" t="n">
-        <v>0.003479067211162688</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
+        <v>0.5175277527752775</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5175277527752775</v>
+      </c>
       <c r="T34" t="n">
-        <v>0.01570185812118741</v>
+        <v>0.5175277527752775</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01173782859751314</v>
+        <v>0.06307830783078307</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.05998714732748589</v>
+        <v>-0.08387638763876386</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.05998714732748589</v>
-      </c>
-      <c r="X34" t="n">
-        <v>-0.05998714732748589</v>
-      </c>
+        <v>-0.1287128712871287</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>-0.05998714732748589</v>
-      </c>
-      <c r="Z34" t="inlineStr"/>
+        <v>-0.1107710771077108</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.07161116111611161</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.5734173417341734</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.5734173417341734</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.5734173417341734</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.5734173417341734</v>
+      </c>
+      <c r="AE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3028,69 +3515,84 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01877335275093411</v>
+        <v>-0.01318931893189319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01408857454754298</v>
+        <v>0.01956195619561956</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.009088222443528898</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>-0.003422227008874642</v>
-      </c>
+        <v>-0.1304890489048905</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1322292229222922</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>0.02006052675442107</v>
+        <v>0.1603120312031203</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02218259157530366</v>
+        <v>0.03855985598559856</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0177617203518181</v>
+        <v>0.07564356435643564</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01109052831562113</v>
+        <v>-0.03573957395739574</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01109052831562113</v>
+        <v>-0.03573957395739574</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.01109052831562113</v>
+        <v>-0.03573957395739574</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.01109052831562113</v>
+        <v>-0.03573957395739574</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.003066155642646225</v>
+        <v>0.03567956795679567</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01854570150982806</v>
+        <v>0.07062706270627062</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01498878655155146</v>
-      </c>
-      <c r="S35" t="inlineStr"/>
+        <v>0.07062706270627062</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.07062706270627062</v>
+      </c>
       <c r="T35" t="n">
-        <v>0.0005572330231721505</v>
+        <v>0.07062706270627062</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.006898374707934987</v>
+        <v>0.1121512151215121</v>
       </c>
       <c r="V35" t="n">
-        <v>0.003115364284614571</v>
+        <v>-0.1151515151515151</v>
       </c>
       <c r="W35" t="n">
-        <v>0.003115364284614571</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.003115364284614571</v>
-      </c>
+        <v>0.1198199819981998</v>
+      </c>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>0.003115364284614571</v>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+        <v>0.0246024602460246</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.06279027902790278</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.04061206120612061</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.04061206120612061</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.04061206120612061</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.04061206120612061</v>
+      </c>
+      <c r="AE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3104,69 +3606,84 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04489542121981684</v>
+        <v>-0.04439243924392439</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03086303345852134</v>
+        <v>-0.07501950195019501</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.02443015892920635</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>-0.0160419556957576</v>
-      </c>
+        <v>0.07699969996999699</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.0392079207920792</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-0.002929978965199158</v>
+        <v>-0.018001800180018</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.002515635364625415</v>
+        <v>-0.07227122712271226</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0193764481961663</v>
+        <v>0.06093009300930093</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02901881799275272</v>
+        <v>0.05603360336033603</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02901881799275272</v>
+        <v>0.05603360336033603</v>
       </c>
       <c r="M36" t="n">
-        <v>0.02901881799275272</v>
+        <v>0.05603360336033603</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02901881799275272</v>
+        <v>0.05603360336033603</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0.01799296027171841</v>
+        <v>0.01555355535553555</v>
       </c>
       <c r="Q36" t="n">
-        <v>-7.898985915959435e-05</v>
+        <v>0.005712571257125713</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.009645589441823576</v>
-      </c>
-      <c r="S36" t="inlineStr"/>
+        <v>0.005712571257125713</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.005712571257125713</v>
+      </c>
       <c r="T36" t="n">
-        <v>0.01106738846399581</v>
+        <v>0.005712571257125713</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00308587375543495</v>
+        <v>-0.138001800180018</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05925445629017824</v>
+        <v>-0.03175517551755175</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05925445629017824</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.05925445629017824</v>
-      </c>
+        <v>-0.003348334833483348</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>0.05925445629017824</v>
-      </c>
-      <c r="Z36" t="inlineStr"/>
+        <v>0.07072307230723072</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.07666366636663666</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.5171197119711971</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.5171197119711971</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.5171197119711971</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.5171197119711971</v>
+      </c>
+      <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3180,74 +3697,91 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01528205485128219</v>
+        <v>0.05148514851485148</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01804079457763178</v>
+        <v>0.03245124512451245</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02747164420286577</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>-0.02501217006957052</v>
-      </c>
+        <v>0.05462946294629463</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.004812481248124812</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-0.01352423622096945</v>
+        <v>-0.03375937593759375</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01464582970583318</v>
+        <v>-0.09789378937893789</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01153449836023225</v>
+        <v>-0.03117911791179118</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4173342010453679</v>
+        <v>-0.08733273327332731</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4173342010453679</v>
+        <v>-0.08733273327332731</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4173342010453679</v>
+        <v>-0.08733273327332731</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4173342010453679</v>
+        <v>-0.08733273327332731</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.03144797319391892</v>
+        <v>-0.1045064506450645</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.0103798149431926</v>
+        <v>-0.07900390039003898</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.01005548949021958</v>
-      </c>
-      <c r="S37" t="inlineStr"/>
+        <v>-0.07900390039003898</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.07900390039003898</v>
+      </c>
       <c r="T37" t="n">
-        <v>0.003467741965735907</v>
+        <v>-0.07900390039003898</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003104741308189652</v>
+        <v>0.1005220522052205</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03986963074678523</v>
+        <v>0.06724272427242724</v>
       </c>
       <c r="W37" t="n">
-        <v>0.03986963074678523</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.03986963074678523</v>
-      </c>
+        <v>0.1189078907890789</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>0.03986963074678523</v>
-      </c>
-      <c r="Z37" t="inlineStr"/>
+        <v>0.2023522352235223</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.1556075607560756</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.2595739573957395</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.2595739573957395</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.2595739573957395</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.2595739573957395</v>
+      </c>
+      <c r="AE37" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,82 +734,82 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.06650287014811479</v>
+        <v>-0.04405231405009256</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.00698489279139571</v>
+        <v>0.002440304641612186</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06401067337642694</v>
+        <v>-0.06970391088415642</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0003859462234378489</v>
+        <v>0.008415136656605465</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-0.02884420852053496</v>
+        <v>-0.01616688469225557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007226726017069039</v>
+        <v>0.01980104652004186</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0359380128469844</v>
+        <v>0.03201825631002688</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004687367611494703</v>
+        <v>0.007808031576321262</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004687367611494703</v>
+        <v>0.007808031576321262</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004687367611494703</v>
+        <v>0.007808031576321262</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004687367611494703</v>
+        <v>0.007808031576321262</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.003484883947395357</v>
+        <v>0.007412346632493864</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01392545374101815</v>
+        <v>0.005298623827944953</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01392545374101815</v>
+        <v>0.005298623827944953</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01392545374101815</v>
+        <v>0.005298623827944953</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01392545374101815</v>
+        <v>0.005298623827944953</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.06923274286530971</v>
+        <v>-0.08999091739163669</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.4197177445327097</v>
+        <v>-0.41002625105705</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.008884098691363947</v>
+        <v>0.003358085030323401</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>-0.03685613427778356</v>
+        <v>-0.02501470372659168</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03505731461829258</v>
+        <v>0.05085511835420473</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.02443000158520006</v>
+        <v>-0.01739770965590838</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.02443000158520006</v>
+        <v>-0.01739770965590838</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.02443000158520006</v>
+        <v>-0.01739770965590838</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.02443000158520006</v>
+        <v>-0.01739770965590838</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -821,82 +821,82 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07856879815075192</v>
+        <v>0.04619939426397576</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0005056358602254343</v>
+        <v>-0.01886649176265967</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109833950569358</v>
+        <v>0.1050306942492277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005449332985973318</v>
+        <v>0.01834160233366409</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.06726369782095032</v>
+        <v>0.07998918029075813</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.008681292155251685</v>
+        <v>-0.01134477030979081</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03726598743170485</v>
+        <v>-0.04526558103521074</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02293531445341258</v>
+        <v>0.03693277635731105</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02293531445341258</v>
+        <v>0.03693277635731105</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02293531445341258</v>
+        <v>0.03693277635731105</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02293531445341258</v>
+        <v>0.03693277635731105</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.02796884204675367</v>
+        <v>0.03873200017328</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0005355803734232148</v>
+        <v>0.04297280888691235</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0005355803734232148</v>
+        <v>0.04297280888691235</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0005355803734232148</v>
+        <v>0.04297280888691235</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005355803734232148</v>
+        <v>0.04297280888691235</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1184896918435877</v>
+        <v>0.1360933529957341</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8193781163911245</v>
+        <v>0.8162772914990916</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007674381138975245</v>
+        <v>-0.0007998041599921662</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>0.1019512487598373</v>
+        <v>0.08308863934348684</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.02641859155274365</v>
+        <v>-0.009753485862139434</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05995906051036241</v>
+        <v>0.04291614718864588</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05995906051036241</v>
+        <v>0.04291614718864588</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05995906051036241</v>
+        <v>0.04291614718864588</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05995906051036241</v>
+        <v>0.04291614718864588</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -908,82 +908,82 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1940100182244007</v>
+        <v>0.2045144526925781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9579630389905214</v>
+        <v>0.9579101443324056</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02088715091548603</v>
+        <v>-0.02509703159588126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.020346774957871</v>
+        <v>0.02069222933968917</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.01772378079677199</v>
+        <v>0.01267446642162521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9014209182328365</v>
+        <v>0.8990451599618062</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.004413729308519206</v>
+        <v>-0.01781582922409454</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01836715225468609</v>
+        <v>0.01217353191094127</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01836715225468609</v>
+        <v>0.01217353191094127</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01836715225468609</v>
+        <v>0.01217353191094127</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01836715225468609</v>
+        <v>0.01217353191094127</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.01832896018915841</v>
+        <v>0.01081473931258957</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01929418387576735</v>
+        <v>0.01141173559246942</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01929418387576735</v>
+        <v>0.01141173559246942</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01929418387576735</v>
+        <v>0.01141173559246942</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01929418387576735</v>
+        <v>0.01141173559246942</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.02699905691996227</v>
+        <v>-0.03795335451013417</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.002414885568595423</v>
+        <v>-0.01632559927702397</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00561873276874931</v>
+        <v>-0.002319706652788266</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>0.008264728843382568</v>
+        <v>0.008221500138833165</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.1091239124609565</v>
+        <v>-0.1116581393783256</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.0047993350079734</v>
+        <v>0.003659707922388317</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.0047993350079734</v>
+        <v>0.003659707922388317</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.0047993350079734</v>
+        <v>0.003659707922388317</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0047993350079734</v>
+        <v>0.003659707922388317</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -999,82 +999,82 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7195868978714759</v>
+        <v>0.7058153076566122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001493298203731928</v>
+        <v>0.02428762417150496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02591719985268799</v>
+        <v>-0.003572320078892803</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02479618697584747</v>
+        <v>0.007798744919949795</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-0.02724446320639509</v>
+        <v>0.003346162216657265</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.009863135818525432</v>
+        <v>0.01924166707366668</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.002191427757600262</v>
+        <v>-0.01168088425835325</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.03191503740460149</v>
+        <v>0.00238433625537345</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03191503740460149</v>
+        <v>0.00238433625537345</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03191503740460149</v>
+        <v>0.00238433625537345</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03191503740460149</v>
+        <v>0.00238433625537345</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.03170786402031455</v>
+        <v>0.002060808466432338</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.03071509351660374</v>
+        <v>0.002078403923136156</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.03071509351660374</v>
+        <v>0.002078403923136156</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.03071509351660374</v>
+        <v>0.002078403923136156</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.03071509351660374</v>
+        <v>0.002078403923136156</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.3944566719702668</v>
+        <v>-0.4149207467408298</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01525030208201208</v>
+        <v>-0.002726000173040007</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.02157879110315164</v>
+        <v>0.01096817275872691</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>-0.004590102616044755</v>
+        <v>-0.001201418400345076</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.009071878730875149</v>
+        <v>-0.008929647525185899</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.004047023969880959</v>
+        <v>-7.466265898650635e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004047023969880959</v>
+        <v>-7.466265898650635e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.004047023969880959</v>
+        <v>-7.466265898650635e-05</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.004047023969880959</v>
+        <v>-7.466265898650635e-05</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1090,82 +1090,82 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3610819095792763</v>
+        <v>0.3532010430880417</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.009444151673766065</v>
+        <v>-0.01683367161734686</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01273223081328923</v>
+        <v>0.0048112100164484</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01872136711685468</v>
+        <v>0.0004492974899718995</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-0.009364870083181188</v>
+        <v>0.005784647756245014</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.007199572607982904</v>
+        <v>-0.008346945165877806</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02917022510191865</v>
+        <v>0.01531938502158624</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.005855657802226313</v>
+        <v>0.004367077134683085</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.005855657802226313</v>
+        <v>0.004367077134683085</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.005855657802226313</v>
+        <v>0.004367077134683085</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.005855657802226313</v>
+        <v>0.004367077134683085</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.004823070624922824</v>
+        <v>0.004797650591906023</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.007808140824325633</v>
+        <v>0.004901935012077399</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.007808140824325633</v>
+        <v>0.004901935012077399</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.007808140824325633</v>
+        <v>0.004901935012077399</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.007808140824325633</v>
+        <v>0.004901935012077399</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7638667592906702</v>
+        <v>0.7598775552591021</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0005535101021404039</v>
+        <v>0.01817446239097849</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.003462659274506371</v>
+        <v>0.002492668323706732</v>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>-0.03271160262360442</v>
+        <v>-0.0009478912221431427</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.02247250582690023</v>
+        <v>-0.01146389076255563</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.02816273066250922</v>
+        <v>-0.006507777092311083</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.02816273066250922</v>
+        <v>-0.006507777092311083</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.02816273066250922</v>
+        <v>-0.006507777092311083</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.02816273066250922</v>
+        <v>-0.006507777092311083</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1181,82 +1181,82 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01651040638841625</v>
+        <v>0.002218001176720047</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02935745800629832</v>
+        <v>0.01662563970502559</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01097277864691115</v>
+        <v>-0.007302484996099399</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003698318451932737</v>
+        <v>-0.003040910425636416</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-0.002792269171443577</v>
+        <v>-0.003103384062742205</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01613377744535109</v>
+        <v>0.01342637871305515</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006439850723058904</v>
+        <v>-0.006559671255861814</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001800404136016165</v>
+        <v>-0.001363021878520875</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001800404136016165</v>
+        <v>-0.001363021878520875</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001800404136016165</v>
+        <v>-0.001363021878520875</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001800404136016165</v>
+        <v>-0.001363021878520875</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0.002055294226211769</v>
+        <v>-0.002426603905064156</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.003023799000951959</v>
+        <v>-0.001751099206043968</v>
       </c>
       <c r="R9" t="n">
-        <v>0.003023799000951959</v>
+        <v>-0.001751099206043968</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003023799000951959</v>
+        <v>-0.001751099206043968</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003023799000951959</v>
+        <v>-0.001751099206043968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007081495675259826</v>
+        <v>-0.000228352425134097</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01475136855805474</v>
+        <v>0.008683907195356288</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.04037014193480567</v>
+        <v>-0.03739751669590066</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>-0.007254802178888548</v>
+        <v>0.01039664168236086</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.01151136708445468</v>
+        <v>0.003308581284343251</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.009741042053641681</v>
+        <v>0.002907591476303659</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.009741042053641681</v>
+        <v>0.002907591476303659</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.009741042053641681</v>
+        <v>0.002907591476303659</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.009741042053641681</v>
+        <v>0.002907591476303659</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1272,82 +1272,82 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01400890356835614</v>
+        <v>0.006041493073659723</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0009428528057141121</v>
+        <v>-0.00196987025479481</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008272226346889053</v>
+        <v>-0.008888051587522061</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.002212960792518431</v>
+        <v>0.01881373793654952</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.0001922292559475264</v>
+        <v>0.0193320126455194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004889746275589851</v>
+        <v>-0.002170648694825947</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002631921808414644</v>
+        <v>-0.01673239093787073</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.004097708227908329</v>
+        <v>0.0167543551661742</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.004097708227908329</v>
+        <v>0.0167543551661742</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.004097708227908329</v>
+        <v>0.0167543551661742</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.004097708227908329</v>
+        <v>0.0167543551661742</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.003347190373887615</v>
+        <v>0.01648892792355711</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.004148262885930515</v>
+        <v>0.01703106125724245</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.004148262885930515</v>
+        <v>0.01703106125724245</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.004148262885930515</v>
+        <v>0.01703106125724245</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.004148262885930515</v>
+        <v>0.01703106125724245</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.0191152951646118</v>
+        <v>0.02349725210789009</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.006183031063321242</v>
+        <v>0.03255379723815188</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01475774910230996</v>
+        <v>-0.004379488303179532</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>0.02428225345362123</v>
+        <v>0.01000954384278404</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01302609056904362</v>
+        <v>0.003777747895109916</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02395262361410494</v>
+        <v>0.006921783156871325</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02395262361410494</v>
+        <v>0.006921783156871325</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02395262361410494</v>
+        <v>0.006921783156871325</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02395262361410494</v>
+        <v>0.006921783156871325</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1359,82 +1359,82 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1343543562221742</v>
+        <v>0.128499601779984</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2739317170692687</v>
+        <v>0.2654456043458241</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.002091201107648044</v>
+        <v>-0.001150343278013731</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001534187581367503</v>
+        <v>-0.00189160375566415</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>5.696669035523085e-05</v>
+        <v>-0.0008236784016390259</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001884874635394985</v>
+        <v>-0.01044814841792594</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005185932941501567</v>
+        <v>0.02093989610937973</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002303015612120624</v>
+        <v>-0.001175065391002616</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002303015612120624</v>
+        <v>-0.001175065391002616</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002303015612120624</v>
+        <v>-0.001175065391002616</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002303015612120624</v>
+        <v>-0.001175065391002616</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.002982195575287823</v>
+        <v>-0.0003145272125810885</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001958601870344075</v>
+        <v>-0.001136589453463578</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001958601870344075</v>
+        <v>-0.001136589453463578</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001958601870344075</v>
+        <v>-0.001136589453463578</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001958601870344075</v>
+        <v>-0.001136589453463578</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008021056640842263</v>
+        <v>-0.02517358113494324</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01474780407791216</v>
+        <v>-0.01808979355559174</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01422990133719605</v>
+        <v>0.01755659062226362</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>-0.003305975844556408</v>
+        <v>-0.00366863467562586</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.007752702070108081</v>
+        <v>-0.0004053952482158099</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.005761244102449764</v>
+        <v>-0.0001128464685138587</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.005761244102449764</v>
+        <v>-0.0001128464685138587</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.005761244102449764</v>
+        <v>-0.0001128464685138587</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.005761244102449764</v>
+        <v>-0.0001128464685138587</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1446,82 +1446,82 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2481361622774464</v>
+        <v>-0.2608344550733782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005965689838627593</v>
+        <v>0.0006189252727570108</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003748755125950205</v>
+        <v>-0.005467604762704189</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005376030167041206</v>
+        <v>0.01027359295494372</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-0.003323154569392502</v>
+        <v>0.01573202824249603</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00950872348434894</v>
+        <v>0.004113359396534375</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.002514761867410509</v>
+        <v>0.01334742340145447</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.008214021736560868</v>
+        <v>0.01587589657103586</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.008214021736560868</v>
+        <v>0.01587589657103586</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.008214021736560868</v>
+        <v>0.01587589657103586</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.008214021736560868</v>
+        <v>0.01587589657103586</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.008555025942201035</v>
+        <v>0.01598038547121542</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.007358416998336679</v>
+        <v>0.01635479163019166</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007358416998336679</v>
+        <v>0.01635479163019166</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.007358416998336679</v>
+        <v>0.01635479163019166</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.007358416998336679</v>
+        <v>0.01635479163019166</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02993968622158745</v>
+        <v>0.008055057922202315</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01057181159087246</v>
+        <v>0.009273636562945461</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.02934795323791813</v>
+        <v>0.002798877903955116</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>0.003489901003931071</v>
+        <v>0.00873403134345742</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.003122433436897337</v>
+        <v>-0.0004518748980749959</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.002361953182478127</v>
+        <v>0.007310338468413538</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.002361953182478127</v>
+        <v>0.007310338468413538</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.002361953182478127</v>
+        <v>0.007310338468413538</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002361953182478127</v>
+        <v>0.007310338468413538</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1537,82 +1537,82 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03347577196303088</v>
+        <v>-0.01073857108554284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008566545270661809</v>
+        <v>-0.01166114235444569</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001109532140381286</v>
+        <v>-0.007348561445942457</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0003527403981096158</v>
+        <v>0.004272312074892482</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-0.004473323992945108</v>
+        <v>0.007227011239151138</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005415017592600703</v>
+        <v>-0.01100998901639956</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02815233048244234</v>
+        <v>0.01727413307298361</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.003434771561390862</v>
+        <v>0.006788194735527788</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.003434771561390862</v>
+        <v>0.006788194735527788</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.003434771561390862</v>
+        <v>0.006788194735527788</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.003434771561390862</v>
+        <v>0.006788194735527788</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.003759281718371268</v>
+        <v>0.006729939437197577</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.002864176722567069</v>
+        <v>0.006749646125985845</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.002864176722567069</v>
+        <v>0.006749646125985845</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.002864176722567069</v>
+        <v>0.006749646125985845</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.002864176722567069</v>
+        <v>0.006749646125985845</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03096653730266149</v>
+        <v>0.02910200170808006</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01380949428037977</v>
+        <v>-0.01064542813781712</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.001150260238010409</v>
+        <v>-0.01669312809172512</v>
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>0.02128893301360106</v>
+        <v>-0.02669453133018794</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02117122481484899</v>
+        <v>-0.02174937082197483</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01499106367164254</v>
+        <v>-0.0192421176976847</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01499106367164254</v>
+        <v>-0.0192421176976847</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01499106367164254</v>
+        <v>-0.0192421176976847</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01499106367164254</v>
+        <v>-0.0192421176976847</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1628,82 +1628,82 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02321631068865242</v>
+        <v>-0.01202356838494274</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.007119007484760298</v>
+        <v>-0.0008059194562367781</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008442375217695006</v>
+        <v>-0.002657227114289085</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01107231481089259</v>
+        <v>0.01770347206813888</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-0.01541744012541865</v>
+        <v>0.01490231456061052</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.00713678303747132</v>
+        <v>-0.002370582718823308</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.007391384523700814</v>
+        <v>0.007288000678935261</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01786735780269431</v>
+        <v>0.009973294958931797</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01786735780269431</v>
+        <v>0.009973294958931797</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01786735780269431</v>
+        <v>0.009973294958931797</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01786735780269431</v>
+        <v>0.009973294958931797</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>-0.01863690381747615</v>
+        <v>0.009692459907698394</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01679210563168422</v>
+        <v>0.01014834904593396</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01679210563168422</v>
+        <v>0.01014834904593396</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01679210563168422</v>
+        <v>0.01014834904593396</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01679210563168422</v>
+        <v>0.01014834904593396</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.03997468508698739</v>
+        <v>-0.04246334128253364</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.007465691146627645</v>
+        <v>0.003256864450274577</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.01286757171470287</v>
+        <v>0.02021817584872703</v>
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>-0.005604896576733934</v>
+        <v>0.003213331425304457</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.001154671726186869</v>
+        <v>0.002261555226462209</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.00781734156069366</v>
+        <v>0.01060973341638934</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.00781734156069366</v>
+        <v>0.01060973341638934</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.00781734156069366</v>
+        <v>0.01060973341638934</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.00781734156069366</v>
+        <v>0.01060973341638934</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1719,82 +1719,82 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003418709320748373</v>
+        <v>-0.0002329929693197188</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01063094864923795</v>
+        <v>-0.009508359644334384</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01647283457891338</v>
+        <v>0.01382647236105889</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009559126078365043</v>
+        <v>-0.009883116971324676</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-0.01243160096197211</v>
+        <v>-0.01114014496696352</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.007982009503280379</v>
+        <v>-0.008005676096227043</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.007403076652200209</v>
+        <v>0.003052561234234473</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01135005347800214</v>
+        <v>-0.01483312945732518</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01135005347800214</v>
+        <v>-0.01483312945732518</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01135005347800214</v>
+        <v>-0.01483312945732518</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01135005347800214</v>
+        <v>-0.01483312945732518</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.01060450986418039</v>
+        <v>-0.01470783985231359</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01228139290725571</v>
+        <v>-0.01487898424315937</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01228139290725571</v>
+        <v>-0.01487898424315937</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01228139290725571</v>
+        <v>-0.01487898424315937</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01228139290725571</v>
+        <v>-0.01487898424315937</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02680301464012058</v>
+        <v>0.02189237713169508</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0006328570813142832</v>
+        <v>-0.006297467867898714</v>
       </c>
       <c r="W15" t="n">
-        <v>0.00183117549724702</v>
+        <v>0.001919497612779904</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>0.01137310557601604</v>
+        <v>-0.006345166047329482</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0110612600264504</v>
+        <v>-0.006676853067074121</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01252086174883447</v>
+        <v>0.002058207442328297</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01252086174883447</v>
+        <v>0.002058207442328297</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01252086174883447</v>
+        <v>0.002058207442328297</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01252086174883447</v>
+        <v>0.002058207442328297</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1810,82 +1810,82 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.05560481243219249</v>
+        <v>-0.0636237653289506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01187493935499757</v>
+        <v>0.001442512665700506</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003360626342425053</v>
+        <v>-0.003564035662561426</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.007129404957176198</v>
+        <v>0.006078383187135327</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-0.01053923006773393</v>
+        <v>0.00980929139261146</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004921495396859816</v>
+        <v>-0.0009607009344280372</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008377411029815979</v>
+        <v>0.0166371367578068</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.007584741039389641</v>
+        <v>0.01146243146649726</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.007584741039389641</v>
+        <v>0.01146243146649726</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.007584741039389641</v>
+        <v>0.01146243146649726</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.007584741039389641</v>
+        <v>0.01146243146649726</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>-0.00724672425786897</v>
+        <v>0.0118160050486402</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.006968195990727838</v>
+        <v>0.01182113960884558</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.006968195990727838</v>
+        <v>0.01182113960884558</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.006968195990727838</v>
+        <v>0.01182113960884558</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.006968195990727838</v>
+        <v>0.01182113960884558</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.05604155974566238</v>
+        <v>-0.03900452920818116</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.03481574376062975</v>
+        <v>0.006073220594928823</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0102682350027294</v>
+        <v>-0.004229359465174378</v>
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>-0.01409397675711209</v>
+        <v>0.005090788572853332</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01876100475044019</v>
+        <v>0.004742709981708399</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.007310195236407809</v>
+        <v>0.0007537199341487972</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.007310195236407809</v>
+        <v>0.0007537199341487972</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.007310195236407809</v>
+        <v>0.0007537199341487972</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.007310195236407809</v>
+        <v>0.0007537199341487972</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1897,82 +1897,82 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.006986253111450123</v>
+        <v>-0.001540414237616569</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.006571147174845886</v>
+        <v>0.02845959675438387</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01569730670789227</v>
+        <v>-0.0296483800659352</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01564253956970158</v>
+        <v>0.02312413167696526</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-0.01171907146051329</v>
+        <v>0.01957836823958056</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0002298259291930371</v>
+        <v>0.02839464180778567</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01497863939176764</v>
+        <v>-0.02154737866329736</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01282868345714734</v>
+        <v>0.02351005313240212</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01282868345714734</v>
+        <v>0.02351005313240212</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01282868345714734</v>
+        <v>0.02351005313240212</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01282868345714734</v>
+        <v>0.02351005313240212</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.01271286684451467</v>
+        <v>0.02267551108302044</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.01380444736817789</v>
+        <v>0.02311372412454896</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.01380444736817789</v>
+        <v>0.02311372412454896</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.01380444736817789</v>
+        <v>0.02311372412454896</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.01380444736817789</v>
+        <v>0.02311372412454896</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01171355115654204</v>
+        <v>-0.01361358342454333</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.009602868864114754</v>
+        <v>-0.0008294681611787264</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01394672522986901</v>
+        <v>-0.01778223488728939</v>
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>-0.0183709747846026</v>
+        <v>-0.001585627695805658</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.02018426461537058</v>
+        <v>-0.002624188232967529</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.01316005271840211</v>
+        <v>-0.008505015508200618</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.01316005271840211</v>
+        <v>-0.008505015508200618</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.01316005271840211</v>
+        <v>-0.008505015508200618</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.01316005271840211</v>
+        <v>-0.008505015508200618</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -1988,82 +1988,82 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.07670579817223191</v>
+        <v>-0.04932503035700121</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.00474179874967195</v>
+        <v>0.004848441889937675</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.007783352663334104</v>
+        <v>-0.01606235296249411</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009853565386142613</v>
+        <v>0.02277845217513809</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.004683681025642109</v>
+        <v>0.02386169852651176</v>
       </c>
       <c r="I18" t="n">
-        <v>0.183670449650818</v>
+        <v>0.1992242419209696</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.007287363959257889</v>
+        <v>0.01414797285960911</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004498642739945709</v>
+        <v>0.02347032650681306</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004498642739945709</v>
+        <v>0.02347032650681306</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004498642739945709</v>
+        <v>0.02347032650681306</v>
       </c>
       <c r="N18" t="n">
-        <v>0.004498642739945709</v>
+        <v>0.02347032650681306</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.004026685313067412</v>
+        <v>0.02304994632999785</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005249418257976729</v>
+        <v>0.02360198676807947</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005249418257976729</v>
+        <v>0.02360198676807947</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005249418257976729</v>
+        <v>0.02360198676807947</v>
       </c>
       <c r="T18" t="n">
-        <v>0.005249418257976729</v>
+        <v>0.02360198676807947</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.006225055545002221</v>
+        <v>-0.01581933240877329</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01679328719973149</v>
+        <v>0.01351628329265133</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02747732279509291</v>
+        <v>0.006026213233048528</v>
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>0.008194368712561408</v>
+        <v>-0.005749680471367142</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1014238792569551</v>
+        <v>0.09456585536663421</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.0006012116400484654</v>
+        <v>-0.004742978301719131</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.0006012116400484654</v>
+        <v>-0.004742978301719131</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.0006012116400484654</v>
+        <v>-0.004742978301719131</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.0006012116400484654</v>
+        <v>-0.004742978301719131</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2079,82 +2079,82 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.0004804182912167316</v>
+        <v>0.02091963962078558</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.005025031497001259</v>
+        <v>0.003681679443267178</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0125859701994388</v>
+        <v>-0.003524020172960806</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1728188490247539</v>
+        <v>0.1523565235662609</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.1544870486911125</v>
+        <v>0.134006586000829</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0252303300972132</v>
+        <v>0.02499345335173813</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03317187256883702</v>
+        <v>0.02911180103402588</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09902804546512181</v>
+        <v>0.08620243324009731</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09902804546512181</v>
+        <v>0.08620243324009731</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09902804546512181</v>
+        <v>0.08620243324009731</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09902804546512181</v>
+        <v>0.08620243324009731</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.1026057061202282</v>
+        <v>0.08826591722663668</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09059511242380448</v>
+        <v>0.08842975976119037</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09059511242380448</v>
+        <v>0.08842975976119037</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09059511242380448</v>
+        <v>0.08842975976119037</v>
       </c>
       <c r="T19" t="n">
-        <v>0.09059511242380448</v>
+        <v>0.08842975976119037</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.008122267812890712</v>
+        <v>0.009685944483437778</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.003250869826034793</v>
+        <v>0.003677909331116373</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3763062184122486</v>
+        <v>0.3519141285725651</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>0.04010316343197644</v>
+        <v>0.05848964337762325</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03230490638019625</v>
+        <v>0.03052899184515967</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.04720237907209515</v>
+        <v>0.06397007862280314</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.04720237907209515</v>
+        <v>0.06397007862280314</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.04720237907209515</v>
+        <v>0.06397007862280314</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04720237907209515</v>
+        <v>0.06397007862280314</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2166,82 +2166,82 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0183955800638232</v>
+        <v>-0.007090365499614619</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.006168634326745373</v>
+        <v>0.0001811943432477737</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009945133741805348</v>
+        <v>-0.01034578841383153</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.003043600825744033</v>
+        <v>0.01356402025456081</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-0.00667093217980302</v>
+        <v>0.01688317907350903</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.009752574150102965</v>
+        <v>0.002261396826455873</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.007101243039308291</v>
+        <v>-0.003949115016485042</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0104205576328223</v>
+        <v>0.01773730918949237</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0104205576328223</v>
+        <v>0.01773730918949237</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0104205576328223</v>
+        <v>0.01773730918949237</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0104205576328223</v>
+        <v>0.01773730918949237</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>-0.01066677450667098</v>
+        <v>0.0179804800792192</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01029113964364558</v>
+        <v>0.01797292334291693</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01029113964364558</v>
+        <v>0.01797292334291693</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01029113964364558</v>
+        <v>0.01797292334291693</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01029113964364558</v>
+        <v>0.01797292334291693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007497208139888325</v>
+        <v>0.01170373928414957</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01850873891634956</v>
+        <v>-0.00202431051297242</v>
       </c>
       <c r="W20" t="n">
-        <v>0.009343916245756648</v>
+        <v>0.01703764397750576</v>
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>0.006383076447935833</v>
+        <v>0.01741449377275923</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.007092989275719571</v>
+        <v>-0.0001804114632164585</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01272758594910344</v>
+        <v>0.01182706232908249</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01272758594910344</v>
+        <v>0.01182706232908249</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01272758594910344</v>
+        <v>0.01182706232908249</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01272758594910344</v>
+        <v>0.01182706232908249</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2253,82 +2253,82 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02807727837109113</v>
+        <v>0.05356875209475008</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01017689224707569</v>
+        <v>-0.003839358873574354</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01220887786435511</v>
+        <v>-0.00664882202595288</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1823267165730686</v>
+        <v>0.1824189206407568</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.1691667562420304</v>
+        <v>0.1711676905264885</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01753052806122112</v>
+        <v>0.02652060230882409</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05758333119549924</v>
+        <v>0.03962698196264555</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1001705630148225</v>
+        <v>0.1135683230707329</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1001705630148225</v>
+        <v>0.1135683230707329</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1001705630148225</v>
+        <v>0.1135683230707329</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1001705630148225</v>
+        <v>0.1135683230707329</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.1041014805480592</v>
+        <v>0.1168505568660223</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08767526376301053</v>
+        <v>0.116784676383387</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08767526376301053</v>
+        <v>0.116784676383387</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08767526376301053</v>
+        <v>0.116784676383387</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08767526376301053</v>
+        <v>0.116784676383387</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006490676611627063</v>
+        <v>-0.007493291819731672</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01404570017782801</v>
+        <v>0.003298882595955304</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4330759991470399</v>
+        <v>0.3885462340698493</v>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>0.05221139057346792</v>
+        <v>0.06762987147342601</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01851718605268744</v>
+        <v>0.04747965857118633</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06323800726552029</v>
+        <v>0.07255480821419233</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.06323800726552029</v>
+        <v>0.07255480821419233</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.06323800726552029</v>
+        <v>0.07255480821419233</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.06323800726552029</v>
+        <v>0.07255480821419233</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2340,82 +2340,82 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.001718698148747926</v>
+        <v>0.01818589023143561</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01712993559719742</v>
+        <v>0.01242534222501369</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02639839545593581</v>
+        <v>-0.02619229189569167</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01079571652782866</v>
+        <v>0.02245898384235935</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.01312585983867555</v>
+        <v>0.02147015703684121</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0055301950372078</v>
+        <v>0.008503323892132954</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.006692320653842399</v>
+        <v>-0.0208173707281523</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01802881780915271</v>
+        <v>0.02031764433270577</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01802881780915271</v>
+        <v>0.02031764433270577</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01802881780915271</v>
+        <v>0.02031764433270577</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01802881780915271</v>
+        <v>0.02031764433270577</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.01807335566693423</v>
+        <v>0.01916257353450294</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01948159047526362</v>
+        <v>0.0197426074777043</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01948159047526362</v>
+        <v>0.0197426074777043</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01948159047526362</v>
+        <v>0.0197426074777043</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01948159047526362</v>
+        <v>0.0197426074777043</v>
       </c>
       <c r="U22" t="n">
-        <v>0.005311805300472212</v>
+        <v>0.003618221520728861</v>
       </c>
       <c r="V22" t="n">
-        <v>0.005585029951401198</v>
+        <v>-0.00215351451814058</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.01428847573953903</v>
+        <v>-0.01057511418300456</v>
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>-0.004843672994211912</v>
+        <v>-0.03483756197786349</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.009845818953832757</v>
+        <v>-0.02480121459204858</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.01136597114263884</v>
+        <v>-0.0434871301554852</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.01136597114263884</v>
+        <v>-0.0434871301554852</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.01136597114263884</v>
+        <v>-0.0434871301554852</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.01136597114263884</v>
+        <v>-0.0434871301554852</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2431,82 +2431,82 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01795710292628411</v>
+        <v>0.02602921582516863</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01255298546211941</v>
+        <v>-0.004003539328141572</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01581308280852331</v>
+        <v>0.003927615037104601</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1418399194655968</v>
+        <v>0.1395431584457263</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1274718864861977</v>
+        <v>0.1249196194217173</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01608697014747881</v>
+        <v>0.03257625547905021</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05686787354894061</v>
+        <v>0.07952949771304649</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08455866242234648</v>
+        <v>0.07477941131117644</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08455866242234648</v>
+        <v>0.07477941131117644</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08455866242234648</v>
+        <v>0.07477941131117644</v>
       </c>
       <c r="N23" t="n">
-        <v>0.08455866242234648</v>
+        <v>0.07477941131117644</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.08723689184147566</v>
+        <v>0.07709090093963603</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0772415680496627</v>
+        <v>0.0770129401045176</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0772415680496627</v>
+        <v>0.0770129401045176</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0772415680496627</v>
+        <v>0.0770129401045176</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0772415680496627</v>
+        <v>0.0770129401045176</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.02107106273084251</v>
+        <v>-0.006642318889692756</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.01701142925645717</v>
+        <v>0.01486945067477802</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.4765256632850264</v>
+        <v>-0.4740834438273377</v>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>-0.0822921514915861</v>
+        <v>-0.06461152810396789</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.05738271714330868</v>
+        <v>-0.04683051432122057</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.03041007040040281</v>
+        <v>-0.009769602438784096</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.03041007040040281</v>
+        <v>-0.009769602438784096</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.03041007040040281</v>
+        <v>-0.009769602438784096</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.03041007040040281</v>
+        <v>-0.009769602438784096</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2518,82 +2518,82 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05600234441609377</v>
+        <v>0.05031255302050211</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02253743398949735</v>
+        <v>-0.0008729135389165415</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.001156743598269744</v>
+        <v>0.009787623367504933</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2871206166368246</v>
+        <v>0.2705796332871853</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.2650392745097838</v>
+        <v>0.245635260431744</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09305086663403464</v>
+        <v>0.06870255500410219</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1118241558482333</v>
+        <v>0.1148781449331612</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1579670958546838</v>
+        <v>0.1516722561788902</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1579670958546838</v>
+        <v>0.1516722561788902</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1579670958546838</v>
+        <v>0.1516722561788902</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1579670958546838</v>
+        <v>0.1516722561788902</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.1650818072432723</v>
+        <v>0.1565679093347163</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1419763393110536</v>
+        <v>0.1563528795981151</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1419763393110536</v>
+        <v>0.1563528795981151</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1419763393110536</v>
+        <v>0.1563528795981151</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1419763393110536</v>
+        <v>0.1563528795981151</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04885667494626699</v>
+        <v>0.03105998082639923</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.003790357879614315</v>
+        <v>0.0007478636459145457</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6554303352092132</v>
+        <v>0.6503095791323831</v>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>0.08957029856741068</v>
+        <v>0.08719122970057508</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06290352654814106</v>
+        <v>0.06916709057468362</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.09292776582911061</v>
+        <v>0.1020016719840669</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.09292776582911061</v>
+        <v>0.1020016719840669</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.09292776582911061</v>
+        <v>0.1020016719840669</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.09292776582911061</v>
+        <v>0.1020016719840669</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2609,82 +2609,82 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1396088428003537</v>
+        <v>0.1533929835757193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01091995272479811</v>
+        <v>0.01570372123614885</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.009842371113694844</v>
+        <v>0.005478669915146796</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01655087845403514</v>
+        <v>0.006683367435334697</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-0.1976805526209048</v>
+        <v>-0.2084782436822515</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3134793934671757</v>
+        <v>-0.3143002676120107</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.6675717351853239</v>
+        <v>-0.6366068759921957</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.22811125027645</v>
+        <v>-0.2462554093062163</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.22811125027645</v>
+        <v>-0.2462554093062163</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.22811125027645</v>
+        <v>-0.2462554093062163</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.22811125027645</v>
+        <v>-0.2462554093062163</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.2504663236186529</v>
+        <v>-0.2627434375177375</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.1801206523248261</v>
+        <v>-0.2598206985848279</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.1801206523248261</v>
+        <v>-0.2598206985848279</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.1801206523248261</v>
+        <v>-0.2598206985848279</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.1801206523248261</v>
+        <v>-0.2598206985848279</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.1595553872142155</v>
+        <v>-0.151461576874463</v>
       </c>
       <c r="V25" t="n">
-        <v>0.008208134056325362</v>
+        <v>-0.01281376668855067</v>
       </c>
       <c r="W25" t="n">
-        <v>0.006377598975103958</v>
+        <v>0.0294875776595031</v>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>0.2151417572983239</v>
+        <v>0.2176555881344608</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.3210510975140439</v>
+        <v>0.3279601280304051</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.195956899934276</v>
+        <v>0.2031298977251959</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.195956899934276</v>
+        <v>0.2031298977251959</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.195956899934276</v>
+        <v>0.2031298977251959</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.195956899934276</v>
+        <v>0.2031298977251959</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2696,82 +2696,82 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02187919594716783</v>
+        <v>0.03568024625920984</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01001691486467659</v>
+        <v>-0.009466703898668154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003579037583161503</v>
+        <v>-0.001923310156932406</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005432104633284185</v>
+        <v>-0.006251881882075275</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-0.002438893156833598</v>
+        <v>-0.006305203793504522</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09040527750421108</v>
+        <v>-0.09730015733200628</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0284370879506049</v>
+        <v>0.01300243188273575</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.008101660164066406</v>
+        <v>-0.001555463198218528</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.008101660164066406</v>
+        <v>-0.001555463198218528</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.008101660164066406</v>
+        <v>-0.001555463198218528</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.008101660164066406</v>
+        <v>-0.001555463198218528</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.008929270341170812</v>
+        <v>-0.00110929799637192</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.006321121308844851</v>
+        <v>-0.001616804608672184</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.006321121308844851</v>
+        <v>-0.001616804608672184</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.006321121308844851</v>
+        <v>-0.001616804608672184</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.006321121308844851</v>
+        <v>-0.001616804608672184</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.01829868389994735</v>
+        <v>0.001446830457873218</v>
       </c>
       <c r="V26" t="n">
-        <v>0.008450661650026465</v>
+        <v>-0.005277938419117536</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02082527228901089</v>
+        <v>-0.02197284635091385</v>
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>0.02215464415231262</v>
+        <v>0.003996420688815968</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.09635691995027677</v>
+        <v>0.07524839859393592</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0153560824702433</v>
+        <v>-0.001523616732944669</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0153560824702433</v>
+        <v>-0.001523616732944669</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0153560824702433</v>
+        <v>-0.001523616732944669</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0153560824702433</v>
+        <v>-0.001523616732944669</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2787,82 +2787,82 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.01236239799849592</v>
+        <v>-0.02304304056972162</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01890297224411889</v>
+        <v>0.007169562910782515</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04603592046543682</v>
+        <v>-0.05989306492372259</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002045454609818184</v>
+        <v>0.01527902681916107</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-0.03580996218452707</v>
+        <v>-0.02757255069406297</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01922001475280059</v>
+        <v>-0.004303782316151292</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01898160791474244</v>
+        <v>-0.04347155811067055</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.008839297025571881</v>
+        <v>-0.008405180400207216</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.008839297025571881</v>
+        <v>-0.008405180400207216</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.008839297025571881</v>
+        <v>-0.008405180400207216</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.008839297025571881</v>
+        <v>-0.008405180400207216</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.01164819704192788</v>
+        <v>-0.01067291620291665</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.001097621419904857</v>
+        <v>-0.0116359875694395</v>
       </c>
       <c r="R27" t="n">
-        <v>0.001097621419904857</v>
+        <v>-0.0116359875694395</v>
       </c>
       <c r="S27" t="n">
-        <v>0.001097621419904857</v>
+        <v>-0.0116359875694395</v>
       </c>
       <c r="T27" t="n">
-        <v>0.001097621419904857</v>
+        <v>-0.0116359875694395</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.06730610314024411</v>
+        <v>-0.04924568222582729</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.3415843075513723</v>
+        <v>-0.3398893555795742</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03908206092328243</v>
+        <v>0.04760239006409559</v>
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>-0.04474705177817779</v>
+        <v>-0.04467254522162321</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.01263483026539321</v>
+        <v>0.004797269471890778</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.02997215524688621</v>
+        <v>-0.03486955838678233</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.02997215524688621</v>
+        <v>-0.03486955838678233</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.02997215524688621</v>
+        <v>-0.03486955838678233</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.02997215524688621</v>
+        <v>-0.03486955838678233</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2878,82 +2878,82 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.00774382802175312</v>
+        <v>-0.002811248080449923</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.008152534406101376</v>
+        <v>0.02042471112098844</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.002227371641094865</v>
+        <v>0.000114891076595643</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003199848991993959</v>
+        <v>-0.006895186067807442</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0.003165785218886224</v>
+        <v>-0.0003706860631388188</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.008305562540222501</v>
+        <v>0.03204607251384289</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0004063739213570429</v>
+        <v>0.02919496478157397</v>
       </c>
       <c r="K28" t="n">
-        <v>0.005840651849626073</v>
+        <v>0.002467917218716688</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005840651849626073</v>
+        <v>0.002467917218716688</v>
       </c>
       <c r="M28" t="n">
-        <v>0.005840651849626073</v>
+        <v>0.002467917218716688</v>
       </c>
       <c r="N28" t="n">
-        <v>0.005840651849626073</v>
+        <v>0.002467917218716688</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.006165558390622334</v>
+        <v>0.002422371456894858</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.005344813941792557</v>
+        <v>0.002731959949278398</v>
       </c>
       <c r="R28" t="n">
-        <v>0.005344813941792557</v>
+        <v>0.002731959949278398</v>
       </c>
       <c r="S28" t="n">
-        <v>0.005344813941792557</v>
+        <v>0.002731959949278398</v>
       </c>
       <c r="T28" t="n">
-        <v>0.005344813941792557</v>
+        <v>0.002731959949278398</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.003580341839213673</v>
+        <v>0.005331369045254761</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.008102785476111417</v>
+        <v>-0.01457625082305003</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003402538312101532</v>
+        <v>-0.01150675975627039</v>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>-0.01341864044203381</v>
+        <v>-0.005113677037774363</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.01908505852340234</v>
+        <v>-0.02725591913823676</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.01585042191401688</v>
+        <v>-0.005142490861699634</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.01585042191401688</v>
+        <v>-0.005142490861699634</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.01585042191401688</v>
+        <v>-0.005142490861699634</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.01585042191401688</v>
+        <v>-0.005142490861699634</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -2969,82 +2969,82 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.00551741426869657</v>
+        <v>-0.00655811651832466</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01661243720849748</v>
+        <v>0.01424484632979385</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02618104655124186</v>
+        <v>-0.004065641826625672</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.02262106228084249</v>
+        <v>0.007998464287938569</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-0.02391526610875276</v>
+        <v>0.01038993978432514</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0105020625960825</v>
+        <v>0.01413895861355834</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.01081308718184858</v>
+        <v>-0.02946375245704153</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01886964939478597</v>
+        <v>0.01051399098055964</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01886964939478597</v>
+        <v>0.01051399098055964</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.01886964939478597</v>
+        <v>0.01051399098055964</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.01886964939478597</v>
+        <v>0.01051399098055964</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>-0.01796029636641185</v>
+        <v>0.01042233142489326</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.0207744049589762</v>
+        <v>0.01066714631468585</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.0207744049589762</v>
+        <v>0.01066714631468585</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.0207744049589762</v>
+        <v>0.01066714631468585</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.0207744049589762</v>
+        <v>0.01066714631468585</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.0008574318102972723</v>
+        <v>0.03282488070499523</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02783418082536723</v>
+        <v>0.0530773525550941</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.0253162101646484</v>
+        <v>0.006909786132391445</v>
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>-0.0095330082222355</v>
+        <v>-0.02124194202277575</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.01091987909279516</v>
+        <v>-0.01983439644137585</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.003305259396210376</v>
+        <v>-0.02295747269429891</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.003305259396210376</v>
+        <v>-0.02295747269429891</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.003305259396210376</v>
+        <v>-0.02295747269429891</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.003305259396210376</v>
+        <v>-0.02295747269429891</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3060,82 +3060,82 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004661398938455958</v>
+        <v>-0.01282284358491374</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01542561709702468</v>
+        <v>-0.03344480927379236</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.005935344141413766</v>
+        <v>-0.01188696613947864</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0001891972875678915</v>
+        <v>0.01349576780383071</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-0.002479560486514949</v>
+        <v>0.0155971498689876</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01669934034797361</v>
+        <v>-0.02441904875276195</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.002103982169865286</v>
+        <v>0.00469676895238295</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00267454801098192</v>
+        <v>0.0129627825985113</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00267454801098192</v>
+        <v>0.0129627825985113</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00267454801098192</v>
+        <v>0.0129627825985113</v>
       </c>
       <c r="N30" t="n">
-        <v>0.00267454801098192</v>
+        <v>0.0129627825985113</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.002591402887656115</v>
+        <v>0.01266161397846456</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.003378365607134624</v>
+        <v>0.01283688713747549</v>
       </c>
       <c r="R30" t="n">
-        <v>0.003378365607134624</v>
+        <v>0.01283688713747549</v>
       </c>
       <c r="S30" t="n">
-        <v>0.003378365607134624</v>
+        <v>0.01283688713747549</v>
       </c>
       <c r="T30" t="n">
-        <v>0.003378365607134624</v>
+        <v>0.01283688713747549</v>
       </c>
       <c r="U30" t="n">
-        <v>0.009465121146604843</v>
+        <v>-0.02397813119912524</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.02177978487119139</v>
+        <v>0.0122477676579107</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.009518723612748943</v>
+        <v>-0.01472242090889684</v>
       </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>-0.01080243758513454</v>
+        <v>-0.02122744011819219</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.002860089618403585</v>
+        <v>-0.0005122142604885704</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.01340689618427585</v>
+        <v>-0.0259943325917733</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.01340689618427585</v>
+        <v>-0.0259943325917733</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.01340689618427585</v>
+        <v>-0.0259943325917733</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.01340689618427585</v>
+        <v>-0.0259943325917733</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3151,82 +3151,82 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3813547897821915</v>
+        <v>0.373441026105641</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02025466621818665</v>
+        <v>-0.02334369789374791</v>
       </c>
       <c r="E31" t="n">
-        <v>0.988350853134034</v>
+        <v>0.988643704505748</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9107396514695859</v>
+        <v>-0.9139119065084761</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-0.883722160568609</v>
+        <v>-0.8872140063298199</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1317412150936486</v>
+        <v>-0.1429229701969188</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3107588988731341</v>
+        <v>0.3172583761435114</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.903671300402852</v>
+        <v>-0.9241131979245277</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.903671300402852</v>
+        <v>-0.9241131979245277</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.903671300402852</v>
+        <v>-0.9241131979245277</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.903671300402852</v>
+        <v>-0.9241131979245277</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.8887555742702228</v>
+        <v>-0.9164132163685285</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.9353313014132519</v>
+        <v>-0.9166279797051191</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.9353313014132519</v>
+        <v>-0.9166279797051191</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.9353313014132519</v>
+        <v>-0.9166279797051191</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.9353313014132519</v>
+        <v>-0.9166279797051191</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.06278638388745535</v>
+        <v>-0.05685563891422555</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.00853660200546408</v>
+        <v>-0.002363751646550066</v>
       </c>
       <c r="W31" t="n">
-        <v>0.007654839378193575</v>
+        <v>0.0006311809212472368</v>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>0.1320977477925913</v>
+        <v>0.1219770447963563</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02739199059967962</v>
+        <v>0.03192499942099997</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.3962198957847958</v>
+        <v>0.3889192840367713</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.3962198957847958</v>
+        <v>0.3889192840367713</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.3962198957847958</v>
+        <v>0.3889192840367713</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.3962198957847958</v>
+        <v>0.3889192840367713</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3242,82 +3242,82 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.004480870355234813</v>
+        <v>0.005452126682085067</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01117329539093182</v>
+        <v>-0.002615932040637281</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02865857653834306</v>
+        <v>-0.002165081174603247</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.04229643077985722</v>
+        <v>0.005990806799632271</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-0.04131334318005886</v>
+        <v>0.004636892733370698</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.0137737899589516</v>
+        <v>0.003907003740280149</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.004024019547873922</v>
+        <v>0.008196580333698904</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.03407593662703746</v>
+        <v>0.004704526652181065</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.03407593662703746</v>
+        <v>0.004704526652181065</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.03407593662703746</v>
+        <v>0.004704526652181065</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.03407593662703746</v>
+        <v>0.004704526652181065</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.03441739385669575</v>
+        <v>0.005388123671524947</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.03396735486269419</v>
+        <v>0.00473747049349882</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.03396735486269419</v>
+        <v>0.00473747049349882</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.03396735486269419</v>
+        <v>0.00473747049349882</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.03396735486269419</v>
+        <v>0.00473747049349882</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.02023065872922634</v>
+        <v>-0.01922347699293907</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01016072709442908</v>
+        <v>-0.01822847324113893</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02022528608901144</v>
+        <v>0.01829860277994411</v>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>0.004888777828020436</v>
+        <v>-0.0002659950347036402</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.001422520952900838</v>
+        <v>0.00442747774509911</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.009088783947551356</v>
+        <v>-0.0006075674163026966</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.009088783947551356</v>
+        <v>-0.0006075674163026966</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.009088783947551356</v>
+        <v>-0.0006075674163026966</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.009088783947551356</v>
+        <v>-0.0006075674163026966</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3333,82 +3333,82 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03576659739866389</v>
+        <v>0.00982716279308651</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001814010408560416</v>
+        <v>0.01630701386828055</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02047606421104257</v>
+        <v>-0.02740149277605971</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02337228035889121</v>
+        <v>0.01924073923362957</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-0.02369211582752683</v>
+        <v>0.02808647869905179</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001067423466696939</v>
+        <v>0.02733384954135398</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.04351307629053051</v>
+        <v>-0.01919330414686313</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01881535947261438</v>
+        <v>0.03865765383430615</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01881535947261438</v>
+        <v>0.03865765383430615</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.01881535947261438</v>
+        <v>0.03865765383430615</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01881535947261438</v>
+        <v>0.03865765383430615</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>-0.01902539528901581</v>
+        <v>0.03892512597300504</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.02036939985477599</v>
+        <v>0.03906686623467465</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02036939985477599</v>
+        <v>0.03906686623467465</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.02036939985477599</v>
+        <v>0.03906686623467465</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.02036939985477599</v>
+        <v>0.03906686623467465</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.02422857082514283</v>
+        <v>0.02628782716351309</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.02153359593334384</v>
+        <v>-0.009058690346347613</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.003798561079942443</v>
+        <v>-0.005984720591388822</v>
       </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>0.00464013993005105</v>
+        <v>-0.02629740941020775</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.003132412829296513</v>
+        <v>-0.01510383545215342</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01721168171246727</v>
+        <v>-0.0272091552323662</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01721168171246727</v>
+        <v>-0.0272091552323662</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01721168171246727</v>
+        <v>-0.0272091552323662</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.01721168171246727</v>
+        <v>-0.0272091552323662</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3424,82 +3424,82 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.007186510175460407</v>
+        <v>-0.01205066083402643</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01138243303129732</v>
+        <v>-0.0162324076572963</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.006675551307022052</v>
+        <v>-0.01580949980037999</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.001130821197232848</v>
+        <v>0.009730184645207385</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-0.005410865503706824</v>
+        <v>0.01506327330318408</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00262250074490003</v>
+        <v>-0.004023555136942205</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.01830482084583551</v>
+        <v>0.01099989656529959</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2084508457780338</v>
+        <v>0.1050477440419098</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2084508457780338</v>
+        <v>0.1050477440419098</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2084508457780338</v>
+        <v>0.1050477440419098</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2084508457780338</v>
+        <v>0.1050477440419098</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.2234488140579526</v>
+        <v>0.1091173910846956</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1664184779847391</v>
+        <v>0.1099359203334368</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1664184779847391</v>
+        <v>0.1099359203334368</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1664184779847391</v>
+        <v>0.1099359203334368</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1664184779847391</v>
+        <v>0.1099359203334368</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0006386928255477129</v>
+        <v>-0.009354084086163362</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.009120171244806848</v>
+        <v>0.01468598583543943</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01378209194328368</v>
+        <v>0.01656806783072271</v>
       </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>-0.004347414126313917</v>
+        <v>0.01015982484083135</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.005785020135400805</v>
+        <v>0.01263289797731592</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.04431496919659877</v>
+        <v>-0.01085146939405877</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.04431496919659877</v>
+        <v>-0.01085146939405877</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.04431496919659877</v>
+        <v>-0.01085146939405877</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.04431496919659877</v>
+        <v>-0.01085146939405877</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3515,82 +3515,82 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01866340711453628</v>
+        <v>0.01209933129997325</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02218325983133039</v>
+        <v>0.01363320092932804</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01408835681953427</v>
+        <v>0.02632229942089197</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.008884861891394475</v>
+        <v>-0.02504888106595524</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-0.002356364737421544</v>
+        <v>-0.0279666968061599</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02108510993140439</v>
+        <v>0.005466053978642158</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01646641164731337</v>
+        <v>-0.006203616648671101</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003493095307723812</v>
+        <v>-0.03040311616012464</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.003493095307723812</v>
+        <v>-0.03040311616012464</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.003493095307723812</v>
+        <v>-0.03040311616012464</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.003493095307723812</v>
+        <v>-0.03040311616012464</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.003002981976119279</v>
+        <v>-0.03065821889032875</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.005811721960468877</v>
+        <v>-0.03058658877546355</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.005811721960468877</v>
+        <v>-0.03058658877546355</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.005811721960468877</v>
+        <v>-0.03058658877546355</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.005811721960468877</v>
+        <v>-0.03058658877546355</v>
       </c>
       <c r="U35" t="n">
-        <v>0.002975488919019556</v>
+        <v>-0.03305396906615875</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01854426266177051</v>
+        <v>0.004651223802048952</v>
       </c>
       <c r="W35" t="n">
-        <v>0.007072085850883433</v>
+        <v>0.002801220592048823</v>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>0.001843065001899534</v>
+        <v>0.01524404979742056</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.01125919629036785</v>
+        <v>0.01730635317225412</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.006697941579917662</v>
+        <v>0.02029664145186565</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.006697941579917662</v>
+        <v>0.02029664145186565</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.006697941579917662</v>
+        <v>0.02029664145186565</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.006697941579917662</v>
+        <v>0.02029664145186565</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3606,82 +3606,82 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04353495898939835</v>
+        <v>0.01801385352055414</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002516050372642015</v>
+        <v>-0.009484092667363705</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0308625952185038</v>
+        <v>0.01058119885524795</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02454881022995241</v>
+        <v>-0.008862677442507098</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-0.01718702730258045</v>
+        <v>-0.01023154121785614</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.003972187070887482</v>
+        <v>-0.01864434036177361</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01904747078155557</v>
+        <v>-0.000265763243338523</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00947317305092692</v>
+        <v>0.002651882698075308</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00947317305092692</v>
+        <v>0.002651882698075308</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00947317305092692</v>
+        <v>0.002651882698075308</v>
       </c>
       <c r="N36" t="n">
-        <v>0.00947317305092692</v>
+        <v>0.002651882698075308</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0.01151350548454022</v>
+        <v>0.004055005602200224</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0007342743653709744</v>
+        <v>0.003437602889504115</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0007342743653709744</v>
+        <v>0.003437602889504115</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0007342743653709744</v>
+        <v>0.003437602889504115</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0007342743653709744</v>
+        <v>0.003437602889504115</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01862382199295287</v>
+        <v>0.01129064339562573</v>
       </c>
       <c r="V36" t="n">
-        <v>-7.939661117586443e-05</v>
+        <v>0.01972790306111612</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.001892790987711639</v>
+        <v>-0.001556660702266428</v>
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>0.008760974559280037</v>
+        <v>0.01754500462601099</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.007299031491961259</v>
+        <v>0.0007638772145550886</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.05152824042912961</v>
+        <v>0.03360501244820049</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.05152824042912961</v>
+        <v>0.03360501244820049</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05152824042912961</v>
+        <v>0.03360501244820049</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.05152824042912961</v>
+        <v>0.03360501244820049</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3697,84 +3697,175 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01580336578413463</v>
+        <v>-0.01039096371163855</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01464542727381709</v>
+        <v>0.0137859299274372</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01804064712162588</v>
+        <v>0.001323628660945146</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02738075715923028</v>
+        <v>0.003785074999403</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-0.02383518146544174</v>
+        <v>-0.004655508718130976</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01469615473184619</v>
+        <v>0.005779999047199961</v>
       </c>
       <c r="J37" t="n">
-        <v>0.009377608048536394</v>
+        <v>-0.008606013343166952</v>
       </c>
       <c r="K37" t="n">
-        <v>0.009496468123858723</v>
+        <v>-0.007614050224562008</v>
       </c>
       <c r="L37" t="n">
-        <v>0.009496468123858723</v>
+        <v>-0.007614050224562008</v>
       </c>
       <c r="M37" t="n">
-        <v>0.009496468123858723</v>
+        <v>-0.007614050224562008</v>
       </c>
       <c r="N37" t="n">
-        <v>0.009496468123858723</v>
+        <v>-0.007614050224562008</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.012011374944455</v>
+        <v>-0.007295474883818994</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.003161678622467144</v>
+        <v>-0.008031653409266135</v>
       </c>
       <c r="R37" t="n">
-        <v>0.003161678622467144</v>
+        <v>-0.008031653409266135</v>
       </c>
       <c r="S37" t="n">
-        <v>0.003161678622467144</v>
+        <v>-0.008031653409266135</v>
       </c>
       <c r="T37" t="n">
-        <v>0.003161678622467144</v>
+        <v>-0.008031653409266135</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.03461291869651674</v>
+        <v>0.01215206381408255</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.01037950428718017</v>
+        <v>-0.01791280833251233</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.002780627631225105</v>
+        <v>0.005294987347799493</v>
       </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>0.00791196425323812</v>
+        <v>0.007199816689720623</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01623800349752014</v>
+        <v>0.0004525922101036884</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01846194486647779</v>
+        <v>0.01120234067209363</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01846194486647779</v>
+        <v>0.01120234067209363</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01846194486647779</v>
+        <v>0.01120234067209363</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.01846194486647779</v>
+        <v>0.01120234067209363</v>
       </c>
       <c r="AE37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01609262656370506</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.02315309036612361</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.005667225730689028</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.001314420052576802</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>-0.006596066093383339</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.027424025032961</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.02520568221137523</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.005522033212881328</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.005522033212881328</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.005522033212881328</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.005522033212881328</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>0.006197522071900882</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.005856088938243557</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.005856088938243557</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.005856088938243557</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.005856088938243557</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.01033171308526852</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.03528950982758038</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0006791431951657277</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>0.01416419298596713</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.01958618660744746</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.01216164634246585</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.01216164634246585</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.01216164634246585</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.01216164634246585</v>
+      </c>
+      <c r="AE38" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,82 +734,86 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.04405231405009256</v>
+        <v>-0.01606775651471026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002440304641612186</v>
+        <v>-0.001847688012816496</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06970391088415642</v>
+        <v>-0.04212653899706156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008415136656605465</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-0.01425409141816365</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02724272094630209</v>
+      </c>
       <c r="H4" t="n">
-        <v>-0.01616688469225557</v>
+        <v>-0.04416981106799395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01980104652004186</v>
+        <v>0.008380311119212443</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03201825631002688</v>
+        <v>0.05651545720414305</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007808031576321262</v>
+        <v>-0.02935275400611016</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007808031576321262</v>
+        <v>-0.02935275400611016</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007808031576321262</v>
+        <v>-0.02935275400611016</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007808031576321262</v>
+        <v>-0.02935275400611016</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0.007412346632493864</v>
+        <v>-0.02004597891383915</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.005298623827944953</v>
+        <v>-0.031361175270447</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005298623827944953</v>
+        <v>-0.031361175270447</v>
       </c>
       <c r="S4" t="n">
-        <v>0.005298623827944953</v>
+        <v>-0.031361175270447</v>
       </c>
       <c r="T4" t="n">
-        <v>0.005298623827944953</v>
+        <v>-0.031361175270447</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.08999091739163669</v>
+        <v>-0.08369186926767476</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.41002625105705</v>
+        <v>-0.4286535449861418</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003358085030323401</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
+        <v>0.009059026442361057</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.006689652788034274</v>
+      </c>
       <c r="Y4" t="n">
-        <v>-0.02501470372659168</v>
+        <v>-0.01657416825492233</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05085511835420473</v>
+        <v>0.08275839182233566</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.01739770965590838</v>
+        <v>0.006720733324829332</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.01739770965590838</v>
+        <v>0.006720733324829332</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.01739770965590838</v>
+        <v>0.006720733324829332</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01739770965590838</v>
+        <v>0.006720733324829332</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -821,82 +825,86 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04619939426397576</v>
+        <v>0.07187749247509968</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01886649176265967</v>
+        <v>0.01696575295256268</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1050306942492277</v>
+        <v>0.1280246692169867</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01834160233366409</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>-0.01283929097757164</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.0212408835351717</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.07998918029075813</v>
+        <v>0.04738388870209981</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01134477030979081</v>
+        <v>-0.01953541921341677</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04526558103521074</v>
+        <v>-0.04300800375024554</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03693277635731105</v>
+        <v>0.01393734046149362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03693277635731105</v>
+        <v>0.01393734046149362</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03693277635731105</v>
+        <v>0.01393734046149362</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03693277635731105</v>
+        <v>0.01393734046149362</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0.03873200017328</v>
+        <v>-0.005346507093860283</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04297280888691235</v>
+        <v>0.01797640305505612</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04297280888691235</v>
+        <v>0.01797640305505612</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04297280888691235</v>
+        <v>0.01797640305505612</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04297280888691235</v>
+        <v>0.01797640305505612</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1360933529957341</v>
+        <v>0.0847487427179497</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8162772914990916</v>
+        <v>0.8200616502424658</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0007998041599921662</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
+        <v>-0.003423456712938268</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.02273222817907496</v>
+      </c>
       <c r="Y5" t="n">
-        <v>0.08308863934348684</v>
+        <v>0.1535393597512733</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.009753485862139434</v>
+        <v>-0.007710360308414411</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04291614718864588</v>
+        <v>0.1148120701284828</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04291614718864588</v>
+        <v>0.1148120701284828</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04291614718864588</v>
+        <v>0.1148120701284828</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04291614718864588</v>
+        <v>0.1148120701284828</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -904,722 +912,750 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Capacity [ton/hr]</t>
+          <t>Cane operating days [day/yr]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2045144526925781</v>
+        <v>0.2380690196347608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9579101443324056</v>
+        <v>0.01538511963437284</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02509703159588126</v>
+        <v>-0.00242753424110137</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02069222933968917</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>0.003676748403069936</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01820120437519973</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.01267446642162521</v>
+        <v>0.005475581501651538</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8990451599618062</v>
+        <v>-0.861270200338808</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01781582922409454</v>
+        <v>0.03178849540426717</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01217353191094127</v>
+        <v>0.005973863662954547</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01217353191094127</v>
+        <v>0.005973863662954547</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01217353191094127</v>
+        <v>0.005973863662954547</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01217353191094127</v>
+        <v>0.005973863662954547</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.01081473931258957</v>
+        <v>0.005757655046306201</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01141173559246942</v>
+        <v>0.006037650673506026</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01141173559246942</v>
+        <v>0.006037650673506026</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01141173559246942</v>
+        <v>0.006037650673506026</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01141173559246942</v>
+        <v>0.006037650673506026</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.03795335451013417</v>
+        <v>0.0006477502339100093</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01632559927702397</v>
+        <v>0.02525779435431177</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.002319706652788266</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
+        <v>-0.01206986045079442</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.002472218631660869</v>
+      </c>
       <c r="Y6" t="n">
-        <v>0.008221500138833165</v>
+        <v>-0.002502962405319918</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.1116581393783256</v>
+        <v>0.07359338982373557</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.003659707922388317</v>
+        <v>-0.008058468610338742</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.003659707922388317</v>
+        <v>-0.008058468610338742</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.003659707922388317</v>
+        <v>-0.008058468610338742</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.003659707922388317</v>
+        <v>-0.008058468610338742</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Stream-ethanol</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Sorghum operating days [day/yr]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7058153076566122</v>
+        <v>0.01168202696328108</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02428762417150496</v>
+        <v>0.04316918394740705</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.003572320078892803</v>
+        <v>0.01064945476197819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007798744919949795</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>-0.006492874531714979</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.001906494269788109</v>
+      </c>
       <c r="H7" t="n">
-        <v>0.003346162216657265</v>
+        <v>-0.01134832068338002</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01924166707366668</v>
+        <v>-0.009332702773308109</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01168088425835325</v>
+        <v>-0.01244805635163152</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00238433625537345</v>
+        <v>-0.01221277613651104</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00238433625537345</v>
+        <v>-0.01221277613651104</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00238433625537345</v>
+        <v>-0.01221277613651104</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00238433625537345</v>
+        <v>-0.01221277613651104</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0.002060808466432338</v>
+        <v>-0.01232560676502427</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002078403923136156</v>
+        <v>-0.01234125582165023</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002078403923136156</v>
+        <v>-0.01234125582165023</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002078403923136156</v>
+        <v>-0.01234125582165023</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002078403923136156</v>
+        <v>-0.01234125582165023</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.4149207467408298</v>
+        <v>0.01165284929811397</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.002726000173040007</v>
+        <v>0.002396257535850301</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01096817275872691</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+        <v>0.01195866681434667</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.005540382998429841</v>
+      </c>
       <c r="Y7" t="n">
-        <v>-0.001201418400345076</v>
+        <v>-0.002681878284562433</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.008929647525185899</v>
+        <v>0.008226731273069249</v>
       </c>
       <c r="AA7" t="n">
-        <v>-7.466265898650635e-05</v>
+        <v>0.003809195864367834</v>
       </c>
       <c r="AB7" t="n">
-        <v>-7.466265898650635e-05</v>
+        <v>0.003809195864367834</v>
       </c>
       <c r="AC7" t="n">
-        <v>-7.466265898650635e-05</v>
+        <v>0.003809195864367834</v>
       </c>
       <c r="AD7" t="n">
-        <v>-7.466265898650635e-05</v>
+        <v>0.003809195864367834</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Stream-biodiesel</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Annual crushing capacity [ton/yr]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3532010430880417</v>
+        <v>0.01246709560268382</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01683367161734686</v>
+        <v>0.02352456254999722</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0048112100164484</v>
+        <v>-0.001269072530762901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004492974899718995</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-0.004364347278573891</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.006136206137167164</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.005784647756245014</v>
+        <v>-0.0005107467086750267</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.008346945165877806</v>
+        <v>-0.00722491977699679</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01531938502158624</v>
+        <v>0.01087471228292044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004367077134683085</v>
+        <v>0.001239488305579532</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004367077134683085</v>
+        <v>0.001239488305579532</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004367077134683085</v>
+        <v>0.001239488305579532</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004367077134683085</v>
+        <v>0.001239488305579532</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.004797650591906023</v>
+        <v>0.00139564699982588</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004901935012077399</v>
+        <v>0.001282717683308707</v>
       </c>
       <c r="R8" t="n">
-        <v>0.004901935012077399</v>
+        <v>0.001282717683308707</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004901935012077399</v>
+        <v>0.001282717683308707</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004901935012077399</v>
+        <v>0.001282717683308707</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7598775552591021</v>
+        <v>-0.008709626076385042</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01817446239097849</v>
+        <v>-0.002442192289687691</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002492668323706732</v>
-      </c>
-      <c r="X8" t="inlineStr"/>
+        <v>-0.02270387418815496</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.004318904652753825</v>
+      </c>
       <c r="Y8" t="n">
-        <v>-0.0009478912221431427</v>
+        <v>0.001241075858238751</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.01146389076255563</v>
+        <v>-0.0007759118710364747</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.006507777092311083</v>
+        <v>0.003237659553506382</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.006507777092311083</v>
+        <v>0.003237659553506382</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.006507777092311083</v>
+        <v>0.003237659553506382</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.006507777092311083</v>
+        <v>0.003237659553506382</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-ethanol</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/cf]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.002218001176720047</v>
+        <v>0.6490068936402756</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01662563970502559</v>
+        <v>-0.006827724374214828</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.007302484996099399</v>
+        <v>0.002560814982432599</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003040910425636416</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-0.01482424792096992</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0187991332597417</v>
+      </c>
       <c r="H9" t="n">
-        <v>-0.003103384062742205</v>
+        <v>-0.01906720473984045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01342637871305515</v>
+        <v>-0.02021331863253274</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.006559671255861814</v>
+        <v>-0.01486735404128709</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001363021878520875</v>
+        <v>-0.01628778170751126</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.001363021878520875</v>
+        <v>-0.01628778170751126</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.001363021878520875</v>
+        <v>-0.01628778170751126</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.001363021878520875</v>
+        <v>-0.01628778170751126</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.002426603905064156</v>
+        <v>-0.01528294678731787</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.001751099206043968</v>
+        <v>-0.01668167145126686</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.001751099206043968</v>
+        <v>-0.01668167145126686</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.001751099206043968</v>
+        <v>-0.01668167145126686</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.001751099206043968</v>
+        <v>-0.01668167145126686</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.000228352425134097</v>
+        <v>-0.3493420290776811</v>
       </c>
       <c r="V9" t="n">
-        <v>0.008683907195356288</v>
+        <v>0.003666777458671097</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03739751669590066</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+        <v>-0.01160134107205364</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.01668304617876301</v>
+      </c>
       <c r="Y9" t="n">
-        <v>0.01039664168236086</v>
+        <v>-0.02133086908747358</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.003308581284343251</v>
+        <v>-0.005306055092242203</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.002907591476303659</v>
+        <v>-0.01681324454452978</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002907591476303659</v>
+        <v>-0.01681324454452978</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.002907591476303659</v>
+        <v>-0.01681324454452978</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002907591476303659</v>
+        <v>-0.01681324454452978</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>Stream-biodiesel</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWhr]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.006041493073659723</v>
+        <v>0.3625066194282647</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00196987025479481</v>
+        <v>0.0005465408787144517</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008888051587522061</v>
+        <v>0.02947424661896986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01881373793654952</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-0.03076133479845339</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.007874213669657345</v>
+      </c>
       <c r="H10" t="n">
-        <v>0.0193320126455194</v>
+        <v>-0.03369125848382214</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002170648694825947</v>
+        <v>-0.02867154028286161</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01673239093787073</v>
+        <v>0.01873982453040561</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0167543551661742</v>
+        <v>-0.03512915842916634</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0167543551661742</v>
+        <v>-0.03512915842916634</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0167543551661742</v>
+        <v>-0.03512915842916634</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0167543551661742</v>
+        <v>-0.03512915842916634</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0.01648892792355711</v>
+        <v>-0.03466961149878445</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01703106125724245</v>
+        <v>-0.03512865366114614</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01703106125724245</v>
+        <v>-0.03512865366114614</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01703106125724245</v>
+        <v>-0.03512865366114614</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01703106125724245</v>
+        <v>-0.03512865366114614</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02349725210789009</v>
+        <v>0.6995541063821642</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03255379723815188</v>
+        <v>0.004888741443549657</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.004379488303179532</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+        <v>-0.01797138321485533</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.002364796916419698</v>
+      </c>
       <c r="Y10" t="n">
-        <v>0.01000954384278404</v>
+        <v>-0.01281080576658142</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.003777747895109916</v>
+        <v>-0.007861599194463968</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.006921783156871325</v>
+        <v>-0.000562355926494237</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.006921783156871325</v>
+        <v>-0.000562355926494237</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.006921783156871325</v>
+        <v>-0.000562355926494237</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.006921783156871325</v>
+        <v>-0.000562355926494237</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Operating days [day/yr]</t>
+          <t>Price [USD/cf]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.128499601779984</v>
+        <v>-0.002824273744970949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2654456043458241</v>
+        <v>0.006236139777456982</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001150343278013731</v>
+        <v>0.001628210849128434</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00189160375566415</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>-0.0002151862166074487</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.02545466407376378</v>
+      </c>
       <c r="H11" t="n">
-        <v>-0.0008236784016390259</v>
+        <v>0.00168155459606933</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01044814841792594</v>
+        <v>0.01379254231170169</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02093989610937973</v>
+        <v>0.009798236443908584</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001175065391002616</v>
+        <v>0.000445323377812935</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001175065391002616</v>
+        <v>0.000445323377812935</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001175065391002616</v>
+        <v>0.000445323377812935</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001175065391002616</v>
+        <v>0.000445323377812935</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>-0.0003145272125810885</v>
+        <v>0.000739849853593994</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.001136589453463578</v>
+        <v>0.0005858155434326217</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001136589453463578</v>
+        <v>0.0005858155434326217</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.001136589453463578</v>
+        <v>0.0005858155434326217</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.001136589453463578</v>
+        <v>0.0005858155434326217</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02517358113494324</v>
+        <v>-0.01409036408361456</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01808979355559174</v>
+        <v>-0.009074836586993464</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01755659062226362</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>0.009789193927567757</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.000155005626739987</v>
+      </c>
       <c r="Y11" t="n">
-        <v>-0.00366863467562586</v>
+        <v>-0.01849896142083796</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.0004053952482158099</v>
+        <v>-0.02747234922689396</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.0001128464685138587</v>
+        <v>-0.0188299676971987</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.0001128464685138587</v>
+        <v>-0.0188299676971987</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0001128464685138587</v>
+        <v>-0.0188299676971987</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0001128464685138587</v>
+        <v>-0.0188299676971987</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>biorefinery</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>IRR [%]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2608344550733782</v>
+        <v>-0.001355729430229177</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006189252727570108</v>
+        <v>0.009110060871092444</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.005467604762704189</v>
+        <v>0.009684545763381829</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01027359295494372</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>-0.004770844318833773</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.00281641965097942</v>
+      </c>
       <c r="H12" t="n">
-        <v>0.01573202824249603</v>
+        <v>-0.00825473447815165</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004113359396534375</v>
+        <v>0.005579006623160265</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01334742340145447</v>
+        <v>-0.01043723354381486</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01587589657103586</v>
+        <v>-0.00952356575694263</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01587589657103586</v>
+        <v>-0.00952356575694263</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01587589657103586</v>
+        <v>-0.00952356575694263</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01587589657103586</v>
+        <v>-0.00952356575694263</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.01598038547121542</v>
+        <v>-0.009283282259331289</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01635479163019166</v>
+        <v>-0.009562732414509294</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01635479163019166</v>
+        <v>-0.009562732414509294</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01635479163019166</v>
+        <v>-0.009562732414509294</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01635479163019166</v>
+        <v>-0.009562732414509294</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008055057922202315</v>
+        <v>0.008094862595794504</v>
       </c>
       <c r="V12" t="n">
-        <v>0.009273636562945461</v>
+        <v>-0.01520427776017111</v>
       </c>
       <c r="W12" t="n">
-        <v>0.002798877903955116</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
+        <v>0.009393479703739186</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.009411856999602572</v>
+      </c>
       <c r="Y12" t="n">
-        <v>0.00873403134345742</v>
+        <v>0.003297125509467641</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.0004518748980749959</v>
+        <v>-0.002654152810166112</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007310338468413538</v>
+        <v>0.005541348029653921</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.007310338468413538</v>
+        <v>0.005541348029653921</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.007310338468413538</v>
+        <v>0.005541348029653921</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.007310338468413538</v>
+        <v>0.005541348029653921</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Stream-crude glycerol</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>IRR [%]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.01073857108554284</v>
+        <v>-0.2629702061348082</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01166114235444569</v>
+        <v>-0.005022640050174253</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.007348561445942457</v>
+        <v>0.01445691168227647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004272312074892482</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>-0.007502455308098211</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.003214677807716229</v>
+      </c>
       <c r="H13" t="n">
-        <v>0.007227011239151138</v>
+        <v>-0.007564898610227095</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01100998901639956</v>
+        <v>0.0003016174200646967</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01727413307298361</v>
+        <v>0.004084472002377061</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006788194735527788</v>
+        <v>-0.01003912024156481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006788194735527788</v>
+        <v>-0.01003912024156481</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006788194735527788</v>
+        <v>-0.01003912024156481</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006788194735527788</v>
+        <v>-0.01003912024156481</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>0.006729939437197577</v>
+        <v>-0.01007599096303964</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006749646125985845</v>
+        <v>-0.009808755848350233</v>
       </c>
       <c r="R13" t="n">
-        <v>0.006749646125985845</v>
+        <v>-0.009808755848350233</v>
       </c>
       <c r="S13" t="n">
-        <v>0.006749646125985845</v>
+        <v>-0.009808755848350233</v>
       </c>
       <c r="T13" t="n">
-        <v>0.006749646125985845</v>
+        <v>-0.009808755848350233</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02910200170808006</v>
+        <v>-0.006011919888476795</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01064542813781712</v>
+        <v>-0.01323303278532131</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.01669312809172512</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
+        <v>0.00764676654587066</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.00871063907541794</v>
+      </c>
       <c r="Y13" t="n">
-        <v>-0.02669453133018794</v>
+        <v>0.01338358844576766</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.02174937082197483</v>
+        <v>0.04814298000571919</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.0192421176976847</v>
+        <v>0.01971261698050468</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.0192421176976847</v>
+        <v>0.01971261698050468</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.0192421176976847</v>
+        <v>0.01971261698050468</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.0192421176976847</v>
+        <v>0.01971261698050468</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-crude glycerol</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1628,620 +1664,652 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01202356838494274</v>
+        <v>0.003634463857378554</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0008059194562367781</v>
+        <v>-0.01584279619574442</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.002657227114289085</v>
+        <v>0.004929581477183259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01770347206813888</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>0.00679717803188712</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02065969078969835</v>
+      </c>
       <c r="H14" t="n">
-        <v>0.01490231456061052</v>
+        <v>0.008916036648921162</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.002370582718823308</v>
+        <v>0.008932672485306898</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007288000678935261</v>
+        <v>0.01306690953065807</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009973294958931797</v>
+        <v>0.006227176953087077</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009973294958931797</v>
+        <v>0.006227176953087077</v>
       </c>
       <c r="M14" t="n">
-        <v>0.009973294958931797</v>
+        <v>0.006227176953087077</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009973294958931797</v>
+        <v>0.006227176953087077</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.009692459907698394</v>
+        <v>0.005265978066639122</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01014834904593396</v>
+        <v>0.006549022245960889</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01014834904593396</v>
+        <v>0.006549022245960889</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01014834904593396</v>
+        <v>0.006549022245960889</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01014834904593396</v>
+        <v>0.006549022245960889</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.04246334128253364</v>
+        <v>0.02533678670947146</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003256864450274577</v>
+        <v>-0.009163390062535602</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02021817584872703</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
+        <v>0.02516917809476712</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.01674471488765501</v>
+      </c>
       <c r="Y14" t="n">
-        <v>0.003213331425304457</v>
+        <v>0.009993234068526114</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.002261555226462209</v>
+        <v>-0.004969658598786343</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01060973341638934</v>
+        <v>0.01267116521084661</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01060973341638934</v>
+        <v>0.01267116521084661</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01060973341638934</v>
+        <v>0.01267116521084661</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01060973341638934</v>
+        <v>0.01267116521084661</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Saccharification</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Reaction time [hr]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0002329929693197188</v>
+        <v>-0.02173574323742973</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.009508359644334384</v>
+        <v>0.0130534036976787</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01382647236105889</v>
+        <v>0.005914865612594624</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009883116971324676</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>-0.004798736447949458</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.007654063104152696</v>
+      </c>
       <c r="H15" t="n">
-        <v>-0.01114014496696352</v>
+        <v>-0.004318011726793114</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.008005676096227043</v>
+        <v>0.009475084219003367</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003052561234234473</v>
+        <v>-0.0003069304454042664</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01483312945732518</v>
+        <v>-0.00333926576557063</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01483312945732518</v>
+        <v>-0.00333926576557063</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01483312945732518</v>
+        <v>-0.00333926576557063</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01483312945732518</v>
+        <v>-0.00333926576557063</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.01470783985231359</v>
+        <v>-0.004408145360325814</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01487898424315937</v>
+        <v>-0.003312187236487489</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01487898424315937</v>
+        <v>-0.003312187236487489</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01487898424315937</v>
+        <v>-0.003312187236487489</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01487898424315937</v>
+        <v>-0.003312187236487489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02189237713169508</v>
+        <v>-0.05195993468639738</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.006297467867898714</v>
+        <v>0.0005753493350139732</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001919497612779904</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
+        <v>-0.004460334994413399</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.00608959402475656</v>
+      </c>
       <c r="Y15" t="n">
-        <v>-0.006345166047329482</v>
+        <v>-0.001030342793708276</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.006676853067074121</v>
+        <v>0.01450771440430857</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002058207442328297</v>
+        <v>-0.008609865848394634</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002058207442328297</v>
+        <v>-0.008609865848394634</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002058207442328297</v>
+        <v>-0.008609865848394634</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002058207442328297</v>
+        <v>-0.008609865848394634</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>cellulase</t>
+          <t>Saccharification</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>Reaction time [hr]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.0636237653289506</v>
+        <v>-9.870249994809999e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001442512665700506</v>
+        <v>0.003654813748711187</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003564035662561426</v>
+        <v>0.003328181413127256</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006078383187135327</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>0.007518095532723821</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.00427192116841931</v>
+      </c>
       <c r="H16" t="n">
-        <v>0.00980929139261146</v>
+        <v>0.01357808118964073</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0009607009344280372</v>
+        <v>-0.01719948356797934</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0166371367578068</v>
+        <v>0.02367489880993018</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01146243146649726</v>
+        <v>0.01304168029766721</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01146243146649726</v>
+        <v>0.01304168029766721</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01146243146649726</v>
+        <v>0.01304168029766721</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01146243146649726</v>
+        <v>0.01304168029766721</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.0118160050486402</v>
+        <v>0.01081455700858228</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01182113960884558</v>
+        <v>0.01345200601008024</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01182113960884558</v>
+        <v>0.01345200601008024</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01182113960884558</v>
+        <v>0.01345200601008024</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01182113960884558</v>
+        <v>0.01345200601008024</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03900452920818116</v>
+        <v>0.01408463067538522</v>
       </c>
       <c r="V16" t="n">
-        <v>0.006073220594928823</v>
+        <v>0.0005865618474624738</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.004229359465174378</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
+        <v>0.0279314900772596</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.003982670015473964</v>
+      </c>
       <c r="Y16" t="n">
-        <v>0.005090788572853332</v>
+        <v>-0.01691130625256967</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004742709981708399</v>
+        <v>-0.01572598325303933</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0007537199341487972</v>
+        <v>-0.007563114638524584</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0007537199341487972</v>
+        <v>-0.007563114638524584</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0007537199341487972</v>
+        <v>-0.007563114638524584</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0007537199341487972</v>
+        <v>-0.007563114638524584</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>cellulase</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Cellulase loading [wt. % cellulose]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.001540414237616569</v>
+        <v>-0.07589930578797222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02845959675438387</v>
+        <v>0.01141000234129359</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0296483800659352</v>
+        <v>0.005135567245422689</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02312413167696526</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.001539760189590407</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01802471541476049</v>
+      </c>
       <c r="H17" t="n">
-        <v>0.01957836823958056</v>
+        <v>-0.003702760565887748</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02839464180778567</v>
+        <v>-0.02002965987318639</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02154737866329736</v>
+        <v>-0.004827589506830489</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02351005313240212</v>
+        <v>-0.004717814972712599</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02351005313240212</v>
+        <v>-0.004717814972712599</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02351005313240212</v>
+        <v>-0.004717814972712599</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02351005313240212</v>
+        <v>-0.004717814972712599</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>0.02267551108302044</v>
+        <v>-0.005367121654684866</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02311372412454896</v>
+        <v>-0.004850378498015139</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02311372412454896</v>
+        <v>-0.004850378498015139</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02311372412454896</v>
+        <v>-0.004850378498015139</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02311372412454896</v>
+        <v>-0.004850378498015139</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01361358342454333</v>
+        <v>-0.06774255822970232</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0008294681611787264</v>
+        <v>-0.005590315231612609</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.01778223488728939</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
+        <v>0.02428539485941579</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.003863959305105728</v>
+      </c>
       <c r="Y17" t="n">
-        <v>-0.001585627695805658</v>
+        <v>0.03147504924210998</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.002624188232967529</v>
+        <v>0.0133864351274574</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.008505015508200618</v>
+        <v>0.03122157091286283</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.008505015508200618</v>
+        <v>0.03122157091286283</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.008505015508200618</v>
+        <v>0.03122157091286283</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.008505015508200618</v>
+        <v>0.03122157091286283</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Pretreatment reactor system</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Base cost [million USD]</t>
+          <t>Cellulase loading [wt. % cellulose]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.04932503035700121</v>
+        <v>-0.01129629664385186</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004848441889937675</v>
+        <v>0.01172346472481126</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01606235296249411</v>
+        <v>0.006752012814080512</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02277845217513809</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0.0004333730093349203</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002554732858944922</v>
+      </c>
       <c r="H18" t="n">
-        <v>0.02386169852651176</v>
+        <v>-0.003039411483035377</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1992242419209696</v>
+        <v>-0.008710654428426176</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01414797285960911</v>
+        <v>-0.001427137454325947</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02347032650681306</v>
+        <v>-0.005014897448595897</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02347032650681306</v>
+        <v>-0.005014897448595897</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02347032650681306</v>
+        <v>-0.005014897448595897</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02347032650681306</v>
+        <v>-0.005014897448595897</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>0.02304994632999785</v>
+        <v>-0.005442083641683345</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02360198676807947</v>
+        <v>-0.004997595559903822</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02360198676807947</v>
+        <v>-0.004997595559903822</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02360198676807947</v>
+        <v>-0.004997595559903822</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02360198676807947</v>
+        <v>-0.004997595559903822</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01581933240877329</v>
+        <v>-0.01390746516429861</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01351628329265133</v>
+        <v>-0.0302215776568631</v>
       </c>
       <c r="W18" t="n">
-        <v>0.006026213233048528</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
+        <v>0.03003432696137307</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.008500019996179354</v>
+      </c>
       <c r="Y18" t="n">
-        <v>-0.005749680471367142</v>
+        <v>-0.009779904587890536</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.09456585536663421</v>
+        <v>0.008347793613911744</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.004742978301719131</v>
+        <v>-0.003116175196647008</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.004742978301719131</v>
+        <v>-0.003116175196647008</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.004742978301719131</v>
+        <v>-0.003116175196647008</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.004742978301719131</v>
+        <v>-0.003116175196647008</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment and saccharification</t>
+          <t>Pretreatment reactor system</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Cane glucose yield [%]</t>
+          <t>Base cost [million USD]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02091963962078558</v>
+        <v>-0.04820030189601206</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003681679443267178</v>
+        <v>-0.005629801667823271</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.003524020172960806</v>
+        <v>0.01799115153564606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1523565235662609</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>-0.01463149604125984</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.01493207899258265</v>
+      </c>
       <c r="H19" t="n">
-        <v>0.134006586000829</v>
+        <v>-0.01042278176591421</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02499345335173813</v>
+        <v>0.232292299467692</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02911180103402588</v>
+        <v>0.01705351240876099</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08620243324009731</v>
+        <v>-0.0127385674855427</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08620243324009731</v>
+        <v>-0.0127385674855427</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08620243324009731</v>
+        <v>-0.0127385674855427</v>
       </c>
       <c r="N19" t="n">
-        <v>0.08620243324009731</v>
+        <v>-0.0127385674855427</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>0.08826591722663668</v>
+        <v>-0.01311717018868681</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08842975976119037</v>
+        <v>-0.01252355128494205</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08842975976119037</v>
+        <v>-0.01252355128494205</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08842975976119037</v>
+        <v>-0.01252355128494205</v>
       </c>
       <c r="T19" t="n">
-        <v>0.08842975976119037</v>
+        <v>-0.01252355128494205</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009685944483437778</v>
+        <v>-0.02230848050833922</v>
       </c>
       <c r="V19" t="n">
-        <v>0.003677909331116373</v>
+        <v>0.01796558241462329</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3519141285725651</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
+        <v>-0.0007695464947818597</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.001239755340789791</v>
+      </c>
       <c r="Y19" t="n">
-        <v>0.05848964337762325</v>
+        <v>0.01876054914342703</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03052899184515967</v>
+        <v>0.1326329444413178</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.06397007862280314</v>
+        <v>0.01825078057003122</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06397007862280314</v>
+        <v>0.01825078057003122</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.06397007862280314</v>
+        <v>0.01825078057003122</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06397007862280314</v>
+        <v>0.01825078057003122</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Pretreatment and saccharification</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Sorghum glucose yield [%]</t>
+          <t>Cane glucose yield [%]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.007090365499614619</v>
+        <v>-0.01432281791691271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001811943432477737</v>
+        <v>0.0108701831276039</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01034578841383153</v>
+        <v>0.01275504396620176</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01356402025456081</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.1453172437966898</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0125735483372964</v>
+      </c>
       <c r="H20" t="n">
-        <v>0.01688317907350903</v>
+        <v>0.1387848601460111</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002261396826455873</v>
+        <v>0.04402184931287396</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.003949115016485042</v>
+        <v>0.07687171386914149</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01773730918949237</v>
+        <v>0.1004804348032174</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01773730918949237</v>
+        <v>0.1004804348032174</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01773730918949237</v>
+        <v>0.1004804348032174</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01773730918949237</v>
+        <v>0.1004804348032174</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.0179804800792192</v>
+        <v>0.09004503470580136</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01797292334291693</v>
+        <v>0.1032195793927832</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01797292334291693</v>
+        <v>0.1032195793927832</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01797292334291693</v>
+        <v>0.1032195793927832</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01797292334291693</v>
+        <v>0.1032195793927832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01170373928414957</v>
+        <v>0.02024632477785299</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.00202431051297242</v>
+        <v>-0.005361268822450752</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01703764397750576</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
+        <v>0.3625453673338146</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.03046176068243986</v>
+      </c>
       <c r="Y20" t="n">
-        <v>0.01741449377275923</v>
+        <v>0.04713356677196678</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.0001804114632164585</v>
+        <v>0.008262639114505563</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01182706232908249</v>
+        <v>0.06521072488042898</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01182706232908249</v>
+        <v>0.06521072488042898</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01182706232908249</v>
+        <v>0.06521072488042898</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01182706232908249</v>
+        <v>0.06521072488042898</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2249,86 +2317,90 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Cane xylose yield [%]</t>
+          <t>Sorghum glucose yield [%]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05356875209475008</v>
+        <v>-0.01323583694543348</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003839358873574354</v>
+        <v>-0.003157155354189278</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00664882202595288</v>
+        <v>0.01678073769522951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1824189206407568</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>-0.01565795400231816</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02184590243477872</v>
+      </c>
       <c r="H21" t="n">
-        <v>0.1711676905264885</v>
+        <v>-0.01487767874624843</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02652060230882409</v>
+        <v>0.02207715361908614</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03962698196264555</v>
+        <v>0.01917089872523149</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1135683230707329</v>
+        <v>-0.01569072696362908</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1135683230707329</v>
+        <v>-0.01569072696362908</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1135683230707329</v>
+        <v>-0.01569072696362908</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1135683230707329</v>
+        <v>-0.01569072696362908</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>0.1168505568660223</v>
+        <v>-0.0162359926814397</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.116784676383387</v>
+        <v>-0.01568917483556699</v>
       </c>
       <c r="R21" t="n">
-        <v>0.116784676383387</v>
+        <v>-0.01568917483556699</v>
       </c>
       <c r="S21" t="n">
-        <v>0.116784676383387</v>
+        <v>-0.01568917483556699</v>
       </c>
       <c r="T21" t="n">
-        <v>0.116784676383387</v>
+        <v>-0.01568917483556699</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.007493291819731672</v>
+        <v>0.008140723621628944</v>
       </c>
       <c r="V21" t="n">
-        <v>0.003298882595955304</v>
+        <v>0.001770357958814318</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3885462340698493</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
+        <v>0.007730282901211315</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.02732752140841926</v>
+      </c>
       <c r="Y21" t="n">
-        <v>0.06762987147342601</v>
+        <v>-0.01475331102921403</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04747965857118633</v>
+        <v>-0.0008630689305227571</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07255480821419233</v>
+        <v>-0.01158810353552414</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07255480821419233</v>
+        <v>-0.01158810353552414</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.07255480821419233</v>
+        <v>-0.01158810353552414</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.07255480821419233</v>
+        <v>-0.01158810353552414</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2336,1177 +2408,1225 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sorghum xylose yield [%]</t>
+          <t>Cane xylose yield [%]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01818589023143561</v>
+        <v>-0.02757982689519307</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01242534222501369</v>
+        <v>-0.007265300655001254</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02619229189569167</v>
+        <v>-0.004138489221539568</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02245898384235935</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.1860398077935923</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.008899855358748347</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.02147015703684121</v>
+        <v>0.1722548710688772</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008503323892132954</v>
+        <v>0.03474426273377051</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0208173707281523</v>
+        <v>0.05829508137786279</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02031764433270577</v>
+        <v>0.1269628476385139</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02031764433270577</v>
+        <v>0.1269628476385139</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02031764433270577</v>
+        <v>0.1269628476385139</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02031764433270577</v>
+        <v>0.1269628476385139</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.01916257353450294</v>
+        <v>0.1168230892489236</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0197426074777043</v>
+        <v>0.129675475491019</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0197426074777043</v>
+        <v>0.129675475491019</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0197426074777043</v>
+        <v>0.129675475491019</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0197426074777043</v>
+        <v>0.129675475491019</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003618221520728861</v>
+        <v>0.01378062458322498</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.00215351451814058</v>
+        <v>0.002393035871721435</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.01057511418300456</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
+        <v>0.4042568212262728</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.004857674235281504</v>
+      </c>
       <c r="Y22" t="n">
-        <v>-0.03483756197786349</v>
+        <v>0.07464395169358715</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.02480121459204858</v>
+        <v>0.03048145120325805</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.0434871301554852</v>
+        <v>0.08483964128158564</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.0434871301554852</v>
+        <v>0.08483964128158564</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.0434871301554852</v>
+        <v>0.08483964128158564</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.0434871301554852</v>
+        <v>0.08483964128158564</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Cofermenation</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Glucose to ethanol yield [%]</t>
+          <t>Sorghum xylose yield [%]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02602921582516863</v>
+        <v>-0.008321184236847369</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004003539328141572</v>
+        <v>-0.00293922466836034</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003927615037104601</v>
+        <v>-0.00846262526650501</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1395431584457263</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0.004147191717887667</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.005822145676535992</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.1249196194217173</v>
+        <v>0.002227302234161194</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03257625547905021</v>
+        <v>0.005648655201946207</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07952949771304649</v>
+        <v>-0.01865391364665372</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07477941131117644</v>
+        <v>0.00355413777416551</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07477941131117644</v>
+        <v>0.00355413777416551</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07477941131117644</v>
+        <v>0.00355413777416551</v>
       </c>
       <c r="N23" t="n">
-        <v>0.07477941131117644</v>
+        <v>0.00355413777416551</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.07709090093963603</v>
+        <v>0.003747169205886768</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0770129401045176</v>
+        <v>0.003488520523540821</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0770129401045176</v>
+        <v>0.003488520523540821</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0770129401045176</v>
+        <v>0.003488520523540821</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0770129401045176</v>
+        <v>0.003488520523540821</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.006642318889692756</v>
+        <v>-0.01467738394709536</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01486945067477802</v>
+        <v>0.007483936811357471</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.4740834438273377</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
+        <v>-0.008650671802026871</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.007465651744424441</v>
+      </c>
       <c r="Y23" t="n">
-        <v>-0.06461152810396789</v>
+        <v>-0.001872533163800142</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.04683051432122057</v>
+        <v>-0.002732630605305224</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.009769602438784096</v>
+        <v>-0.009062718602508742</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.009769602438784096</v>
+        <v>-0.009062718602508742</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.009769602438784096</v>
+        <v>-0.009062718602508742</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.009769602438784096</v>
+        <v>-0.009062718602508742</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Cofermenation</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Xylose to ethanol yield [%]</t>
+          <t>Glucose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05031255302050211</v>
+        <v>-0.02671762609270504</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0008729135389165415</v>
+        <v>0.007148882666363079</v>
       </c>
       <c r="E24" t="n">
-        <v>0.009787623367504933</v>
+        <v>0.005796456807858272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2705796332871853</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1300688113147524</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.008400323152994131</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.245635260431744</v>
+        <v>0.124667712150549</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06870255500410219</v>
+        <v>0.04533030162121206</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1148781449331612</v>
+        <v>0.1082892978492102</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1516722561788902</v>
+        <v>0.09294382394175295</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1516722561788902</v>
+        <v>0.09294382394175295</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1516722561788902</v>
+        <v>0.09294382394175295</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1516722561788902</v>
+        <v>0.09294382394175295</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.1565679093347163</v>
+        <v>0.08417927578317101</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1563528795981151</v>
+        <v>0.09528855174754204</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1563528795981151</v>
+        <v>0.09528855174754204</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1563528795981151</v>
+        <v>0.09528855174754204</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1563528795981151</v>
+        <v>0.09528855174754204</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03105998082639923</v>
+        <v>0.03609916435596657</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0007478636459145457</v>
+        <v>-0.01163134568125383</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6503095791323831</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
+        <v>-0.470648525001941</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.007420369384056268</v>
+      </c>
       <c r="Y24" t="n">
-        <v>0.08719122970057508</v>
+        <v>-0.143884611520449</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06916709057468362</v>
+        <v>-0.08660275383211014</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.1020016719840669</v>
+        <v>-0.06706641657065665</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1020016719840669</v>
+        <v>-0.06706641657065665</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1020016719840669</v>
+        <v>-0.06706641657065665</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1020016719840669</v>
+        <v>-0.06706641657065665</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Cofermentation</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Titer [g/L]</t>
+          <t>Xylose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1533929835757193</v>
+        <v>-0.00826184826647393</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01570372123614885</v>
+        <v>0.02711909572058422</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005478669915146796</v>
+        <v>0.01863379802535192</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006683367435334697</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>0.2600878823395153</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.006760869408698108</v>
+      </c>
       <c r="H25" t="n">
-        <v>-0.2084782436822515</v>
+        <v>0.2337373564376882</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3143002676120107</v>
+        <v>0.09104810994592437</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.6366068759921957</v>
+        <v>0.09653976152808445</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.2462554093062163</v>
+        <v>0.1682306992412279</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.2462554093062163</v>
+        <v>0.1682306992412279</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.2462554093062163</v>
+        <v>0.1682306992412279</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.2462554093062163</v>
+        <v>0.1682306992412279</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>-0.2627434375177375</v>
+        <v>0.1518947979157919</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.2598206985848279</v>
+        <v>0.1723952069598083</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2598206985848279</v>
+        <v>0.1723952069598083</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.2598206985848279</v>
+        <v>0.1723952069598083</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.2598206985848279</v>
+        <v>0.1723952069598083</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.151461576874463</v>
+        <v>0.0209514826300593</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.01281376668855067</v>
+        <v>-0.01868386701935468</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0294875776595031</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+        <v>0.6600663384986534</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-0.01937717910178495</v>
+      </c>
       <c r="Y25" t="n">
-        <v>0.2176555881344608</v>
+        <v>0.07976428902085841</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.3279601280304051</v>
+        <v>0.05493675358947014</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.2031298977251959</v>
+        <v>0.1084538096821524</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.2031298977251959</v>
+        <v>0.1084538096821524</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2031298977251959</v>
+        <v>0.1084538096821524</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2031298977251959</v>
+        <v>0.1084538096821524</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Cofermentation</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Productivity [g/L]</t>
+          <t>Titer [g/L]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03568024625920984</v>
+        <v>0.1931279175811167</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.009466703898668154</v>
+        <v>-4.421444879958728e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.001923310156932406</v>
+        <v>0.02010752614830104</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.006251881882075275</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>-0.02541259272850371</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.03321566420804312</v>
+      </c>
       <c r="H26" t="n">
-        <v>-0.006305203793504522</v>
+        <v>-0.2344521856186244</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.09730015733200628</v>
+        <v>-0.3864797575711902</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01300243188273575</v>
+        <v>-0.659768433613407</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.001555463198218528</v>
+        <v>-0.2369012207720488</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.001555463198218528</v>
+        <v>-0.2369012207720488</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.001555463198218528</v>
+        <v>-0.2369012207720488</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.001555463198218528</v>
+        <v>-0.2369012207720488</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.00110929799637192</v>
+        <v>-0.2115824685272987</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.001616804608672184</v>
+        <v>-0.2448824696672987</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.001616804608672184</v>
+        <v>-0.2448824696672987</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.001616804608672184</v>
+        <v>-0.2448824696672987</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.001616804608672184</v>
+        <v>-0.2448824696672987</v>
       </c>
       <c r="U26" t="n">
-        <v>0.001446830457873218</v>
+        <v>-0.2354449426657977</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.005277938419117536</v>
+        <v>0.01611290733251629</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.02197284635091385</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
+        <v>0.02008997081959883</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.0172753060127146</v>
+      </c>
       <c r="Y26" t="n">
-        <v>0.003996420688815968</v>
+        <v>0.3258767518474909</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07524839859393592</v>
+        <v>0.423567852718714</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.001523616732944669</v>
+        <v>0.262620427432817</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.001523616732944669</v>
+        <v>0.262620427432817</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.001523616732944669</v>
+        <v>0.262620427432817</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.001523616732944669</v>
+        <v>0.262620427432817</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>oilcane</t>
-        </is>
-      </c>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Cane PL content [% oil]</t>
+          <t>Productivity [g/L]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02304304056972162</v>
+        <v>0.0260334125613365</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007169562910782515</v>
+        <v>-0.007070529909083382</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05989306492372259</v>
+        <v>-0.01370261824410473</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01527902681916107</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>0.02109075645963026</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02294478869484527</v>
+      </c>
       <c r="H27" t="n">
-        <v>-0.02757255069406297</v>
+        <v>0.02406616129419821</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.004303782316151292</v>
+        <v>-0.09208759529950379</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.04347155811067055</v>
+        <v>0.01149377032595594</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.008405180400207216</v>
+        <v>0.02241595548863821</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.008405180400207216</v>
+        <v>0.02241595548863821</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.008405180400207216</v>
+        <v>0.02241595548863821</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.008405180400207216</v>
+        <v>0.02241595548863821</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>-0.01067291620291665</v>
+        <v>0.02209339921973597</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.0116359875694395</v>
+        <v>0.0227477800779112</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.0116359875694395</v>
+        <v>0.0227477800779112</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0116359875694395</v>
+        <v>0.0227477800779112</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0116359875694395</v>
+        <v>0.0227477800779112</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.04924568222582729</v>
+        <v>-0.002397596351903854</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.3398893555795742</v>
+        <v>-0.001907494444299777</v>
       </c>
       <c r="W27" t="n">
-        <v>0.04760239006409559</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
+        <v>-0.00429565725982629</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.006017850674794994</v>
+      </c>
       <c r="Y27" t="n">
-        <v>-0.04467254522162321</v>
+        <v>-0.01428637181031233</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.004797269471890778</v>
+        <v>0.09964594180983766</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.03486955838678233</v>
+        <v>-0.005636688705467547</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.03486955838678233</v>
+        <v>-0.005636688705467547</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.03486955838678233</v>
+        <v>-0.005636688705467547</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.03486955838678233</v>
+        <v>-0.005636688705467547</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Sorghum PL content [% oil]</t>
+          <t>Cane PL content [% oil]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.002811248080449923</v>
+        <v>-0.0218877476275099</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02042471112098844</v>
+        <v>-0.01911383072410192</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000114891076595643</v>
+        <v>-0.07259845787993831</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.006895186067807442</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>0.03344863132194525</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0160867955353187</v>
+      </c>
       <c r="H28" t="n">
-        <v>-0.0003706860631388188</v>
+        <v>-0.002628576778404788</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03204607251384289</v>
+        <v>0.0341041800201672</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02919496478157397</v>
+        <v>0.002596333601387081</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002467917218716688</v>
+        <v>0.01048043437121737</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002467917218716688</v>
+        <v>0.01048043437121737</v>
       </c>
       <c r="M28" t="n">
-        <v>0.002467917218716688</v>
+        <v>0.01048043437121737</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002467917218716688</v>
+        <v>0.01048043437121737</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.002422371456894858</v>
+        <v>0.01970128974805159</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.002731959949278398</v>
+        <v>0.008469963218798528</v>
       </c>
       <c r="R28" t="n">
-        <v>0.002731959949278398</v>
+        <v>0.008469963218798528</v>
       </c>
       <c r="S28" t="n">
-        <v>0.002731959949278398</v>
+        <v>0.008469963218798528</v>
       </c>
       <c r="T28" t="n">
-        <v>0.002731959949278398</v>
+        <v>0.008469963218798528</v>
       </c>
       <c r="U28" t="n">
-        <v>0.005331369045254761</v>
+        <v>-0.03712669358106773</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.01457625082305003</v>
+        <v>-0.3527349728613989</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.01150675975627039</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+        <v>0.0576295275851811</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.009567016496979074</v>
+      </c>
       <c r="Y28" t="n">
-        <v>-0.005113677037774363</v>
+        <v>-0.08072185401962065</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.02725591913823676</v>
+        <v>-0.005660913922436556</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.005142490861699634</v>
+        <v>-0.07309546621981863</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.005142490861699634</v>
+        <v>-0.07309546621981863</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.005142490861699634</v>
+        <v>-0.07309546621981863</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.005142490861699634</v>
+        <v>-0.07309546621981863</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Cane FFA content [% oil]</t>
+          <t>Sorghum PL content [% oil]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.00655811651832466</v>
+        <v>-0.007885203963408157</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01424484632979385</v>
+        <v>0.02287726309903649</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.004065641826625672</v>
+        <v>-0.0161215351408614</v>
       </c>
       <c r="F29" t="n">
-        <v>0.007998464287938569</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>0.02535847877433915</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.02763931635319053</v>
+      </c>
       <c r="H29" t="n">
-        <v>0.01038993978432514</v>
+        <v>0.0258654003750314</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01413895861355834</v>
+        <v>-0.01808969832358793</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02946375245704153</v>
+        <v>-0.01881061253349707</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01051399098055964</v>
+        <v>0.0227873775834951</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01051399098055964</v>
+        <v>0.0227873775834951</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01051399098055964</v>
+        <v>0.0227873775834951</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01051399098055964</v>
+        <v>0.0227873775834951</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.01042233142489326</v>
+        <v>0.02303943106557724</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01066714631468585</v>
+        <v>0.02298758415150337</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01066714631468585</v>
+        <v>0.02298758415150337</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01066714631468585</v>
+        <v>0.02298758415150337</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01066714631468585</v>
+        <v>0.02298758415150337</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03282488070499523</v>
+        <v>-0.0281110125804405</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0530773525550941</v>
+        <v>0.001946651885866075</v>
       </c>
       <c r="W29" t="n">
-        <v>0.006909786132391445</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
+        <v>0.02807613712304548</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.01717594725482357</v>
+      </c>
       <c r="Y29" t="n">
-        <v>-0.02124194202277575</v>
+        <v>0.008395747251859847</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.01983439644137585</v>
+        <v>0.02682042808081712</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.02295747269429891</v>
+        <v>0.0007280476131219045</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.02295747269429891</v>
+        <v>0.0007280476131219045</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.02295747269429891</v>
+        <v>0.0007280476131219045</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.02295747269429891</v>
+        <v>0.0007280476131219045</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Sorghum FFA content [% oil]</t>
+          <t>Cane FFA content [% oil]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01282284358491374</v>
+        <v>-0.01091935435677417</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03344480927379236</v>
+        <v>-0.0134206969143479</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01188696613947864</v>
+        <v>-0.001920357100814284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01349576780383071</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>0.0087383650215346</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0002561656961505645</v>
+      </c>
       <c r="H30" t="n">
-        <v>0.0155971498689876</v>
+        <v>0.01036183721944717</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02441904875276195</v>
+        <v>-0.001894148235765929</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00469676895238295</v>
+        <v>-0.04100936535896101</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0129627825985113</v>
+        <v>0.01062496573699863</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0129627825985113</v>
+        <v>0.01062496573699863</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0129627825985113</v>
+        <v>0.01062496573699863</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0129627825985113</v>
+        <v>0.01062496573699863</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.01266161397846456</v>
+        <v>0.009582205055288199</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01283688713747549</v>
+        <v>0.01090446590817864</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01283688713747549</v>
+        <v>0.01090446590817864</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01283688713747549</v>
+        <v>0.01090446590817864</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01283688713747549</v>
+        <v>0.01090446590817864</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.02397813119912524</v>
+        <v>0.003482753899310156</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0122477676579107</v>
+        <v>0.07343516664940666</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01472242090889684</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
+        <v>0.004984851847394073</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.01081967229753554</v>
+      </c>
       <c r="Y30" t="n">
-        <v>-0.02122744011819219</v>
+        <v>0.02087472238100876</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.0005122142604885704</v>
+        <v>0.006719442796777711</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.0259943325917733</v>
+        <v>0.01637876465515059</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.0259943325917733</v>
+        <v>0.01637876465515059</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.0259943325917733</v>
+        <v>0.01637876465515059</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.0259943325917733</v>
+        <v>0.01637876465515059</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Cane oil content [dry wt. %]</t>
+          <t>Sorghum FFA content [% oil]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.373441026105641</v>
+        <v>-0.003072357050894281</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02334369789374791</v>
+        <v>-0.004356185954754735</v>
       </c>
       <c r="E31" t="n">
-        <v>0.988643704505748</v>
+        <v>-0.005010971432438857</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9139119065084761</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>-0.004689046651561866</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0007427955637634127</v>
+      </c>
       <c r="H31" t="n">
-        <v>-0.8872140063298199</v>
+        <v>-0.00415755088829766</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1429229701969188</v>
+        <v>0.01894049182961967</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3172583761435114</v>
+        <v>-0.0009875743151293453</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.9241131979245277</v>
+        <v>-0.002328281853131273</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.9241131979245277</v>
+        <v>-0.002328281853131273</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.9241131979245277</v>
+        <v>-0.002328281853131273</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.9241131979245277</v>
+        <v>-0.002328281853131273</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.9164132163685285</v>
+        <v>-0.0005102989644119585</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.9166279797051191</v>
+        <v>-0.002484749283389971</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.9166279797051191</v>
+        <v>-0.002484749283389971</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.9166279797051191</v>
+        <v>-0.002484749283389971</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.9166279797051191</v>
+        <v>-0.002484749283389971</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.05685563891422555</v>
+        <v>-0.006028703185148127</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.002363751646550066</v>
+        <v>-0.01361785062471402</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0006311809212472368</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
+        <v>-0.006901929972077198</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.006475914622768006</v>
+      </c>
       <c r="Y31" t="n">
-        <v>0.1219770447963563</v>
+        <v>-0.0104651457996291</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.03192499942099997</v>
+        <v>-0.002406850560274022</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.3889192840367713</v>
+        <v>-0.006847143633885744</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.3889192840367713</v>
+        <v>-0.006847143633885744</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.3889192840367713</v>
+        <v>-0.006847143633885744</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.3889192840367713</v>
+        <v>-0.006847143633885744</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Relative sorghum oil content [dry wt. %]</t>
+          <t>Cane oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.005452126682085067</v>
+        <v>0.4909599612063984</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002615932040637281</v>
+        <v>-0.01991910609017229</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.002165081174603247</v>
+        <v>0.988370180238807</v>
       </c>
       <c r="F32" t="n">
-        <v>0.005990806799632271</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>-0.9112128565125142</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.05611442813207774</v>
+      </c>
       <c r="H32" t="n">
-        <v>0.004636892733370698</v>
+        <v>-0.8865810005607988</v>
       </c>
       <c r="I32" t="n">
-        <v>0.003907003740280149</v>
+        <v>-0.1255335969893439</v>
       </c>
       <c r="J32" t="n">
-        <v>0.008196580333698904</v>
+        <v>0.5049154120506659</v>
       </c>
       <c r="K32" t="n">
-        <v>0.004704526652181065</v>
+        <v>-0.9240761696670466</v>
       </c>
       <c r="L32" t="n">
-        <v>0.004704526652181065</v>
+        <v>-0.9240761696670466</v>
       </c>
       <c r="M32" t="n">
-        <v>0.004704526652181065</v>
+        <v>-0.9240761696670466</v>
       </c>
       <c r="N32" t="n">
-        <v>0.004704526652181065</v>
+        <v>-0.9240761696670466</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>0.005388123671524947</v>
+        <v>-0.9396689372667573</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.00473747049349882</v>
+        <v>-0.9193857262154288</v>
       </c>
       <c r="R32" t="n">
-        <v>0.00473747049349882</v>
+        <v>-0.9193857262154288</v>
       </c>
       <c r="S32" t="n">
-        <v>0.00473747049349882</v>
+        <v>-0.9193857262154288</v>
       </c>
       <c r="T32" t="n">
-        <v>0.00473747049349882</v>
+        <v>-0.9193857262154288</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.01922347699293907</v>
+        <v>-0.06210384267615369</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.01822847324113893</v>
+        <v>0.004861145186445807</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01829860277994411</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
+        <v>0.01817485128699405</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.02241187301091152</v>
+      </c>
       <c r="Y32" t="n">
-        <v>-0.0002659950347036402</v>
+        <v>0.1017488230947924</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.00442747774509911</v>
+        <v>-0.02459604779984191</v>
       </c>
       <c r="AA32" t="n">
-        <v>-0.0006075674163026966</v>
+        <v>0.4470107277364291</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.0006075674163026966</v>
+        <v>0.4470107277364291</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.0006075674163026966</v>
+        <v>0.4470107277364291</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.0006075674163026966</v>
+        <v>0.4470107277364291</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>TAG to FFA conversion [% oil]</t>
+          <t>Relative sorghum oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.00982716279308651</v>
+        <v>-0.006152579478103178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01630701386828055</v>
+        <v>0.04757284441164074</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02740149277605971</v>
+        <v>-0.01240071150402846</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01924073923362957</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>-0.002082814835312593</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.006711306621050334</v>
+      </c>
       <c r="H33" t="n">
-        <v>0.02808647869905179</v>
+        <v>0.00179563389668726</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02733384954135398</v>
+        <v>0.009862417930496716</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01919330414686313</v>
+        <v>-0.007365815217679883</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03865765383430615</v>
+        <v>0.004692585211703408</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03865765383430615</v>
+        <v>0.004692585211703408</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03865765383430615</v>
+        <v>0.004692585211703408</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03865765383430615</v>
+        <v>0.004692585211703408</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.03892512597300504</v>
+        <v>0.005403427224137089</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03906686623467465</v>
+        <v>0.004553686358147453</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03906686623467465</v>
+        <v>0.004553686358147453</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03906686623467465</v>
+        <v>0.004553686358147453</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03906686623467465</v>
+        <v>0.004553686358147453</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02628782716351309</v>
+        <v>0.003871012954840517</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.009058690346347613</v>
+        <v>-0.0259742850069714</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.005984720591388822</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+        <v>-0.02855327067813082</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.0123292063831033</v>
+      </c>
       <c r="Y33" t="n">
-        <v>-0.02629740941020775</v>
+        <v>-0.01216595943647804</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.01510383545215342</v>
+        <v>-0.01162269166490766</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.0272091552323662</v>
+        <v>-0.01526994320279773</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.0272091552323662</v>
+        <v>-0.01526994320279773</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.0272091552323662</v>
+        <v>-0.01526994320279773</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.0272091552323662</v>
+        <v>-0.01526994320279773</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Stream-oilcane</t>
+          <t>biorefinery</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>GWP [kg*CO2-eq/kg]</t>
+          <t>TAG to FFA conversion [% oil]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01205066083402643</v>
+        <v>-0.00206020625840825</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0162324076572963</v>
+        <v>-0.007189173966882284</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.01580949980037999</v>
+        <v>0.002441007073640282</v>
       </c>
       <c r="F34" t="n">
-        <v>0.009730184645207385</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>-0.003215010464600418</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.006555627666265522</v>
+      </c>
       <c r="H34" t="n">
-        <v>0.01506327330318408</v>
+        <v>-0.001734661414219094</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.004023555136942205</v>
+        <v>0.02518424961536998</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01099989656529959</v>
+        <v>-0.06014022680244398</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1050477440419098</v>
+        <v>0.0001027463081098523</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1050477440419098</v>
+        <v>0.0001027463081098523</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1050477440419098</v>
+        <v>0.0001027463081098523</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1050477440419098</v>
+        <v>0.0001027463081098523</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.1091173910846956</v>
+        <v>-0.0005303171732126869</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1099359203334368</v>
+        <v>0.0002597772583910903</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1099359203334368</v>
+        <v>0.0002597772583910903</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1099359203334368</v>
+        <v>0.0002597772583910903</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1099359203334368</v>
+        <v>0.0002597772583910903</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.009354084086163362</v>
+        <v>-0.01504128213765128</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01468598583543943</v>
+        <v>-0.009006743016269719</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01656806783072271</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+        <v>-0.004613381368535254</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.01454904278312436</v>
+      </c>
       <c r="Y34" t="n">
-        <v>0.01015982484083135</v>
+        <v>0.008751104322244702</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01263289797731592</v>
+        <v>0.01907017967480718</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.01085146939405877</v>
+        <v>0.005673163138926525</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.01085146939405877</v>
+        <v>0.005673163138926525</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.01085146939405877</v>
+        <v>0.005673163138926525</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.01085146939405877</v>
+        <v>0.005673163138926525</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Stream-methanol</t>
+          <t>Stream-oilcane</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -3515,89 +3635,93 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01209933129997325</v>
+        <v>-0.03361357056054282</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01363320092932804</v>
+        <v>0.01381652941937795</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02632229942089197</v>
+        <v>-0.03093629355745174</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02504888106595524</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>0.01575275035811001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.008129008775244638</v>
+      </c>
       <c r="H35" t="n">
-        <v>-0.0279666968061599</v>
+        <v>0.01420893023917749</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005466053978642158</v>
+        <v>-0.004493544851741794</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.006203616648671101</v>
+        <v>-0.008464778961673827</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.03040311616012464</v>
+        <v>0.05167012421080495</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.03040311616012464</v>
+        <v>0.05167012421080495</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.03040311616012464</v>
+        <v>0.05167012421080495</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.03040311616012464</v>
+        <v>0.05167012421080495</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>-0.03065821889032875</v>
+        <v>0.0478072326642893</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.03058658877546355</v>
+        <v>0.05227861917914476</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.03058658877546355</v>
+        <v>0.05227861917914476</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.03058658877546355</v>
+        <v>0.05227861917914476</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.03058658877546355</v>
+        <v>0.05227861917914476</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.03305396906615875</v>
+        <v>-0.01107673954706958</v>
       </c>
       <c r="V35" t="n">
-        <v>0.004651223802048952</v>
+        <v>-0.02233087721323508</v>
       </c>
       <c r="W35" t="n">
-        <v>0.002801220592048823</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
+        <v>-0.03162379076895162</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.00348700218217274</v>
+      </c>
       <c r="Y35" t="n">
-        <v>0.01524404979742056</v>
+        <v>0.006653547821335614</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01730635317225412</v>
+        <v>0.01134356272574251</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.02029664145186565</v>
+        <v>-0.01619205597568223</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02029664145186565</v>
+        <v>-0.01619205597568223</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02029664145186565</v>
+        <v>-0.01619205597568223</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.02029664145186565</v>
+        <v>-0.01619205597568223</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-methanol</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -3606,89 +3730,93 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01801385352055414</v>
+        <v>-0.009766283814651352</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009484092667363705</v>
+        <v>-0.009775227629936562</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01058119885524795</v>
+        <v>0.01458790637551625</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.008862677442507098</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>-0.01397580199903208</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01857848516385576</v>
+      </c>
       <c r="H36" t="n">
-        <v>-0.01023154121785614</v>
+        <v>-0.009498522336500184</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01864434036177361</v>
+        <v>0.00999932526397301</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.000265763243338523</v>
+        <v>0.003661210863892401</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002651882698075308</v>
+        <v>-0.01003921720156869</v>
       </c>
       <c r="L36" t="n">
-        <v>0.002651882698075308</v>
+        <v>-0.01003921720156869</v>
       </c>
       <c r="M36" t="n">
-        <v>0.002651882698075308</v>
+        <v>-0.01003921720156869</v>
       </c>
       <c r="N36" t="n">
-        <v>0.002651882698075308</v>
+        <v>-0.01003921720156869</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0.004055005602200224</v>
+        <v>-0.01119249145569966</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.003437602889504115</v>
+        <v>-0.009839114697564587</v>
       </c>
       <c r="R36" t="n">
-        <v>0.003437602889504115</v>
+        <v>-0.009839114697564587</v>
       </c>
       <c r="S36" t="n">
-        <v>0.003437602889504115</v>
+        <v>-0.009839114697564587</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003437602889504115</v>
+        <v>-0.009839114697564587</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01129064339562573</v>
+        <v>0.0260084702243388</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01972790306111612</v>
+        <v>0.008636100537444019</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.001556660702266428</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+        <v>-0.01057155056686202</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.005797760391604278</v>
+      </c>
       <c r="Y36" t="n">
-        <v>0.01754500462601099</v>
+        <v>-0.00690343035945086</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0007638772145550886</v>
+        <v>0.0004581631863265274</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.03360501244820049</v>
+        <v>-0.004051585698063427</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03360501244820049</v>
+        <v>-0.004051585698063427</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.03360501244820049</v>
+        <v>-0.004051585698063427</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.03360501244820049</v>
+        <v>-0.004051585698063427</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -3697,89 +3825,93 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.01039096371163855</v>
+        <v>-0.003202078976083158</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0137859299274372</v>
+        <v>-0.001529389524964083</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001323628660945146</v>
+        <v>0.002988825335553013</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003785074999403</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>0.002181206103248244</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.002562408746068044</v>
+      </c>
       <c r="H37" t="n">
-        <v>-0.004655508718130976</v>
+        <v>0.003298146949508988</v>
       </c>
       <c r="I37" t="n">
-        <v>0.005779999047199961</v>
+        <v>0.02004614211384568</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.008606013343166952</v>
+        <v>0.01262881336752554</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.007614050224562008</v>
+        <v>0.00683646900945876</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.007614050224562008</v>
+        <v>0.00683646900945876</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.007614050224562008</v>
+        <v>0.00683646900945876</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.007614050224562008</v>
+        <v>0.00683646900945876</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-0.007295474883818994</v>
+        <v>0.005272077138883086</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.008031653409266135</v>
+        <v>0.007152627070105081</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.008031653409266135</v>
+        <v>0.007152627070105081</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.008031653409266135</v>
+        <v>0.007152627070105081</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.008031653409266135</v>
+        <v>0.007152627070105081</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01215206381408255</v>
+        <v>0.009936890413475615</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.01791280833251233</v>
+        <v>-0.001433513145340526</v>
       </c>
       <c r="W37" t="n">
-        <v>0.005294987347799493</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+        <v>0.01319642903985716</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.005461048599926337</v>
+      </c>
       <c r="Y37" t="n">
-        <v>0.007199816689720623</v>
+        <v>-0.01478626715854809</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0004525922101036884</v>
+        <v>-0.007282750563310021</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01120234067209363</v>
+        <v>-0.008140384069615361</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01120234067209363</v>
+        <v>-0.008140384069615361</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01120234067209363</v>
+        <v>-0.008140384069615361</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.01120234067209363</v>
+        <v>-0.008140384069615361</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-cellulase</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -3788,84 +3920,183 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.01609262656370506</v>
+        <v>-0.0008144853445794138</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02315309036612361</v>
+        <v>-0.001087472158502134</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.005667225730689028</v>
+        <v>-0.01617741991109679</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.001314420052576802</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>0.009174880590995221</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.01145224762930503</v>
+      </c>
       <c r="H38" t="n">
-        <v>-0.006596066093383339</v>
+        <v>0.01053320058638396</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.027424025032961</v>
+        <v>-0.01138708567148343</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.02520568221137523</v>
+        <v>0.00463998351463736</v>
       </c>
       <c r="K38" t="n">
-        <v>0.005522033212881328</v>
+        <v>0.01291555405262216</v>
       </c>
       <c r="L38" t="n">
-        <v>0.005522033212881328</v>
+        <v>0.01291555405262216</v>
       </c>
       <c r="M38" t="n">
-        <v>0.005522033212881328</v>
+        <v>0.01291555405262216</v>
       </c>
       <c r="N38" t="n">
-        <v>0.005522033212881328</v>
+        <v>0.01291555405262216</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.006197522071900882</v>
+        <v>0.01363523968140958</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.005856088938243557</v>
+        <v>0.01283251990530079</v>
       </c>
       <c r="R38" t="n">
-        <v>0.005856088938243557</v>
+        <v>0.01283251990530079</v>
       </c>
       <c r="S38" t="n">
-        <v>0.005856088938243557</v>
+        <v>0.01283251990530079</v>
       </c>
       <c r="T38" t="n">
-        <v>0.005856088938243557</v>
+        <v>0.01283251990530079</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.01033171308526852</v>
+        <v>0.01781690231267609</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.03528950982758038</v>
+        <v>-0.009822368744894748</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0006791431951657277</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+        <v>0.006653514314140572</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.00621694286169135</v>
+      </c>
       <c r="Y38" t="n">
-        <v>0.01416419298596713</v>
+        <v>-0.02833740777109826</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01958618660744746</v>
+        <v>-0.01827086674683467</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01216164634246585</v>
+        <v>-0.02537905983116239</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01216164634246585</v>
+        <v>-0.02537905983116239</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01216164634246585</v>
+        <v>-0.02537905983116239</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01216164634246585</v>
+        <v>-0.02537905983116239</v>
       </c>
       <c r="AE38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01263111093724444</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.004349642093161304</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002336542749461709</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.006650188394007535</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.03181759617275282</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.01225246225597967</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.02393392828535713</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.02034815412064458</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0003611543184461727</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0003611543184461727</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0003611543184461727</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0003611543184461727</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>0.0001644837185793487</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0004897140675885626</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0004897140675885626</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0004897140675885626</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0004897140675885626</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.02213438690137547</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.009795346375813854</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-0.002630497737219909</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.02010404873761297</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.003684747317158571</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.008839239809569592</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.03866728676269147</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-0.03866728676269147</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.03866728676269147</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-0.03866728676269147</v>
+      </c>
+      <c r="AE39" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3873,12 +4104,12 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -734,86 +734,86 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.01606775651471026</v>
+        <v>-0.01575181042207241</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001847688012816496</v>
+        <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
         <v>-0.04212653899706156</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01425409141816365</v>
+        <v>-0.01425421823416873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02724272094630209</v>
+        <v>0.002034002850773656</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04416981106799395</v>
+        <v>-0.04364604522279191</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008380311119212443</v>
+        <v>0.006864392914575716</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05651545720414305</v>
+        <v>0.07952638581317775</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02935275400611016</v>
+        <v>-0.02887387920295516</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02935275400611016</v>
+        <v>-0.02887387920295516</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.02935275400611016</v>
+        <v>-0.02887387920295516</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02935275400611016</v>
+        <v>-0.02887387920295516</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.02004597891383915</v>
+        <v>-0.01973817918952717</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.031361175270447</v>
+        <v>-0.03085892792235712</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.031361175270447</v>
+        <v>-0.03085892792235712</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.031361175270447</v>
+        <v>-0.03085892792235712</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.031361175270447</v>
+        <v>-0.03085892792235712</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.08369186926767476</v>
+        <v>-0.07298648067945922</v>
       </c>
       <c r="V4" t="n">
         <v>-0.4286535449861418</v>
       </c>
       <c r="W4" t="n">
-        <v>0.009059026442361057</v>
+        <v>0.009053462954138516</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006689652788034274</v>
+        <v>-0.01584411766239622</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01657416825492233</v>
+        <v>-0.02338491080262119</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08275839182233566</v>
+        <v>0.06935295119011804</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.006720733324829332</v>
+        <v>-0.002224178968967159</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.006720733324829332</v>
+        <v>-0.002224178968967159</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.006720733324829332</v>
+        <v>-0.002224178968967159</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.006720733324829332</v>
+        <v>-0.002224178968967159</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -825,86 +825,86 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07187749247509968</v>
+        <v>0.07379249363969974</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01696575295256268</v>
+        <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
         <v>0.1280246692169867</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01283929097757164</v>
+        <v>-0.01283894537755781</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0212408835351717</v>
+        <v>0.01196232987516509</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04738388870209981</v>
+        <v>0.04719078440628294</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01953541921341677</v>
+        <v>-0.009413031928521274</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04300800375024554</v>
+        <v>-0.03521911827064838</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01393734046149362</v>
+        <v>0.01369910521996421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01393734046149362</v>
+        <v>0.01369910521996421</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01393734046149362</v>
+        <v>0.01369910521996421</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01393734046149362</v>
+        <v>0.01369910521996421</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.005346507093860283</v>
+        <v>-0.005463544154541766</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01797640305505612</v>
+        <v>0.01774240026169601</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01797640305505612</v>
+        <v>0.01774240026169601</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01797640305505612</v>
+        <v>0.01774240026169601</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01797640305505612</v>
+        <v>0.01774240026169601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0847487427179497</v>
+        <v>0.08494537856581513</v>
       </c>
       <c r="V5" t="n">
         <v>0.8200616502424658</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.003423456712938268</v>
+        <v>-0.003414767656590705</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02273222817907496</v>
+        <v>-0.008231902144604789</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1535393597512733</v>
+        <v>0.1504603471146348</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.007710360308414411</v>
+        <v>-0.00862613276104531</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1148120701284828</v>
+        <v>0.1088543923541757</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1148120701284828</v>
+        <v>0.1088543923541757</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1148120701284828</v>
+        <v>0.1088543923541757</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1148120701284828</v>
+        <v>0.1088543923541757</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -916,86 +916,86 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2380690196347608</v>
+        <v>0.2346266598490664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01538511963437284</v>
+        <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
         <v>-0.00242753424110137</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003676748403069936</v>
+        <v>0.003678109683124387</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01820120437519973</v>
+        <v>0.005337390737706576</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005475581501651538</v>
+        <v>0.004798817282256122</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.861270200338808</v>
+        <v>-0.5668062604962504</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03178849540426717</v>
+        <v>0.004054252254819357</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005973863662954547</v>
+        <v>0.005466276890651075</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005973863662954547</v>
+        <v>0.005466276890651075</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005973863662954547</v>
+        <v>0.005466276890651075</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005973863662954547</v>
+        <v>0.005466276890651075</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.005757655046306201</v>
+        <v>0.005337096789483871</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006037650673506026</v>
+        <v>0.005498864571954583</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006037650673506026</v>
+        <v>0.005498864571954583</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006037650673506026</v>
+        <v>0.005498864571954583</v>
       </c>
       <c r="T6" t="n">
-        <v>0.006037650673506026</v>
+        <v>0.005498864571954583</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0006477502339100093</v>
+        <v>-0.01287328601893144</v>
       </c>
       <c r="V6" t="n">
         <v>0.02525779435431177</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01206986045079442</v>
+        <v>-0.01206309465852379</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.002472218631660869</v>
+        <v>0.01560079484487303</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.002502962405319918</v>
+        <v>0.01071681355381661</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07359338982373557</v>
+        <v>0.1137337377973495</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.008058468610338742</v>
+        <v>0.004509204660368186</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.008058468610338742</v>
+        <v>0.004509204660368186</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.008058468610338742</v>
+        <v>0.004509204660368186</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.008058468610338742</v>
+        <v>0.004509204660368186</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -1007,86 +1007,86 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01168202696328108</v>
+        <v>0.009855670378226815</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04316918394740705</v>
+        <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
         <v>0.01064945476197819</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006492874531714979</v>
+        <v>-0.006493028995721159</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001906494269788109</v>
+        <v>-0.01093901087884279</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01134832068338002</v>
+        <v>-0.01123645715885178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.009332702773308109</v>
+        <v>-0.007727893653115745</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01244805635163152</v>
+        <v>-0.009889816746448897</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01221277613651104</v>
+        <v>-0.01211558381262335</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01221277613651104</v>
+        <v>-0.01211558381262335</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01221277613651104</v>
+        <v>-0.01211558381262335</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01221277613651104</v>
+        <v>-0.01211558381262335</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.01232560676502427</v>
+        <v>-0.01229900785196031</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01234125582165023</v>
+        <v>-0.01223057847322314</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01234125582165023</v>
+        <v>-0.01223057847322314</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01234125582165023</v>
+        <v>-0.01223057847322314</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01234125582165023</v>
+        <v>-0.01223057847322314</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01165284929811397</v>
+        <v>0.02338141859925674</v>
       </c>
       <c r="V7" t="n">
         <v>0.002396257535850301</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01195866681434667</v>
+        <v>0.01195600963024038</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.005540382998429841</v>
+        <v>0.01594042421812919</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.002681878284562433</v>
+        <v>-0.02158722432985084</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.008226731273069249</v>
+        <v>-0.009754554918182196</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.003809195864367834</v>
+        <v>-0.01324096910563876</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003809195864367834</v>
+        <v>-0.01324096910563876</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.003809195864367834</v>
+        <v>-0.01324096910563876</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003809195864367834</v>
+        <v>-0.01324096910563876</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1098,86 +1098,86 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01246709560268382</v>
+        <v>0.2104381385935255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02352456254999722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>-0.001269072530762901</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004364347278573891</v>
+        <v>-0.004365349998614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006136206137167164</v>
+        <v>-0.003728411140160594</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0005107467086750267</v>
+        <v>-0.00279378904109258</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.00722491977699679</v>
+        <v>0.7271350912294035</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01087471228292044</v>
+        <v>-0.008432553435611704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001239488305579532</v>
+        <v>-0.0009661780226471208</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001239488305579532</v>
+        <v>-0.0009661780226471208</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001239488305579532</v>
+        <v>-0.0009661780226471208</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001239488305579532</v>
+        <v>-0.0009661780226471208</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.00139564699982588</v>
+        <v>-0.0005385958295438332</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001282717683308707</v>
+        <v>-0.001011294280451771</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001282717683308707</v>
+        <v>-0.001011294280451771</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001282717683308707</v>
+        <v>-0.001011294280451771</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001282717683308707</v>
+        <v>-0.001011294280451771</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.008709626076385042</v>
+        <v>-0.01667153394686136</v>
       </c>
       <c r="V8" t="n">
         <v>-0.002442192289687691</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02270387418815496</v>
+        <v>-0.02265189373807575</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.004318904652753825</v>
+        <v>0.002644106334829023</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001241075858238751</v>
+        <v>-0.003296146117427995</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.0007759118710364747</v>
+        <v>-0.1255520325420813</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.003237659553506382</v>
+        <v>-0.003700017940000717</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003237659553506382</v>
+        <v>-0.003700017940000717</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003237659553506382</v>
+        <v>-0.003700017940000717</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003237659553506382</v>
+        <v>-0.003700017940000717</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1193,86 +1193,86 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6490068936402756</v>
+        <v>0.637097153611886</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006827724374214828</v>
+        <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
         <v>0.002560814982432599</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01482424792096992</v>
+        <v>-0.01482452478498099</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0187991332597417</v>
+        <v>-0.0008382829505320991</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01906720473984045</v>
+        <v>-0.0185614302553667</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02021331863253274</v>
+        <v>-6.694617867784714e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01486735404128709</v>
+        <v>-0.02162285517237751</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01628778170751126</v>
+        <v>-0.0157494900059796</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01628778170751126</v>
+        <v>-0.0157494900059796</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01628778170751126</v>
+        <v>-0.0157494900059796</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01628778170751126</v>
+        <v>-0.0157494900059796</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01528294678731787</v>
+        <v>-0.01488477054739082</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01668167145126686</v>
+        <v>-0.01620275152811006</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01668167145126686</v>
+        <v>-0.01620275152811006</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01668167145126686</v>
+        <v>-0.01620275152811006</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01668167145126686</v>
+        <v>-0.01620275152811006</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3493420290776811</v>
+        <v>-0.3437038949961557</v>
       </c>
       <c r="V9" t="n">
         <v>0.003666777458671097</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01160134107205364</v>
+        <v>-0.01159674843186994</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01668304617876301</v>
+        <v>0.02330952203365202</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.02133086908747358</v>
+        <v>-0.03134539922086176</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.005306055092242203</v>
+        <v>-0.02801897680075906</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.01681324454452978</v>
+        <v>-0.02699526962381078</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.01681324454452978</v>
+        <v>-0.02699526962381078</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.01681324454452978</v>
+        <v>-0.02699526962381078</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01681324454452978</v>
+        <v>-0.02699526962381078</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1288,86 +1288,86 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3625066194282647</v>
+        <v>0.353353552246142</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005465408787144517</v>
+        <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
         <v>0.02947424661896986</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03076133479845339</v>
+        <v>-0.03076179559847182</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007874213669657345</v>
+        <v>0.0001759841934533353</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03369125848382214</v>
+        <v>-0.03279047508735843</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02867154028286161</v>
+        <v>-0.01660647743225909</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01873982453040561</v>
+        <v>0.01510780687544863</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03512915842916634</v>
+        <v>-0.03423932220157289</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03512915842916634</v>
+        <v>-0.03423932220157289</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03512915842916634</v>
+        <v>-0.03423932220157289</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03512915842916634</v>
+        <v>-0.03423932220157289</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.03466961149878445</v>
+        <v>-0.03409403579576142</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03512865366114614</v>
+        <v>-0.03427045970681838</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03512865366114614</v>
+        <v>-0.03427045970681838</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.03512865366114614</v>
+        <v>-0.03427045970681838</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03512865366114614</v>
+        <v>-0.03427045970681838</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6995541063821642</v>
+        <v>0.6937523187900927</v>
       </c>
       <c r="V10" t="n">
         <v>0.004888741443549657</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01797138321485533</v>
+        <v>-0.01797714561508582</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002364796916419698</v>
+        <v>0.01448546271500909</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01281080576658142</v>
+        <v>-0.002823427890292361</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.007861599194463968</v>
+        <v>0.0116894799235792</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.000562355926494237</v>
+        <v>0.002078490419139617</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.000562355926494237</v>
+        <v>0.002078490419139617</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.000562355926494237</v>
+        <v>0.002078490419139617</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.000562355926494237</v>
+        <v>0.002078490419139617</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1383,86 +1383,86 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.002824273744970949</v>
+        <v>-0.0008234497289379891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006236139777456982</v>
+        <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
         <v>0.001628210849128434</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0002151862166074487</v>
+        <v>-0.0002151505046060202</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02545466407376378</v>
+        <v>-0.009158539044429183</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00168155459606933</v>
+        <v>0.0009849685838715281</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01379254231170169</v>
+        <v>0.01483357144134286</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009798236443908584</v>
+        <v>0.006199336299315381</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000445323377812935</v>
+        <v>-0.0001295377011815081</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000445323377812935</v>
+        <v>-0.0001295377011815081</v>
       </c>
       <c r="M11" t="n">
-        <v>0.000445323377812935</v>
+        <v>-0.0001295377011815081</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000445323377812935</v>
+        <v>-0.0001295377011815081</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.000739849853593994</v>
+        <v>0.0003806179352247174</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0005858155434326217</v>
+        <v>-1.274112050964482e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0005858155434326217</v>
+        <v>-1.274112050964482e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0005858155434326217</v>
+        <v>-1.274112050964482e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0005858155434326217</v>
+        <v>-1.274112050964482e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01409036408361456</v>
+        <v>-0.01899104360764174</v>
       </c>
       <c r="V11" t="n">
         <v>-0.009074836586993464</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009789193927567757</v>
+        <v>0.009799163143966524</v>
       </c>
       <c r="X11" t="n">
-        <v>0.000155005626739987</v>
+        <v>-0.006621392321812486</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01849896142083796</v>
+        <v>-0.01087343794415677</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.02747234922689396</v>
+        <v>-0.003336740101469603</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.0188299676971987</v>
+        <v>-0.0189972599918904</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.0188299676971987</v>
+        <v>-0.0189972599918904</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0188299676971987</v>
+        <v>-0.0189972599918904</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0188299676971987</v>
+        <v>-0.0189972599918904</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1478,86 +1478,86 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.001355729430229177</v>
+        <v>-0.002847149681885987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009110060871092444</v>
+        <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
         <v>0.009684545763381829</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.004770844318833773</v>
+        <v>-0.004771635166865407</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00281641965097942</v>
+        <v>-0.03340029289200645</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.00825473447815165</v>
+        <v>-0.00785132460582162</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005579006623160265</v>
+        <v>-0.0007247663329906532</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01043723354381486</v>
+        <v>-0.003108404966034422</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.00952356575694263</v>
+        <v>-0.009135815405432615</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.00952356575694263</v>
+        <v>-0.009135815405432615</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.00952356575694263</v>
+        <v>-0.009135815405432615</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.00952356575694263</v>
+        <v>-0.009135815405432615</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.009283282259331289</v>
+        <v>-0.008955592294223691</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.009562732414509294</v>
+        <v>-0.009151691790067671</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.009562732414509294</v>
+        <v>-0.009151691790067671</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.009562732414509294</v>
+        <v>-0.009151691790067671</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.009562732414509294</v>
+        <v>-0.009151691790067671</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008094862595794504</v>
+        <v>0.006816361136654446</v>
       </c>
       <c r="V12" t="n">
         <v>-0.01520427776017111</v>
       </c>
       <c r="W12" t="n">
-        <v>0.009393479703739186</v>
+        <v>0.009400100632004024</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.009411856999602572</v>
+        <v>0.02921807254197613</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.003297125509467641</v>
+        <v>0.009228108853553844</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.002654152810166112</v>
+        <v>0.007106530268261209</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.005541348029653921</v>
+        <v>0.006915153204606127</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.005541348029653921</v>
+        <v>0.006915153204606127</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.005541348029653921</v>
+        <v>0.006915153204606127</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.005541348029653921</v>
+        <v>0.006915153204606127</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1569,86 +1569,86 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2629702061348082</v>
+        <v>-0.2583874496314979</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005022640050174253</v>
+        <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
         <v>0.01445691168227647</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007502455308098211</v>
+        <v>-0.007502618700104747</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.003214677807716229</v>
+        <v>0.002196896488798079</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.007564898610227095</v>
+        <v>-0.0069019367913904</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003016174200646967</v>
+        <v>-0.002464931138597245</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004084472002377061</v>
+        <v>0.004615831735034664</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01003912024156481</v>
+        <v>-0.009332277397291096</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01003912024156481</v>
+        <v>-0.009332277397291096</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01003912024156481</v>
+        <v>-0.009332277397291096</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01003912024156481</v>
+        <v>-0.009332277397291096</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.01007599096303964</v>
+        <v>-0.009429307673172306</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.009808755848350233</v>
+        <v>-0.00907090529083621</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.009808755848350233</v>
+        <v>-0.00907090529083621</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.009808755848350233</v>
+        <v>-0.00907090529083621</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.009808755848350233</v>
+        <v>-0.00907090529083621</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.006011919888476795</v>
+        <v>0.006428367713134707</v>
       </c>
       <c r="V13" t="n">
         <v>-0.01323303278532131</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00764676654587066</v>
+        <v>0.00764635902585436</v>
       </c>
       <c r="X13" t="n">
-        <v>0.00871063907541794</v>
+        <v>0.02083729772620467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01338358844576766</v>
+        <v>0.002026678738039955</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04814298000571919</v>
+        <v>0.01871272404450896</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01971261698050468</v>
+        <v>0.003506264492250579</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01971261698050468</v>
+        <v>0.003506264492250579</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01971261698050468</v>
+        <v>0.003506264492250579</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01971261698050468</v>
+        <v>0.003506264492250579</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1664,86 +1664,86 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.003634463857378554</v>
+        <v>-0.002878043443121737</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01584279619574442</v>
+        <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
         <v>0.004929581477183259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00679717803188712</v>
+        <v>0.006797906287916251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02065969078969835</v>
+        <v>-0.01154559170287556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008916036648921162</v>
+        <v>0.009138781329937867</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008932672485306898</v>
+        <v>-0.01802599195303968</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01306690953065807</v>
+        <v>0.02832679178145126</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006227176953087077</v>
+        <v>0.006509756900390275</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006227176953087077</v>
+        <v>0.006509756900390275</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006227176953087077</v>
+        <v>0.006509756900390275</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006227176953087077</v>
+        <v>0.006509756900390275</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.005265978066639122</v>
+        <v>0.005496305307852212</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.006549022245960889</v>
+        <v>0.006768538254741529</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006549022245960889</v>
+        <v>0.006768538254741529</v>
       </c>
       <c r="S14" t="n">
-        <v>0.006549022245960889</v>
+        <v>0.006768538254741529</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006549022245960889</v>
+        <v>0.006768538254741529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02533678670947146</v>
+        <v>0.02755271879810875</v>
       </c>
       <c r="V14" t="n">
         <v>-0.009163390062535602</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02516917809476712</v>
+        <v>0.0251605476944219</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.01674471488765501</v>
+        <v>0.02018158177127879</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.009993234068526114</v>
+        <v>0.007196151747300222</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.004969658598786343</v>
+        <v>-0.009318980916759236</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01267116521084661</v>
+        <v>0.0117650524706021</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01267116521084661</v>
+        <v>0.0117650524706021</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01267116521084661</v>
+        <v>0.0117650524706021</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01267116521084661</v>
+        <v>0.0117650524706021</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1759,86 +1759,86 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02173574323742973</v>
+        <v>-0.01996692387067695</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0130534036976787</v>
+        <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
         <v>0.005914865612594624</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.004798736447949458</v>
+        <v>-0.004800023040000921</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007654063104152696</v>
+        <v>0.02942772721462989</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.004318011726793114</v>
+        <v>-0.004082456805257852</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009475084219003367</v>
+        <v>0.007586830479473219</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0003069304454042664</v>
+        <v>-0.008430816699536816</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.00333926576557063</v>
+        <v>-0.003180432127217284</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.00333926576557063</v>
+        <v>-0.003180432127217284</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.00333926576557063</v>
+        <v>-0.003180432127217284</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.00333926576557063</v>
+        <v>-0.003180432127217284</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.004408145360325814</v>
+        <v>-0.004165232710609308</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.003312187236487489</v>
+        <v>-0.003088081371523254</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003312187236487489</v>
+        <v>-0.003088081371523254</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.003312187236487489</v>
+        <v>-0.003088081371523254</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.003312187236487489</v>
+        <v>-0.003088081371523254</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05195993468639738</v>
+        <v>-0.04701124604044983</v>
       </c>
       <c r="V15" t="n">
         <v>0.0005753493350139732</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.004460334994413399</v>
+        <v>-0.004460671570426862</v>
       </c>
       <c r="X15" t="n">
-        <v>0.00608959402475656</v>
+        <v>-0.01838714599150334</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.001030342793708276</v>
+        <v>-0.00902018753313719</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01450771440430857</v>
+        <v>-0.006222679064907162</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.008609865848394634</v>
+        <v>-0.01553193076527723</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.008609865848394634</v>
+        <v>-0.01553193076527723</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.008609865848394634</v>
+        <v>-0.01553193076527723</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.008609865848394634</v>
+        <v>-0.01553193076527723</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1854,86 +1854,86 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-9.870249994809999e-05</v>
+        <v>-0.001684355299374212</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003654813748711187</v>
+        <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
         <v>0.003328181413127256</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007518095532723821</v>
+        <v>0.007518664236746568</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00427192116841931</v>
+        <v>0.01775922090964694</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01357808118964073</v>
+        <v>0.01325815196068999</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01719948356797934</v>
+        <v>-0.01372953222918129</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02367489880993018</v>
+        <v>0.02693102554526582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01304168029766721</v>
+        <v>0.01276104607844184</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01304168029766721</v>
+        <v>0.01276104607844184</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01304168029766721</v>
+        <v>0.01276104607844184</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01304168029766721</v>
+        <v>0.01276104607844184</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.01081455700858228</v>
+        <v>0.0106976774839071</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01345200601008024</v>
+        <v>0.01312403908496156</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01345200601008024</v>
+        <v>0.01312403908496156</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01345200601008024</v>
+        <v>0.01312403908496156</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01345200601008024</v>
+        <v>0.01312403908496156</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01408463067538522</v>
+        <v>0.01323729489749179</v>
       </c>
       <c r="V16" t="n">
         <v>0.0005865618474624738</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0279314900772596</v>
+        <v>0.02793992185359687</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.003982670015473964</v>
+        <v>-0.01694692079803961</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01691130625256967</v>
+        <v>-0.01246534389659712</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01572598325303933</v>
+        <v>-0.007820921304836852</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.007563114638524584</v>
+        <v>-0.003969286526771461</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.007563114638524584</v>
+        <v>-0.003969286526771461</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.007563114638524584</v>
+        <v>-0.003969286526771461</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.007563114638524584</v>
+        <v>-0.003969286526771461</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1949,86 +1949,86 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.07589930578797222</v>
+        <v>-0.07209450374778015</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01141000234129359</v>
+        <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
         <v>0.005135567245422689</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001539760189590407</v>
+        <v>0.00153915375756615</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01802471541476049</v>
+        <v>0.02596597215585705</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.003702760565887748</v>
+        <v>-0.003516745294357849</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02002965987318639</v>
+        <v>-0.01294514730180589</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.004827589506830489</v>
+        <v>0.005972577617537548</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.004717814972712599</v>
+        <v>-0.004472342386893695</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.004717814972712599</v>
+        <v>-0.004472342386893695</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.004717814972712599</v>
+        <v>-0.004472342386893695</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.004717814972712599</v>
+        <v>-0.004472342386893695</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.005367121654684866</v>
+        <v>-0.005290350739614029</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.004850378498015139</v>
+        <v>-0.00460806901632276</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.004850378498015139</v>
+        <v>-0.00460806901632276</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.004850378498015139</v>
+        <v>-0.00460806901632276</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004850378498015139</v>
+        <v>-0.00460806901632276</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.06774255822970232</v>
+        <v>-0.06553002194920088</v>
       </c>
       <c r="V17" t="n">
         <v>-0.005590315231612609</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02428539485941579</v>
+        <v>0.02428595453943818</v>
       </c>
       <c r="X17" t="n">
-        <v>0.003863959305105728</v>
+        <v>-0.01776795586768336</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03147504924210998</v>
+        <v>0.02763506540666744</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0133864351274574</v>
+        <v>0.02706090722643629</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03122157091286283</v>
+        <v>0.02706018578640743</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03122157091286283</v>
+        <v>0.02706018578640743</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.03122157091286283</v>
+        <v>0.02706018578640743</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.03122157091286283</v>
+        <v>0.02706018578640743</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -2040,86 +2040,86 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01129629664385186</v>
+        <v>-0.009550647454025897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01172346472481126</v>
+        <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
         <v>0.006752012814080512</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004333730093349203</v>
+        <v>0.0004334359853374394</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002554732858944922</v>
+        <v>0.02617410628357838</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.003039411483035377</v>
+        <v>-0.003333624230945109</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.008710654428426176</v>
+        <v>-0.00234583977383359</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.001427137454325947</v>
+        <v>-0.001510373585127309</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.005014897448595897</v>
+        <v>-0.005274397746975909</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.005014897448595897</v>
+        <v>-0.005274397746975909</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.005014897448595897</v>
+        <v>-0.005274397746975909</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.005014897448595897</v>
+        <v>-0.005274397746975909</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.005442083641683345</v>
+        <v>-0.005772709958908397</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.004997595559903822</v>
+        <v>-0.005280520915220836</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.004997595559903822</v>
+        <v>-0.005280520915220836</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.004997595559903822</v>
+        <v>-0.005280520915220836</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.004997595559903822</v>
+        <v>-0.005280520915220836</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01390746516429861</v>
+        <v>-0.01705916967436678</v>
       </c>
       <c r="V18" t="n">
         <v>-0.0302215776568631</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03003432696137307</v>
+        <v>0.0300405552496222</v>
       </c>
       <c r="X18" t="n">
-        <v>0.008500019996179354</v>
+        <v>-0.02644081945888544</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.009779904587890536</v>
+        <v>0.00430048443008361</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.008347793613911744</v>
+        <v>0.01774041594161663</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.003116175196647008</v>
+        <v>0.006964140470565617</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.003116175196647008</v>
+        <v>0.006964140470565617</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.003116175196647008</v>
+        <v>0.006964140470565617</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.003116175196647008</v>
+        <v>0.006964140470565617</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2135,86 +2135,86 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04820030189601206</v>
+        <v>-0.04721997596879903</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.005629801667823271</v>
+        <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
         <v>0.01799115153564606</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01463149604125984</v>
+        <v>-0.01463142365725694</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01493207899258265</v>
+        <v>-0.01693112857678209</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01042278176591421</v>
+        <v>-0.01109076361695411</v>
       </c>
       <c r="I19" t="n">
-        <v>0.232292299467692</v>
+        <v>0.1641553706302148</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01705351240876099</v>
+        <v>0.007491535139034996</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0127385674855427</v>
+        <v>-0.013349600021984</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0127385674855427</v>
+        <v>-0.013349600021984</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0127385674855427</v>
+        <v>-0.013349600021984</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0127385674855427</v>
+        <v>-0.013349600021984</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01311717018868681</v>
+        <v>-0.01357902428716097</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01252355128494205</v>
+        <v>-0.01312319102092764</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01252355128494205</v>
+        <v>-0.01312319102092764</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01252355128494205</v>
+        <v>-0.01312319102092764</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01252355128494205</v>
+        <v>-0.01312319102092764</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02230848050833922</v>
+        <v>-0.02748129373925175</v>
       </c>
       <c r="V19" t="n">
         <v>0.01796558241462329</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.0007695464947818597</v>
+        <v>-0.0007697118067884721</v>
       </c>
       <c r="X19" t="n">
-        <v>0.001239755340789791</v>
+        <v>0.01190201543624467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01876054914342703</v>
+        <v>0.02004115828326609</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1326329444413178</v>
+        <v>0.1335831877113275</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01825078057003122</v>
+        <v>0.02056249714249988</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01825078057003122</v>
+        <v>0.02056249714249988</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01825078057003122</v>
+        <v>0.02056249714249988</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01825078057003122</v>
+        <v>0.02056249714249988</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2230,86 +2230,86 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01432281791691271</v>
+        <v>-0.01404808894592356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0108701831276039</v>
+        <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
         <v>0.01275504396620176</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1453172437966898</v>
+        <v>0.1453175021327001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0125735483372964</v>
+        <v>-0.01238224298197456</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1387848601460111</v>
+        <v>0.1385844681058993</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04402184931287396</v>
+        <v>0.03252913627716544</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07687171386914149</v>
+        <v>0.08428455085034985</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1004804348032174</v>
+        <v>0.1003414676936587</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1004804348032174</v>
+        <v>0.1003414676936587</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1004804348032174</v>
+        <v>0.1003414676936587</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1004804348032174</v>
+        <v>0.1003414676936587</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.09004503470580136</v>
+        <v>0.089959375342375</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1032195793927832</v>
+        <v>0.1030642348745694</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1032195793927832</v>
+        <v>0.1030642348745694</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1032195793927832</v>
+        <v>0.1030642348745694</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1032195793927832</v>
+        <v>0.1030642348745694</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02024632477785299</v>
+        <v>0.02108754717950188</v>
       </c>
       <c r="V20" t="n">
         <v>-0.005361268822450752</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3625453673338146</v>
+        <v>0.3625453975738159</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.03046176068243986</v>
+        <v>-0.00610227217274444</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04713356677196678</v>
+        <v>0.04780290337506152</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.008262639114505563</v>
+        <v>0.01880206548808262</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.06521072488042898</v>
+        <v>0.06586372161054886</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06521072488042898</v>
+        <v>0.06586372161054886</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06521072488042898</v>
+        <v>0.06586372161054886</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.06521072488042898</v>
+        <v>0.06586372161054886</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2321,86 +2321,86 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01323583694543348</v>
+        <v>-0.01291793715671749</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003157155354189278</v>
+        <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
         <v>0.01678073769522951</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01565795400231816</v>
+        <v>-0.01565798597031944</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02184590243477872</v>
+        <v>0.003179782938559173</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01487767874624843</v>
+        <v>-0.01554371640520964</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02207715361908614</v>
+        <v>0.01834769564590782</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01917089872523149</v>
+        <v>0.02009395291445125</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01569072696362908</v>
+        <v>-0.01630428862017154</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01569072696362908</v>
+        <v>-0.01630428862017154</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01569072696362908</v>
+        <v>-0.01630428862017154</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01569072696362908</v>
+        <v>-0.01630428862017154</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.0162359926814397</v>
+        <v>-0.01682260598490424</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01568917483556699</v>
+        <v>-0.01628385319535413</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01568917483556699</v>
+        <v>-0.01628385319535413</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01568917483556699</v>
+        <v>-0.01628385319535413</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01568917483556699</v>
+        <v>-0.01628385319535413</v>
       </c>
       <c r="U21" t="n">
-        <v>0.008140723621628944</v>
+        <v>0.002681041451241658</v>
       </c>
       <c r="V21" t="n">
         <v>0.001770357958814318</v>
       </c>
       <c r="W21" t="n">
-        <v>0.007730282901211315</v>
+        <v>0.007724232980969318</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.02732752140841926</v>
+        <v>0.006743805028201999</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.01475331102921403</v>
+        <v>-0.004184831497401979</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.0008630689305227571</v>
+        <v>0.005822919304916772</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.01158810353552414</v>
+        <v>0.0005661932386477294</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.01158810353552414</v>
+        <v>0.0005661932386477294</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.01158810353552414</v>
+        <v>0.0005661932386477294</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.01158810353552414</v>
+        <v>0.0005661932386477294</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2412,86 +2412,86 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02757982689519307</v>
+        <v>-0.02706222405848896</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.007265300655001254</v>
+        <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
         <v>-0.004138489221539568</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1860398077935923</v>
+        <v>0.1860391664175666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008899855358748347</v>
+        <v>0.01440490734662244</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1722548710688772</v>
+        <v>0.1718336416758258</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03474426273377051</v>
+        <v>0.01191405906856236</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05829508137786279</v>
+        <v>0.05698827000933421</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1269628476385139</v>
+        <v>0.1265683141187325</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1269628476385139</v>
+        <v>0.1265683141187325</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1269628476385139</v>
+        <v>0.1265683141187325</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1269628476385139</v>
+        <v>0.1265683141187325</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1168230892489236</v>
+        <v>0.1165183866767354</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.129675475491019</v>
+        <v>0.1292420874096835</v>
       </c>
       <c r="R22" t="n">
-        <v>0.129675475491019</v>
+        <v>0.1292420874096835</v>
       </c>
       <c r="S22" t="n">
-        <v>0.129675475491019</v>
+        <v>0.1292420874096835</v>
       </c>
       <c r="T22" t="n">
-        <v>0.129675475491019</v>
+        <v>0.1292420874096835</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01378062458322498</v>
+        <v>0.00950988479639539</v>
       </c>
       <c r="V22" t="n">
         <v>0.002393035871721435</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4042568212262728</v>
+        <v>0.4042617217384688</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.004857674235281504</v>
+        <v>0.01639800853066111</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07464395169358715</v>
+        <v>0.08136490812565148</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03048145120325805</v>
+        <v>0.05334768750990749</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.08483964128158564</v>
+        <v>0.0925847628073905</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.08483964128158564</v>
+        <v>0.0925847628073905</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08483964128158564</v>
+        <v>0.0925847628073905</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.08483964128158564</v>
+        <v>0.0925847628073905</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2503,86 +2503,86 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.008321184236847369</v>
+        <v>-0.007639772561590902</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00293922466836034</v>
+        <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
         <v>-0.00846262526650501</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004147191717887667</v>
+        <v>0.004147169349886773</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005822145676535992</v>
+        <v>0.007025014625117312</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002227302234161194</v>
+        <v>0.002731076462553975</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005648655201946207</v>
+        <v>0.004063555746542229</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01865391364665372</v>
+        <v>-0.014804870174386</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00355413777416551</v>
+        <v>0.004047554177902167</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00355413777416551</v>
+        <v>0.004047554177902167</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00355413777416551</v>
+        <v>0.004047554177902167</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00355413777416551</v>
+        <v>0.004047554177902167</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.003747169205886768</v>
+        <v>0.00417304327092173</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.003488520523540821</v>
+        <v>0.004013742208549687</v>
       </c>
       <c r="R23" t="n">
-        <v>0.003488520523540821</v>
+        <v>0.004013742208549687</v>
       </c>
       <c r="S23" t="n">
-        <v>0.003488520523540821</v>
+        <v>0.004013742208549687</v>
       </c>
       <c r="T23" t="n">
-        <v>0.003488520523540821</v>
+        <v>0.004013742208549687</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01467738394709536</v>
+        <v>-0.01941416909656676</v>
       </c>
       <c r="V23" t="n">
         <v>0.007483936811357471</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.008650671802026871</v>
+        <v>-0.008648504217940167</v>
       </c>
       <c r="X23" t="n">
-        <v>0.007465651744424441</v>
+        <v>0.007514817663600916</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.001872533163800142</v>
+        <v>0.006176408890021031</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.002732630605305224</v>
+        <v>0.007452557770102309</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.009062718602508742</v>
+        <v>-0.003360449222417968</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.009062718602508742</v>
+        <v>-0.003360449222417968</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.009062718602508742</v>
+        <v>-0.003360449222417968</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.009062718602508742</v>
+        <v>-0.003360449222417968</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2598,86 +2598,86 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02671762609270504</v>
+        <v>-0.02344961229798449</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007148882666363079</v>
+        <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
         <v>0.005796456807858272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1300688113147524</v>
+        <v>0.130068900978756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008400323152994131</v>
+        <v>0.02795940179873907</v>
       </c>
       <c r="H24" t="n">
-        <v>0.124667712150549</v>
+        <v>0.1240497648295345</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04533030162121206</v>
+        <v>0.04512545614101824</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1082892978492102</v>
+        <v>0.1141769043633081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09294382394175295</v>
+        <v>0.09232828967713157</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09294382394175295</v>
+        <v>0.09232828967713157</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09294382394175295</v>
+        <v>0.09232828967713157</v>
       </c>
       <c r="N24" t="n">
-        <v>0.09294382394175295</v>
+        <v>0.09232828967713157</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.08417927578317101</v>
+        <v>0.08366742248269689</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09528855174754204</v>
+        <v>0.09463721677748867</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09528855174754204</v>
+        <v>0.09463721677748867</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09528855174754204</v>
+        <v>0.09463721677748867</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09528855174754204</v>
+        <v>0.09463721677748867</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03609916435596657</v>
+        <v>0.03396023108640924</v>
       </c>
       <c r="V24" t="n">
         <v>-0.01163134568125383</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.470648525001941</v>
+        <v>-0.4706536717541468</v>
       </c>
       <c r="X24" t="n">
-        <v>0.007420369384056268</v>
+        <v>-0.02187824378147748</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.143884611520449</v>
+        <v>-0.1366774296607023</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.08660275383211014</v>
+        <v>-0.07821109023244359</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.06706641657065665</v>
+        <v>-0.05633361220534448</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.06706641657065665</v>
+        <v>-0.05633361220534448</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.06706641657065665</v>
+        <v>-0.05633361220534448</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.06706641657065665</v>
+        <v>-0.05633361220534448</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2689,86 +2689,86 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.00826184826647393</v>
+        <v>-0.01152590062103602</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02711909572058422</v>
+        <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
         <v>0.01863379802535192</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2600878823395153</v>
+        <v>0.2600879060515162</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006760869408698108</v>
+        <v>0.01720831389163219</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2337373564376882</v>
+        <v>0.2332359536013914</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09104810994592437</v>
+        <v>0.04455514085420563</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09653976152808445</v>
+        <v>0.1143075899849433</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1682306992412279</v>
+        <v>0.1676880024835201</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1682306992412279</v>
+        <v>0.1676880024835201</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1682306992412279</v>
+        <v>0.1676880024835201</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1682306992412279</v>
+        <v>0.1676880024835201</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.1518947979157919</v>
+        <v>0.1516015368160614</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1723952069598083</v>
+        <v>0.1718856950034278</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1723952069598083</v>
+        <v>0.1718856950034278</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1723952069598083</v>
+        <v>0.1718856950034278</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1723952069598083</v>
+        <v>0.1718856950034278</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0209514826300593</v>
+        <v>0.0245648625825945</v>
       </c>
       <c r="V25" t="n">
         <v>-0.01868386701935468</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6600663384986534</v>
+        <v>0.6600607570584301</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01937717910178495</v>
+        <v>-0.00837713411693791</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07976428902085841</v>
+        <v>0.07061493741849266</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05493675358947014</v>
+        <v>0.05355636415825456</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1084538096821524</v>
+        <v>0.1007450287658011</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1084538096821524</v>
+        <v>0.1007450287658011</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1084538096821524</v>
+        <v>0.1007450287658011</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1084538096821524</v>
+        <v>0.1007450287658011</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2784,86 +2784,86 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1931279175811167</v>
+        <v>0.1853612928224517</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.421444879958728e-06</v>
+        <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
         <v>0.02010752614830104</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.02541259272850371</v>
+        <v>-0.02541208076048323</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.03321566420804312</v>
+        <v>-0.0028356447847638</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2344521856186244</v>
+        <v>-0.2336371241776308</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3864797575711902</v>
+        <v>-0.2765645146785805</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.659768433613407</v>
+        <v>-0.6604435778543271</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.2369012207720488</v>
+        <v>-0.2362321615132864</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2369012207720488</v>
+        <v>-0.2362321615132864</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.2369012207720488</v>
+        <v>-0.2362321615132864</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.2369012207720488</v>
+        <v>-0.2362321615132864</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.2115824685272987</v>
+        <v>-0.2111150041886001</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.2448824696672987</v>
+        <v>-0.2441952635278105</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2448824696672987</v>
+        <v>-0.2441952635278105</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.2448824696672987</v>
+        <v>-0.2441952635278105</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.2448824696672987</v>
+        <v>-0.2441952635278105</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.2354449426657977</v>
+        <v>-0.2315918483036739</v>
       </c>
       <c r="V26" t="n">
         <v>0.01611290733251629</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02008997081959883</v>
+        <v>0.02007305369892214</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0172753060127146</v>
+        <v>-0.02125915243480515</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3258767518474909</v>
+        <v>0.3208901359016327</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.423567852718714</v>
+        <v>0.4110532787781311</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.262620427432817</v>
+        <v>0.2596900401796016</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.262620427432817</v>
+        <v>0.2596900401796016</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.262620427432817</v>
+        <v>0.2596900401796016</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.262620427432817</v>
+        <v>0.2596900401796016</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2875,86 +2875,86 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0260334125613365</v>
+        <v>0.02988452653938106</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.007070529909083382</v>
+        <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
         <v>-0.01370261824410473</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02109075645963026</v>
+        <v>0.02109072938762917</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02294478869484527</v>
+        <v>0.01473785662446032</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02406616129419821</v>
+        <v>0.02388198355874269</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.09208759529950379</v>
+        <v>-0.05004359105774364</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01149377032595594</v>
+        <v>0.009804581558773557</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02241595548863821</v>
+        <v>0.02229308162772326</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02241595548863821</v>
+        <v>0.02229308162772326</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02241595548863821</v>
+        <v>0.02229308162772326</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02241595548863821</v>
+        <v>0.02229308162772326</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.02209339921973597</v>
+        <v>0.02205493029019721</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0227477800779112</v>
+        <v>0.02258407059936282</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0227477800779112</v>
+        <v>0.02258407059936282</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0227477800779112</v>
+        <v>0.02258407059936282</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0227477800779112</v>
+        <v>0.02258407059936282</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.002397596351903854</v>
+        <v>-0.008067311074692442</v>
       </c>
       <c r="V27" t="n">
         <v>-0.001907494444299777</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.00429565725982629</v>
+        <v>-0.004300116748004669</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.006017850674794994</v>
+        <v>-0.0004253499074353902</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01428637181031233</v>
+        <v>-0.004522224183059634</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09964594180983766</v>
+        <v>0.08642099971283998</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.005636688705467547</v>
+        <v>0.001634686433387457</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.005636688705467547</v>
+        <v>0.001634686433387457</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.005636688705467547</v>
+        <v>0.001634686433387457</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.005636688705467547</v>
+        <v>0.001634686433387457</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2970,86 +2970,86 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.0218877476275099</v>
+        <v>-0.01865658871426355</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01911383072410192</v>
+        <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
         <v>-0.07259845787993831</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03344863132194525</v>
+        <v>0.03344864936994597</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0160867955353187</v>
+        <v>-0.003438200328961282</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.002628576778404788</v>
+        <v>-0.003184035200889744</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0341041800201672</v>
+        <v>0.03315246094209844</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002596333601387081</v>
+        <v>-0.0002743898518316904</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01048043437121737</v>
+        <v>0.009912027084481082</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01048043437121737</v>
+        <v>0.009912027084481082</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01048043437121737</v>
+        <v>0.009912027084481082</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01048043437121737</v>
+        <v>0.009912027084481082</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.01970128974805159</v>
+        <v>0.01924589145783566</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.008469963218798528</v>
+        <v>0.007950462846018512</v>
       </c>
       <c r="R28" t="n">
-        <v>0.008469963218798528</v>
+        <v>0.007950462846018512</v>
       </c>
       <c r="S28" t="n">
-        <v>0.008469963218798528</v>
+        <v>0.007950462846018512</v>
       </c>
       <c r="T28" t="n">
-        <v>0.008469963218798528</v>
+        <v>0.007950462846018512</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.03712669358106773</v>
+        <v>-0.04893924099756964</v>
       </c>
       <c r="V28" t="n">
         <v>-0.3527349728613989</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0576295275851811</v>
+        <v>0.0576347977933919</v>
       </c>
       <c r="X28" t="n">
-        <v>0.009567016496979074</v>
+        <v>0.02047937499968764</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.08072185401962065</v>
+        <v>-0.06280583985438039</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.005660913922436556</v>
+        <v>0.0127319724772789</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.07309546621981863</v>
+        <v>-0.0578837876273515</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.07309546621981863</v>
+        <v>-0.0578837876273515</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.07309546621981863</v>
+        <v>-0.0578837876273515</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.07309546621981863</v>
+        <v>-0.0578837876273515</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -3065,86 +3065,86 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.007885203963408157</v>
+        <v>-0.01038524710340988</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02287726309903649</v>
+        <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
         <v>-0.0161215351408614</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02535847877433915</v>
+        <v>0.02535801490232059</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02763931635319053</v>
+        <v>0.007327466315021517</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0258654003750314</v>
+        <v>0.02605543286272392</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01808969832358793</v>
+        <v>-0.02060393679215747</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.01881061253349707</v>
+        <v>-0.009671330241027761</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0227873775834951</v>
+        <v>0.02285962430638497</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0227873775834951</v>
+        <v>0.02285962430638497</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0227873775834951</v>
+        <v>0.02285962430638497</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0227873775834951</v>
+        <v>0.02285962430638497</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.02303943106557724</v>
+        <v>0.02309908690796348</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02298758415150337</v>
+        <v>0.02305782121031284</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02298758415150337</v>
+        <v>0.02305782121031284</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02298758415150337</v>
+        <v>0.02305782121031284</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02298758415150337</v>
+        <v>0.02305782121031284</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.0281110125804405</v>
+        <v>-0.02720131827205272</v>
       </c>
       <c r="V29" t="n">
         <v>0.001946651885866075</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02807613712304548</v>
+        <v>0.02808047651521906</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01717594725482357</v>
+        <v>0.008631843836087342</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.008395747251859847</v>
+        <v>0.002611154889699549</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02682042808081712</v>
+        <v>0.02344332564173303</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0007280476131219045</v>
+        <v>-0.002415836736633469</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0007280476131219045</v>
+        <v>-0.002415836736633469</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0007280476131219045</v>
+        <v>-0.002415836736633469</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0007280476131219045</v>
+        <v>-0.002415836736633469</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3160,86 +3160,86 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01091935435677417</v>
+        <v>-0.01610317235612689</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0134206969143479</v>
+        <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
         <v>-0.001920357100814284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0087383650215346</v>
+        <v>0.00873785382151415</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0002561656961505645</v>
+        <v>-0.01447848690284953</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01036183721944717</v>
+        <v>0.01006089871126518</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.001894148235765929</v>
+        <v>-0.02071646434865857</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04100936535896101</v>
+        <v>-0.0415115931499799</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01062496573699863</v>
+        <v>0.01031970425278817</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01062496573699863</v>
+        <v>0.01031970425278817</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01062496573699863</v>
+        <v>0.01031970425278817</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01062496573699863</v>
+        <v>0.01031970425278817</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.009582205055288199</v>
+        <v>0.009296958131878325</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01090446590817864</v>
+        <v>0.01061639111265564</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01090446590817864</v>
+        <v>0.01061639111265564</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01090446590817864</v>
+        <v>0.01061639111265564</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01090446590817864</v>
+        <v>0.01061639111265564</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003482753899310156</v>
+        <v>0.0001310471092418843</v>
       </c>
       <c r="V30" t="n">
         <v>0.07343516664940666</v>
       </c>
       <c r="W30" t="n">
-        <v>0.004984851847394073</v>
+        <v>0.004974951750998068</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01081967229753554</v>
+        <v>0.005737900044888345</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.02087472238100876</v>
+        <v>0.0347861043521415</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.006719442796777711</v>
+        <v>-0.007669878450795137</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01637876465515059</v>
+        <v>0.02744629626585185</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01637876465515059</v>
+        <v>0.02744629626585185</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01637876465515059</v>
+        <v>0.02744629626585185</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01637876465515059</v>
+        <v>0.02744629626585185</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3255,86 +3255,86 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.003072357050894281</v>
+        <v>-0.002513623972544959</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.004356185954754735</v>
+        <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
         <v>-0.005010971432438857</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.004689046651561866</v>
+        <v>-0.004689366043574641</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0007427955637634127</v>
+        <v>0.01563824476676283</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.00415755088829766</v>
+        <v>-0.003502092621764709</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01894049182961967</v>
+        <v>0.01364598534583941</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0009875743151293453</v>
+        <v>-4.283697784713049e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.002328281853131273</v>
+        <v>-0.001852761194110448</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.002328281853131273</v>
+        <v>-0.001852761194110448</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.002328281853131273</v>
+        <v>-0.001852761194110448</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.002328281853131273</v>
+        <v>-0.001852761194110448</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.0005102989644119585</v>
+        <v>-0.0002201609368064374</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.002484749283389971</v>
+        <v>-0.001900023436000937</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.002484749283389971</v>
+        <v>-0.001900023436000937</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.002484749283389971</v>
+        <v>-0.001900023436000937</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.002484749283389971</v>
+        <v>-0.001900023436000937</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.006028703185148127</v>
+        <v>0.0003281334851253394</v>
       </c>
       <c r="V31" t="n">
         <v>-0.01361785062471402</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.006901929972077198</v>
+        <v>-0.006893246387729854</v>
       </c>
       <c r="X31" t="n">
-        <v>0.006475914622768006</v>
+        <v>-0.01515732684333571</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.0104651457996291</v>
+        <v>-0.02095157960011994</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.002406850560274022</v>
+        <v>-0.006130121909204876</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.006847143633885744</v>
+        <v>-0.01560662664026507</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.006847143633885744</v>
+        <v>-0.01560662664026507</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.006847143633885744</v>
+        <v>-0.01560662664026507</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.006847143633885744</v>
+        <v>-0.01560662664026507</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3350,86 +3350,86 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4909599612063984</v>
+        <v>0.4784105192004207</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01991910609017229</v>
+        <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
         <v>0.988370180238807</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9112128565125142</v>
+        <v>-0.9112129121925164</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.05611442813207774</v>
+        <v>-0.04590801344381824</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8865810005607988</v>
+        <v>-0.8869791849609174</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1255335969893439</v>
+        <v>-0.08692917160516686</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5049154120506659</v>
+        <v>0.5048175825837341</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9240761696670466</v>
+        <v>-0.9243928477597138</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9240761696670466</v>
+        <v>-0.9243928477597138</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.9240761696670466</v>
+        <v>-0.9243928477597138</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.9240761696670466</v>
+        <v>-0.9243928477597138</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.9396689372667573</v>
+        <v>-0.939811428920457</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.9193857262154288</v>
+        <v>-0.9197023071560921</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.9193857262154288</v>
+        <v>-0.9197023071560921</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.9193857262154288</v>
+        <v>-0.9197023071560921</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.9193857262154288</v>
+        <v>-0.9197023071560921</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.06210384267615369</v>
+        <v>-0.06776227471049098</v>
       </c>
       <c r="V32" t="n">
         <v>0.004861145186445807</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01817485128699405</v>
+        <v>0.01818710808748432</v>
       </c>
       <c r="X32" t="n">
-        <v>0.02241187301091152</v>
+        <v>0.01854506399336535</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1017488230947924</v>
+        <v>0.1074024031956493</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.02459604779984191</v>
+        <v>-0.0007568222702728907</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4470107277364291</v>
+        <v>0.4439169833246793</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.4470107277364291</v>
+        <v>0.4439169833246793</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4470107277364291</v>
+        <v>0.4439169833246793</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.4470107277364291</v>
+        <v>0.4439169833246793</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3445,86 +3445,86 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.006152579478103178</v>
+        <v>-0.007075818907032755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04757284441164074</v>
+        <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
         <v>-0.01240071150402846</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.002082814835312593</v>
+        <v>-0.002083428179337127</v>
       </c>
       <c r="G33" t="n">
-        <v>0.006711306621050334</v>
+        <v>-0.01016528443305834</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00179563389668726</v>
+        <v>0.002984770296823501</v>
       </c>
       <c r="I33" t="n">
-        <v>0.009862417930496716</v>
+        <v>0.004121467844858713</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.007365815217679883</v>
+        <v>0.009288580672523597</v>
       </c>
       <c r="K33" t="n">
-        <v>0.004692585211703408</v>
+        <v>0.005718220836728833</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004692585211703408</v>
+        <v>0.005718220836728833</v>
       </c>
       <c r="M33" t="n">
-        <v>0.004692585211703408</v>
+        <v>0.005718220836728833</v>
       </c>
       <c r="N33" t="n">
-        <v>0.004692585211703408</v>
+        <v>0.005718220836728833</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.005403427224137089</v>
+        <v>0.006178318711132747</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.004553686358147453</v>
+        <v>0.005667672802706911</v>
       </c>
       <c r="R33" t="n">
-        <v>0.004553686358147453</v>
+        <v>0.005667672802706911</v>
       </c>
       <c r="S33" t="n">
-        <v>0.004553686358147453</v>
+        <v>0.005667672802706911</v>
       </c>
       <c r="T33" t="n">
-        <v>0.004553686358147453</v>
+        <v>0.005667672802706911</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003871012954840517</v>
+        <v>0.01222811856912474</v>
       </c>
       <c r="V33" t="n">
         <v>-0.0259742850069714</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.02855327067813082</v>
+        <v>-0.02854878440595137</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0123292063831033</v>
+        <v>-0.002282996179294347</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.01216595943647804</v>
+        <v>-0.0212228582351013</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.01162269166490766</v>
+        <v>-0.005120823660832946</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01526994320279773</v>
+        <v>-0.02005049398601976</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01526994320279773</v>
+        <v>-0.02005049398601976</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.01526994320279773</v>
+        <v>-0.02005049398601976</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.01526994320279773</v>
+        <v>-0.02005049398601976</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3540,86 +3540,86 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00206020625840825</v>
+        <v>-0.0002865479154619166</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.007189173966882284</v>
+        <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
         <v>0.002441007073640282</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003215010464600418</v>
+        <v>-0.003215178656607146</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.006555627666265522</v>
+        <v>0.005294629230382073</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.001734661414219094</v>
+        <v>-0.001261172211052251</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02518424961536998</v>
+        <v>0.01805389464215578</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.06014022680244398</v>
+        <v>-0.05443196471510632</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001027463081098523</v>
+        <v>0.0005939689197587567</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0001027463081098523</v>
+        <v>0.0005939689197587567</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0001027463081098523</v>
+        <v>0.0005939689197587567</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0001027463081098523</v>
+        <v>0.0005939689197587567</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.0005303171732126869</v>
+        <v>-0.0001948041677921667</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0002597772583910903</v>
+        <v>0.0007407285416291416</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0002597772583910903</v>
+        <v>0.0007407285416291416</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0002597772583910903</v>
+        <v>0.0007407285416291416</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0002597772583910903</v>
+        <v>0.0007407285416291416</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01504128213765128</v>
+        <v>-0.01344031224961249</v>
       </c>
       <c r="V34" t="n">
         <v>-0.009006743016269719</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.004613381368535254</v>
+        <v>-0.00460981103239244</v>
       </c>
       <c r="X34" t="n">
-        <v>0.01454904278312436</v>
+        <v>-0.008925476113502263</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.008751104322244702</v>
+        <v>-0.002996653465304532</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01907017967480718</v>
+        <v>0.01595022236600889</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.005673163138926525</v>
+        <v>-0.00446272549050902</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.005673163138926525</v>
+        <v>-0.00446272549050902</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.005673163138926525</v>
+        <v>-0.00446272549050902</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.005673163138926525</v>
+        <v>-0.00446272549050902</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3635,86 +3635,86 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03361357056054282</v>
+        <v>-0.03050264080410563</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01381652941937795</v>
+        <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
         <v>-0.03093629355745174</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01575275035811001</v>
+        <v>0.0157522049820882</v>
       </c>
       <c r="G35" t="n">
-        <v>0.008129008775244638</v>
+        <v>-0.004505133492278051</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01420893023917749</v>
+        <v>0.01506434134580454</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.004493544851741794</v>
+        <v>0.005075173451006937</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.008464778961673827</v>
+        <v>-0.002735041221934977</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05167012421080495</v>
+        <v>0.05224547479381898</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05167012421080495</v>
+        <v>0.05224547479381898</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05167012421080495</v>
+        <v>0.05224547479381898</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05167012421080495</v>
+        <v>0.05224547479381898</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.0478072326642893</v>
+        <v>0.04835341105413644</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05227861917914476</v>
+        <v>0.05297565187902607</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05227861917914476</v>
+        <v>0.05297565187902607</v>
       </c>
       <c r="S35" t="n">
-        <v>0.05227861917914476</v>
+        <v>0.05297565187902607</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05227861917914476</v>
+        <v>0.05297565187902607</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01107673954706958</v>
+        <v>-0.003824348984973959</v>
       </c>
       <c r="V35" t="n">
         <v>-0.02233087721323508</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.03162379076895162</v>
+        <v>-0.03161786459271458</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.00348700218217274</v>
+        <v>-0.01096752545826265</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.006653547821335614</v>
+        <v>-0.008744833217990848</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01134356272574251</v>
+        <v>-0.00395894377435775</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.01619205597568223</v>
+        <v>-0.02802518358500734</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.01619205597568223</v>
+        <v>-0.02802518358500734</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.01619205597568223</v>
+        <v>-0.02802518358500734</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.01619205597568223</v>
+        <v>-0.02802518358500734</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3730,86 +3730,86 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.009766283814651352</v>
+        <v>-0.01159170171166807</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009775227629936562</v>
+        <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
         <v>0.01458790637551625</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01397580199903208</v>
+        <v>-0.0139752150550086</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01857848516385576</v>
+        <v>-0.02137378791773413</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.009498522336500184</v>
+        <v>-0.008558059066430229</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00999932526397301</v>
+        <v>0.004059954690398187</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003661210863892401</v>
+        <v>0.01186578075165247</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.01003921720156869</v>
+        <v>-0.009231297201251886</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.01003921720156869</v>
+        <v>-0.009231297201251886</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01003921720156869</v>
+        <v>-0.009231297201251886</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.01003921720156869</v>
+        <v>-0.009231297201251886</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.01119249145569966</v>
+        <v>-0.01056384589455383</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.009839114697564587</v>
+        <v>-0.009010242408409695</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.009839114697564587</v>
+        <v>-0.009010242408409695</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.009839114697564587</v>
+        <v>-0.009010242408409695</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.009839114697564587</v>
+        <v>-0.009010242408409695</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0260084702243388</v>
+        <v>0.03043423878536955</v>
       </c>
       <c r="V36" t="n">
         <v>0.008636100537444019</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.01057155056686202</v>
+        <v>-0.010576700007068</v>
       </c>
       <c r="X36" t="n">
-        <v>0.005797760391604278</v>
+        <v>0.01350759347793695</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.00690343035945086</v>
+        <v>-0.007531974352894322</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0004581631863265274</v>
+        <v>-0.01141570279262811</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.004051585698063427</v>
+        <v>-0.006717181420687256</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.004051585698063427</v>
+        <v>-0.006717181420687256</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.004051585698063427</v>
+        <v>-0.006717181420687256</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.004051585698063427</v>
+        <v>-0.006717181420687256</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3825,86 +3825,86 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.003202078976083158</v>
+        <v>0.0008992859879714394</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001529389524964083</v>
+        <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
         <v>0.002988825335553013</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002181206103248244</v>
+        <v>0.002181615159264606</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.002562408746068044</v>
+        <v>0.021560820068664</v>
       </c>
       <c r="H37" t="n">
-        <v>0.003298146949508988</v>
+        <v>0.002977817016542033</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02004614211384568</v>
+        <v>0.02241558924862357</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01262881336752554</v>
+        <v>0.009913758475481265</v>
       </c>
       <c r="K37" t="n">
-        <v>0.00683646900945876</v>
+        <v>0.006569309350772374</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00683646900945876</v>
+        <v>0.006569309350772374</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00683646900945876</v>
+        <v>0.006569309350772374</v>
       </c>
       <c r="N37" t="n">
-        <v>0.00683646900945876</v>
+        <v>0.006569309350772374</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.005272077138883086</v>
+        <v>0.005005734056229362</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.007152627070105081</v>
+        <v>0.006983851671354066</v>
       </c>
       <c r="R37" t="n">
-        <v>0.007152627070105081</v>
+        <v>0.006983851671354066</v>
       </c>
       <c r="S37" t="n">
-        <v>0.007152627070105081</v>
+        <v>0.006983851671354066</v>
       </c>
       <c r="T37" t="n">
-        <v>0.007152627070105081</v>
+        <v>0.006983851671354066</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009936890413475615</v>
+        <v>0.01347598853903954</v>
       </c>
       <c r="V37" t="n">
         <v>-0.001433513145340526</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01319642903985716</v>
+        <v>0.01320523771220951</v>
       </c>
       <c r="X37" t="n">
-        <v>0.005461048599926337</v>
+        <v>-0.01909449408951984</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.01478626715854809</v>
+        <v>-0.02909402901772629</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.007282750563310021</v>
+        <v>-0.01753676297347052</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.008140384069615361</v>
+        <v>-0.02417901648716066</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.008140384069615361</v>
+        <v>-0.02417901648716066</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.008140384069615361</v>
+        <v>-0.02417901648716066</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.008140384069615361</v>
+        <v>-0.02417901648716066</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
@@ -3920,86 +3920,86 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.0008144853445794138</v>
+        <v>0.004495037459801498</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001087472158502134</v>
+        <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
         <v>-0.01617741991109679</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009174880590995221</v>
+        <v>0.009174601998984079</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01145224762930503</v>
+        <v>-0.01992650718550053</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01053320058638396</v>
+        <v>0.01023619059036099</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01138708567148343</v>
+        <v>0.01066778893871156</v>
       </c>
       <c r="J38" t="n">
-        <v>0.00463998351463736</v>
+        <v>-0.001394890668147686</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01291555405262216</v>
+        <v>0.01266458633058345</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01291555405262216</v>
+        <v>0.01266458633058345</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01291555405262216</v>
+        <v>0.01266458633058345</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01291555405262216</v>
+        <v>0.01266458633058345</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.01363523968140958</v>
+        <v>0.0134345274813811</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01283251990530079</v>
+        <v>0.01259198968767958</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01283251990530079</v>
+        <v>0.01259198968767958</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01283251990530079</v>
+        <v>0.01259198968767958</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01283251990530079</v>
+        <v>0.01259198968767958</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01781690231267609</v>
+        <v>0.007358178150327125</v>
       </c>
       <c r="V38" t="n">
         <v>-0.009822368744894748</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006653514314140572</v>
+        <v>0.006655572458222897</v>
       </c>
       <c r="X38" t="n">
-        <v>0.00621694286169135</v>
+        <v>0.01647626862753466</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.02833740777109826</v>
+        <v>-0.006880454966520817</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.01827086674683467</v>
+        <v>-0.01605548377821935</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.02537905983116239</v>
+        <v>-0.006940399573615982</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.02537905983116239</v>
+        <v>-0.006940399573615982</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.02537905983116239</v>
+        <v>-0.006940399573615982</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.02537905983116239</v>
+        <v>-0.006940399573615982</v>
       </c>
       <c r="AE38" t="inlineStr"/>
     </row>
@@ -4015,86 +4015,86 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01263111093724444</v>
+        <v>0.01454719094988764</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004349642093161304</v>
+        <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
         <v>0.002336542749461709</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.006650188394007535</v>
+        <v>-0.006649719625988784</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.03181759617275282</v>
+        <v>0.01013419925620317</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01225246225597967</v>
+        <v>-0.01214769898773885</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.02393392828535713</v>
+        <v>-0.00929600801984032</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.02034815412064458</v>
+        <v>-0.02632454739111448</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0003611543184461727</v>
+        <v>0.0005189261967570478</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0003611543184461727</v>
+        <v>0.0005189261967570478</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0003611543184461727</v>
+        <v>0.0005189261967570478</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0003611543184461727</v>
+        <v>0.0005189261967570478</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.0001644837185793487</v>
+        <v>0.000285740651429626</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0004897140675885626</v>
+        <v>0.0007244753569790142</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0004897140675885626</v>
+        <v>0.0007244753569790142</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0004897140675885626</v>
+        <v>0.0007244753569790142</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0004897140675885626</v>
+        <v>0.0007244753569790142</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02213438690137547</v>
+        <v>0.01480954110438164</v>
       </c>
       <c r="V39" t="n">
         <v>0.009795346375813854</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.002630497737219909</v>
+        <v>-0.002624324552972982</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02010404873761297</v>
+        <v>-0.01326018231401609</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.003684747317158571</v>
+        <v>0.00944458425431677</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.008839239809569592</v>
+        <v>0.004268262794730512</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.03866728676269147</v>
+        <v>-0.03147437357897494</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.03866728676269147</v>
+        <v>-0.03147437357897494</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.03866728676269147</v>
+        <v>-0.03147437357897494</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.03866728676269147</v>
+        <v>-0.03147437357897494</v>
       </c>
       <c r="AE39" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -730,90 +730,90 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.01575181042207241</v>
+        <v>0.1549834546153382</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04212653899706156</v>
+        <v>0.3312091987203679</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01425421823416873</v>
+        <v>-0.01425074140202965</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002034002850773656</v>
+        <v>-0.02123316525690416</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04364604522279191</v>
+        <v>0.116477558141579</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006864392914575716</v>
+        <v>-0.02976387978255519</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07952638581317775</v>
+        <v>-0.1260025184282526</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.02887387920295516</v>
+        <v>0.03860969434438777</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02887387920295516</v>
+        <v>0.03860969434438777</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.02887387920295516</v>
+        <v>0.03860969434438777</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02887387920295516</v>
+        <v>0.03860969434438777</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.01973817918952717</v>
+        <v>-0.01699381277575251</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03085892792235712</v>
+        <v>0.04853137202125487</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.03085892792235712</v>
+        <v>0.04853137202125487</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.03085892792235712</v>
+        <v>0.04853137202125487</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03085892792235712</v>
+        <v>0.04853137202125487</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.07298648067945922</v>
+        <v>0.2590807576272303</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.4286535449861418</v>
+        <v>0.9698153625686143</v>
       </c>
       <c r="W4" t="n">
-        <v>0.009053462954138516</v>
+        <v>0.009094089387763574</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.01584411766239622</v>
+        <v>-0.07461417677280648</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.02338491080262119</v>
+        <v>0.2297587081937931</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06935295119011804</v>
+        <v>-0.1522102139924085</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.002224178968967159</v>
+        <v>0.212706727260269</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.002224178968967159</v>
+        <v>0.212706727260269</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.002224178968967159</v>
+        <v>0.212706727260269</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.002224178968967159</v>
+        <v>0.212706727260269</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -821,90 +821,90 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07379249363969974</v>
+        <v>-0.001917524812700992</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1280246692169867</v>
+        <v>-0.05706247745049909</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01283894537755781</v>
+        <v>-0.01283977884959115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01196232987516509</v>
+        <v>0.005184755651205393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04719078440628294</v>
+        <v>-0.04389162885608204</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009413031928521274</v>
+        <v>-0.002243082713723309</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03521911827064838</v>
+        <v>0.01359674036261777</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01369910521996421</v>
+        <v>-0.02929610382784415</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01369910521996421</v>
+        <v>-0.02929610382784415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01369910521996421</v>
+        <v>-0.02929610382784415</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01369910521996421</v>
+        <v>-0.02929610382784415</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.005463544154541766</v>
+        <v>-0.0171794225431769</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01774240026169601</v>
+        <v>-0.03157420647896825</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01774240026169601</v>
+        <v>-0.03157420647896825</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01774240026169601</v>
+        <v>-0.03157420647896825</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01774240026169601</v>
+        <v>-0.03157420647896825</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08494537856581513</v>
+        <v>-0.06947217618688704</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8200616502424658</v>
+        <v>-0.185697551171902</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.003414767656590705</v>
+        <v>-0.003434720873388834</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.008231902144604789</v>
+        <v>0.02431168070439989</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1504603471146348</v>
+        <v>-0.04285518994619035</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.00862613276104531</v>
+        <v>0.0469500349980014</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1088543923541757</v>
+        <v>-0.033402050200082</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1088543923541757</v>
+        <v>-0.033402050200082</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1088543923541757</v>
+        <v>-0.033402050200082</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1088543923541757</v>
+        <v>-0.033402050200082</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -916,86 +916,86 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2346266598490664</v>
+        <v>0.2325736522469461</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00242753424110137</v>
+        <v>-0.007304594980183798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003678109683124387</v>
+        <v>0.003676187955047518</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005337390737706576</v>
+        <v>0.0005359871438871754</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004798817282256122</v>
+        <v>0.007517450847212882</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5668062604962504</v>
+        <v>-0.5655045510361819</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004054252254819357</v>
+        <v>0.006441273781902316</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005466276890651075</v>
+        <v>0.007435870761434829</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005466276890651075</v>
+        <v>0.007435870761434829</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005466276890651075</v>
+        <v>0.007435870761434829</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005466276890651075</v>
+        <v>0.007435870761434829</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.005337096789483871</v>
+        <v>0.006596755943870237</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005498864571954583</v>
+        <v>0.007470131914805275</v>
       </c>
       <c r="R6" t="n">
-        <v>0.005498864571954583</v>
+        <v>0.007470131914805275</v>
       </c>
       <c r="S6" t="n">
-        <v>0.005498864571954583</v>
+        <v>0.007470131914805275</v>
       </c>
       <c r="T6" t="n">
-        <v>0.005498864571954583</v>
+        <v>0.007470131914805275</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01287328601893144</v>
+        <v>-0.0129334201333368</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02525779435431177</v>
+        <v>-0.001332784277311371</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01206309465852379</v>
+        <v>-0.01206252393850095</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01560079484487303</v>
+        <v>0.01526421203997186</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01071681355381661</v>
+        <v>-0.004664319327963686</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1137337377973495</v>
+        <v>0.1139551822542073</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.004509204660368186</v>
+        <v>-0.008085580259423211</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.004509204660368186</v>
+        <v>-0.008085580259423211</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.004509204660368186</v>
+        <v>-0.008085580259423211</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.004509204660368186</v>
+        <v>-0.008085580259423211</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -1007,86 +1007,86 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.009855670378226815</v>
+        <v>0.004905241348209653</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01064945476197819</v>
+        <v>0.007089713179588526</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006493028995721159</v>
+        <v>-0.006492300355692013</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01093901087884279</v>
+        <v>-0.006527831729742047</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01123645715885178</v>
+        <v>-0.01403682694802267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.007727893653115745</v>
+        <v>-0.007555183118207324</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.009889816746448897</v>
+        <v>-0.003324304559423796</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01211558381262335</v>
+        <v>-0.01471664276466571</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01211558381262335</v>
+        <v>-0.01471664276466571</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01211558381262335</v>
+        <v>-0.01471664276466571</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01211558381262335</v>
+        <v>-0.01471664276466571</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.01229900785196031</v>
+        <v>-0.01342311125692445</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01223057847322314</v>
+        <v>-0.01483971524958861</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01223057847322314</v>
+        <v>-0.01483971524958861</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01223057847322314</v>
+        <v>-0.01483971524958861</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01223057847322314</v>
+        <v>-0.01483971524958861</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02338141859925674</v>
+        <v>0.004214448840577953</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002396257535850301</v>
+        <v>-0.01399276049571042</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01195600963024038</v>
+        <v>0.01195833839833354</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01594042421812919</v>
+        <v>-0.01342850058571284</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.02158722432985084</v>
+        <v>0.01704383819118292</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.009754554918182196</v>
+        <v>0.0132065600162624</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01324096910563876</v>
+        <v>0.01301598791263951</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.01324096910563876</v>
+        <v>0.01301598791263951</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.01324096910563876</v>
+        <v>0.01301598791263951</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01324096910563876</v>
+        <v>0.01301598791263951</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1098,86 +1098,86 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2104381385935255</v>
+        <v>0.2077382438935297</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001269072530762901</v>
+        <v>-0.002991709463668378</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004365349998614</v>
+        <v>-0.004364375310575011</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003728411140160594</v>
+        <v>0.02118457454039259</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.00279378904109258</v>
+        <v>-0.0007136004198876176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7271350912294035</v>
+        <v>0.7268851450434057</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.008432553435611704</v>
+        <v>0.003108712358122286</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0009661780226471208</v>
+        <v>0.0003128631485145259</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0009661780226471208</v>
+        <v>0.0003128631485145259</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0009661780226471208</v>
+        <v>0.0003128631485145259</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0009661780226471208</v>
+        <v>0.0003128631485145259</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>-0.0005385958295438332</v>
+        <v>0.0003455117898204716</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.001011294280451771</v>
+        <v>0.0003290508611620344</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.001011294280451771</v>
+        <v>0.0003290508611620344</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.001011294280451771</v>
+        <v>0.0003290508611620344</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.001011294280451771</v>
+        <v>0.0003290508611620344</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01667153394686136</v>
+        <v>-0.01126600547464022</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.002442192289687691</v>
+        <v>-0.0001794434951777398</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02265189373807575</v>
+        <v>-0.02265223300208932</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002644106334829023</v>
+        <v>-0.01171061968536434</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.003296146117427995</v>
+        <v>-0.009644653865873369</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.1255520325420813</v>
+        <v>-0.1437329413333176</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.003700017940000717</v>
+        <v>-0.008649172953966916</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.003700017940000717</v>
+        <v>-0.008649172953966916</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.003700017940000717</v>
+        <v>-0.008649172953966916</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.003700017940000717</v>
+        <v>-0.008649172953966916</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1193,86 +1193,86 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.637097153611886</v>
+        <v>0.6397623208864929</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002560814982432599</v>
+        <v>-0.002211066424442657</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01482452478498099</v>
+        <v>-0.0148253700650148</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0008382829505320991</v>
+        <v>-0.0008451525952242655</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0185614302553667</v>
+        <v>-0.01722756571521924</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.694617867784714e-05</v>
+        <v>0.0003913587996543519</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02162285517237751</v>
+        <v>-0.004351159771726437</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0157494900059796</v>
+        <v>-0.01511758620470345</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0157494900059796</v>
+        <v>-0.01511758620470345</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0157494900059796</v>
+        <v>-0.01511758620470345</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0157494900059796</v>
+        <v>-0.01511758620470345</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01488477054739082</v>
+        <v>-0.01364028870561155</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01620275152811006</v>
+        <v>-0.0154406400416256</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01620275152811006</v>
+        <v>-0.0154406400416256</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01620275152811006</v>
+        <v>-0.0154406400416256</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01620275152811006</v>
+        <v>-0.0154406400416256</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3437038949961557</v>
+        <v>-0.3381146963405878</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003666777458671097</v>
+        <v>-0.004245302089812083</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01159674843186994</v>
+        <v>-0.01159417918376716</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02330952203365202</v>
+        <v>0.005147487650720961</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.03134539922086176</v>
+        <v>-0.01492254095862704</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.02801897680075906</v>
+        <v>-0.02470277897211116</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.02699526962381078</v>
+        <v>-0.01587627452305098</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.02699526962381078</v>
+        <v>-0.01587627452305098</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.02699526962381078</v>
+        <v>-0.01587627452305098</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.02699526962381078</v>
+        <v>-0.01587627452305098</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1288,86 +1288,86 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.353353552246142</v>
+        <v>0.3302344354173773</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02947424661896986</v>
+        <v>0.02966605549064221</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03076179559847182</v>
+        <v>-0.03076138097445524</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001759841934533353</v>
+        <v>-0.009657713233657507</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03279047508735843</v>
+        <v>-0.03177009947648111</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01660647743225909</v>
+        <v>-0.01751635519665421</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01510780687544863</v>
+        <v>-0.005550106463453793</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03423932220157289</v>
+        <v>-0.03370203005208119</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03423932220157289</v>
+        <v>-0.03370203005208119</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03423932220157289</v>
+        <v>-0.03370203005208119</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03423932220157289</v>
+        <v>-0.03370203005208119</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.03409403579576142</v>
+        <v>-0.0345697900227916</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03427045970681838</v>
+        <v>-0.03363504480140179</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03427045970681838</v>
+        <v>-0.03363504480140179</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.03427045970681838</v>
+        <v>-0.03363504480140179</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03427045970681838</v>
+        <v>-0.03363504480140179</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6937523187900927</v>
+        <v>0.5834002728080109</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004888741443549657</v>
+        <v>0.0002455888418235536</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01797714561508582</v>
+        <v>-0.01797311879892475</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01448546271500909</v>
+        <v>0.03193731019311345</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.002823427890292361</v>
+        <v>0.02045485664546298</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0116894799235792</v>
+        <v>0.03857268221490729</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002078490419139617</v>
+        <v>0.02660156650406266</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002078490419139617</v>
+        <v>0.02660156650406266</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002078490419139617</v>
+        <v>0.02660156650406266</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002078490419139617</v>
+        <v>0.02660156650406266</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1383,86 +1383,86 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.0008234497289379891</v>
+        <v>-0.05287459805098391</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001628210849128434</v>
+        <v>-0.004539205909568236</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0002151505046060202</v>
+        <v>-0.0002160553046422122</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.009158539044429183</v>
+        <v>0.004701316314056028</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009849685838715281</v>
+        <v>-0.002481128462476079</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01483357144134286</v>
+        <v>0.0148032875681315</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006199336299315381</v>
+        <v>0.00430979140194164</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0001295377011815081</v>
+        <v>-0.001057493322299733</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0001295377011815081</v>
+        <v>-0.001057493322299733</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0001295377011815081</v>
+        <v>-0.001057493322299733</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0001295377011815081</v>
+        <v>-0.001057493322299733</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.0003806179352247174</v>
+        <v>0.0003937131997485279</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.274112050964482e-05</v>
+        <v>-0.001167773518710941</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.274112050964482e-05</v>
+        <v>-0.001167773518710941</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.274112050964482e-05</v>
+        <v>-0.001167773518710941</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.274112050964482e-05</v>
+        <v>-0.001167773518710941</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01899104360764174</v>
+        <v>0.1307931270237251</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.009074836586993464</v>
+        <v>-0.01393102279724091</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009799163143966524</v>
+        <v>0.00979518451980738</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.006621392321812486</v>
+        <v>-0.004107769204248539</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01087343794415677</v>
+        <v>0.01258520728047748</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.003336740101469603</v>
+        <v>0.003200814368032575</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.0189972599918904</v>
+        <v>0.01228770788350832</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.0189972599918904</v>
+        <v>0.01228770788350832</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0189972599918904</v>
+        <v>0.01228770788350832</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0189972599918904</v>
+        <v>0.01228770788350832</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1478,86 +1478,86 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.002847149681885987</v>
+        <v>-0.0008294724811788992</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009684545763381829</v>
+        <v>0.01388546090741843</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.004771635166865407</v>
+        <v>-0.004771534558861382</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03340029289200645</v>
+        <v>0.006373931666782662</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.00785132460582162</v>
+        <v>-0.005929951365418859</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0007247663329906532</v>
+        <v>-0.0009827098953083956</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003108404966034422</v>
+        <v>-0.003235973707612849</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009135815405432615</v>
+        <v>-0.009291986963679477</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.009135815405432615</v>
+        <v>-0.009291986963679477</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.009135815405432615</v>
+        <v>-0.009291986963679477</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.009135815405432615</v>
+        <v>-0.009291986963679477</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.008955592294223691</v>
+        <v>-0.00989352029974081</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.009151691790067671</v>
+        <v>-0.009123803980952158</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.009151691790067671</v>
+        <v>-0.009123803980952158</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.009151691790067671</v>
+        <v>-0.009123803980952158</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.009151691790067671</v>
+        <v>-0.009123803980952158</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006816361136654446</v>
+        <v>-0.001547967709918708</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.01520427776017111</v>
+        <v>0.008001849824073991</v>
       </c>
       <c r="W12" t="n">
-        <v>0.009400100632004024</v>
+        <v>0.009396169239846769</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02921807254197613</v>
+        <v>-0.01381057713094178</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.009228108853553844</v>
+        <v>0.02778611871176416</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.007106530268261209</v>
+        <v>0.002220348088813923</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.006915153204606127</v>
+        <v>0.03151354062054162</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006915153204606127</v>
+        <v>0.03151354062054162</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006915153204606127</v>
+        <v>0.03151354062054162</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006915153204606127</v>
+        <v>0.03151354062054162</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1569,86 +1569,86 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2583874496314979</v>
+        <v>-0.2525049152841966</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01445691168227647</v>
+        <v>0.02062559285702371</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007502618700104747</v>
+        <v>-0.007503281004131239</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002196896488798079</v>
+        <v>-0.01558145386848588</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0069019367913904</v>
+        <v>-0.005682577185119544</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.002464931138597245</v>
+        <v>-0.004058725986349039</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004615831735034664</v>
+        <v>0.01158002560360862</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.009332277397291096</v>
+        <v>-0.009184309615372383</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.009332277397291096</v>
+        <v>-0.009184309615372383</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009332277397291096</v>
+        <v>-0.009184309615372383</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.009332277397291096</v>
+        <v>-0.009184309615372383</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.009429307673172306</v>
+        <v>-0.01095239851809594</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.00907090529083621</v>
+        <v>-0.008797563327902531</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.00907090529083621</v>
+        <v>-0.008797563327902531</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.00907090529083621</v>
+        <v>-0.008797563327902531</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.00907090529083621</v>
+        <v>-0.008797563327902531</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006428367713134707</v>
+        <v>0.001155533230221329</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01323303278532131</v>
+        <v>0.01389075559563022</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00764635902585436</v>
+        <v>0.007648979921959196</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02083729772620467</v>
+        <v>-0.002953273295027167</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002026678738039955</v>
+        <v>0.01802002979761046</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01871272404450896</v>
+        <v>0.02356752583870103</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.003506264492250579</v>
+        <v>0.0227798550231942</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003506264492250579</v>
+        <v>0.0227798550231942</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003506264492250579</v>
+        <v>0.0227798550231942</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003506264492250579</v>
+        <v>0.0227798550231942</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1664,86 +1664,86 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.002878043443121737</v>
+        <v>-0.001289467347578694</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004929581477183259</v>
+        <v>0.006856941490277659</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006797906287916251</v>
+        <v>0.006799005199960206</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01154559170287556</v>
+        <v>0.007607007586381535</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009138781329937867</v>
+        <v>0.009503680180366092</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01802599195303968</v>
+        <v>-0.01863749844149994</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02832679178145126</v>
+        <v>0.03053697558948728</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006509756900390275</v>
+        <v>0.006951120182044806</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006509756900390275</v>
+        <v>0.006951120182044806</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006509756900390275</v>
+        <v>0.006951120182044806</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006509756900390275</v>
+        <v>0.006951120182044806</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.005496305307852212</v>
+        <v>0.00514360225374409</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.006768538254741529</v>
+        <v>0.007237149217485968</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006768538254741529</v>
+        <v>0.007237149217485968</v>
       </c>
       <c r="S14" t="n">
-        <v>0.006768538254741529</v>
+        <v>0.007237149217485968</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006768538254741529</v>
+        <v>0.007237149217485968</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02755271879810875</v>
+        <v>0.02364899729795989</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.009163390062535602</v>
+        <v>-0.002110712916428516</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0251605476944219</v>
+        <v>0.02516494123059765</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02018158177127879</v>
+        <v>-0.01769920459166721</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.007196151747300222</v>
+        <v>0.003524195643180139</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.009318980916759236</v>
+        <v>-0.002372130046885201</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0117650524706021</v>
+        <v>0.004548612469944498</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0117650524706021</v>
+        <v>0.004548612469944498</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0117650524706021</v>
+        <v>0.004548612469944498</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0117650524706021</v>
+        <v>0.004548612469944498</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1759,86 +1759,86 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01996692387067695</v>
+        <v>-0.01446970531478821</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005914865612594624</v>
+        <v>0.003152274462090978</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.004800023040000921</v>
+        <v>-0.004798475039939001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02942772721462989</v>
+        <v>-0.0004384597583925075</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.004082456805257852</v>
+        <v>-0.002914077390211779</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007586830479473219</v>
+        <v>0.008229381449175257</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.008430816699536816</v>
+        <v>-0.02033021770912691</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.003180432127217284</v>
+        <v>-0.002665171786606871</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.003180432127217284</v>
+        <v>-0.002665171786606871</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.003180432127217284</v>
+        <v>-0.002665171786606871</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.003180432127217284</v>
+        <v>-0.002665171786606871</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.004165232710609308</v>
+        <v>-0.00366147950645918</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.003088081371523254</v>
+        <v>-0.002594087623763505</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003088081371523254</v>
+        <v>-0.002594087623763505</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.003088081371523254</v>
+        <v>-0.002594087623763505</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.003088081371523254</v>
+        <v>-0.002594087623763505</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.04701124604044983</v>
+        <v>-0.05396164142246566</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0005753493350139732</v>
+        <v>0.001120941068837643</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.004460671570426862</v>
+        <v>-0.004461932050477282</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.01838714599150334</v>
+        <v>-0.006192142006775874</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.00902018753313719</v>
+        <v>-0.0005369483485192278</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.006222679064907162</v>
+        <v>-0.01169511022780441</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.01553193076527723</v>
+        <v>0.002999669591986783</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.01553193076527723</v>
+        <v>0.002999669591986783</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.01553193076527723</v>
+        <v>0.002999669591986783</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.01553193076527723</v>
+        <v>0.002999669591986783</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1854,86 +1854,86 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.001684355299374212</v>
+        <v>-0.001051640778065631</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003328181413127256</v>
+        <v>0.003748711157948445</v>
       </c>
       <c r="F16" t="n">
-        <v>0.007518664236746568</v>
+        <v>0.007516970988678839</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01775922090964694</v>
+        <v>-0.009178335227011942</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01325815196068999</v>
+        <v>0.01250638466831155</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01372953222918129</v>
+        <v>-0.01370111325204453</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02693102554526582</v>
+        <v>0.03687203707880717</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01276104607844184</v>
+        <v>0.01299221072768843</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01276104607844184</v>
+        <v>0.01299221072768843</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01276104607844184</v>
+        <v>0.01299221072768843</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01276104607844184</v>
+        <v>0.01299221072768843</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.0106976774839071</v>
+        <v>0.01061011616840465</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01312403908496156</v>
+        <v>0.01319395732775829</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01312403908496156</v>
+        <v>0.01319395732775829</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01312403908496156</v>
+        <v>0.01319395732775829</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01312403908496156</v>
+        <v>0.01319395732775829</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01323729489749179</v>
+        <v>0.007885366395414655</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0005865618474624738</v>
+        <v>1.510060860402434e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02793992185359687</v>
+        <v>0.02793952546958102</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01694692079803961</v>
+        <v>-0.01960360750659515</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01246534389659712</v>
+        <v>-1.284951105286929e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.007820921304836852</v>
+        <v>0.004313532652541305</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.003969286526771461</v>
+        <v>0.004518933492757339</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.003969286526771461</v>
+        <v>0.004518933492757339</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.003969286526771461</v>
+        <v>0.004518933492757339</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.003969286526771461</v>
+        <v>0.004518933492757339</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1949,86 +1949,86 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.07209450374778015</v>
+        <v>-0.07236622379064894</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005135567245422689</v>
+        <v>0.006882963923318556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00153915375756615</v>
+        <v>0.001539288925571557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02596597215585705</v>
+        <v>-0.006978324674670772</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.003516745294357849</v>
+        <v>-0.001898175598173767</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01294514730180589</v>
+        <v>-0.0132930351877214</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005972577617537548</v>
+        <v>0.006335755569349837</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.004472342386893695</v>
+        <v>-0.003725135285005411</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.004472342386893695</v>
+        <v>-0.003725135285005411</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.004472342386893695</v>
+        <v>-0.003725135285005411</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.004472342386893695</v>
+        <v>-0.003725135285005411</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.005290350739614029</v>
+        <v>-0.005492935131717404</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.00460806901632276</v>
+        <v>-0.0038039050161562</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.00460806901632276</v>
+        <v>-0.0038039050161562</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00460806901632276</v>
+        <v>-0.0038039050161562</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.00460806901632276</v>
+        <v>-0.0038039050161562</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.06553002194920088</v>
+        <v>-0.03920140332805613</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.005590315231612609</v>
+        <v>0.006862172242486889</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02428595453943818</v>
+        <v>0.02428599879543995</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.01776795586768336</v>
+        <v>-0.007856834240432098</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02763506540666744</v>
+        <v>-0.02098261650661475</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02706090722643629</v>
+        <v>0.006085987731439508</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02706018578640743</v>
+        <v>-0.02158676284747051</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02706018578640743</v>
+        <v>-0.02158676284747051</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02706018578640743</v>
+        <v>-0.02158676284747051</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.02706018578640743</v>
+        <v>-0.02158676284747051</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -2040,86 +2040,86 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.009550647454025897</v>
+        <v>0.001347239669889587</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006752012814080512</v>
+        <v>0.02561470201658808</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004334359853374394</v>
+        <v>0.0004349771693990867</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02617410628357838</v>
+        <v>-0.008775267164017714</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.003333624230945109</v>
+        <v>0.005757214039648973</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.00234583977383359</v>
+        <v>-0.004255863530234541</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.001510373585127309</v>
+        <v>-0.002088435162103447</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.005274397746975909</v>
+        <v>-0.0005173852046954081</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.005274397746975909</v>
+        <v>-0.0005173852046954081</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.005274397746975909</v>
+        <v>-0.0005173852046954081</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.005274397746975909</v>
+        <v>-0.0005173852046954081</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.005772709958908397</v>
+        <v>-0.004822879296915171</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.005280520915220836</v>
+        <v>0.0002073566482942659</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.005280520915220836</v>
+        <v>0.0002073566482942659</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.005280520915220836</v>
+        <v>0.0002073566482942659</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.005280520915220836</v>
+        <v>0.0002073566482942659</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01705916967436678</v>
+        <v>0.001586843775473751</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.0302215776568631</v>
+        <v>0.04364819809792791</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0300405552496222</v>
+        <v>0.030038374993535</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.02644081945888544</v>
+        <v>-0.01874155833686249</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.00430048443008361</v>
+        <v>0.01490431148852409</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01774041594161663</v>
+        <v>0.002915273204610928</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.006964140470565617</v>
+        <v>0.01480655704026228</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.006964140470565617</v>
+        <v>0.01480655704026228</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.006964140470565617</v>
+        <v>0.01480655704026228</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.006964140470565617</v>
+        <v>0.01480655704026228</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2135,86 +2135,86 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04721997596879903</v>
+        <v>-0.04880577843223113</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01799115153564606</v>
+        <v>0.01141795447271818</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01463142365725694</v>
+        <v>-0.01463063741722549</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01693112857678209</v>
+        <v>0.03179128287724287</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01109076361695411</v>
+        <v>-0.01236478946013754</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1641553706302148</v>
+        <v>0.1612117661924706</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007491535139034996</v>
+        <v>0.01645245771782484</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.013349600021984</v>
+        <v>-0.01220675376827015</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.013349600021984</v>
+        <v>-0.01220675376827015</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.013349600021984</v>
+        <v>-0.01220675376827015</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.013349600021984</v>
+        <v>-0.01220675376827015</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01357902428716097</v>
+        <v>-0.01291532365261295</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01312319102092764</v>
+        <v>-0.01222281773691271</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01312319102092764</v>
+        <v>-0.01222281773691271</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01312319102092764</v>
+        <v>-0.01222281773691271</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01312319102092764</v>
+        <v>-0.01222281773691271</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02748129373925175</v>
+        <v>-0.02228242293929691</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01796558241462329</v>
+        <v>-0.0117161525646461</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.0007697118067884721</v>
+        <v>-0.0007647144305885771</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01190201543624467</v>
+        <v>-0.01214959775475436</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02004115828326609</v>
+        <v>0.007303903149083735</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1335831877113275</v>
+        <v>0.1100281353451254</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02056249714249988</v>
+        <v>0.01735125179805007</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02056249714249988</v>
+        <v>0.01735125179805007</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02056249714249988</v>
+        <v>0.01735125179805007</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02056249714249988</v>
+        <v>0.01735125179805007</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2230,86 +2230,86 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01404808894592356</v>
+        <v>-0.01372648874105955</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01275504396620176</v>
+        <v>0.0165940876717635</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1453175021327001</v>
+        <v>0.1453157968846319</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01238224298197456</v>
+        <v>-0.002509828919525271</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1385844681058993</v>
+        <v>0.1317000570731565</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03252913627716544</v>
+        <v>0.03094299915771996</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08428455085034985</v>
+        <v>0.07027587927198252</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1003414676936587</v>
+        <v>0.09757078873483153</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1003414676936587</v>
+        <v>0.09757078873483153</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1003414676936587</v>
+        <v>0.09757078873483153</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1003414676936587</v>
+        <v>0.09757078873483153</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.089959375342375</v>
+        <v>0.08670144260405768</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1030642348745694</v>
+        <v>0.1000697825947913</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1030642348745694</v>
+        <v>0.1000697825947913</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1030642348745694</v>
+        <v>0.1000697825947913</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1030642348745694</v>
+        <v>0.1000697825947913</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02108754717950188</v>
+        <v>0.03269452546778102</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.005361268822450752</v>
+        <v>0.01342127103285084</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3625453975738159</v>
+        <v>0.3625489662779586</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.00610227217274444</v>
+        <v>-0.04213284703105906</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04780290337506152</v>
+        <v>0.01539236519555751</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01880206548808262</v>
+        <v>-0.008745964573838583</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.06586372161054886</v>
+        <v>0.04643383452935337</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06586372161054886</v>
+        <v>0.04643383452935337</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06586372161054886</v>
+        <v>0.04643383452935337</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.06586372161054886</v>
+        <v>0.04643383452935337</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2321,86 +2321,86 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01291793715671749</v>
+        <v>-0.01122641104105644</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01678073769522951</v>
+        <v>0.01456979962279198</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01565798597031944</v>
+        <v>-0.01565796139431845</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003179782938559173</v>
+        <v>-0.02990860993117662</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01554371640520964</v>
+        <v>-0.01716247917856621</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01834769564590782</v>
+        <v>0.01752306934092277</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02009395291445125</v>
+        <v>0.005095218411828102</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01630428862017154</v>
+        <v>-0.01818453058338122</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01630428862017154</v>
+        <v>-0.01818453058338122</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01630428862017154</v>
+        <v>-0.01818453058338122</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01630428862017154</v>
+        <v>-0.01818453058338122</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.01682260598490424</v>
+        <v>-0.01775970359038814</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01628385319535413</v>
+        <v>-0.01820596911223876</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01628385319535413</v>
+        <v>-0.01820596911223876</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01628385319535413</v>
+        <v>-0.01820596911223876</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01628385319535413</v>
+        <v>-0.01820596911223876</v>
       </c>
       <c r="U21" t="n">
-        <v>0.002681041451241658</v>
+        <v>-0.008850374658014986</v>
       </c>
       <c r="V21" t="n">
-        <v>0.001770357958814318</v>
+        <v>0.006500491652019665</v>
       </c>
       <c r="W21" t="n">
-        <v>0.007724232980969318</v>
+        <v>0.007724350964974037</v>
       </c>
       <c r="X21" t="n">
-        <v>0.006743805028201999</v>
+        <v>0.04959489952878773</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.004184831497401979</v>
+        <v>0.01880931450724792</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.005822919304916772</v>
+        <v>0.01438483651139346</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0005661932386477294</v>
+        <v>0.01473844638153785</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0005661932386477294</v>
+        <v>0.01473844638153785</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0005661932386477294</v>
+        <v>0.01473844638153785</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0005661932386477294</v>
+        <v>0.01473844638153785</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2412,86 +2412,86 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02706222405848896</v>
+        <v>-0.02587910935516437</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004138489221539568</v>
+        <v>-0.002875239091009564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1860391664175666</v>
+        <v>0.1860394380015775</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01440490734662244</v>
+        <v>-0.02016717761351973</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1718336416758258</v>
+        <v>0.1616727032432986</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01191405906856236</v>
+        <v>0.01110684649227386</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05698827000933421</v>
+        <v>0.04493506067467825</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1265683141187325</v>
+        <v>0.1225437569337503</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1265683141187325</v>
+        <v>0.1225437569337503</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1265683141187325</v>
+        <v>0.1225437569337503</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1265683141187325</v>
+        <v>0.1225437569337503</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1165183866767354</v>
+        <v>0.1120752327070093</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1292420874096835</v>
+        <v>0.124787701055508</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1292420874096835</v>
+        <v>0.124787701055508</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1292420874096835</v>
+        <v>0.124787701055508</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1292420874096835</v>
+        <v>0.124787701055508</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00950988479639539</v>
+        <v>0.02736356979854279</v>
       </c>
       <c r="V22" t="n">
-        <v>0.002393035871721435</v>
+        <v>-0.002129374933174997</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4042617217384688</v>
+        <v>0.4042651885866074</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01639800853066111</v>
+        <v>-0.02695304538523296</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.08136490812565148</v>
+        <v>0.02323789776921623</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05334768750990749</v>
+        <v>0.01609736992389479</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0925847628073905</v>
+        <v>0.04937976418319056</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0925847628073905</v>
+        <v>0.04937976418319056</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0925847628073905</v>
+        <v>0.04937976418319056</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0925847628073905</v>
+        <v>0.04937976418319056</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2503,86 +2503,86 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.007639772561590902</v>
+        <v>-0.00691353426054137</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.00846262526650501</v>
+        <v>-0.01252333422893337</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004147169349886773</v>
+        <v>0.004147614117904564</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007025014625117312</v>
+        <v>0.008658675221636887</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002731076462553975</v>
+        <v>0.001635020574068782</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004063555746542229</v>
+        <v>0.004519541556781662</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.014804870174386</v>
+        <v>-0.01549748193262336</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004047554177902167</v>
+        <v>0.003493297099731884</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004047554177902167</v>
+        <v>0.003493297099731884</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004047554177902167</v>
+        <v>0.003493297099731884</v>
       </c>
       <c r="N23" t="n">
-        <v>0.004047554177902167</v>
+        <v>0.003493297099731884</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.00417304327092173</v>
+        <v>0.004431195825247832</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.004013742208549687</v>
+        <v>0.00331917325276693</v>
       </c>
       <c r="R23" t="n">
-        <v>0.004013742208549687</v>
+        <v>0.00331917325276693</v>
       </c>
       <c r="S23" t="n">
-        <v>0.004013742208549687</v>
+        <v>0.00331917325276693</v>
       </c>
       <c r="T23" t="n">
-        <v>0.004013742208549687</v>
+        <v>0.00331917325276693</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01941416909656676</v>
+        <v>-0.01595922611036904</v>
       </c>
       <c r="V23" t="n">
-        <v>0.007483936811357471</v>
+        <v>-0.009071267978850718</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.008648504217940167</v>
+        <v>-0.008651740090069601</v>
       </c>
       <c r="X23" t="n">
-        <v>0.007514817663600916</v>
+        <v>-0.003044451472767776</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.006176408890021031</v>
+        <v>-0.003714616347024888</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.007452557770102309</v>
+        <v>-0.005693984195759368</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.003360449222417968</v>
+        <v>-0.01236300731052029</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.003360449222417968</v>
+        <v>-0.01236300731052029</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.003360449222417968</v>
+        <v>-0.01236300731052029</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.003360449222417968</v>
+        <v>-0.01236300731052029</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2598,86 +2598,86 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02344961229798449</v>
+        <v>-0.02181559882462395</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
-        <v>0.005796456807858272</v>
+        <v>0.008755748702229947</v>
       </c>
       <c r="F24" t="n">
-        <v>0.130068900978756</v>
+        <v>0.1300690227067609</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02795940179873907</v>
+        <v>-0.001371585289407776</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1240497648295345</v>
+        <v>0.1167765134176559</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04512545614101824</v>
+        <v>0.04466304725852189</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1141769043633081</v>
+        <v>0.09868067532947905</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09232828967713157</v>
+        <v>0.08885260857810433</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09232828967713157</v>
+        <v>0.08885260857810433</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09232828967713157</v>
+        <v>0.08885260857810433</v>
       </c>
       <c r="N24" t="n">
-        <v>0.09232828967713157</v>
+        <v>0.08885260857810433</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.08366742248269689</v>
+        <v>0.08008018736320749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09463721677748867</v>
+        <v>0.09097552962302116</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09463721677748867</v>
+        <v>0.09097552962302116</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09463721677748867</v>
+        <v>0.09097552962302116</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09463721677748867</v>
+        <v>0.09097552962302116</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03396023108640924</v>
+        <v>0.03451650541266021</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.01163134568125383</v>
+        <v>0.009458329818333191</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.4706536717541468</v>
+        <v>-0.4706520654820826</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.02187824378147748</v>
+        <v>-0.03501085242011229</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.1366774296607023</v>
+        <v>-0.1199716523305072</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.07821109023244359</v>
+        <v>-0.09404879204995166</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.05633361220534448</v>
+        <v>-0.05423129237725169</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.05633361220534448</v>
+        <v>-0.05423129237725169</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.05633361220534448</v>
+        <v>-0.05423129237725169</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.05633361220534448</v>
+        <v>-0.05423129237725169</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2689,86 +2689,86 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.01152590062103602</v>
+        <v>-0.01083754478550179</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01863379802535192</v>
+        <v>0.02463015458520618</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2600879060515162</v>
+        <v>0.2600846033633841</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01720831389163219</v>
+        <v>-0.03747631832687189</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2332359536013914</v>
+        <v>0.2188647759420756</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04455514085420563</v>
+        <v>0.04335556551022262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1143075899849433</v>
+        <v>0.09237480225741847</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1676880024835201</v>
+        <v>0.1611785667031426</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1676880024835201</v>
+        <v>0.1611785667031426</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1676880024835201</v>
+        <v>0.1611785667031426</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1676880024835201</v>
+        <v>0.1611785667031426</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.1516015368160614</v>
+        <v>0.1443037611001504</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1718856950034278</v>
+        <v>0.1649619679424787</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1718856950034278</v>
+        <v>0.1649619679424787</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1718856950034278</v>
+        <v>0.1649619679424787</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1718856950034278</v>
+        <v>0.1649619679424787</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0245648625825945</v>
+        <v>0.01460479306419172</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.01868386701935468</v>
+        <v>0.01342406405696256</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6600607570584301</v>
+        <v>0.6600577731863109</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.00837713411693791</v>
+        <v>-0.04518832268068454</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07061493741849266</v>
+        <v>0.07636171814266574</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05355636415825456</v>
+        <v>0.04607066843482673</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1007450287658011</v>
+        <v>0.134888875507555</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1007450287658011</v>
+        <v>0.134888875507555</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1007450287658011</v>
+        <v>0.134888875507555</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1007450287658011</v>
+        <v>0.134888875507555</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2784,86 +2784,86 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1853612928224517</v>
+        <v>0.1926401883136075</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02010752614830104</v>
+        <v>0.023425200169008</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.02541208076048323</v>
+        <v>-0.02541184268047371</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0028356447847638</v>
+        <v>-0.0004425679566179988</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2336371241776308</v>
+        <v>-0.2225742484490882</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2765645146785805</v>
+        <v>-0.2786242633049705</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6604435778543271</v>
+        <v>-0.6514524152422629</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.2362321615132864</v>
+        <v>-0.2402658204586328</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2362321615132864</v>
+        <v>-0.2402658204586328</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.2362321615132864</v>
+        <v>-0.2402658204586328</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.2362321615132864</v>
+        <v>-0.2402658204586328</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.2111150041886001</v>
+        <v>-0.212714074812563</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.2441952635278105</v>
+        <v>-0.2471956877758275</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2441952635278105</v>
+        <v>-0.2471956877758275</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.2441952635278105</v>
+        <v>-0.2471956877758275</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.2441952635278105</v>
+        <v>-0.2471956877758275</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.2315918483036739</v>
+        <v>-0.1762133829525353</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01611290733251629</v>
+        <v>0.0170290900891636</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02007305369892214</v>
+        <v>0.02007122086684883</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02125915243480515</v>
+        <v>-0.01121015036276625</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3208901359016327</v>
+        <v>0.2131590264655689</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.4110532787781311</v>
+        <v>0.3245569980702799</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.2596900401796016</v>
+        <v>0.2051327202693088</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.2596900401796016</v>
+        <v>0.2051327202693088</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2596900401796016</v>
+        <v>0.2051327202693088</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.2596900401796016</v>
+        <v>0.2051327202693088</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2875,86 +2875,86 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02988452653938106</v>
+        <v>0.02930495090019803</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01370261824410473</v>
+        <v>-0.01532753965310158</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02109072938762917</v>
+        <v>0.02108887466755498</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01473785662446032</v>
+        <v>0.01332320522255026</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02388198355874269</v>
+        <v>0.02234193527486746</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.05004359105774364</v>
+        <v>-0.04996462145458485</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009804581558773557</v>
+        <v>0.02126209406933179</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02229308162772326</v>
+        <v>0.02151084047643362</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02229308162772326</v>
+        <v>0.02151084047643362</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02229308162772326</v>
+        <v>0.02151084047643362</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02229308162772326</v>
+        <v>0.02151084047643362</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.02205493029019721</v>
+        <v>0.02180248215209928</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02258407059936282</v>
+        <v>0.02174855040594201</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02258407059936282</v>
+        <v>0.02174855040594201</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02258407059936282</v>
+        <v>0.02174855040594201</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02258407059936282</v>
+        <v>0.02174855040594201</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.008067311074692442</v>
+        <v>-0.00588531076341243</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.001907494444299777</v>
+        <v>-0.01044455379378215</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.004300116748004669</v>
+        <v>-0.004301906860076274</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0004253499074353902</v>
+        <v>-0.01612565963108668</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.004522224183059634</v>
+        <v>-0.0169065267388812</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.08642099971283998</v>
+        <v>0.08454565614982623</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.001634686433387457</v>
+        <v>-0.01310213313208532</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.001634686433387457</v>
+        <v>-0.01310213313208532</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.001634686433387457</v>
+        <v>-0.01310213313208532</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.001634686433387457</v>
+        <v>-0.01310213313208532</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2970,86 +2970,86 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.01865658871426355</v>
+        <v>-0.01380991149639646</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.07259845787993831</v>
+        <v>-0.05870172657206905</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03344864936994597</v>
+        <v>0.03344846696993868</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.003438200328961282</v>
+        <v>0.01500969635013012</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.003184035200889744</v>
+        <v>0.004338666153439508</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03315246094209844</v>
+        <v>0.03237261614290464</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0002743898518316904</v>
+        <v>-0.009092283080277461</v>
       </c>
       <c r="K28" t="n">
-        <v>0.009912027084481082</v>
+        <v>0.01369902793996111</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009912027084481082</v>
+        <v>0.01369902793996111</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009912027084481082</v>
+        <v>0.01369902793996111</v>
       </c>
       <c r="N28" t="n">
-        <v>0.009912027084481082</v>
+        <v>0.01369902793996111</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.01924589145783566</v>
+        <v>0.0209360625334425</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.007950462846018512</v>
+        <v>0.01225251783410071</v>
       </c>
       <c r="R28" t="n">
-        <v>0.007950462846018512</v>
+        <v>0.01225251783410071</v>
       </c>
       <c r="S28" t="n">
-        <v>0.007950462846018512</v>
+        <v>0.01225251783410071</v>
       </c>
       <c r="T28" t="n">
-        <v>0.007950462846018512</v>
+        <v>0.01225251783410071</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.04893924099756964</v>
+        <v>-0.0395193152127726</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.3527349728613989</v>
+        <v>-0.1228865925314637</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0576347977933919</v>
+        <v>0.0576375351375014</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02047937499968764</v>
+        <v>0.002701844144285202</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.06280583985438039</v>
+        <v>-0.03300785113192689</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0127319724772789</v>
+        <v>0.01500902844036114</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.0578837876273515</v>
+        <v>-0.03487957694718307</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.0578837876273515</v>
+        <v>-0.03487957694718307</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.0578837876273515</v>
+        <v>-0.03487957694718307</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.0578837876273515</v>
+        <v>-0.03487957694718307</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -3065,86 +3065,86 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01038524710340988</v>
+        <v>-0.009537278109491122</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0161215351408614</v>
+        <v>-0.01664959602598384</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02535801490232059</v>
+        <v>0.0253594725663789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007327466315021517</v>
+        <v>0.01603938605415288</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02605543286272392</v>
+        <v>0.02388272150826733</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02060393679215747</v>
+        <v>-0.02012481363699254</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.009671330241027761</v>
+        <v>-0.006406666596409224</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02285962430638497</v>
+        <v>0.02170283558811342</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02285962430638497</v>
+        <v>0.02170283558811342</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02285962430638497</v>
+        <v>0.02170283558811342</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02285962430638497</v>
+        <v>0.02170283558811342</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.02309908690796348</v>
+        <v>0.02223351074534043</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02305782121031284</v>
+        <v>0.02187767185110687</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02305782121031284</v>
+        <v>0.02187767185110687</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02305782121031284</v>
+        <v>0.02187767185110687</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02305782121031284</v>
+        <v>0.02187767185110687</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02720131827205272</v>
+        <v>-0.02317888815915552</v>
       </c>
       <c r="V29" t="n">
-        <v>0.001946651885866075</v>
+        <v>-0.002519383396775335</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02808047651521906</v>
+        <v>0.0280785426911417</v>
       </c>
       <c r="X29" t="n">
-        <v>0.008631843836087342</v>
+        <v>-0.0152962644268718</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.002611154889699549</v>
+        <v>-0.007331753012404608</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02344332564173303</v>
+        <v>0.007663053714522148</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.002415836736633469</v>
+        <v>-0.01321139803245592</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.002415836736633469</v>
+        <v>-0.01321139803245592</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.002415836736633469</v>
+        <v>-0.01321139803245592</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.002415836736633469</v>
+        <v>-0.01321139803245592</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3160,86 +3160,86 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01610317235612689</v>
+        <v>-0.02130314418012576</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.001920357100814284</v>
+        <v>-0.01157323735892949</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00873785382151415</v>
+        <v>0.008737823677512946</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01447848690284953</v>
+        <v>-0.001811330172850021</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01006089871126518</v>
+        <v>0.006432634980135681</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02071646434865857</v>
+        <v>-0.02044618113784724</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0415115931499799</v>
+        <v>-0.02942059216532203</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01031970425278817</v>
+        <v>0.008167618790704751</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01031970425278817</v>
+        <v>0.008167618790704751</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01031970425278817</v>
+        <v>0.008167618790704751</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01031970425278817</v>
+        <v>0.008167618790704751</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.009296958131878325</v>
+        <v>0.00891789904471596</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01061639111265564</v>
+        <v>0.008242775369711014</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01061639111265564</v>
+        <v>0.008242775369711014</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01061639111265564</v>
+        <v>0.008242775369711014</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01061639111265564</v>
+        <v>0.008242775369711014</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0001310471092418843</v>
+        <v>-0.001809242280369691</v>
       </c>
       <c r="V30" t="n">
-        <v>0.07343516664940666</v>
+        <v>0.003068676890747076</v>
       </c>
       <c r="W30" t="n">
-        <v>0.004974951750998068</v>
+        <v>0.004975110919004436</v>
       </c>
       <c r="X30" t="n">
-        <v>0.005737900044888345</v>
+        <v>0.007194510620474994</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0347861043521415</v>
+        <v>0.01717374157974529</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.007669878450795137</v>
+        <v>0.006632233705289347</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02744629626585185</v>
+        <v>0.01762723865708955</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02744629626585185</v>
+        <v>0.01762723865708955</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.02744629626585185</v>
+        <v>0.01762723865708955</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.02744629626585185</v>
+        <v>0.01762723865708955</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3255,86 +3255,86 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.002513623972544959</v>
+        <v>-0.0008475256659010265</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.005010971432438857</v>
+        <v>-0.002668109194724367</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.004689366043574641</v>
+        <v>-0.004689181531567261</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01563824476676283</v>
+        <v>0.01577631712826761</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.003502092621764709</v>
+        <v>-0.002672987544100214</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01364598534583941</v>
+        <v>0.01376413898256556</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.283697784713049e-05</v>
+        <v>-0.003695846751453612</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.001852761194110448</v>
+        <v>-0.002032357425294297</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.001852761194110448</v>
+        <v>-0.002032357425294297</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001852761194110448</v>
+        <v>-0.002032357425294297</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.001852761194110448</v>
+        <v>-0.002032357425294297</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.0002201609368064374</v>
+        <v>-0.001177432175097287</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.001900023436000937</v>
+        <v>-0.002083316051332642</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.001900023436000937</v>
+        <v>-0.002083316051332642</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.001900023436000937</v>
+        <v>-0.002083316051332642</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.001900023436000937</v>
+        <v>-0.002083316051332642</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0003281334851253394</v>
+        <v>-0.01671774422070977</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.01361785062471402</v>
+        <v>-0.005116297932651917</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.006893246387729854</v>
+        <v>-0.006893994419759776</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.01515732684333571</v>
+        <v>-0.002786248164343823</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.02095157960011994</v>
+        <v>0.01588458853645544</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.006130121909204876</v>
+        <v>0.00910490878019635</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.01560662664026507</v>
+        <v>0.02106138861845554</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.01560662664026507</v>
+        <v>0.02106138861845554</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.01560662664026507</v>
+        <v>0.02106138861845554</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.01560662664026507</v>
+        <v>0.02106138861845554</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3350,86 +3350,86 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4784105192004207</v>
+        <v>0.4697493323259732</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.988370180238807</v>
+        <v>0.9420524350580973</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9112129121925164</v>
+        <v>-0.9112143001605719</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.04590801344381824</v>
+        <v>0.008096250440378948</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8869791849609174</v>
+        <v>-0.8901794690238046</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.08692917160516686</v>
+        <v>-0.09364205712168228</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5048175825837341</v>
+        <v>0.3471765172825837</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9243928477597138</v>
+        <v>-0.9243941181277646</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9243928477597138</v>
+        <v>-0.9243941181277646</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.9243928477597138</v>
+        <v>-0.9243941181277646</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.9243928477597138</v>
+        <v>-0.9243941181277646</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.939811428920457</v>
+        <v>-0.9430611931144476</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.9197023071560921</v>
+        <v>-0.9197503148380126</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.9197023071560921</v>
+        <v>-0.9197503148380126</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.9197023071560921</v>
+        <v>-0.9197503148380126</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.9197023071560921</v>
+        <v>-0.9197503148380126</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.06776227471049098</v>
+        <v>-0.08034547146981885</v>
       </c>
       <c r="V32" t="n">
-        <v>0.004861145186445807</v>
+        <v>0.02292692798907712</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01818710808748432</v>
+        <v>0.01818953544758142</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01854506399336535</v>
+        <v>0.09928739294717366</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1074024031956493</v>
+        <v>0.1276199989073357</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.0007568222702728907</v>
+        <v>0.03687252310690092</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4439169833246793</v>
+        <v>0.4168330283213211</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.4439169833246793</v>
+        <v>0.4168330283213211</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4439169833246793</v>
+        <v>0.4168330283213211</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.4439169833246793</v>
+        <v>0.4168330283213211</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3445,86 +3445,86 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.007075818907032755</v>
+        <v>-0.002230591289223651</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.01240071150402846</v>
+        <v>-0.004409479856379194</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.002083428179337127</v>
+        <v>-0.002084679347387174</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01016528443305834</v>
+        <v>-0.005813719466222241</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002984770296823501</v>
+        <v>0.005437678520711747</v>
       </c>
       <c r="I33" t="n">
-        <v>0.004121467844858713</v>
+        <v>0.002756528942261157</v>
       </c>
       <c r="J33" t="n">
-        <v>0.009288580672523597</v>
+        <v>-0.004308560153888519</v>
       </c>
       <c r="K33" t="n">
-        <v>0.005718220836728833</v>
+        <v>0.00539739026389561</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005718220836728833</v>
+        <v>0.00539739026389561</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005718220836728833</v>
+        <v>0.00539739026389561</v>
       </c>
       <c r="N33" t="n">
-        <v>0.005718220836728833</v>
+        <v>0.00539739026389561</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.006178318711132747</v>
+        <v>0.004624259032970361</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005667672802706911</v>
+        <v>0.005628558945142357</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005667672802706911</v>
+        <v>0.005628558945142357</v>
       </c>
       <c r="S33" t="n">
-        <v>0.005667672802706911</v>
+        <v>0.005628558945142357</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005667672802706911</v>
+        <v>0.005628558945142357</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01222811856912474</v>
+        <v>0.002372204350888174</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.0259742850069714</v>
+        <v>0.02025913242636529</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.02854878440595137</v>
+        <v>-0.02854868667794747</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.002282996179294347</v>
+        <v>0.01279208647104294</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.0212228582351013</v>
+        <v>0.01183958168589457</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.005120823660832946</v>
+        <v>0.002436615457464618</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.02005049398601976</v>
+        <v>0.01098419899936796</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.02005049398601976</v>
+        <v>0.01098419899936796</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.02005049398601976</v>
+        <v>0.01098419899936796</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.02005049398601976</v>
+        <v>0.01098419899936796</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3540,86 +3540,86 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0002865479154619166</v>
+        <v>-0.001952913966116558</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002441007073640282</v>
+        <v>0.002325739677029587</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003215178656607146</v>
+        <v>-0.003216534560661382</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005294629230382073</v>
+        <v>-0.02994023352235574</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.001261172211052251</v>
+        <v>0.001295416782730572</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01805389464215578</v>
+        <v>0.01875742452629698</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.05443196471510632</v>
+        <v>-0.03274751224485867</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0005939689197587567</v>
+        <v>0.001625836097033444</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0005939689197587567</v>
+        <v>0.001625836097033444</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0005939689197587567</v>
+        <v>0.001625836097033444</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0005939689197587567</v>
+        <v>0.001625836097033444</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>-0.0001948041677921667</v>
+        <v>0.0008257684170307365</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0007407285416291416</v>
+        <v>0.001954291950171678</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0007407285416291416</v>
+        <v>0.001954291950171678</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0007407285416291416</v>
+        <v>0.001954291950171678</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0007407285416291416</v>
+        <v>0.001954291950171678</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01344031224961249</v>
+        <v>0.002236529177461167</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.009006743016269719</v>
+        <v>0.001449329337973173</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.00460981103239244</v>
+        <v>-0.004607597560303902</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.008925476113502263</v>
+        <v>0.03070304958520991</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.002996653465304532</v>
+        <v>0.004318430182024812</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01595022236600889</v>
+        <v>0.002020495472819818</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.00446272549050902</v>
+        <v>0.005421841464873658</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.00446272549050902</v>
+        <v>0.005421841464873658</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.00446272549050902</v>
+        <v>0.005421841464873658</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.00446272549050902</v>
+        <v>0.005421841464873658</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3635,86 +3635,86 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03050264080410563</v>
+        <v>-0.02485403801816152</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.03093629355745174</v>
+        <v>-0.0192511225940449</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0157522049820882</v>
+        <v>0.01575157675806307</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.004505133492278051</v>
+        <v>0.006909993960637377</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01506434134580454</v>
+        <v>0.01928360975173795</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005075173451006937</v>
+        <v>0.005130238573209542</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.002735041221934977</v>
+        <v>-0.002124125563643274</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05224547479381898</v>
+        <v>0.05358215215928608</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05224547479381898</v>
+        <v>0.05358215215928608</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05224547479381898</v>
+        <v>0.05358215215928608</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05224547479381898</v>
+        <v>0.05358215215928608</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.04835341105413644</v>
+        <v>0.04841536484861459</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05297565187902607</v>
+        <v>0.05450022573200902</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05297565187902607</v>
+        <v>0.05450022573200902</v>
       </c>
       <c r="S35" t="n">
-        <v>0.05297565187902607</v>
+        <v>0.05450022573200902</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05297565187902607</v>
+        <v>0.05450022573200902</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.003824348984973959</v>
+        <v>0.01635628452625138</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.02233087721323508</v>
+        <v>0.01670869074834763</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.03161786459271458</v>
+        <v>-0.03161468017658721</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.01096752545826265</v>
+        <v>0.001933970566769358</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.008744833217990848</v>
+        <v>-0.01907869972541084</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.00395894377435775</v>
+        <v>-0.02476979926279197</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.02802518358500734</v>
+        <v>-0.04169283939571357</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.02802518358500734</v>
+        <v>-0.04169283939571357</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.02802518358500734</v>
+        <v>-0.04169283939571357</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.02802518358500734</v>
+        <v>-0.04169283939571357</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3730,86 +3730,86 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.01159170171166807</v>
+        <v>-0.009632774113310963</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01458790637551625</v>
+        <v>0.01423608037744321</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0139752150550086</v>
+        <v>-0.01397647486305899</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02137378791773413</v>
+        <v>0.006522350933520731</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.008558059066430229</v>
+        <v>-0.01149194097927776</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004059954690398187</v>
+        <v>0.003096238971849558</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01186578075165247</v>
+        <v>0.0003263291660791455</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.009231297201251886</v>
+        <v>-0.01150643575625743</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.009231297201251886</v>
+        <v>-0.01150643575625743</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.009231297201251886</v>
+        <v>-0.01150643575625743</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.009231297201251886</v>
+        <v>-0.01150643575625743</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.01056384589455383</v>
+        <v>-0.01244366555374662</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.009010242408409695</v>
+        <v>-0.01142873661714946</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.009010242408409695</v>
+        <v>-0.01142873661714946</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.009010242408409695</v>
+        <v>-0.01142873661714946</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.009010242408409695</v>
+        <v>-0.01142873661714946</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03043423878536955</v>
+        <v>0.01533203523728141</v>
       </c>
       <c r="V36" t="n">
-        <v>0.008636100537444019</v>
+        <v>0.005857503306300131</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.010576700007068</v>
+        <v>-0.01058028387921135</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01350759347793695</v>
+        <v>0.01967052566724941</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.007531974352894322</v>
+        <v>0.008270962092382992</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01141570279262811</v>
+        <v>0.004407063632282545</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.006717181420687256</v>
+        <v>0.01198870723154829</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.006717181420687256</v>
+        <v>0.01198870723154829</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.006717181420687256</v>
+        <v>0.01198870723154829</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.006717181420687256</v>
+        <v>0.01198870723154829</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3825,86 +3825,86 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0008992859879714394</v>
+        <v>-0.000401819152072766</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002988825335553013</v>
+        <v>-0.003122928316917132</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002181615159264606</v>
+        <v>0.00218023275920931</v>
       </c>
       <c r="G37" t="n">
-        <v>0.021560820068664</v>
+        <v>-0.01105612403123625</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002977817016542033</v>
+        <v>0.002017247994156043</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02241558924862357</v>
+        <v>0.02291067797242712</v>
       </c>
       <c r="J37" t="n">
-        <v>0.009913758475481265</v>
+        <v>0.01496156555750178</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006569309350772374</v>
+        <v>0.006818576240743049</v>
       </c>
       <c r="L37" t="n">
-        <v>0.006569309350772374</v>
+        <v>0.006818576240743049</v>
       </c>
       <c r="M37" t="n">
-        <v>0.006569309350772374</v>
+        <v>0.006818576240743049</v>
       </c>
       <c r="N37" t="n">
-        <v>0.006569309350772374</v>
+        <v>0.006818576240743049</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.005005734056229362</v>
+        <v>0.005444234041769361</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.006983851671354066</v>
+        <v>0.006881901011276039</v>
       </c>
       <c r="R37" t="n">
-        <v>0.006983851671354066</v>
+        <v>0.006881901011276039</v>
       </c>
       <c r="S37" t="n">
-        <v>0.006983851671354066</v>
+        <v>0.006881901011276039</v>
       </c>
       <c r="T37" t="n">
-        <v>0.006983851671354066</v>
+        <v>0.006881901011276039</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01347598853903954</v>
+        <v>0.01342928943317158</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.001433513145340526</v>
+        <v>-0.01626292625051705</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01320523771220951</v>
+        <v>0.01320046804801872</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.01909449408951984</v>
+        <v>0.009717113454635983</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.02909402901772629</v>
+        <v>-0.02231410457928619</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.01753676297347052</v>
+        <v>-0.01276189183847567</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.02417901648716066</v>
+        <v>-0.009945175021806999</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.02417901648716066</v>
+        <v>-0.009945175021806999</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.02417901648716066</v>
+        <v>-0.009945175021806999</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.02417901648716066</v>
+        <v>-0.009945175021806999</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
@@ -3920,86 +3920,86 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.004495037459801498</v>
+        <v>0.005352582454103297</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.01617741991109679</v>
+        <v>-0.01331117544444702</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009174601998984079</v>
+        <v>0.009174957102998283</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01992650718550053</v>
+        <v>-0.01080927568040106</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01023619059036099</v>
+        <v>0.01146133488025673</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01066778893871156</v>
+        <v>0.01057929882317195</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.001394890668147686</v>
+        <v>-0.001446210350395299</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01266458633058345</v>
+        <v>0.01378669399146776</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01266458633058345</v>
+        <v>0.01378669399146776</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01266458633058345</v>
+        <v>0.01378669399146776</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01266458633058345</v>
+        <v>0.01378669399146776</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.0134345274813811</v>
+        <v>0.01371540986061639</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01259198968767958</v>
+        <v>0.01371296934851877</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01259198968767958</v>
+        <v>0.01371296934851877</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01259198968767958</v>
+        <v>0.01371296934851877</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01259198968767958</v>
+        <v>0.01371296934851877</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007358178150327125</v>
+        <v>-0.007772414614896583</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.009822368744894748</v>
+        <v>-0.004023634240945369</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006655572458222897</v>
+        <v>0.006658595978343838</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01647626862753466</v>
+        <v>-0.0003220590099400948</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.006880454966520817</v>
+        <v>0.01525210624262742</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.01605548377821935</v>
+        <v>-0.001349624693984988</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.006940399573615982</v>
+        <v>0.009902622252104889</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.006940399573615982</v>
+        <v>0.009902622252104889</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.006940399573615982</v>
+        <v>0.009902622252104889</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.006940399573615982</v>
+        <v>0.009902622252104889</v>
       </c>
       <c r="AE38" t="inlineStr"/>
     </row>
@@ -4015,86 +4015,86 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01454719094988764</v>
+        <v>0.008648272569930901</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002336542749461709</v>
+        <v>-0.008180797959231916</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.006649719625988784</v>
+        <v>-0.006649703497988138</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01013419925620317</v>
+        <v>-0.003240044083750828</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01214769898773885</v>
+        <v>-0.01413749811961188</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.00929600801984032</v>
+        <v>-0.00876970326278813</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.02632454739111448</v>
+        <v>-0.01453394976305273</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0005189261967570478</v>
+        <v>-0.001851510602060424</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0005189261967570478</v>
+        <v>-0.001851510602060424</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0005189261967570478</v>
+        <v>-0.001851510602060424</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0005189261967570478</v>
+        <v>-0.001851510602060424</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0.000285740651429626</v>
+        <v>-0.0006623790024951601</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0007244753569790142</v>
+        <v>-0.002035037937401517</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0007244753569790142</v>
+        <v>-0.002035037937401517</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0007244753569790142</v>
+        <v>-0.002035037937401517</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0007244753569790142</v>
+        <v>-0.002035037937401517</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01480954110438164</v>
+        <v>0.002098851443954058</v>
       </c>
       <c r="V39" t="n">
-        <v>0.009795346375813854</v>
+        <v>-0.0266809526512381</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.002624324552972982</v>
+        <v>-0.002625410697016428</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01326018231401609</v>
+        <v>0.02124774543393007</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.00944458425431677</v>
+        <v>-0.006936662167664353</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.004268262794730512</v>
+        <v>0.0105454775418191</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.03147437357897494</v>
+        <v>-0.04217263973490559</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.03147437357897494</v>
+        <v>-0.04217263973490559</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.03147437357897494</v>
+        <v>-0.04217263973490559</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.03147437357897494</v>
+        <v>-0.04217263973490559</v>
       </c>
       <c r="AE39" t="inlineStr"/>
     </row>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_2.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1549834546153382</v>
+        <v>0.1547562355662494</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -746,74 +746,74 @@
         <v>-0.01425074140202965</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02123316525690416</v>
+        <v>-0.01899695725648741</v>
       </c>
       <c r="H4" t="n">
-        <v>0.116477558141579</v>
+        <v>0.1171283240516315</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02976387978255519</v>
+        <v>-0.02963479136139165</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1260025184282526</v>
+        <v>-0.1258494451316892</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03860969434438777</v>
+        <v>0.03919607830384313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03860969434438777</v>
+        <v>0.03919607830384313</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03860969434438777</v>
+        <v>0.03919607830384313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03860969434438777</v>
+        <v>0.03919607830384313</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>-0.01699381277575251</v>
+        <v>-0.0163985126239405</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04853137202125487</v>
+        <v>0.04914623303784932</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04853137202125487</v>
+        <v>0.04914623303784932</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04853137202125487</v>
+        <v>0.04914623303784932</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04853137202125487</v>
+        <v>0.04914623303784932</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2590807576272303</v>
+        <v>0.2569993587919743</v>
       </c>
       <c r="V4" t="n">
         <v>0.9698153625686143</v>
       </c>
       <c r="W4" t="n">
-        <v>0.009094089387763574</v>
+        <v>0.009094343307773731</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.07461417677280648</v>
+        <v>-0.07482904015383186</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2297587081937931</v>
+        <v>0.2317383114592707</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.1522102139924085</v>
+        <v>-0.1493870647914826</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.212706727260269</v>
+        <v>0.2143445334057813</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.212706727260269</v>
+        <v>0.2143445334057813</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.212706727260269</v>
+        <v>0.2143445334057813</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.212706727260269</v>
+        <v>0.2143445334057813</v>
       </c>
       <c r="AE4" t="inlineStr"/>
     </row>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.001917524812700992</v>
+        <v>-0.001797578087903123</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -837,74 +837,74 @@
         <v>-0.01283977884959115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005184755651205393</v>
+        <v>0.006168444197518021</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04389162885608204</v>
+        <v>-0.04418283195092018</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.002243082713723309</v>
+        <v>-0.002259765882390635</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01359674036261777</v>
+        <v>0.01312643725495708</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02929610382784415</v>
+        <v>-0.02957072374282894</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02929610382784415</v>
+        <v>-0.02957072374282894</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.02929610382784415</v>
+        <v>-0.02957072374282894</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02929610382784415</v>
+        <v>-0.02957072374282894</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>-0.0171794225431769</v>
+        <v>-0.01745192978607719</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.03157420647896825</v>
+        <v>-0.03186267132250685</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.03157420647896825</v>
+        <v>-0.03186267132250685</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.03157420647896825</v>
+        <v>-0.03186267132250685</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03157420647896825</v>
+        <v>-0.03186267132250685</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.06947217618688704</v>
+        <v>-0.07027623967504956</v>
       </c>
       <c r="V5" t="n">
         <v>-0.185697551171902</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.003434720873388834</v>
+        <v>-0.003434804777392191</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02431168070439989</v>
+        <v>0.02191120617264013</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.04285518994619035</v>
+        <v>-0.04157490503689542</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0469500349980014</v>
+        <v>0.04671431370857254</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.033402050200082</v>
+        <v>-0.03186284383451374</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.033402050200082</v>
+        <v>-0.03186284383451374</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.033402050200082</v>
+        <v>-0.03186284383451374</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.033402050200082</v>
+        <v>-0.03186284383451374</v>
       </c>
       <c r="AE5" t="inlineStr"/>
     </row>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2325736522469461</v>
+        <v>0.2325602430624097</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -928,74 +928,74 @@
         <v>0.003676187955047518</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0005359871438871754</v>
+        <v>0.0005269260267842576</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007517450847212882</v>
+        <v>0.007607901521706387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5655045510361819</v>
+        <v>-0.5654883246355329</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006441273781902316</v>
+        <v>0.007137852932298143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007435870761434829</v>
+        <v>0.007519196556767862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007435870761434829</v>
+        <v>0.007519196556767862</v>
       </c>
       <c r="M6" t="n">
-        <v>0.007435870761434829</v>
+        <v>0.007519196556767862</v>
       </c>
       <c r="N6" t="n">
-        <v>0.007435870761434829</v>
+        <v>0.007519196556767862</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.006596755943870237</v>
+        <v>0.006633511657340465</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007470131914805275</v>
+        <v>0.007546596877863873</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007470131914805275</v>
+        <v>0.007546596877863873</v>
       </c>
       <c r="S6" t="n">
-        <v>0.007470131914805275</v>
+        <v>0.007546596877863873</v>
       </c>
       <c r="T6" t="n">
-        <v>0.007470131914805275</v>
+        <v>0.007546596877863873</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0129334201333368</v>
+        <v>-0.01173462267738491</v>
       </c>
       <c r="V6" t="n">
         <v>-0.001332784277311371</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01206252393850095</v>
+        <v>-0.01206230294649212</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01526421203997186</v>
+        <v>0.01561751204586664</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.004664319327963686</v>
+        <v>-0.005260854555778906</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1139551822542073</v>
+        <v>0.1133057085322283</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.008085580259423211</v>
+        <v>-0.008571056406842255</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.008085580259423211</v>
+        <v>-0.008571056406842255</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.008085580259423211</v>
+        <v>-0.008571056406842255</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.008085580259423211</v>
+        <v>-0.008571056406842255</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.004905241348209653</v>
+        <v>0.004946259749850389</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -1019,74 +1019,74 @@
         <v>-0.006492300355692013</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.006527831729742047</v>
+        <v>-0.006686181835984545</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01403682694802267</v>
+        <v>-0.01418149282694711</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.007555183118207324</v>
+        <v>-0.007582684239307368</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.003324304559423796</v>
+        <v>-0.003294812974309562</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01471664276466571</v>
+        <v>-0.01484170772966831</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01471664276466571</v>
+        <v>-0.01484170772966831</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01471664276466571</v>
+        <v>-0.01484170772966831</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01471664276466571</v>
+        <v>-0.01484170772966831</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>-0.01342311125692445</v>
+        <v>-0.01354998697399948</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01483971524958861</v>
+        <v>-0.01497241307889652</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01483971524958861</v>
+        <v>-0.01497241307889652</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01483971524958861</v>
+        <v>-0.01497241307889652</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01483971524958861</v>
+        <v>-0.01497241307889652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004214448840577953</v>
+        <v>0.004311477484459099</v>
       </c>
       <c r="V7" t="n">
         <v>-0.01399276049571042</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01195833839833354</v>
+        <v>0.01195839907033596</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01342850058571284</v>
+        <v>-0.01283346010505883</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01704383819118292</v>
+        <v>0.01660373707359917</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0132065600162624</v>
+        <v>0.01309258113170324</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01301598791263951</v>
+        <v>0.01235092868603714</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01301598791263951</v>
+        <v>0.01235092868603714</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01301598791263951</v>
+        <v>0.01235092868603714</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01301598791263951</v>
+        <v>0.01235092868603714</v>
       </c>
       <c r="AE7" t="inlineStr"/>
     </row>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2077382438935297</v>
+        <v>0.2077517926620717</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -1110,74 +1110,74 @@
         <v>-0.004364375310575011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02118457454039259</v>
+        <v>0.0234916201841417</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0007136004198876176</v>
+        <v>-0.0007136486121191163</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7268851450434057</v>
+        <v>0.7268909100356362</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003108712358122286</v>
+        <v>0.00287121410801348</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003128631485145259</v>
+        <v>0.0003154504446180177</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003128631485145259</v>
+        <v>0.0003154504446180177</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003128631485145259</v>
+        <v>0.0003154504446180177</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0003128631485145259</v>
+        <v>0.0003154504446180177</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0.0003455117898204716</v>
+        <v>0.0003399026055961042</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003290508611620344</v>
+        <v>0.0003263920450556818</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0003290508611620344</v>
+        <v>0.0003263920450556818</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0003290508611620344</v>
+        <v>0.0003263920450556818</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0003290508611620344</v>
+        <v>0.0003263920450556818</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01126600547464022</v>
+        <v>-0.01072559831702393</v>
       </c>
       <c r="V8" t="n">
         <v>-0.0001794434951777398</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.02265223300208932</v>
+        <v>-0.02265230461809218</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.01171061968536434</v>
+        <v>-0.01273453239365467</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.009644653865873369</v>
+        <v>-0.01014465396009028</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.1437329413333176</v>
+        <v>-0.1436819871232795</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.008649172953966916</v>
+        <v>-0.009666176930647075</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.008649172953966916</v>
+        <v>-0.009666176930647075</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.008649172953966916</v>
+        <v>-0.009666176930647075</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.008649172953966916</v>
+        <v>-0.009666176930647075</v>
       </c>
       <c r="AE8" t="inlineStr"/>
     </row>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6397623208864929</v>
+        <v>0.6397693955107757</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1205,74 +1205,74 @@
         <v>-0.0148253700650148</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0008451525952242655</v>
+        <v>0.0005745828716812814</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01722756571521924</v>
+        <v>-0.01725470043756499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003913587996543519</v>
+        <v>0.00038590475143619</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.004351159771726437</v>
+        <v>-0.003496234423009357</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01511758620470345</v>
+        <v>-0.01514461442978457</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01511758620470345</v>
+        <v>-0.01514461442978457</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01511758620470345</v>
+        <v>-0.01514461442978457</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01511758620470345</v>
+        <v>-0.01514461442978457</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>-0.01364028870561155</v>
+        <v>-0.01366742435469697</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0154406400416256</v>
+        <v>-0.01546883101875324</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0154406400416256</v>
+        <v>-0.01546883101875324</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.0154406400416256</v>
+        <v>-0.01546883101875324</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0154406400416256</v>
+        <v>-0.01546883101875324</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3381146963405878</v>
+        <v>-0.3379410166856406</v>
       </c>
       <c r="V9" t="n">
         <v>-0.004245302089812083</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01159417918376716</v>
+        <v>-0.01159423937576957</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005147487650720961</v>
+        <v>0.003304876324685871</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01492254095862704</v>
+        <v>-0.01465038094457569</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.02470277897211116</v>
+        <v>-0.02489613373184535</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.01587627452305098</v>
+        <v>-0.01554643098985724</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.01587627452305098</v>
+        <v>-0.01554643098985724</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.01587627452305098</v>
+        <v>-0.01554643098985724</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01587627452305098</v>
+        <v>-0.01554643098985724</v>
       </c>
       <c r="AE9" t="inlineStr"/>
     </row>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3302344354173773</v>
+        <v>0.3302369126974765</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1300,74 +1300,74 @@
         <v>-0.03076138097445524</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.009657713233657507</v>
+        <v>-0.009865584198295509</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03177009947648111</v>
+        <v>-0.03183040927018834</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01751635519665421</v>
+        <v>-0.01750334066813362</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.005550106463453793</v>
+        <v>-0.006101001575514459</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03370203005208119</v>
+        <v>-0.03375361805414472</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03370203005208119</v>
+        <v>-0.03375361805414472</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.03370203005208119</v>
+        <v>-0.03375361805414472</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.03370203005208119</v>
+        <v>-0.03375361805414472</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>-0.0345697900227916</v>
+        <v>-0.03463297242531889</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.03363504480140179</v>
+        <v>-0.03370644202025767</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03363504480140179</v>
+        <v>-0.03370644202025767</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.03363504480140179</v>
+        <v>-0.03370644202025767</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03363504480140179</v>
+        <v>-0.03370644202025767</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5834002728080109</v>
+        <v>0.5835904465116177</v>
       </c>
       <c r="V10" t="n">
         <v>0.0002455888418235536</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01797311879892475</v>
+        <v>-0.01797298545491941</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03193731019311345</v>
+        <v>0.03229692121582521</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02045485664546298</v>
+        <v>0.02003740528892061</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03857268221490729</v>
+        <v>0.03794625434985017</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02660156650406266</v>
+        <v>0.02657843856713754</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02660156650406266</v>
+        <v>0.02657843856713754</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02660156650406266</v>
+        <v>0.02657843856713754</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02660156650406266</v>
+        <v>0.02657843856713754</v>
       </c>
       <c r="AE10" t="inlineStr"/>
     </row>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.05287459805098391</v>
+        <v>-0.05280276432011057</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1395,74 +1395,74 @@
         <v>-0.0002160553046422122</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004701316314056028</v>
+        <v>0.004601639474431436</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.002481128462476079</v>
+        <v>-0.002725177762803829</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0148032875681315</v>
+        <v>0.01476289921451597</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00430979140194164</v>
+        <v>0.003951686810681257</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001057493322299733</v>
+        <v>-0.001269191474767659</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001057493322299733</v>
+        <v>-0.001269191474767659</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001057493322299733</v>
+        <v>-0.001269191474767659</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001057493322299733</v>
+        <v>-0.001269191474767659</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0.0003937131997485279</v>
+        <v>0.0002040082641603305</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.001167773518710941</v>
+        <v>-0.001389755287590211</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001167773518710941</v>
+        <v>-0.001389755287590211</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.001167773518710941</v>
+        <v>-0.001389755287590211</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.001167773518710941</v>
+        <v>-0.001389755287590211</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1307931270237251</v>
+        <v>0.1323031119481245</v>
       </c>
       <c r="V11" t="n">
         <v>-0.01393102279724091</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00979518451980738</v>
+        <v>0.009795059719802386</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.004107769204248539</v>
+        <v>-0.004956456343782755</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01258520728047748</v>
+        <v>0.01092108152664217</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.003200814368032575</v>
+        <v>0.001734530949381238</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01228770788350832</v>
+        <v>0.0113472875258915</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01228770788350832</v>
+        <v>0.0113472875258915</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01228770788350832</v>
+        <v>0.0113472875258915</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01228770788350832</v>
+        <v>0.0113472875258915</v>
       </c>
       <c r="AE11" t="inlineStr"/>
     </row>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.0008294724811788992</v>
+        <v>-0.0008170236806809471</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1490,74 +1490,74 @@
         <v>-0.004771534558861382</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006373931666782662</v>
+        <v>0.006281429721062702</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.005929951365418859</v>
+        <v>-0.006061020507029317</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0009827098953083956</v>
+        <v>-0.001019573416782936</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003235973707612849</v>
+        <v>-0.004224186278451053</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009291986963679477</v>
+        <v>-0.00939596024783841</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.009291986963679477</v>
+        <v>-0.00939596024783841</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.009291986963679477</v>
+        <v>-0.00939596024783841</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.009291986963679477</v>
+        <v>-0.00939596024783841</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>-0.00989352029974081</v>
+        <v>-0.009946879981875198</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.009123803980952158</v>
+        <v>-0.009234266961370677</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.009123803980952158</v>
+        <v>-0.009234266961370677</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.009123803980952158</v>
+        <v>-0.009234266961370677</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.009123803980952158</v>
+        <v>-0.009234266961370677</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.001547967709918708</v>
+        <v>-0.001074761034990441</v>
       </c>
       <c r="V12" t="n">
         <v>0.008001849824073991</v>
       </c>
       <c r="W12" t="n">
-        <v>0.009396169239846769</v>
+        <v>0.009396097815843912</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01381057713094178</v>
+        <v>-0.01196660930285904</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02778611871176416</v>
+        <v>0.02648126364920006</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002220348088813923</v>
+        <v>0.001285660851426434</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03151354062054162</v>
+        <v>0.03080611822424472</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03151354062054162</v>
+        <v>0.03080611822424472</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03151354062054162</v>
+        <v>0.03080611822424472</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.03151354062054162</v>
+        <v>0.03080611822424472</v>
       </c>
       <c r="AE12" t="inlineStr"/>
     </row>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2525049152841966</v>
+        <v>-0.2524799421311977</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1581,74 +1581,74 @@
         <v>-0.007503281004131239</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01558145386848588</v>
+        <v>-0.01470346616776246</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.005682577185119544</v>
+        <v>-0.005810564615926539</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.004058725986349039</v>
+        <v>-0.004069141218765648</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01158002560360862</v>
+        <v>0.01134405168997228</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.009184309615372383</v>
+        <v>-0.009290321075612841</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.009184309615372383</v>
+        <v>-0.009290321075612841</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009184309615372383</v>
+        <v>-0.009290321075612841</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.009184309615372383</v>
+        <v>-0.009290321075612841</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>-0.01095239851809594</v>
+        <v>-0.01102238079289523</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.008797563327902531</v>
+        <v>-0.008900337860013511</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.008797563327902531</v>
+        <v>-0.008900337860013511</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.008797563327902531</v>
+        <v>-0.008900337860013511</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.008797563327902531</v>
+        <v>-0.008900337860013511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001155533230221329</v>
+        <v>-0.0003396658695866347</v>
       </c>
       <c r="V13" t="n">
         <v>0.01389075559563022</v>
       </c>
       <c r="W13" t="n">
-        <v>0.007648979921959196</v>
+        <v>0.007648601489944059</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.002953273295027167</v>
+        <v>-0.003684316345575452</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01802002979761046</v>
+        <v>0.01938680214945504</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02356752583870103</v>
+        <v>0.02485194829007793</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0227798550231942</v>
+        <v>0.02381719045668761</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0227798550231942</v>
+        <v>0.02381719045668761</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0227798550231942</v>
+        <v>0.02381719045668761</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0227798550231942</v>
+        <v>0.02381719045668761</v>
       </c>
       <c r="AE13" t="inlineStr"/>
     </row>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.001289467347578694</v>
+        <v>-0.001237288465491539</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1676,74 +1676,74 @@
         <v>0.006799005199960206</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007607007586381535</v>
+        <v>0.006747958741386322</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009503680180366092</v>
+        <v>0.009398176153561531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01863749844149994</v>
+        <v>-0.01864889239395569</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03053697558948728</v>
+        <v>0.03220668225507102</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006951120182044806</v>
+        <v>0.006869903314796131</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006951120182044806</v>
+        <v>0.006869903314796131</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006951120182044806</v>
+        <v>0.006869903314796131</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006951120182044806</v>
+        <v>0.006869903314796131</v>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>0.00514360225374409</v>
+        <v>0.005046012681840507</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.007237149217485968</v>
+        <v>0.007142102973684119</v>
       </c>
       <c r="R14" t="n">
-        <v>0.007237149217485968</v>
+        <v>0.007142102973684119</v>
       </c>
       <c r="S14" t="n">
-        <v>0.007237149217485968</v>
+        <v>0.007142102973684119</v>
       </c>
       <c r="T14" t="n">
-        <v>0.007237149217485968</v>
+        <v>0.007142102973684119</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02364899729795989</v>
+        <v>0.02395446441417857</v>
       </c>
       <c r="V14" t="n">
         <v>-0.002110712916428516</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02516494123059765</v>
+        <v>0.02516497444659897</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.01769920459166721</v>
+        <v>-0.01743757447865603</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.003524195643180139</v>
+        <v>0.003068235929651292</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.002372130046885201</v>
+        <v>-0.003113741692549667</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004548612469944498</v>
+        <v>0.00402084102483364</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.004548612469944498</v>
+        <v>0.00402084102483364</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.004548612469944498</v>
+        <v>0.00402084102483364</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.004548612469944498</v>
+        <v>0.00402084102483364</v>
       </c>
       <c r="AE14" t="inlineStr"/>
     </row>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.01446970531478821</v>
+        <v>-0.01449275424371017</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1771,74 +1771,74 @@
         <v>-0.004798475039939001</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0004384597583925075</v>
+        <v>0.000722458322634927</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.002914077390211779</v>
+        <v>-0.002885740070089173</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008229381449175257</v>
+        <v>0.008246849321873972</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.02033021770912691</v>
+        <v>-0.01982678644035856</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002665171786606871</v>
+        <v>-0.002635485801419432</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.002665171786606871</v>
+        <v>-0.002635485801419432</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.002665171786606871</v>
+        <v>-0.002635485801419432</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.002665171786606871</v>
+        <v>-0.002635485801419432</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>-0.00366147950645918</v>
+        <v>-0.003636714193468567</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.002594087623763505</v>
+        <v>-0.002569493670779746</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.002594087623763505</v>
+        <v>-0.002569493670779746</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.002594087623763505</v>
+        <v>-0.002569493670779746</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.002594087623763505</v>
+        <v>-0.002569493670779746</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05396164142246566</v>
+        <v>-0.05521351478454058</v>
       </c>
       <c r="V15" t="n">
         <v>0.001120941068837643</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.004461932050477282</v>
+        <v>-0.004462029778481191</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.006192142006775874</v>
+        <v>-0.006906125157308937</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.0005369483485192278</v>
+        <v>0.0001468385811200637</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.01169511022780441</v>
+        <v>-0.009460767354430692</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002999669591986783</v>
+        <v>0.003613131792525271</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002999669591986783</v>
+        <v>0.003613131792525271</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002999669591986783</v>
+        <v>0.003613131792525271</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002999669591986783</v>
+        <v>0.003613131792525271</v>
       </c>
       <c r="AE15" t="inlineStr"/>
     </row>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.001051640778065631</v>
+        <v>-0.00107962650718506</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1866,74 +1866,74 @@
         <v>0.007516970988678839</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.009178335227011942</v>
+        <v>-0.008154980718449062</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01250638466831155</v>
+        <v>0.01266930580292788</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01370111325204453</v>
+        <v>-0.01370009162000366</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03687203707880717</v>
+        <v>0.03724097095251202</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01299221072768843</v>
+        <v>0.01314384705375388</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01299221072768843</v>
+        <v>0.01314384705375388</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01299221072768843</v>
+        <v>0.01314384705375388</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01299221072768843</v>
+        <v>0.01314384705375388</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>0.01061011616840465</v>
+        <v>0.0107373300934932</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01319395732775829</v>
+        <v>0.01334575867783034</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01319395732775829</v>
+        <v>0.01334575867783034</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01319395732775829</v>
+        <v>0.01334575867783034</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01319395732775829</v>
+        <v>0.01334575867783034</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007885366395414655</v>
+        <v>0.008315299052611962</v>
       </c>
       <c r="V16" t="n">
         <v>1.510060860402434e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02793952546958102</v>
+        <v>0.027939350077574</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01960360750659515</v>
+        <v>-0.02005184539534709</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.284951105286929e-05</v>
+        <v>0.0002283666904217863</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004313532652541305</v>
+        <v>0.00447469400298776</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.004518933492757339</v>
+        <v>0.004153783654151345</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.004518933492757339</v>
+        <v>0.004153783654151345</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.004518933492757339</v>
+        <v>0.004153783654151345</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.004518933492757339</v>
+        <v>0.004153783654151345</v>
       </c>
       <c r="AE16" t="inlineStr"/>
     </row>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.07236622379064894</v>
+        <v>-0.0723877049435082</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1961,74 +1961,74 @@
         <v>0.001539288925571557</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006978324674670772</v>
+        <v>-0.00459487890860135</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.001898175598173767</v>
+        <v>-0.001999304403961291</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0132930351877214</v>
+        <v>-0.01331461118858445</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006335755569349837</v>
+        <v>0.003825510453231447</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.003725135285005411</v>
+        <v>-0.00378880575155223</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.003725135285005411</v>
+        <v>-0.00378880575155223</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.003725135285005411</v>
+        <v>-0.00378880575155223</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.003725135285005411</v>
+        <v>-0.00378880575155223</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-0.005492935131717404</v>
+        <v>-0.005504371132174845</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0038039050161562</v>
+        <v>-0.003859048954361957</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0038039050161562</v>
+        <v>-0.003859048954361957</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0038039050161562</v>
+        <v>-0.003859048954361957</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0038039050161562</v>
+        <v>-0.003859048954361957</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.03920140332805613</v>
+        <v>-0.04147747365909894</v>
       </c>
       <c r="V17" t="n">
         <v>0.006862172242486889</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02428599879543995</v>
+        <v>0.0242857652274306</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.007856834240432098</v>
+        <v>-0.008462185122280549</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.02098261650661475</v>
+        <v>-0.01997040612186716</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.006085987731439508</v>
+        <v>0.008578055671122227</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.02158676284747051</v>
+        <v>-0.02140744856829794</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.02158676284747051</v>
+        <v>-0.02140744856829794</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.02158676284747051</v>
+        <v>-0.02140744856829794</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.02158676284747051</v>
+        <v>-0.02140744856829794</v>
       </c>
       <c r="AE17" t="inlineStr"/>
     </row>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001347239669889587</v>
+        <v>0.001390954327638173</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -2052,74 +2052,74 @@
         <v>0.0004349771693990867</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.008775267164017714</v>
+        <v>-0.008997843528131631</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005757214039648973</v>
+        <v>0.005616071761650679</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.004255863530234541</v>
+        <v>-0.004262185706487428</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.002088435162103447</v>
+        <v>-0.002908256813613428</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0005173852046954081</v>
+        <v>-0.0006699234507969379</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0005173852046954081</v>
+        <v>-0.0006699234507969379</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0005173852046954081</v>
+        <v>-0.0006699234507969379</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0005173852046954081</v>
+        <v>-0.0006699234507969379</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>-0.004822879296915171</v>
+        <v>-0.004959849414393975</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0002073566482942659</v>
+        <v>5.148336205933448e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0002073566482942659</v>
+        <v>5.148336205933448e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0002073566482942659</v>
+        <v>5.148336205933448e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0002073566482942659</v>
+        <v>5.148336205933448e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001586843775473751</v>
+        <v>-3.837446553497862e-05</v>
       </c>
       <c r="V18" t="n">
         <v>0.04364819809792791</v>
       </c>
       <c r="W18" t="n">
-        <v>0.030038374993535</v>
+        <v>0.03003835771353431</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01874155833686249</v>
+        <v>-0.01951194156868829</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01490431148852409</v>
+        <v>0.01611824475353985</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.002915273204610928</v>
+        <v>0.004468546930741876</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01480655704026228</v>
+        <v>0.0161985851279434</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01480655704026228</v>
+        <v>0.0161985851279434</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01480655704026228</v>
+        <v>0.0161985851279434</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01480655704026228</v>
+        <v>0.0161985851279434</v>
       </c>
       <c r="AE18" t="inlineStr"/>
     </row>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04880577843223113</v>
+        <v>-0.0487745301429812</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -2147,74 +2147,74 @@
         <v>-0.01463063741722549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03179128287724287</v>
+        <v>0.033962276690165</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01236478946013754</v>
+        <v>-0.01256332417382908</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1612117661924706</v>
+        <v>0.1611982465119298</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01645245771782484</v>
+        <v>0.01387649493535357</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.01220675376827015</v>
+        <v>-0.01237516033500641</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01220675376827015</v>
+        <v>-0.01237516033500641</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.01220675376827015</v>
+        <v>-0.01237516033500641</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.01220675376827015</v>
+        <v>-0.01237516033500641</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>-0.01291532365261295</v>
+        <v>-0.01305889530635581</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01222281773691271</v>
+        <v>-0.01240885835235433</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01222281773691271</v>
+        <v>-0.01240885835235433</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01222281773691271</v>
+        <v>-0.01240885835235433</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01222281773691271</v>
+        <v>-0.01240885835235433</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02228242293929691</v>
+        <v>-0.02361763803270552</v>
       </c>
       <c r="V19" t="n">
         <v>-0.0117161525646461</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.0007647144305885771</v>
+        <v>-0.0007647494705899788</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.01214959775475436</v>
+        <v>-0.01300558986897832</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.007303903149083735</v>
+        <v>0.008501855513630387</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1100281353451254</v>
+        <v>0.1114736730669469</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01735125179805007</v>
+        <v>0.0179365098694604</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01735125179805007</v>
+        <v>0.0179365098694604</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01735125179805007</v>
+        <v>0.0179365098694604</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01735125179805007</v>
+        <v>0.0179365098694604</v>
       </c>
       <c r="AE19" t="inlineStr"/>
     </row>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01372648874105955</v>
+        <v>-0.01375689088627563</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -2242,74 +2242,74 @@
         <v>0.1453157968846319</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002509828919525271</v>
+        <v>-0.002923618551649191</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1317000570731565</v>
+        <v>0.131740543059637</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03094299915771996</v>
+        <v>0.03094290987771639</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07027587927198252</v>
+        <v>0.07065007255551793</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09757078873483153</v>
+        <v>0.09763659664146386</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09757078873483153</v>
+        <v>0.09763659664146386</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09757078873483153</v>
+        <v>0.09763659664146386</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09757078873483153</v>
+        <v>0.09763659664146386</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0.08670144260405768</v>
+        <v>0.08680059889602394</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1000697825947913</v>
+        <v>0.1001457384698295</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1000697825947913</v>
+        <v>0.1001457384698295</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1000697825947913</v>
+        <v>0.1001457384698295</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1000697825947913</v>
+        <v>0.1001457384698295</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03269452546778102</v>
+        <v>0.03203700704148028</v>
       </c>
       <c r="V20" t="n">
         <v>0.01342127103285084</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3625489662779586</v>
+        <v>0.3625487719739509</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.04213284703105906</v>
+        <v>-0.04075965535277533</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01539236519555751</v>
+        <v>0.01477375457716176</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.008745964573838583</v>
+        <v>-0.008046267393850694</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.04643383452935337</v>
+        <v>0.04623014872920594</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.04643383452935337</v>
+        <v>0.04623014872920594</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04643383452935337</v>
+        <v>0.04623014872920594</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.04643383452935337</v>
+        <v>0.04623014872920594</v>
       </c>
       <c r="AE20" t="inlineStr"/>
     </row>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01122641104105644</v>
+        <v>-0.01118570531142821</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -2333,74 +2333,74 @@
         <v>-0.01565796139431845</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02990860993117662</v>
+        <v>-0.03127202321056724</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01716247917856621</v>
+        <v>-0.0172659270674938</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01752306934092277</v>
+        <v>0.01752383177295327</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005095218411828102</v>
+        <v>0.004642042712499108</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01818453058338122</v>
+        <v>-0.01827867769114711</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01818453058338122</v>
+        <v>-0.01827867769114711</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01818453058338122</v>
+        <v>-0.01827867769114711</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01818453058338122</v>
+        <v>-0.01827867769114711</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>-0.01775970359038814</v>
+        <v>-0.01785239130609565</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01820596911223876</v>
+        <v>-0.01831483369259335</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01820596911223876</v>
+        <v>-0.01831483369259335</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01820596911223876</v>
+        <v>-0.01831483369259335</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01820596911223876</v>
+        <v>-0.01831483369259335</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.008850374658014986</v>
+        <v>-0.008910147620405904</v>
       </c>
       <c r="V21" t="n">
         <v>0.006500491652019665</v>
       </c>
       <c r="W21" t="n">
-        <v>0.007724350964974037</v>
+        <v>0.007724679188987166</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04959489952878773</v>
+        <v>0.04946232580051576</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01880931450724792</v>
+        <v>0.01892104352994343</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01438483651139346</v>
+        <v>0.01378237648729506</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01473844638153785</v>
+        <v>0.01485893137835725</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01473844638153785</v>
+        <v>0.01485893137835725</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01473844638153785</v>
+        <v>0.01485893137835725</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01473844638153785</v>
+        <v>0.01485893137835725</v>
       </c>
       <c r="AE21" t="inlineStr"/>
     </row>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02587910935516437</v>
+        <v>-0.02589092925963717</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -2424,74 +2424,74 @@
         <v>0.1860394380015775</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02016717761351973</v>
+        <v>-0.01931831246746615</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1616727032432986</v>
+        <v>0.1616682022616774</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01110684649227386</v>
+        <v>0.01111857606074304</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04493506067467825</v>
+        <v>0.04497871533472067</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1225437569337503</v>
+        <v>0.1225492945019718</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1225437569337503</v>
+        <v>0.1225492945019718</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1225437569337503</v>
+        <v>0.1225492945019718</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1225437569337503</v>
+        <v>0.1225492945019718</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>0.1120752327070093</v>
+        <v>0.1120910368996415</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.124787701055508</v>
+        <v>0.1248048716161949</v>
       </c>
       <c r="R22" t="n">
-        <v>0.124787701055508</v>
+        <v>0.1248048716161949</v>
       </c>
       <c r="S22" t="n">
-        <v>0.124787701055508</v>
+        <v>0.1248048716161949</v>
       </c>
       <c r="T22" t="n">
-        <v>0.124787701055508</v>
+        <v>0.1248048716161949</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02736356979854279</v>
+        <v>0.02651375866055035</v>
       </c>
       <c r="V22" t="n">
         <v>-0.002129374933174997</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4042651885866074</v>
+        <v>0.4042650552426022</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.02695304538523296</v>
+        <v>-0.02769182643819539</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02323789776921623</v>
+        <v>0.02427312713258709</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01609736992389479</v>
+        <v>0.01654806603792264</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.04937976418319056</v>
+        <v>0.05056402733456108</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.04937976418319056</v>
+        <v>0.05056402733456108</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04937976418319056</v>
+        <v>0.05056402733456108</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.04937976418319056</v>
+        <v>0.05056402733456108</v>
       </c>
       <c r="AE22" t="inlineStr"/>
     </row>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.00691353426054137</v>
+        <v>-0.006912281172491246</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -2515,74 +2515,74 @@
         <v>0.004147614117904564</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008658675221636887</v>
+        <v>0.007950023976351018</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001635020574068782</v>
+        <v>0.001723689960005597</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004519541556781662</v>
+        <v>0.004513495668539826</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01549748193262336</v>
+        <v>-0.01597737342609471</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003493297099731884</v>
+        <v>0.00357272375890895</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003493297099731884</v>
+        <v>0.00357272375890895</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003493297099731884</v>
+        <v>0.00357272375890895</v>
       </c>
       <c r="N23" t="n">
-        <v>0.003493297099731884</v>
+        <v>0.00357272375890895</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>0.004431195825247832</v>
+        <v>0.004482027731281109</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00331917325276693</v>
+        <v>0.003404716744188669</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00331917325276693</v>
+        <v>0.003404716744188669</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00331917325276693</v>
+        <v>0.003404716744188669</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00331917325276693</v>
+        <v>0.003404716744188669</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01595922611036904</v>
+        <v>-0.01578983832759353</v>
       </c>
       <c r="V23" t="n">
         <v>-0.009071267978850718</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.008651740090069601</v>
+        <v>-0.008651719930068795</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.003044451472767776</v>
+        <v>-0.002817477904655818</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.003714616347024888</v>
+        <v>-0.004302719570713751</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.005693984195759368</v>
+        <v>-0.007155001918200076</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.01236300731052029</v>
+        <v>-0.01264790200991608</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.01236300731052029</v>
+        <v>-0.01264790200991608</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.01236300731052029</v>
+        <v>-0.01264790200991608</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.01236300731052029</v>
+        <v>-0.01264790200991608</v>
       </c>
       <c r="AE23" t="inlineStr"/>
     </row>
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.02181559882462395</v>
+        <v>-0.02171871619674864</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2610,74 +2610,74 @@
         <v>0.1300690227067609</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001371585289407776</v>
+        <v>-0.000664867053474015</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1167765134176559</v>
+        <v>0.1165950379859112</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04466304725852189</v>
+        <v>0.04461519375260774</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09868067532947905</v>
+        <v>0.09837578834504707</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08885260857810433</v>
+        <v>0.08868781823551272</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08885260857810433</v>
+        <v>0.08868781823551272</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08885260857810433</v>
+        <v>0.08868781823551272</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08885260857810433</v>
+        <v>0.08868781823551272</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0.08008018736320749</v>
+        <v>0.07996272646250906</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09097552962302116</v>
+        <v>0.09081823889672955</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09097552962302116</v>
+        <v>0.09081823889672955</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09097552962302116</v>
+        <v>0.09081823889672955</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09097552962302116</v>
+        <v>0.09081823889672955</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03451650541266021</v>
+        <v>0.03447808313912332</v>
       </c>
       <c r="V24" t="n">
         <v>0.009458329818333191</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.4706520654820826</v>
+        <v>-0.4706520660580825</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.03501085242011229</v>
+        <v>-0.03748679744773184</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.1199716523305072</v>
+        <v>-0.1202275688829645</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.09404879204995166</v>
+        <v>-0.09423297285731889</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.05423129237725169</v>
+        <v>-0.05457062743082509</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.05423129237725169</v>
+        <v>-0.05457062743082509</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.05423129237725169</v>
+        <v>-0.05457062743082509</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.05423129237725169</v>
+        <v>-0.05457062743082509</v>
       </c>
       <c r="AE24" t="inlineStr"/>
     </row>
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.01083754478550179</v>
+        <v>-0.0108398075055923</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2701,74 +2701,74 @@
         <v>0.2600846033633841</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03747631832687189</v>
+        <v>-0.03857305780577071</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2188647759420756</v>
+        <v>0.2188213651095451</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04335556551022262</v>
+        <v>0.04335410890216435</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09237480225741847</v>
+        <v>0.09314184354298251</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1611785667031426</v>
+        <v>0.1611455144778206</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1611785667031426</v>
+        <v>0.1611455144778206</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1611785667031426</v>
+        <v>0.1611455144778206</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1611785667031426</v>
+        <v>0.1611455144778206</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>0.1443037611001504</v>
+        <v>0.144281025035241</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1649619679424787</v>
+        <v>0.1649163410606536</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1649619679424787</v>
+        <v>0.1649163410606536</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1649619679424787</v>
+        <v>0.1649163410606536</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1649619679424787</v>
+        <v>0.1649163410606536</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01460479306419172</v>
+        <v>0.01629263873170555</v>
       </c>
       <c r="V25" t="n">
         <v>0.01342406405696256</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6600577731863109</v>
+        <v>0.6600579565463183</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.04518832268068454</v>
+        <v>-0.04433706420116883</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07636171814266574</v>
+        <v>0.07540356654952941</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.04607066843482673</v>
+        <v>0.04498017856720714</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.134888875507555</v>
+        <v>0.1339488149579525</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.134888875507555</v>
+        <v>0.1339488149579525</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.134888875507555</v>
+        <v>0.1339488149579525</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.134888875507555</v>
+        <v>0.1339488149579525</v>
       </c>
       <c r="AE25" t="inlineStr"/>
     </row>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1926401883136075</v>
+        <v>0.1927615154224606</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2796,74 +2796,74 @@
         <v>-0.02541184268047371</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0004425679566179988</v>
+        <v>-0.001634374437579529</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2225742484490882</v>
+        <v>-0.2228387429676277</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2786242633049705</v>
+        <v>-0.2786548425701936</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6514524152422629</v>
+        <v>-0.6499917864424452</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.2402658204586328</v>
+        <v>-0.2405359888534395</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.2402658204586328</v>
+        <v>-0.2405359888534395</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.2402658204586328</v>
+        <v>-0.2405359888534395</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.2402658204586328</v>
+        <v>-0.2405359888534395</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>-0.212714074812563</v>
+        <v>-0.21302625194505</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.2471956877758275</v>
+        <v>-0.2474750401070016</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.2471956877758275</v>
+        <v>-0.2474750401070016</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.2471956877758275</v>
+        <v>-0.2474750401070016</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.2471956877758275</v>
+        <v>-0.2474750401070016</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.1762133829525353</v>
+        <v>-0.1744516383060655</v>
       </c>
       <c r="V26" t="n">
         <v>0.0170290900891636</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02007122086684883</v>
+        <v>0.0200714275548571</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.01121015036276625</v>
+        <v>-0.0120423530470346</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2131590264655689</v>
+        <v>0.2116372283295267</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3245569980702799</v>
+        <v>0.3222210688568427</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.2051327202693088</v>
+        <v>0.2046973318358933</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.2051327202693088</v>
+        <v>0.2046973318358933</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2051327202693088</v>
+        <v>0.2046973318358933</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.2051327202693088</v>
+        <v>0.2046973318358933</v>
       </c>
       <c r="AE26" t="inlineStr"/>
     </row>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02930495090019803</v>
+        <v>0.02924754328190173</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2887,74 +2887,74 @@
         <v>0.02108887466755498</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01332320522255026</v>
+        <v>0.01342568994580757</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02234193527486746</v>
+        <v>0.02249068933343009</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04996462145458485</v>
+        <v>-0.04995111089404443</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02126209406933179</v>
+        <v>0.02181461187021672</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02151084047643362</v>
+        <v>0.02163758544150341</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02151084047643362</v>
+        <v>0.02163758544150341</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02151084047643362</v>
+        <v>0.02163758544150341</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02151084047643362</v>
+        <v>0.02163758544150341</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>0.02180248215209928</v>
+        <v>0.02187806977112279</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02174855040594201</v>
+        <v>0.02187466081098643</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02174855040594201</v>
+        <v>0.02187466081098643</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02174855040594201</v>
+        <v>0.02187466081098643</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02174855040594201</v>
+        <v>0.02187466081098643</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.00588531076341243</v>
+        <v>-0.004813643040545721</v>
       </c>
       <c r="V27" t="n">
         <v>-0.01044455379378215</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.004301906860076274</v>
+        <v>-0.004301540812061632</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.01612565963108668</v>
+        <v>-0.01689839040684898</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.0169065267388812</v>
+        <v>-0.01636512550728389</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.08454565614982623</v>
+        <v>0.08359029972761198</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.01310213313208532</v>
+        <v>-0.01238964337558573</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.01310213313208532</v>
+        <v>-0.01238964337558573</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.01310213313208532</v>
+        <v>-0.01238964337558573</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.01310213313208532</v>
+        <v>-0.01238964337558573</v>
       </c>
       <c r="AE27" t="inlineStr"/>
     </row>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.01380991149639646</v>
+        <v>-0.01380483482419339</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2982,74 +2982,74 @@
         <v>0.03344846696993868</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01500969635013012</v>
+        <v>0.01530592982333965</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004338666153439508</v>
+        <v>0.004254122579321655</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03237261614290464</v>
+        <v>0.03235835985433439</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.009092283080277461</v>
+        <v>-0.01065698340429643</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01369902793996111</v>
+        <v>0.01361765699270628</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01369902793996111</v>
+        <v>0.01361765699270628</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01369902793996111</v>
+        <v>0.01361765699270628</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01369902793996111</v>
+        <v>0.01361765699270628</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0.0209360625334425</v>
+        <v>0.02085949801837992</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01225251783410071</v>
+        <v>0.01216568688662747</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01225251783410071</v>
+        <v>0.01216568688662747</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01225251783410071</v>
+        <v>0.01216568688662747</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01225251783410071</v>
+        <v>0.01216568688662747</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.0395193152127726</v>
+        <v>-0.03941605463264218</v>
       </c>
       <c r="V28" t="n">
         <v>-0.1228865925314637</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0576375351375014</v>
+        <v>0.05763773404950935</v>
       </c>
       <c r="X28" t="n">
-        <v>0.002701844144285202</v>
+        <v>0.002789893418263038</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.03300785113192689</v>
+        <v>-0.03367134453461993</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01500902844036114</v>
+        <v>0.01516559705462388</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.03487957694718307</v>
+        <v>-0.03547260084290403</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.03487957694718307</v>
+        <v>-0.03547260084290403</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.03487957694718307</v>
+        <v>-0.03547260084290403</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.03487957694718307</v>
+        <v>-0.03547260084290403</v>
       </c>
       <c r="AE28" t="inlineStr"/>
     </row>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.009537278109491122</v>
+        <v>-0.009581145695245827</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -3077,74 +3077,74 @@
         <v>0.0253594725663789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01603938605415288</v>
+        <v>0.01686961642108789</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02388272150826733</v>
+        <v>0.02408492670359058</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02012481363699254</v>
+        <v>-0.02009570163582806</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.006406666596409224</v>
+        <v>-0.006060768405776708</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02170283558811342</v>
+        <v>0.02188337799533512</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02170283558811342</v>
+        <v>0.02188337799533512</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02170283558811342</v>
+        <v>0.02188337799533512</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02170283558811342</v>
+        <v>0.02188337799533512</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>0.02223351074534043</v>
+        <v>0.02239045596761824</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02187767185110687</v>
+        <v>0.02204815067392603</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02187767185110687</v>
+        <v>0.02204815067392603</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02187767185110687</v>
+        <v>0.02204815067392603</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02187767185110687</v>
+        <v>0.02204815067392603</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02317888815915552</v>
+        <v>-0.02336488067859522</v>
       </c>
       <c r="V29" t="n">
         <v>-0.002519383396775335</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0280785426911417</v>
+        <v>0.02807846425913857</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.0152962644268718</v>
+        <v>-0.01715142117622795</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.007331753012404608</v>
+        <v>-0.006715866501680114</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.007663053714522148</v>
+        <v>0.007380765223230608</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01321139803245592</v>
+        <v>-0.01259691227987649</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01321139803245592</v>
+        <v>-0.01259691227987649</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01321139803245592</v>
+        <v>-0.01259691227987649</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01321139803245592</v>
+        <v>-0.01259691227987649</v>
       </c>
       <c r="AE29" t="inlineStr"/>
     </row>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02130314418012576</v>
+        <v>-0.02137422968696919</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -3172,74 +3172,74 @@
         <v>0.008737823677512946</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.001811330172850021</v>
+        <v>-0.001510528330922122</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006432634980135681</v>
+        <v>0.00671331805643932</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02044618113784724</v>
+        <v>-0.02040167217606689</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02942059216532203</v>
+        <v>-0.02947128751292384</v>
       </c>
       <c r="K30" t="n">
-        <v>0.008167618790704751</v>
+        <v>0.008406220752248828</v>
       </c>
       <c r="L30" t="n">
-        <v>0.008167618790704751</v>
+        <v>0.008406220752248828</v>
       </c>
       <c r="M30" t="n">
-        <v>0.008167618790704751</v>
+        <v>0.008406220752248828</v>
       </c>
       <c r="N30" t="n">
-        <v>0.008167618790704751</v>
+        <v>0.008406220752248828</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>0.00891789904471596</v>
+        <v>0.009098886891955475</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.008242775369711014</v>
+        <v>0.008481055347242214</v>
       </c>
       <c r="R30" t="n">
-        <v>0.008242775369711014</v>
+        <v>0.008481055347242214</v>
       </c>
       <c r="S30" t="n">
-        <v>0.008242775369711014</v>
+        <v>0.008481055347242214</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008242775369711014</v>
+        <v>0.008481055347242214</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.001809242280369691</v>
+        <v>-0.002046852273874091</v>
       </c>
       <c r="V30" t="n">
         <v>0.003068676890747076</v>
       </c>
       <c r="W30" t="n">
-        <v>0.004975110919004436</v>
+        <v>0.004975057831002312</v>
       </c>
       <c r="X30" t="n">
-        <v>0.007194510620474994</v>
+        <v>0.007061545077910702</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01717374157974529</v>
+        <v>0.01856120874025539</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.006632233705289347</v>
+        <v>0.006365269598610783</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01762723865708955</v>
+        <v>0.01826007423440297</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01762723865708955</v>
+        <v>0.01826007423440297</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01762723865708955</v>
+        <v>0.01826007423440297</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01762723865708955</v>
+        <v>0.01826007423440297</v>
       </c>
       <c r="AE30" t="inlineStr"/>
     </row>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.0008475256659010265</v>
+        <v>-0.0008627392665095706</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -3267,74 +3267,74 @@
         <v>-0.004689181531567261</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01577631712826761</v>
+        <v>0.01451152552662996</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.002672987544100214</v>
+        <v>-0.002705356211588007</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01376413898256556</v>
+        <v>0.0137692849667714</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.003695846751453612</v>
+        <v>-0.003655975837908908</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.002032357425294297</v>
+        <v>-0.002050534738021389</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.002032357425294297</v>
+        <v>-0.002050534738021389</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.002032357425294297</v>
+        <v>-0.002050534738021389</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.002032357425294297</v>
+        <v>-0.002050534738021389</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>-0.001177432175097287</v>
+        <v>-0.001178997743159909</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.002083316051332642</v>
+        <v>-0.00209729201989168</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.002083316051332642</v>
+        <v>-0.00209729201989168</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.002083316051332642</v>
+        <v>-0.00209729201989168</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.002083316051332642</v>
+        <v>-0.00209729201989168</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.01671774422070977</v>
+        <v>-0.01732238747689549</v>
       </c>
       <c r="V31" t="n">
         <v>-0.005116297932651917</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.006893994419759776</v>
+        <v>-0.006894194387767775</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.002786248164343823</v>
+        <v>-0.001121886706422083</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.01588458853645544</v>
+        <v>0.01596280285555945</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.00910490878019635</v>
+        <v>0.009553592350143693</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.02106138861845554</v>
+        <v>0.02070643647625746</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02106138861845554</v>
+        <v>0.02070643647625746</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02106138861845554</v>
+        <v>0.02070643647625746</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.02106138861845554</v>
+        <v>0.02070643647625746</v>
       </c>
       <c r="AE31" t="inlineStr"/>
     </row>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4697493323259732</v>
+        <v>0.4697578819903153</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -3362,74 +3362,74 @@
         <v>-0.9112143001605719</v>
       </c>
       <c r="G32" t="n">
-        <v>0.008096250440378948</v>
+        <v>0.008481737698159049</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.8901794690238046</v>
+        <v>-0.8899173743247931</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.09364205712168228</v>
+        <v>-0.09363934156957364</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3471765172825837</v>
+        <v>0.3479266952196498</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.9243941181277646</v>
+        <v>-0.9242151413846056</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9243941181277646</v>
+        <v>-0.9242151413846056</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.9243941181277646</v>
+        <v>-0.9242151413846056</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.9243941181277646</v>
+        <v>-0.9242151413846056</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>-0.9430611931144476</v>
+        <v>-0.9429189115087564</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.9197503148380126</v>
+        <v>-0.9195464879178594</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.9197503148380126</v>
+        <v>-0.9195464879178594</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.9197503148380126</v>
+        <v>-0.9195464879178594</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.9197503148380126</v>
+        <v>-0.9195464879178594</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.08034547146981885</v>
+        <v>-0.08117710289508411</v>
       </c>
       <c r="V32" t="n">
         <v>0.02292692798907712</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01818953544758142</v>
+        <v>0.01818965631158625</v>
       </c>
       <c r="X32" t="n">
-        <v>0.09928739294717366</v>
+        <v>0.09734040260580934</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1276199989073357</v>
+        <v>0.1282928662701909</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.03687252310690092</v>
+        <v>0.03795152724606109</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4168330283213211</v>
+        <v>0.4169163676526547</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.4168330283213211</v>
+        <v>0.4169163676526547</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4168330283213211</v>
+        <v>0.4169163676526547</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.4168330283213211</v>
+        <v>0.4169163676526547</v>
       </c>
       <c r="AE32" t="inlineStr"/>
     </row>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.002230591289223651</v>
+        <v>-0.002179364919174596</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -3457,74 +3457,74 @@
         <v>-0.002084679347387174</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.005813719466222241</v>
+        <v>-0.005867272343386486</v>
       </c>
       <c r="H33" t="n">
-        <v>0.005437678520711747</v>
+        <v>0.005365333053189344</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002756528942261157</v>
+        <v>0.002763853742554149</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.004308560153888519</v>
+        <v>-0.002538681277650722</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00539739026389561</v>
+        <v>0.005335148757405949</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00539739026389561</v>
+        <v>0.005335148757405949</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00539739026389561</v>
+        <v>0.005335148757405949</v>
       </c>
       <c r="N33" t="n">
-        <v>0.00539739026389561</v>
+        <v>0.005335148757405949</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>0.004624259032970361</v>
+        <v>0.004541602261664089</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005628558945142357</v>
+        <v>0.005556013950240558</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005628558945142357</v>
+        <v>0.005556013950240558</v>
       </c>
       <c r="S33" t="n">
-        <v>0.005628558945142357</v>
+        <v>0.005556013950240558</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005628558945142357</v>
+        <v>0.005556013950240558</v>
       </c>
       <c r="U33" t="n">
-        <v>0.002372204350888174</v>
+        <v>0.002583585031343401</v>
       </c>
       <c r="V33" t="n">
         <v>0.02025913242636529</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.02854868667794747</v>
+        <v>-0.0285482852059314</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01279208647104294</v>
+        <v>0.01098727326552297</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01183958168589457</v>
+        <v>0.01232494546140315</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.002436615457464618</v>
+        <v>0.002062279666491186</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01098419899936796</v>
+        <v>0.01173240958929638</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01098419899936796</v>
+        <v>0.01173240958929638</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01098419899936796</v>
+        <v>0.01173240958929638</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.01098419899936796</v>
+        <v>0.01173240958929638</v>
       </c>
       <c r="AE33" t="inlineStr"/>
     </row>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.001952913966116558</v>
+        <v>-0.001968212718728509</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -3552,74 +3552,74 @@
         <v>-0.003216534560661382</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02994023352235574</v>
+        <v>-0.02893777305637964</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001295416782730572</v>
+        <v>0.001307763882041732</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01875742452629698</v>
+        <v>0.01875768967830758</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.03274751224485867</v>
+        <v>-0.03263903089774502</v>
       </c>
       <c r="K34" t="n">
-        <v>0.001625836097033444</v>
+        <v>0.001669577154783086</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001625836097033444</v>
+        <v>0.001669577154783086</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001625836097033444</v>
+        <v>0.001669577154783086</v>
       </c>
       <c r="N34" t="n">
-        <v>0.001625836097033444</v>
+        <v>0.001669577154783086</v>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>0.0008257684170307365</v>
+        <v>0.0009108899884355994</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.001954291950171678</v>
+        <v>0.002000838896033556</v>
       </c>
       <c r="R34" t="n">
-        <v>0.001954291950171678</v>
+        <v>0.002000838896033556</v>
       </c>
       <c r="S34" t="n">
-        <v>0.001954291950171678</v>
+        <v>0.002000838896033556</v>
       </c>
       <c r="T34" t="n">
-        <v>0.001954291950171678</v>
+        <v>0.002000838896033556</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002236529177461167</v>
+        <v>0.002446926337877053</v>
       </c>
       <c r="V34" t="n">
         <v>0.001449329337973173</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.004607597560303902</v>
+        <v>-0.00460752402430096</v>
       </c>
       <c r="X34" t="n">
-        <v>0.03070304958520991</v>
+        <v>0.0303226855168526</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.004318430182024812</v>
+        <v>0.003824072511982494</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.002020495472819818</v>
+        <v>0.002607820808312832</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.005421841464873658</v>
+        <v>0.005025326793013071</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.005421841464873658</v>
+        <v>0.005025326793013071</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.005421841464873658</v>
+        <v>0.005025326793013071</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.005421841464873658</v>
+        <v>0.005025326793013071</v>
       </c>
       <c r="AE34" t="inlineStr"/>
     </row>
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.02485403801816152</v>
+        <v>-0.02491475014859</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -3647,74 +3647,74 @@
         <v>0.01575157675806307</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006909993960637377</v>
+        <v>0.007863083174490745</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01928360975173795</v>
+        <v>0.01935962819690405</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005130238573209542</v>
+        <v>0.005147896525915861</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.002124125563643274</v>
+        <v>-0.003141825495701727</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05358215215928608</v>
+        <v>0.05367154409886175</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05358215215928608</v>
+        <v>0.05367154409886175</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05358215215928608</v>
+        <v>0.05367154409886175</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05358215215928608</v>
+        <v>0.05367154409886175</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>0.04841536484861459</v>
+        <v>0.04853278658131146</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05450022573200902</v>
+        <v>0.05458843821553752</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05450022573200902</v>
+        <v>0.05458843821553752</v>
       </c>
       <c r="S35" t="n">
-        <v>0.05450022573200902</v>
+        <v>0.05458843821553752</v>
       </c>
       <c r="T35" t="n">
-        <v>0.05450022573200902</v>
+        <v>0.05458843821553752</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01635628452625138</v>
+        <v>0.0151123975964959</v>
       </c>
       <c r="V35" t="n">
         <v>0.01670869074834763</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.03161468017658721</v>
+        <v>-0.03161469726458789</v>
       </c>
       <c r="X35" t="n">
-        <v>0.001933970566769358</v>
+        <v>0.002359895375232285</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.01907869972541084</v>
+        <v>-0.01759645423882936</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.02476979926279197</v>
+        <v>-0.02308086457123458</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.04169283939571357</v>
+        <v>-0.04053380389335215</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.04169283939571357</v>
+        <v>-0.04053380389335215</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.04169283939571357</v>
+        <v>-0.04053380389335215</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.04169283939571357</v>
+        <v>-0.04053380389335215</v>
       </c>
       <c r="AE35" t="inlineStr"/>
     </row>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.009632774113310963</v>
+        <v>-0.009627968353118733</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -3742,74 +3742,74 @@
         <v>-0.01397647486305899</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006522350933520731</v>
+        <v>0.00666834502419412</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01149194097927776</v>
+        <v>-0.01148811545690128</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003096238971849558</v>
+        <v>0.003087690075507602</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0003263291660791455</v>
+        <v>-0.0006123326664478724</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.01150643575625743</v>
+        <v>-0.01150640023625601</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.01150643575625743</v>
+        <v>-0.01150640023625601</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01150643575625743</v>
+        <v>-0.01150640023625601</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.01150643575625743</v>
+        <v>-0.01150640023625601</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>-0.01244366555374662</v>
+        <v>-0.01246790881871635</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.01142873661714946</v>
+        <v>-0.01142168436086737</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01142873661714946</v>
+        <v>-0.01142168436086737</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.01142873661714946</v>
+        <v>-0.01142168436086737</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.01142873661714946</v>
+        <v>-0.01142168436086737</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01533203523728141</v>
+        <v>0.01531929373277175</v>
       </c>
       <c r="V36" t="n">
         <v>0.005857503306300131</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.01058028387921135</v>
+        <v>-0.01058019479120779</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01967052566724941</v>
+        <v>0.01979839086583267</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.008270962092382992</v>
+        <v>0.008007285250677228</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.004407063632282545</v>
+        <v>0.004571181686847267</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01198870723154829</v>
+        <v>0.01140526663221066</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01198870723154829</v>
+        <v>0.01140526663221066</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01198870723154829</v>
+        <v>0.01140526663221066</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.01198870723154829</v>
+        <v>0.01140526663221066</v>
       </c>
       <c r="AE36" t="inlineStr"/>
     </row>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.000401819152072766</v>
+        <v>-0.0004484386739375469</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -3837,74 +3837,74 @@
         <v>0.00218023275920931</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01105612403123625</v>
+        <v>-0.01185617944151636</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002017247994156043</v>
+        <v>0.002256778648777794</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02291067797242712</v>
+        <v>0.0229251226130049</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01496156555750178</v>
+        <v>0.01451847504308197</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006818576240743049</v>
+        <v>0.007013533048541321</v>
       </c>
       <c r="L37" t="n">
-        <v>0.006818576240743049</v>
+        <v>0.007013533048541321</v>
       </c>
       <c r="M37" t="n">
-        <v>0.006818576240743049</v>
+        <v>0.007013533048541321</v>
       </c>
       <c r="N37" t="n">
-        <v>0.006818576240743049</v>
+        <v>0.007013533048541321</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0.005444234041769361</v>
+        <v>0.005606314880252594</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.006881901011276039</v>
+        <v>0.007076590843063633</v>
       </c>
       <c r="R37" t="n">
-        <v>0.006881901011276039</v>
+        <v>0.007076590843063633</v>
       </c>
       <c r="S37" t="n">
-        <v>0.006881901011276039</v>
+        <v>0.007076590843063633</v>
       </c>
       <c r="T37" t="n">
-        <v>0.006881901011276039</v>
+        <v>0.007076590843063633</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01342928943317158</v>
+        <v>0.01336176187847047</v>
       </c>
       <c r="V37" t="n">
         <v>-0.01626292625051705</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01320046804801872</v>
+        <v>0.01320034795201392</v>
       </c>
       <c r="X37" t="n">
-        <v>0.009717113454635983</v>
+        <v>0.01061564769828904</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.02231410457928619</v>
+        <v>-0.02224120417094927</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.01276189183847567</v>
+        <v>-0.01289393830775753</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.009945175021806999</v>
+        <v>-0.010147150005886</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.009945175021806999</v>
+        <v>-0.010147150005886</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.009945175021806999</v>
+        <v>-0.010147150005886</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.009945175021806999</v>
+        <v>-0.010147150005886</v>
       </c>
       <c r="AE37" t="inlineStr"/>
     </row>
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.005352582454103297</v>
+        <v>0.005308471700338868</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -3932,74 +3932,74 @@
         <v>0.009174957102998283</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01080927568040106</v>
+        <v>-0.01040661403009835</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01146133488025673</v>
+        <v>0.01162710252454669</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01057929882317195</v>
+        <v>0.010596700167868</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.001446210350395299</v>
+        <v>-0.0008195700353988689</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01378669399146776</v>
+        <v>0.01392404532496181</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01378669399146776</v>
+        <v>0.01392404532496181</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01378669399146776</v>
+        <v>0.01392404532496181</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01378669399146776</v>
+        <v>0.01392404532496181</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>0.01371540986061639</v>
+        <v>0.01382646429705857</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01371296934851877</v>
+        <v>0.01386148279445931</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01371296934851877</v>
+        <v>0.01386148279445931</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01371296934851877</v>
+        <v>0.01386148279445931</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01371296934851877</v>
+        <v>0.01386148279445931</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.007772414614896583</v>
+        <v>-0.006789073231562929</v>
       </c>
       <c r="V38" t="n">
         <v>-0.004023634240945369</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006658595978343838</v>
+        <v>0.006658651370346054</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.0003220590099400948</v>
+        <v>-0.0005249398210185762</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01525210624262742</v>
+        <v>0.01484453371241022</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.001349624693984988</v>
+        <v>-0.00240466800018672</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.009902622252104889</v>
+        <v>0.009881501963260078</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.009902622252104889</v>
+        <v>0.009881501963260078</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.009902622252104889</v>
+        <v>0.009881501963260078</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.009902622252104889</v>
+        <v>0.009881501963260078</v>
       </c>
       <c r="AE38" t="inlineStr"/>
     </row>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.008648272569930901</v>
+        <v>0.008695327355813093</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -4027,74 +4027,74 @@
         <v>-0.006649703497988138</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.003240044083750828</v>
+        <v>-0.002618136570503801</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01413749811961188</v>
+        <v>-0.01423509746844512</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.00876970326278813</v>
+        <v>-0.008765143934605755</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01453394976305273</v>
+        <v>-0.0140155514213597</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.001851510602060424</v>
+        <v>-0.001962478638499145</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.001851510602060424</v>
+        <v>-0.001962478638499145</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.001851510602060424</v>
+        <v>-0.001962478638499145</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.001851510602060424</v>
+        <v>-0.001962478638499145</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>-0.0006623790024951601</v>
+        <v>-0.0007997409919896396</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.002035037937401517</v>
+        <v>-0.002164641398585656</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.002035037937401517</v>
+        <v>-0.002164641398585656</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.002035037937401517</v>
+        <v>-0.002164641398585656</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.002035037937401517</v>
+        <v>-0.002164641398585656</v>
       </c>
       <c r="U39" t="n">
-        <v>0.002098851443954058</v>
+        <v>0.001955740590229623</v>
       </c>
       <c r="V39" t="n">
         <v>-0.0266809526512381</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.002625410697016428</v>
+        <v>-0.002625326217013048</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02124774543393007</v>
+        <v>0.02150576941385072</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.006936662167664353</v>
+        <v>-0.007185437729526581</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0105454775418191</v>
+        <v>0.01096518936660757</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.04217263973490559</v>
+        <v>-0.0425371726774869</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.04217263973490559</v>
+        <v>-0.0425371726774869</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.04217263973490559</v>
+        <v>-0.0425371726774869</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.04217263973490559</v>
+        <v>-0.0425371726774869</v>
       </c>
       <c r="AE39" t="inlineStr"/>
     </row>
